--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc so do tuyen/CF0143_Danh muc so do tuyen.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc so do tuyen/CF0143_Danh muc so do tuyen.xlsx
@@ -1391,7 +1391,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="301">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2239,10 +2239,6 @@
     <t>1. In</t>
   </si>
   <si>
-    <t>@RouteID
-@TableID</t>
-  </si>
-  <si>
     <t>Xoá tuyến được chọn Detail</t>
   </si>
   <si>
@@ -2367,10 +2363,6 @@
  @IsEdit TINYINT  ----  =0  la Xoa,  = 1 la Sua</t>
   </si>
   <si>
-    <t>Grid.RouteID
-'CT0143'</t>
-  </si>
-  <si>
     <t>DELETE FROM CT0144
 WHERE DivisionID = @DivisionID AND RouteID = @RouteID</t>
   </si>
@@ -2405,86 +2397,112 @@
 @RouteIDList</t>
   </si>
   <si>
+    <t>Truy vấn danh mục sơ đồ tuyến</t>
+  </si>
+  <si>
+    <t>@DivisionID, @RouteID, @APK</t>
+  </si>
+  <si>
+    <t>- Thực thi  @SQL0001 Load lưới truy vấn</t>
+  </si>
+  <si>
+    <t>1. Thêm</t>
+  </si>
+  <si>
+    <t>2. Sửa</t>
+  </si>
+  <si>
+    <t>3. Xem</t>
+  </si>
+  <si>
+    <t>4. Xóa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click LinkDele Confirm message @CFML000038, nếu OK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Thực thi @SQL0002 Kiểm tra trước khi xóa, nếu không thỏa thì hiển thị message CFML000064 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Tìm kiếm </t>
+  </si>
+  <si>
+    <t>- Click LinkSearch Gọi màn hình Thanh tìm kiếm - AS0060</t>
+  </si>
+  <si>
+    <t>- Click System Gọi màn hình Thông tin Hệ thống AS0059</t>
+  </si>
+  <si>
+    <t>- Click Excel Gọi màn hình  Xuất dữ liệu ra Excel - AS0062</t>
+  </si>
+  <si>
+    <t>- Click LinkAdd Gọi màn hình CF0144- Cập nhật sơ đồ tuyến (dạng thêm mới)</t>
+  </si>
+  <si>
+    <t>- Click LinkView Gọi màn hình CF0144 - Cập nhật sơ đồ tuyến (dạng View)</t>
+  </si>
+  <si>
+    <t>- Nếu thỏa thực thi @SQL0003 và @SQL004 để xóa tuyến được chọn, thực thi @SQL0001 đển load lại dữ liệu lên gird</t>
+  </si>
+  <si>
+    <t>6. In</t>
+  </si>
+  <si>
+    <t>7. Thông tin hệ thống</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Xuất Excel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Thực thi @SQL0005 gọi store in báo cáo sơ đồ tuyến </t>
+  </si>
+  <si>
+    <t>- Thực hiện in mẫu báo cáo sơ đồ tuyến AR0135</t>
+  </si>
+  <si>
+    <t>Tham khảo luồng nghiệp vụ 6</t>
+  </si>
+  <si>
+    <t>Tham khảo luồng nghiệp vụ 4</t>
+  </si>
+  <si>
+    <t>- Click LinkEdit Gọi màn hình CF0144 - Cập nhật sơ đồ tuyến (dạng Edit)</t>
+  </si>
+  <si>
+    <t>Click Print</t>
+  </si>
+  <si>
+    <t>Truyền tham số @DivisionID để in mẫu báo cáo AR0135</t>
+  </si>
+  <si>
+    <t>CT0143</t>
+  </si>
+  <si>
+    <t>CT0144</t>
+  </si>
+  <si>
+    <t>RouteID RouteName Description Disabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mã số tuyên Tên tuyến
+Diễn giải
+Không hiển thị </t>
+  </si>
+  <si>
+    <t>@DivisionID
+@KeyID
+@TableID
+@IsEdit</t>
+  </si>
+  <si>
     <t>@@DivisionID
-Danh sách Grid.RouteID trên lưới</t>
-  </si>
-  <si>
-    <t>Truy vấn danh mục sơ đồ tuyến</t>
-  </si>
-  <si>
-    <t>@DivisionID, @RouteID, @APK</t>
-  </si>
-  <si>
-    <t>- Thực thi  @SQL0001 Load lưới truy vấn</t>
-  </si>
-  <si>
-    <t>1. Thêm</t>
-  </si>
-  <si>
-    <t>2. Sửa</t>
-  </si>
-  <si>
-    <t>3. Xem</t>
-  </si>
-  <si>
-    <t>4. Xóa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click LinkDele Confirm message @CFML000038, nếu OK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Thực thi @SQL0002 Kiểm tra trước khi xóa, nếu không thỏa thì hiển thị message CFML000064 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Tìm kiếm </t>
-  </si>
-  <si>
-    <t>- Click LinkSearch Gọi màn hình Thanh tìm kiếm - AS0060</t>
-  </si>
-  <si>
-    <t>- Click System Gọi màn hình Thông tin Hệ thống AS0059</t>
-  </si>
-  <si>
-    <t>- Click Excel Gọi màn hình  Xuất dữ liệu ra Excel - AS0062</t>
-  </si>
-  <si>
-    <t>- Click LinkAdd Gọi màn hình CF0144- Cập nhật sơ đồ tuyến (dạng thêm mới)</t>
-  </si>
-  <si>
-    <t>- Click LinkView Gọi màn hình CF0144 - Cập nhật sơ đồ tuyến (dạng View)</t>
-  </si>
-  <si>
-    <t>- Nếu thỏa thực thi @SQL0003 và @SQL004 để xóa tuyến được chọn, thực thi @SQL0001 đển load lại dữ liệu lên gird</t>
-  </si>
-  <si>
-    <t>6. In</t>
-  </si>
-  <si>
-    <t>7. Thông tin hệ thống</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8. Xuất Excel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Thực thi @SQL0005 gọi store in báo cáo sơ đồ tuyến </t>
-  </si>
-  <si>
-    <t>- Thực hiện in mẫu báo cáo sơ đồ tuyến AR0135</t>
-  </si>
-  <si>
-    <t>Tham khảo luồng nghiệp vụ 6</t>
-  </si>
-  <si>
-    <t>Tham khảo luồng nghiệp vụ 4</t>
-  </si>
-  <si>
-    <t>- Click LinkEdit Gọi màn hình CF0144 - Cập nhật sơ đồ tuyến (dạng Edit)</t>
-  </si>
-  <si>
-    <t>Click Print</t>
-  </si>
-  <si>
-    <t>Truyền tham số @DivisionID để in mẫu báo cáo AR0135</t>
+@@KeyID
+@@TableID
+0</t>
+  </si>
+  <si>
+    <t>@@DivisionID
+@@RouteIDList</t>
   </si>
 </sst>
 </file>
@@ -2943,7 +2961,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3253,9 +3271,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3306,6 +3321,12 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3333,6 +3354,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3402,39 +3426,39 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3458,9 +3482,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3845,10 +3866,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
+      <c r="B1" s="151"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -3859,24 +3880,24 @@
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="100" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I1" s="31" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="100" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="151"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -3915,14 +3936,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="151" t="s">
+      <c r="E4" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="40">
@@ -3936,16 +3957,16 @@
         <v>42382</v>
       </c>
       <c r="D5" s="101" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="153" t="s">
         <v>226</v>
       </c>
-      <c r="E5" s="152" t="s">
-        <v>227</v>
-      </c>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="91">
@@ -3956,12 +3977,12 @@
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="157"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="92">
@@ -3972,12 +3993,12 @@
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="147"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="93">
@@ -3988,12 +4009,12 @@
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="149"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="150"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="94">
@@ -4004,12 +4025,12 @@
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="146"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="147"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="95">
@@ -4020,12 +4041,12 @@
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="146"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="147"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="96">
@@ -4036,12 +4057,12 @@
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="146"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="147"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="97">
@@ -4052,12 +4073,12 @@
       </c>
       <c r="C12" s="79"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="146"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="147"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="98">
@@ -4068,12 +4089,12 @@
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="146"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="147"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="99">
@@ -4084,12 +4105,12 @@
       </c>
       <c r="C14" s="79"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="146"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="147"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40">
@@ -4100,12 +4121,12 @@
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="143"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="154"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="91">
@@ -4116,12 +4137,12 @@
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="143"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="92">
@@ -4132,12 +4153,12 @@
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="143"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="93">
@@ -4148,12 +4169,12 @@
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="143"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="154"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="94">
@@ -4164,12 +4185,12 @@
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="143"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="95">
@@ -4180,12 +4201,12 @@
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="154"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="96">
@@ -4196,12 +4217,12 @@
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="143"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="154"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="97">
@@ -4212,12 +4233,12 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="143"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="98">
@@ -4228,12 +4249,12 @@
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="143"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="154"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="99">
@@ -4244,12 +4265,12 @@
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="143"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="154"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="40">
@@ -4260,12 +4281,12 @@
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="143"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="154"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="91">
@@ -4276,12 +4297,12 @@
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="143"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="92">
@@ -4292,12 +4313,12 @@
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="154"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="154"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="93">
@@ -4308,12 +4329,12 @@
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="143"/>
-      <c r="J28" s="143"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="94">
@@ -4324,12 +4345,12 @@
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="143"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="143"/>
-      <c r="H29" s="143"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="143"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="95">
@@ -4340,12 +4361,12 @@
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="143"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="154"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="96">
@@ -4356,12 +4377,12 @@
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="143"/>
-      <c r="F31" s="143"/>
-      <c r="G31" s="143"/>
-      <c r="H31" s="143"/>
-      <c r="I31" s="143"/>
-      <c r="J31" s="143"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="154"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="154"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="97">
@@ -4372,12 +4393,12 @@
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="143"/>
-      <c r="F32" s="143"/>
-      <c r="G32" s="143"/>
-      <c r="H32" s="143"/>
-      <c r="I32" s="143"/>
-      <c r="J32" s="143"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="154"/>
+      <c r="I32" s="154"/>
+      <c r="J32" s="154"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="98">
@@ -4388,12 +4409,12 @@
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="143"/>
-      <c r="F33" s="143"/>
-      <c r="G33" s="143"/>
-      <c r="H33" s="143"/>
-      <c r="I33" s="143"/>
-      <c r="J33" s="143"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="154"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="99">
@@ -4404,12 +4425,12 @@
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="143"/>
-      <c r="F34" s="143"/>
-      <c r="G34" s="143"/>
-      <c r="H34" s="143"/>
-      <c r="I34" s="143"/>
-      <c r="J34" s="143"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="154"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="40">
@@ -4420,12 +4441,12 @@
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="143"/>
-      <c r="F35" s="143"/>
-      <c r="G35" s="143"/>
-      <c r="H35" s="143"/>
-      <c r="I35" s="143"/>
-      <c r="J35" s="143"/>
+      <c r="E35" s="154"/>
+      <c r="F35" s="154"/>
+      <c r="G35" s="154"/>
+      <c r="H35" s="154"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="154"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="91">
@@ -4436,12 +4457,12 @@
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="143"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="143"/>
-      <c r="I36" s="143"/>
-      <c r="J36" s="143"/>
+      <c r="E36" s="154"/>
+      <c r="F36" s="154"/>
+      <c r="G36" s="154"/>
+      <c r="H36" s="154"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="154"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="92">
@@ -4452,12 +4473,12 @@
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="143"/>
-      <c r="F37" s="143"/>
-      <c r="G37" s="143"/>
-      <c r="H37" s="143"/>
-      <c r="I37" s="143"/>
-      <c r="J37" s="143"/>
+      <c r="E37" s="154"/>
+      <c r="F37" s="154"/>
+      <c r="G37" s="154"/>
+      <c r="H37" s="154"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="154"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="93">
@@ -4468,12 +4489,12 @@
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="143"/>
-      <c r="F38" s="143"/>
-      <c r="G38" s="143"/>
-      <c r="H38" s="143"/>
-      <c r="I38" s="143"/>
-      <c r="J38" s="143"/>
+      <c r="E38" s="154"/>
+      <c r="F38" s="154"/>
+      <c r="G38" s="154"/>
+      <c r="H38" s="154"/>
+      <c r="I38" s="154"/>
+      <c r="J38" s="154"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="94">
@@ -4484,12 +4505,12 @@
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="143"/>
-      <c r="F39" s="143"/>
-      <c r="G39" s="143"/>
-      <c r="H39" s="143"/>
-      <c r="I39" s="143"/>
-      <c r="J39" s="143"/>
+      <c r="E39" s="154"/>
+      <c r="F39" s="154"/>
+      <c r="G39" s="154"/>
+      <c r="H39" s="154"/>
+      <c r="I39" s="154"/>
+      <c r="J39" s="154"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="95">
@@ -4500,12 +4521,12 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="143"/>
-      <c r="F40" s="143"/>
-      <c r="G40" s="143"/>
-      <c r="H40" s="143"/>
-      <c r="I40" s="143"/>
-      <c r="J40" s="143"/>
+      <c r="E40" s="154"/>
+      <c r="F40" s="154"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="154"/>
+      <c r="I40" s="154"/>
+      <c r="J40" s="154"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="96">
@@ -4516,12 +4537,12 @@
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="143"/>
-      <c r="F41" s="143"/>
-      <c r="G41" s="143"/>
-      <c r="H41" s="143"/>
-      <c r="I41" s="143"/>
-      <c r="J41" s="143"/>
+      <c r="E41" s="154"/>
+      <c r="F41" s="154"/>
+      <c r="G41" s="154"/>
+      <c r="H41" s="154"/>
+      <c r="I41" s="154"/>
+      <c r="J41" s="154"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="97">
@@ -4532,23 +4553,32 @@
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="143"/>
-      <c r="F42" s="143"/>
-      <c r="G42" s="143"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="143"/>
-      <c r="J42" s="143"/>
+      <c r="E42" s="154"/>
+      <c r="F42" s="154"/>
+      <c r="G42" s="154"/>
+      <c r="H42" s="154"/>
+      <c r="I42" s="154"/>
+      <c r="J42" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -4564,23 +4594,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -4795,10 +4816,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
+      <c r="B1" s="151"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -4829,8 +4850,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="151"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -4861,20 +4882,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="156" t="s">
+      <c r="A4" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="158"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="156" t="s">
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="157"/>
+      <c r="J4" s="159"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="42"/>
@@ -4885,10 +4906,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="165" t="s">
-        <v>228</v>
-      </c>
-      <c r="J5" s="166"/>
+      <c r="I5" s="167" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" s="168"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42"/>
@@ -4899,8 +4920,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="168"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="170"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="42"/>
@@ -4911,8 +4932,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="168"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="170"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="42"/>
@@ -4923,8 +4944,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="168"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="170"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="42"/>
@@ -4935,8 +4956,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="168"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="170"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="42"/>
@@ -4947,8 +4968,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="170"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="172"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="42"/>
@@ -4959,10 +4980,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="156" t="s">
+      <c r="I11" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="157"/>
+      <c r="J11" s="159"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="42"/>
@@ -4973,10 +4994,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="159" t="s">
+      <c r="I12" s="161" t="s">
         <v>172</v>
       </c>
-      <c r="J12" s="160"/>
+      <c r="J12" s="162"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="42"/>
@@ -4987,8 +5008,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="161"/>
-      <c r="J13" s="162"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="164"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="42"/>
@@ -4999,8 +5020,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="162"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="164"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="42"/>
@@ -5011,8 +5032,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="162"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="164"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="42"/>
@@ -5023,8 +5044,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="161"/>
-      <c r="J16" s="162"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="164"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="42"/>
@@ -5035,8 +5056,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="161"/>
-      <c r="J17" s="162"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="164"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="42"/>
@@ -5047,8 +5068,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="162"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="164"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="42"/>
@@ -5059,8 +5080,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="162"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="164"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="42"/>
@@ -5071,8 +5092,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="162"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="164"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="42"/>
@@ -5083,8 +5104,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="162"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="164"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="42"/>
@@ -5095,8 +5116,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="162"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="164"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
@@ -5107,8 +5128,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="162"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="164"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="42"/>
@@ -5119,8 +5140,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="162"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="164"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="42"/>
@@ -5131,8 +5152,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="162"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="164"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="42"/>
@@ -5143,8 +5164,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="162"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="164"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="42"/>
@@ -5155,8 +5176,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="161"/>
-      <c r="J27" s="162"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="164"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="42"/>
@@ -5167,8 +5188,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="162"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="164"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="42"/>
@@ -5179,8 +5200,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="161"/>
-      <c r="J29" s="162"/>
+      <c r="I29" s="163"/>
+      <c r="J29" s="164"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="42"/>
@@ -5191,8 +5212,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="161"/>
-      <c r="J30" s="162"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="164"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="42"/>
@@ -5203,8 +5224,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="161"/>
-      <c r="J31" s="162"/>
+      <c r="I31" s="163"/>
+      <c r="J31" s="164"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="42"/>
@@ -5215,8 +5236,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="161"/>
-      <c r="J32" s="162"/>
+      <c r="I32" s="163"/>
+      <c r="J32" s="164"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="42"/>
@@ -5227,8 +5248,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="161"/>
-      <c r="J33" s="162"/>
+      <c r="I33" s="163"/>
+      <c r="J33" s="164"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="42"/>
@@ -5239,8 +5260,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="161"/>
-      <c r="J34" s="162"/>
+      <c r="I34" s="163"/>
+      <c r="J34" s="164"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="42"/>
@@ -5251,8 +5272,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="161"/>
-      <c r="J35" s="162"/>
+      <c r="I35" s="163"/>
+      <c r="J35" s="164"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="42"/>
@@ -5263,8 +5284,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="161"/>
-      <c r="J36" s="162"/>
+      <c r="I36" s="163"/>
+      <c r="J36" s="164"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="42"/>
@@ -5275,8 +5296,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="161"/>
-      <c r="J37" s="162"/>
+      <c r="I37" s="163"/>
+      <c r="J37" s="164"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="42"/>
@@ -5287,8 +5308,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="161"/>
-      <c r="J38" s="162"/>
+      <c r="I38" s="163"/>
+      <c r="J38" s="164"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="42"/>
@@ -5299,8 +5320,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="161"/>
-      <c r="J39" s="162"/>
+      <c r="I39" s="163"/>
+      <c r="J39" s="164"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="42"/>
@@ -5311,8 +5332,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="161"/>
-      <c r="J40" s="162"/>
+      <c r="I40" s="163"/>
+      <c r="J40" s="164"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="42"/>
@@ -5323,8 +5344,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="161"/>
-      <c r="J41" s="162"/>
+      <c r="I41" s="163"/>
+      <c r="J41" s="164"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="42"/>
@@ -5335,8 +5356,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="161"/>
-      <c r="J42" s="162"/>
+      <c r="I42" s="163"/>
+      <c r="J42" s="164"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="47"/>
@@ -5347,8 +5368,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="163"/>
-      <c r="J43" s="164"/>
+      <c r="I43" s="165"/>
+      <c r="J43" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5407,13 +5428,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -5421,16 +5442,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="171" t="s">
+      <c r="H1" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="172"/>
-      <c r="J1" s="173" t="str">
+      <c r="I1" s="174"/>
+      <c r="J1" s="175" t="str">
         <f>'Update History'!F1</f>
         <v>CF0143</v>
       </c>
-      <c r="K1" s="174"/>
-      <c r="L1" s="175"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="177"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -5447,11 +5468,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -5459,16 +5480,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="H2" s="171" t="s">
+      <c r="H2" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="172"/>
-      <c r="J2" s="173" t="str">
+      <c r="I2" s="174"/>
+      <c r="J2" s="175" t="str">
         <f>'Update History'!F2</f>
         <v>Danh mục sơ đồ tuyến</v>
       </c>
-      <c r="K2" s="174"/>
-      <c r="L2" s="175"/>
+      <c r="K2" s="176"/>
+      <c r="L2" s="177"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -5489,10 +5510,10 @@
         <v>45</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>240</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>241</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>109</v>
@@ -5539,7 +5560,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C5" s="33">
         <v>51</v>
@@ -5573,7 +5594,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C6" s="33">
         <v>51</v>
@@ -5601,7 +5622,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C7" s="33">
         <v>51</v>
@@ -5635,7 +5656,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C8" s="33">
         <v>51</v>
@@ -5673,7 +5694,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C9" s="33">
         <v>51</v>
@@ -5711,7 +5732,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C10" s="33">
         <v>51</v>
@@ -5749,7 +5770,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C11" s="33">
         <v>51</v>
@@ -5787,7 +5808,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C12" s="33">
         <v>51</v>
@@ -5819,7 +5840,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C13" s="33">
         <v>51</v>
@@ -5851,7 +5872,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="33">
         <v>51</v>
@@ -5883,7 +5904,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C15" s="33">
         <v>51</v>
@@ -5909,7 +5930,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C16" s="33">
         <v>51</v>
@@ -5920,8 +5941,8 @@
       <c r="E16" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="F16" s="131" t="s">
-        <v>229</v>
+      <c r="F16" s="130" t="s">
+        <v>228</v>
       </c>
       <c r="G16" s="88"/>
       <c r="H16" s="40" t="s">
@@ -5941,7 +5962,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C17" s="33">
         <v>51</v>
@@ -5952,8 +5973,8 @@
       <c r="E17" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="F17" s="131" t="s">
-        <v>230</v>
+      <c r="F17" s="130" t="s">
+        <v>229</v>
       </c>
       <c r="G17" s="88"/>
       <c r="H17" s="40" t="s">
@@ -5973,7 +5994,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C18" s="33">
         <v>51</v>
@@ -5984,8 +6005,8 @@
       <c r="E18" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="F18" s="131" t="s">
-        <v>231</v>
+      <c r="F18" s="130" t="s">
+        <v>230</v>
       </c>
       <c r="G18" s="88"/>
       <c r="H18" s="40" t="s">
@@ -6005,7 +6026,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C19" s="33">
         <v>51</v>
@@ -6016,8 +6037,8 @@
       <c r="E19" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="F19" s="131" t="s">
-        <v>232</v>
+      <c r="F19" s="130" t="s">
+        <v>231</v>
       </c>
       <c r="G19" s="84"/>
       <c r="H19" s="40" t="s">
@@ -6037,7 +6058,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C20" s="33">
         <v>51</v>
@@ -6048,8 +6069,8 @@
       <c r="E20" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="F20" s="131" t="s">
-        <v>233</v>
+      <c r="F20" s="130" t="s">
+        <v>232</v>
       </c>
       <c r="G20" s="88"/>
       <c r="H20" s="40" t="s">
@@ -6069,7 +6090,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C21" s="33">
         <v>51</v>
@@ -6080,8 +6101,8 @@
       <c r="E21" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="F21" s="131" t="s">
-        <v>234</v>
+      <c r="F21" s="130" t="s">
+        <v>233</v>
       </c>
       <c r="G21" s="88"/>
       <c r="H21" s="40" t="s">
@@ -6099,7 +6120,7 @@
     <row r="22" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33"/>
       <c r="B22" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C22" s="33">
         <v>51</v>
@@ -6131,7 +6152,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C23" s="33">
         <v>51</v>
@@ -6163,7 +6184,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C24" s="33">
         <v>51</v>
@@ -6938,7 +6959,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>104</v>
@@ -6975,24 +6996,24 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="130" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="131" t="s">
+      <c r="D5" s="130" t="s">
         <v>236</v>
-      </c>
-      <c r="D5" s="131" t="s">
-        <v>237</v>
       </c>
       <c r="E5" s="40"/>
       <c r="F5" s="62"/>
-      <c r="G5" s="131" t="s">
+      <c r="G5" s="130" t="s">
         <v>197</v>
       </c>
-      <c r="H5" s="131" t="s">
+      <c r="H5" s="130" t="s">
         <v>152</v>
       </c>
       <c r="I5" s="63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J5" s="69"/>
     </row>
@@ -7001,24 +7022,24 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="130" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="131" t="s">
+      <c r="D6" s="130" t="s">
         <v>236</v>
-      </c>
-      <c r="D6" s="131" t="s">
-        <v>237</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="62"/>
-      <c r="G6" s="131" t="s">
+      <c r="G6" s="130" t="s">
         <v>197</v>
       </c>
-      <c r="H6" s="131" t="s">
+      <c r="H6" s="130" t="s">
         <v>152</v>
       </c>
       <c r="I6" s="63" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J6" s="69"/>
     </row>
@@ -7859,11 +7880,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="141"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="140"/>
       <c r="D1" s="31" t="s">
         <v>1</v>
       </c>
@@ -7896,9 +7917,9 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="181"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="142"/>
+      <c r="A2" s="188"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="141"/>
       <c r="D2" s="31" t="s">
         <v>2</v>
       </c>
@@ -7934,11 +7955,11 @@
       <c r="A4" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="128" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="139" t="s">
         <v>240</v>
-      </c>
-      <c r="C4" s="140" t="s">
-        <v>241</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>130</v>
@@ -7949,204 +7970,204 @@
       <c r="F4" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="150" t="s">
+      <c r="G4" s="151" t="s">
         <v>132</v>
       </c>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150" t="s">
+      <c r="H4" s="151"/>
+      <c r="I4" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C5" s="33">
         <v>51</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="E5" s="137" t="s">
+        <v>241</v>
+      </c>
+      <c r="E5" s="136" t="s">
         <v>135</v>
       </c>
       <c r="F5" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="G5" s="176" t="s">
-        <v>250</v>
-      </c>
-      <c r="H5" s="177"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="183"/>
-      <c r="K5" s="184"/>
+      <c r="G5" s="185" t="s">
+        <v>249</v>
+      </c>
+      <c r="H5" s="186"/>
+      <c r="I5" s="178"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="180"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C6" s="33">
         <v>51</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="E6" s="138" t="s">
-        <v>257</v>
+        <v>242</v>
+      </c>
+      <c r="E6" s="137" t="s">
+        <v>256</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="G6" s="178" t="s">
-        <v>258</v>
-      </c>
-      <c r="H6" s="179"/>
-      <c r="I6" s="182"/>
-      <c r="J6" s="183"/>
-      <c r="K6" s="184"/>
+      <c r="G6" s="183" t="s">
+        <v>257</v>
+      </c>
+      <c r="H6" s="184"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="179"/>
+      <c r="K6" s="180"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C7" s="33">
         <v>51</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="E7" s="138" t="s">
-        <v>257</v>
+        <v>243</v>
+      </c>
+      <c r="E7" s="137" t="s">
+        <v>256</v>
       </c>
       <c r="F7" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="G7" s="178" t="s">
-        <v>258</v>
-      </c>
-      <c r="H7" s="179"/>
-      <c r="I7" s="182"/>
-      <c r="J7" s="183"/>
-      <c r="K7" s="184"/>
+      <c r="G7" s="183" t="s">
+        <v>257</v>
+      </c>
+      <c r="H7" s="184"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="179"/>
+      <c r="K7" s="180"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C8" s="33">
         <v>51</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="E8" s="137" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="136" t="s">
         <v>135</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="G8" s="176" t="s">
-        <v>246</v>
-      </c>
-      <c r="H8" s="177"/>
-      <c r="I8" s="182"/>
-      <c r="J8" s="183"/>
-      <c r="K8" s="184"/>
+      <c r="G8" s="185" t="s">
+        <v>245</v>
+      </c>
+      <c r="H8" s="186"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="180"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C9" s="33">
         <v>51</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="E9" s="137" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="136" t="s">
         <v>135</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="G9" s="178" t="s">
-        <v>296</v>
-      </c>
-      <c r="H9" s="179"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="134"/>
+      <c r="G9" s="183" t="s">
+        <v>293</v>
+      </c>
+      <c r="H9" s="184"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="133"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
         <v>6</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C10" s="33">
         <v>51</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="E10" s="138" t="s">
-        <v>247</v>
+        <v>250</v>
+      </c>
+      <c r="E10" s="137" t="s">
+        <v>246</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="G10" s="176" t="s">
-        <v>248</v>
-      </c>
-      <c r="H10" s="177"/>
-      <c r="I10" s="182"/>
-      <c r="J10" s="183"/>
-      <c r="K10" s="184"/>
+      <c r="G10" s="185" t="s">
+        <v>247</v>
+      </c>
+      <c r="H10" s="186"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="180"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
         <v>7</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C11" s="33">
         <v>51</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="E11" s="137" t="s">
+        <v>251</v>
+      </c>
+      <c r="E11" s="136" t="s">
         <v>135</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="G11" s="176" t="s">
-        <v>249</v>
-      </c>
-      <c r="H11" s="177"/>
-      <c r="I11" s="182"/>
-      <c r="J11" s="183"/>
-      <c r="K11" s="184"/>
+      <c r="G11" s="185" t="s">
+        <v>248</v>
+      </c>
+      <c r="H11" s="186"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="180"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
@@ -8157,11 +8178,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="185"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="182"/>
-      <c r="J12" s="183"/>
-      <c r="K12" s="184"/>
+      <c r="G12" s="181"/>
+      <c r="H12" s="182"/>
+      <c r="I12" s="178"/>
+      <c r="J12" s="179"/>
+      <c r="K12" s="180"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
@@ -8172,11 +8193,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="185"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="182"/>
-      <c r="J13" s="183"/>
-      <c r="K13" s="184"/>
+      <c r="G13" s="181"/>
+      <c r="H13" s="182"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="179"/>
+      <c r="K13" s="180"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
@@ -8187,11 +8208,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="182"/>
-      <c r="J14" s="183"/>
-      <c r="K14" s="184"/>
+      <c r="G14" s="181"/>
+      <c r="H14" s="182"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="179"/>
+      <c r="K14" s="180"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -8202,11 +8223,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="184"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="179"/>
+      <c r="K15" s="180"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -8217,11 +8238,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="182"/>
-      <c r="J16" s="183"/>
-      <c r="K16" s="184"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="179"/>
+      <c r="K16" s="180"/>
     </row>
     <row r="17" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -8232,11 +8253,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="182"/>
-      <c r="J17" s="183"/>
-      <c r="K17" s="184"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="178"/>
+      <c r="J17" s="179"/>
+      <c r="K17" s="180"/>
     </row>
     <row r="18" spans="1:11" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -8247,11 +8268,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="186"/>
-      <c r="I18" s="182"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="184"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="182"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="179"/>
+      <c r="K18" s="180"/>
     </row>
     <row r="19" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -8262,11 +8283,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="185"/>
-      <c r="H19" s="186"/>
-      <c r="I19" s="182"/>
-      <c r="J19" s="183"/>
-      <c r="K19" s="184"/>
+      <c r="G19" s="181"/>
+      <c r="H19" s="182"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="179"/>
+      <c r="K19" s="180"/>
     </row>
     <row r="20" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
@@ -8277,11 +8298,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="185"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="182"/>
-      <c r="J20" s="183"/>
-      <c r="K20" s="184"/>
+      <c r="G20" s="181"/>
+      <c r="H20" s="182"/>
+      <c r="I20" s="178"/>
+      <c r="J20" s="179"/>
+      <c r="K20" s="180"/>
     </row>
     <row r="21" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
@@ -8292,11 +8313,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="185"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="183"/>
-      <c r="K21" s="184"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="179"/>
+      <c r="K21" s="180"/>
     </row>
     <row r="22" spans="1:11" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
@@ -8307,11 +8328,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="185"/>
-      <c r="H22" s="186"/>
-      <c r="I22" s="182"/>
-      <c r="J22" s="183"/>
-      <c r="K22" s="184"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="182"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="179"/>
+      <c r="K22" s="180"/>
     </row>
     <row r="23" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
@@ -8322,11 +8343,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="182"/>
-      <c r="J23" s="183"/>
-      <c r="K23" s="184"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="179"/>
+      <c r="K23" s="180"/>
     </row>
     <row r="24" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
@@ -8337,11 +8358,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="182"/>
-      <c r="J24" s="183"/>
-      <c r="K24" s="184"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="179"/>
+      <c r="K24" s="180"/>
     </row>
     <row r="25" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
@@ -8352,11 +8373,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="182"/>
-      <c r="J25" s="183"/>
-      <c r="K25" s="184"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="179"/>
+      <c r="K25" s="180"/>
     </row>
     <row r="26" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
@@ -8367,11 +8388,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="182"/>
-      <c r="J26" s="183"/>
-      <c r="K26" s="184"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="179"/>
+      <c r="K26" s="180"/>
     </row>
     <row r="27" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
@@ -8382,11 +8403,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="182"/>
-      <c r="J27" s="183"/>
-      <c r="K27" s="184"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="179"/>
+      <c r="K27" s="180"/>
     </row>
     <row r="28" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
@@ -8397,11 +8418,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="182"/>
-      <c r="J28" s="183"/>
-      <c r="K28" s="184"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="179"/>
+      <c r="K28" s="180"/>
     </row>
     <row r="29" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
@@ -8412,11 +8433,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="183"/>
-      <c r="K29" s="184"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="179"/>
+      <c r="K29" s="180"/>
     </row>
     <row r="30" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
@@ -8427,11 +8448,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="182"/>
-      <c r="J30" s="183"/>
-      <c r="K30" s="184"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="179"/>
+      <c r="K30" s="180"/>
     </row>
     <row r="31" spans="1:11" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
@@ -8442,11 +8463,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="182"/>
-      <c r="J31" s="183"/>
-      <c r="K31" s="184"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="179"/>
+      <c r="K31" s="180"/>
     </row>
     <row r="32" spans="1:11" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33">
@@ -8457,11 +8478,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="182"/>
-      <c r="J32" s="183"/>
-      <c r="K32" s="184"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="179"/>
+      <c r="K32" s="180"/>
     </row>
     <row r="33" spans="1:19" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A33" s="33">
@@ -8472,11 +8493,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="144"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="182"/>
-      <c r="J33" s="183"/>
-      <c r="K33" s="184"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="178"/>
+      <c r="J33" s="179"/>
+      <c r="K33" s="180"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -8494,11 +8515,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="144"/>
-      <c r="H34" s="146"/>
-      <c r="I34" s="182"/>
-      <c r="J34" s="183"/>
-      <c r="K34" s="184"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="147"/>
+      <c r="I34" s="178"/>
+      <c r="J34" s="179"/>
+      <c r="K34" s="180"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -8516,11 +8537,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="144"/>
-      <c r="H35" s="146"/>
-      <c r="I35" s="182"/>
-      <c r="J35" s="183"/>
-      <c r="K35" s="184"/>
+      <c r="G35" s="145"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="178"/>
+      <c r="J35" s="179"/>
+      <c r="K35" s="180"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -8538,11 +8559,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="144"/>
-      <c r="H36" s="146"/>
-      <c r="I36" s="182"/>
-      <c r="J36" s="183"/>
-      <c r="K36" s="184"/>
+      <c r="G36" s="145"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="178"/>
+      <c r="J36" s="179"/>
+      <c r="K36" s="180"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -8560,11 +8581,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="144"/>
-      <c r="H37" s="146"/>
-      <c r="I37" s="182"/>
-      <c r="J37" s="183"/>
-      <c r="K37" s="184"/>
+      <c r="G37" s="145"/>
+      <c r="H37" s="147"/>
+      <c r="I37" s="178"/>
+      <c r="J37" s="179"/>
+      <c r="K37" s="180"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -8582,11 +8603,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="144"/>
-      <c r="H38" s="146"/>
-      <c r="I38" s="182"/>
-      <c r="J38" s="183"/>
-      <c r="K38" s="184"/>
+      <c r="G38" s="145"/>
+      <c r="H38" s="147"/>
+      <c r="I38" s="178"/>
+      <c r="J38" s="179"/>
+      <c r="K38" s="180"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -8604,11 +8625,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="144"/>
-      <c r="H39" s="146"/>
-      <c r="I39" s="182"/>
-      <c r="J39" s="183"/>
-      <c r="K39" s="184"/>
+      <c r="G39" s="145"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="178"/>
+      <c r="J39" s="179"/>
+      <c r="K39" s="180"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -8626,11 +8647,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="144"/>
-      <c r="H40" s="146"/>
-      <c r="I40" s="182"/>
-      <c r="J40" s="183"/>
-      <c r="K40" s="184"/>
+      <c r="G40" s="145"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="178"/>
+      <c r="J40" s="179"/>
+      <c r="K40" s="180"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -8648,11 +8669,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="144"/>
-      <c r="H41" s="146"/>
-      <c r="I41" s="182"/>
-      <c r="J41" s="183"/>
-      <c r="K41" s="184"/>
+      <c r="G41" s="145"/>
+      <c r="H41" s="147"/>
+      <c r="I41" s="178"/>
+      <c r="J41" s="179"/>
+      <c r="K41" s="180"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -8670,11 +8691,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="144"/>
-      <c r="H42" s="146"/>
-      <c r="I42" s="182"/>
-      <c r="J42" s="183"/>
-      <c r="K42" s="184"/>
+      <c r="G42" s="145"/>
+      <c r="H42" s="147"/>
+      <c r="I42" s="178"/>
+      <c r="J42" s="179"/>
+      <c r="K42" s="180"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -8692,11 +8713,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="144"/>
-      <c r="H43" s="146"/>
-      <c r="I43" s="182"/>
-      <c r="J43" s="183"/>
-      <c r="K43" s="184"/>
+      <c r="G43" s="145"/>
+      <c r="H43" s="147"/>
+      <c r="I43" s="178"/>
+      <c r="J43" s="179"/>
+      <c r="K43" s="180"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -8714,11 +8735,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="144"/>
-      <c r="H44" s="146"/>
-      <c r="I44" s="182"/>
-      <c r="J44" s="183"/>
-      <c r="K44" s="184"/>
+      <c r="G44" s="145"/>
+      <c r="H44" s="147"/>
+      <c r="I44" s="178"/>
+      <c r="J44" s="179"/>
+      <c r="K44" s="180"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -8736,11 +8757,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="144"/>
-      <c r="H45" s="146"/>
-      <c r="I45" s="182"/>
-      <c r="J45" s="183"/>
-      <c r="K45" s="184"/>
+      <c r="G45" s="145"/>
+      <c r="H45" s="147"/>
+      <c r="I45" s="178"/>
+      <c r="J45" s="179"/>
+      <c r="K45" s="180"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -8758,11 +8779,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="144"/>
-      <c r="H46" s="146"/>
-      <c r="I46" s="182"/>
-      <c r="J46" s="183"/>
-      <c r="K46" s="184"/>
+      <c r="G46" s="145"/>
+      <c r="H46" s="147"/>
+      <c r="I46" s="178"/>
+      <c r="J46" s="179"/>
+      <c r="K46" s="180"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -8780,11 +8801,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="144"/>
-      <c r="H47" s="146"/>
-      <c r="I47" s="182"/>
-      <c r="J47" s="183"/>
-      <c r="K47" s="184"/>
+      <c r="G47" s="145"/>
+      <c r="H47" s="147"/>
+      <c r="I47" s="178"/>
+      <c r="J47" s="179"/>
+      <c r="K47" s="180"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -8802,11 +8823,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="144"/>
-      <c r="H48" s="146"/>
-      <c r="I48" s="182"/>
-      <c r="J48" s="183"/>
-      <c r="K48" s="184"/>
+      <c r="G48" s="145"/>
+      <c r="H48" s="147"/>
+      <c r="I48" s="178"/>
+      <c r="J48" s="179"/>
+      <c r="K48" s="180"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -8824,11 +8845,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="144"/>
-      <c r="H49" s="146"/>
-      <c r="I49" s="182"/>
-      <c r="J49" s="183"/>
-      <c r="K49" s="184"/>
+      <c r="G49" s="145"/>
+      <c r="H49" s="147"/>
+      <c r="I49" s="178"/>
+      <c r="J49" s="179"/>
+      <c r="K49" s="180"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -8846,11 +8867,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="144"/>
-      <c r="H50" s="146"/>
-      <c r="I50" s="182"/>
-      <c r="J50" s="183"/>
-      <c r="K50" s="184"/>
+      <c r="G50" s="145"/>
+      <c r="H50" s="147"/>
+      <c r="I50" s="178"/>
+      <c r="J50" s="179"/>
+      <c r="K50" s="180"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -8868,11 +8889,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="144"/>
-      <c r="H51" s="146"/>
-      <c r="I51" s="182"/>
-      <c r="J51" s="183"/>
-      <c r="K51" s="184"/>
+      <c r="G51" s="145"/>
+      <c r="H51" s="147"/>
+      <c r="I51" s="178"/>
+      <c r="J51" s="179"/>
+      <c r="K51" s="180"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -8890,11 +8911,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="144"/>
-      <c r="H52" s="146"/>
-      <c r="I52" s="182"/>
-      <c r="J52" s="183"/>
-      <c r="K52" s="184"/>
+      <c r="G52" s="145"/>
+      <c r="H52" s="147"/>
+      <c r="I52" s="178"/>
+      <c r="J52" s="179"/>
+      <c r="K52" s="180"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -8912,11 +8933,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="144"/>
-      <c r="H53" s="146"/>
-      <c r="I53" s="182"/>
-      <c r="J53" s="183"/>
-      <c r="K53" s="184"/>
+      <c r="G53" s="145"/>
+      <c r="H53" s="147"/>
+      <c r="I53" s="178"/>
+      <c r="J53" s="179"/>
+      <c r="K53" s="180"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -8934,11 +8955,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="144"/>
-      <c r="H54" s="146"/>
-      <c r="I54" s="182"/>
-      <c r="J54" s="183"/>
-      <c r="K54" s="184"/>
+      <c r="G54" s="145"/>
+      <c r="H54" s="147"/>
+      <c r="I54" s="178"/>
+      <c r="J54" s="179"/>
+      <c r="K54" s="180"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -8956,11 +8977,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="144"/>
-      <c r="H55" s="146"/>
-      <c r="I55" s="182"/>
-      <c r="J55" s="183"/>
-      <c r="K55" s="184"/>
+      <c r="G55" s="145"/>
+      <c r="H55" s="147"/>
+      <c r="I55" s="178"/>
+      <c r="J55" s="179"/>
+      <c r="K55" s="180"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -8978,11 +8999,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="144"/>
-      <c r="H56" s="146"/>
-      <c r="I56" s="182"/>
-      <c r="J56" s="183"/>
-      <c r="K56" s="184"/>
+      <c r="G56" s="145"/>
+      <c r="H56" s="147"/>
+      <c r="I56" s="178"/>
+      <c r="J56" s="179"/>
+      <c r="K56" s="180"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -9000,11 +9021,11 @@
       <c r="D57" s="33"/>
       <c r="E57" s="33"/>
       <c r="F57" s="32"/>
-      <c r="G57" s="144"/>
-      <c r="H57" s="146"/>
-      <c r="I57" s="182"/>
-      <c r="J57" s="183"/>
-      <c r="K57" s="184"/>
+      <c r="G57" s="145"/>
+      <c r="H57" s="147"/>
+      <c r="I57" s="178"/>
+      <c r="J57" s="179"/>
+      <c r="K57" s="180"/>
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
@@ -9016,6 +9037,100 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="108">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="I50:K50"/>
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="G54:H54"/>
     <mergeCell ref="G55:H55"/>
@@ -9030,100 +9145,6 @@
     <mergeCell ref="I55:K55"/>
     <mergeCell ref="I56:K56"/>
     <mergeCell ref="I57:K57"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F57">
@@ -9145,8 +9166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048468"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C9"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9174,24 +9195,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="190" t="str">
+      <c r="J1" s="192" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="190"/>
+      <c r="K1" s="192"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -9219,22 +9240,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="190" t="str">
+      <c r="J2" s="192" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="K2" s="190"/>
+      <c r="K2" s="192"/>
       <c r="L2" s="26" t="s">
         <v>50</v>
       </c>
@@ -9265,11 +9286,11 @@
       <c r="A4" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="195" t="s">
+      <c r="B4" s="144" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="144" t="s">
         <v>240</v>
-      </c>
-      <c r="C4" s="195" t="s">
-        <v>241</v>
       </c>
       <c r="D4" s="68" t="s">
         <v>98</v>
@@ -9292,12 +9313,12 @@
       <c r="J4" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="156" t="s">
+      <c r="K4" s="158" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="157"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="159"/>
       <c r="O4" s="39" t="s">
         <v>57</v>
       </c>
@@ -9319,14 +9340,20 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C5" s="33">
         <v>51</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="32"/>
+      <c r="D5" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>297</v>
+      </c>
       <c r="G5" s="124" t="s">
         <v>211</v>
       </c>
@@ -9336,20 +9363,20 @@
       <c r="I5" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="127" t="s">
+      <c r="J5" s="126" t="s">
         <v>213</v>
       </c>
-      <c r="K5" s="147" t="s">
+      <c r="K5" s="148" t="s">
+        <v>252</v>
+      </c>
+      <c r="L5" s="149"/>
+      <c r="M5" s="149"/>
+      <c r="N5" s="150"/>
+      <c r="O5" s="129" t="s">
+        <v>135</v>
+      </c>
+      <c r="P5" s="129" t="s">
         <v>253</v>
-      </c>
-      <c r="L5" s="148"/>
-      <c r="M5" s="148"/>
-      <c r="N5" s="149"/>
-      <c r="O5" s="130" t="s">
-        <v>135</v>
-      </c>
-      <c r="P5" s="130" t="s">
-        <v>254</v>
       </c>
       <c r="Q5" s="76" t="s">
         <v>106</v>
@@ -9358,7 +9385,7 @@
         <v>219</v>
       </c>
       <c r="S5" s="88" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="T5" s="64"/>
       <c r="U5" s="64"/>
@@ -9368,7 +9395,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C6" s="33">
         <v>51</v>
@@ -9385,20 +9412,20 @@
       <c r="I6" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="127" t="s">
+      <c r="J6" s="126" t="s">
         <v>215</v>
       </c>
-      <c r="K6" s="147" t="s">
-        <v>259</v>
-      </c>
-      <c r="L6" s="148"/>
-      <c r="M6" s="148"/>
-      <c r="N6" s="149"/>
-      <c r="O6" s="125" t="s">
-        <v>221</v>
-      </c>
-      <c r="P6" s="130" t="s">
-        <v>260</v>
+      <c r="K6" s="148" t="s">
+        <v>258</v>
+      </c>
+      <c r="L6" s="149"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="150"/>
+      <c r="O6" s="143" t="s">
+        <v>298</v>
+      </c>
+      <c r="P6" s="143" t="s">
+        <v>299</v>
       </c>
       <c r="Q6" s="76" t="s">
         <v>197</v>
@@ -9407,7 +9434,7 @@
         <v>219</v>
       </c>
       <c r="S6" s="88" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T6" s="64"/>
       <c r="U6" s="64"/>
@@ -9415,16 +9442,18 @@
     <row r="7" spans="1:21" s="34" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33"/>
       <c r="B7" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C7" s="33">
         <v>51</v>
       </c>
-      <c r="D7" s="33"/>
+      <c r="D7" s="33" t="s">
+        <v>295</v>
+      </c>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="126" t="s">
-        <v>222</v>
+      <c r="G7" s="125" t="s">
+        <v>221</v>
       </c>
       <c r="H7" s="63" t="s">
         <v>197</v>
@@ -9432,20 +9461,20 @@
       <c r="I7" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="127" t="s">
+      <c r="J7" s="126" t="s">
         <v>216</v>
       </c>
-      <c r="K7" s="147" t="s">
-        <v>261</v>
-      </c>
-      <c r="L7" s="148"/>
-      <c r="M7" s="148"/>
-      <c r="N7" s="149"/>
-      <c r="O7" s="130" t="s">
-        <v>257</v>
-      </c>
-      <c r="P7" s="130" t="s">
-        <v>264</v>
+      <c r="K7" s="148" t="s">
+        <v>259</v>
+      </c>
+      <c r="L7" s="149"/>
+      <c r="M7" s="149"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="129" t="s">
+        <v>256</v>
+      </c>
+      <c r="P7" s="129" t="s">
+        <v>262</v>
       </c>
       <c r="Q7" s="76" t="s">
         <v>197</v>
@@ -9453,8 +9482,8 @@
       <c r="R7" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="S7" s="126" t="s">
-        <v>267</v>
+      <c r="S7" s="125" t="s">
+        <v>265</v>
       </c>
       <c r="T7" s="64"/>
       <c r="U7" s="64"/>
@@ -9464,16 +9493,18 @@
         <v>3</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C8" s="33">
         <v>51</v>
       </c>
-      <c r="D8" s="33"/>
+      <c r="D8" s="33" t="s">
+        <v>295</v>
+      </c>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
       <c r="G8" s="88" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H8" s="63" t="s">
         <v>197</v>
@@ -9481,20 +9512,20 @@
       <c r="I8" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="127" t="s">
+      <c r="J8" s="126" t="s">
         <v>218</v>
       </c>
-      <c r="K8" s="147" t="s">
-        <v>262</v>
-      </c>
-      <c r="L8" s="148"/>
-      <c r="M8" s="148"/>
-      <c r="N8" s="149"/>
-      <c r="O8" s="130" t="s">
+      <c r="K8" s="148" t="s">
+        <v>260</v>
+      </c>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="129" t="s">
+        <v>261</v>
+      </c>
+      <c r="P8" s="129" t="s">
         <v>263</v>
-      </c>
-      <c r="P8" s="130" t="s">
-        <v>265</v>
       </c>
       <c r="Q8" s="76" t="s">
         <v>197</v>
@@ -9502,18 +9533,18 @@
       <c r="R8" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="S8" s="131" t="s">
-        <v>267</v>
+      <c r="S8" s="130" t="s">
+        <v>265</v>
       </c>
       <c r="T8" s="64"/>
       <c r="U8" s="64"/>
     </row>
-    <row r="9" spans="1:21" s="34" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" s="34" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>4</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C9" s="33">
         <v>51</v>
@@ -9530,20 +9561,20 @@
       <c r="I9" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="127" t="s">
-        <v>224</v>
-      </c>
-      <c r="K9" s="147" t="s">
-        <v>266</v>
-      </c>
-      <c r="L9" s="148"/>
-      <c r="M9" s="148"/>
-      <c r="N9" s="149"/>
-      <c r="O9" s="130" t="s">
-        <v>269</v>
-      </c>
-      <c r="P9" s="130" t="s">
-        <v>270</v>
+      <c r="J9" s="126" t="s">
+        <v>223</v>
+      </c>
+      <c r="K9" s="148" t="s">
+        <v>264</v>
+      </c>
+      <c r="L9" s="149"/>
+      <c r="M9" s="149"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="129" t="s">
+        <v>267</v>
+      </c>
+      <c r="P9" s="143" t="s">
+        <v>300</v>
       </c>
       <c r="Q9" s="76" t="s">
         <v>210</v>
@@ -9552,12 +9583,12 @@
         <v>152</v>
       </c>
       <c r="S9" s="82" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
     </row>
-    <row r="10" spans="1:21" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
         <v>5</v>
       </c>
@@ -9566,16 +9597,16 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="88"/>
+      <c r="G10" s="142"/>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
       <c r="J10" s="82"/>
-      <c r="K10" s="187"/>
-      <c r="L10" s="188"/>
-      <c r="M10" s="188"/>
-      <c r="N10" s="189"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
+      <c r="K10" s="189"/>
+      <c r="L10" s="190"/>
+      <c r="M10" s="190"/>
+      <c r="N10" s="191"/>
+      <c r="O10" s="143"/>
+      <c r="P10" s="143"/>
       <c r="Q10" s="76"/>
       <c r="R10" s="75"/>
       <c r="S10" s="82"/>
@@ -9595,10 +9626,10 @@
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="82"/>
-      <c r="K11" s="187"/>
-      <c r="L11" s="188"/>
-      <c r="M11" s="188"/>
-      <c r="N11" s="189"/>
+      <c r="K11" s="189"/>
+      <c r="L11" s="190"/>
+      <c r="M11" s="190"/>
+      <c r="N11" s="191"/>
       <c r="O11" s="89"/>
       <c r="P11" s="89"/>
       <c r="Q11" s="76"/>
@@ -9620,10 +9651,10 @@
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
       <c r="J12" s="82"/>
-      <c r="K12" s="187"/>
-      <c r="L12" s="188"/>
-      <c r="M12" s="188"/>
-      <c r="N12" s="189"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="190"/>
+      <c r="M12" s="190"/>
+      <c r="N12" s="191"/>
       <c r="O12" s="89"/>
       <c r="P12" s="89"/>
       <c r="Q12" s="76"/>
@@ -9645,10 +9676,10 @@
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="J13" s="82"/>
-      <c r="K13" s="187"/>
-      <c r="L13" s="188"/>
-      <c r="M13" s="188"/>
-      <c r="N13" s="189"/>
+      <c r="K13" s="189"/>
+      <c r="L13" s="190"/>
+      <c r="M13" s="190"/>
+      <c r="N13" s="191"/>
       <c r="O13" s="85"/>
       <c r="P13" s="85"/>
       <c r="Q13" s="76"/>
@@ -9670,10 +9701,10 @@
       <c r="H14" s="63"/>
       <c r="I14" s="63"/>
       <c r="J14" s="82"/>
-      <c r="K14" s="187"/>
-      <c r="L14" s="188"/>
-      <c r="M14" s="188"/>
-      <c r="N14" s="189"/>
+      <c r="K14" s="189"/>
+      <c r="L14" s="190"/>
+      <c r="M14" s="190"/>
+      <c r="N14" s="191"/>
       <c r="O14" s="85"/>
       <c r="P14" s="85"/>
       <c r="Q14" s="76"/>
@@ -9695,10 +9726,10 @@
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
       <c r="J15" s="82"/>
-      <c r="K15" s="187"/>
-      <c r="L15" s="188"/>
-      <c r="M15" s="188"/>
-      <c r="N15" s="189"/>
+      <c r="K15" s="189"/>
+      <c r="L15" s="190"/>
+      <c r="M15" s="190"/>
+      <c r="N15" s="191"/>
       <c r="O15" s="81"/>
       <c r="P15" s="81"/>
       <c r="Q15" s="76"/>
@@ -9720,10 +9751,10 @@
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
       <c r="J16" s="82"/>
-      <c r="K16" s="187"/>
-      <c r="L16" s="188"/>
-      <c r="M16" s="188"/>
-      <c r="N16" s="189"/>
+      <c r="K16" s="189"/>
+      <c r="L16" s="190"/>
+      <c r="M16" s="190"/>
+      <c r="N16" s="191"/>
       <c r="O16" s="81"/>
       <c r="P16" s="81"/>
       <c r="Q16" s="76"/>
@@ -9745,10 +9776,10 @@
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="187"/>
-      <c r="L17" s="188"/>
-      <c r="M17" s="188"/>
-      <c r="N17" s="189"/>
+      <c r="K17" s="189"/>
+      <c r="L17" s="190"/>
+      <c r="M17" s="190"/>
+      <c r="N17" s="191"/>
       <c r="O17" s="72"/>
       <c r="P17" s="60"/>
       <c r="Q17" s="76"/>
@@ -9770,10 +9801,10 @@
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="187"/>
-      <c r="L18" s="188"/>
-      <c r="M18" s="188"/>
-      <c r="N18" s="189"/>
+      <c r="K18" s="189"/>
+      <c r="L18" s="190"/>
+      <c r="M18" s="190"/>
+      <c r="N18" s="191"/>
       <c r="O18" s="60"/>
       <c r="P18" s="60"/>
       <c r="Q18" s="76"/>
@@ -9795,10 +9826,10 @@
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="187"/>
-      <c r="L19" s="188"/>
-      <c r="M19" s="188"/>
-      <c r="N19" s="189"/>
+      <c r="K19" s="189"/>
+      <c r="L19" s="190"/>
+      <c r="M19" s="190"/>
+      <c r="N19" s="191"/>
       <c r="O19" s="60"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="76"/>
@@ -9820,10 +9851,10 @@
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="187"/>
-      <c r="L20" s="188"/>
-      <c r="M20" s="188"/>
-      <c r="N20" s="189"/>
+      <c r="K20" s="189"/>
+      <c r="L20" s="190"/>
+      <c r="M20" s="190"/>
+      <c r="N20" s="191"/>
       <c r="O20" s="60"/>
       <c r="P20" s="60"/>
       <c r="Q20" s="76"/>
@@ -9845,10 +9876,10 @@
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="187"/>
-      <c r="L21" s="188"/>
-      <c r="M21" s="188"/>
-      <c r="N21" s="189"/>
+      <c r="K21" s="189"/>
+      <c r="L21" s="190"/>
+      <c r="M21" s="190"/>
+      <c r="N21" s="191"/>
       <c r="O21" s="60"/>
       <c r="P21" s="60"/>
       <c r="Q21" s="76"/>
@@ -9870,10 +9901,10 @@
       <c r="H22" s="63"/>
       <c r="I22" s="63"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="187"/>
-      <c r="L22" s="188"/>
-      <c r="M22" s="188"/>
-      <c r="N22" s="189"/>
+      <c r="K22" s="189"/>
+      <c r="L22" s="190"/>
+      <c r="M22" s="190"/>
+      <c r="N22" s="191"/>
       <c r="O22" s="60"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="76"/>
@@ -9895,10 +9926,10 @@
       <c r="H23" s="63"/>
       <c r="I23" s="63"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="187"/>
-      <c r="L23" s="188"/>
-      <c r="M23" s="188"/>
-      <c r="N23" s="189"/>
+      <c r="K23" s="189"/>
+      <c r="L23" s="190"/>
+      <c r="M23" s="190"/>
+      <c r="N23" s="191"/>
       <c r="O23" s="60"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="76"/>
@@ -9920,10 +9951,10 @@
       <c r="H24" s="63"/>
       <c r="I24" s="63"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="187"/>
-      <c r="L24" s="188"/>
-      <c r="M24" s="188"/>
-      <c r="N24" s="189"/>
+      <c r="K24" s="189"/>
+      <c r="L24" s="190"/>
+      <c r="M24" s="190"/>
+      <c r="N24" s="191"/>
       <c r="O24" s="60"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="76"/>
@@ -9945,10 +9976,10 @@
       <c r="H25" s="63"/>
       <c r="I25" s="63"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="187"/>
-      <c r="L25" s="188"/>
-      <c r="M25" s="188"/>
-      <c r="N25" s="189"/>
+      <c r="K25" s="189"/>
+      <c r="L25" s="190"/>
+      <c r="M25" s="190"/>
+      <c r="N25" s="191"/>
       <c r="O25" s="60"/>
       <c r="P25" s="60"/>
       <c r="Q25" s="76"/>
@@ -9970,10 +10001,10 @@
       <c r="H26" s="63"/>
       <c r="I26" s="63"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="187"/>
-      <c r="L26" s="188"/>
-      <c r="M26" s="188"/>
-      <c r="N26" s="189"/>
+      <c r="K26" s="189"/>
+      <c r="L26" s="190"/>
+      <c r="M26" s="190"/>
+      <c r="N26" s="191"/>
       <c r="O26" s="60"/>
       <c r="P26" s="60"/>
       <c r="Q26" s="76"/>
@@ -9995,10 +10026,10 @@
       <c r="H27" s="63"/>
       <c r="I27" s="63"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="187"/>
-      <c r="L27" s="188"/>
-      <c r="M27" s="188"/>
-      <c r="N27" s="189"/>
+      <c r="K27" s="189"/>
+      <c r="L27" s="190"/>
+      <c r="M27" s="190"/>
+      <c r="N27" s="191"/>
       <c r="O27" s="60"/>
       <c r="P27" s="60"/>
       <c r="Q27" s="76"/>
@@ -10020,10 +10051,10 @@
       <c r="H28" s="63"/>
       <c r="I28" s="63"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="187"/>
-      <c r="L28" s="188"/>
-      <c r="M28" s="188"/>
-      <c r="N28" s="189"/>
+      <c r="K28" s="189"/>
+      <c r="L28" s="190"/>
+      <c r="M28" s="190"/>
+      <c r="N28" s="191"/>
       <c r="O28" s="60"/>
       <c r="P28" s="60"/>
       <c r="Q28" s="76"/>
@@ -10045,10 +10076,10 @@
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="187"/>
-      <c r="L29" s="188"/>
-      <c r="M29" s="188"/>
-      <c r="N29" s="189"/>
+      <c r="K29" s="189"/>
+      <c r="L29" s="190"/>
+      <c r="M29" s="190"/>
+      <c r="N29" s="191"/>
       <c r="O29" s="60"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="76"/>
@@ -10070,10 +10101,10 @@
       <c r="H30" s="63"/>
       <c r="I30" s="63"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="187"/>
-      <c r="L30" s="188"/>
-      <c r="M30" s="188"/>
-      <c r="N30" s="189"/>
+      <c r="K30" s="189"/>
+      <c r="L30" s="190"/>
+      <c r="M30" s="190"/>
+      <c r="N30" s="191"/>
       <c r="O30" s="60"/>
       <c r="P30" s="60"/>
       <c r="Q30" s="76"/>
@@ -10095,10 +10126,10 @@
       <c r="H31" s="63"/>
       <c r="I31" s="63"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="187"/>
-      <c r="L31" s="188"/>
-      <c r="M31" s="188"/>
-      <c r="N31" s="189"/>
+      <c r="K31" s="189"/>
+      <c r="L31" s="190"/>
+      <c r="M31" s="190"/>
+      <c r="N31" s="191"/>
       <c r="O31" s="60"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="76"/>
@@ -10120,10 +10151,10 @@
       <c r="H32" s="63"/>
       <c r="I32" s="63"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="187"/>
-      <c r="L32" s="188"/>
-      <c r="M32" s="188"/>
-      <c r="N32" s="189"/>
+      <c r="K32" s="189"/>
+      <c r="L32" s="190"/>
+      <c r="M32" s="190"/>
+      <c r="N32" s="191"/>
       <c r="O32" s="60"/>
       <c r="P32" s="60"/>
       <c r="Q32" s="76"/>
@@ -10145,10 +10176,10 @@
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="187"/>
-      <c r="L33" s="188"/>
-      <c r="M33" s="188"/>
-      <c r="N33" s="189"/>
+      <c r="K33" s="189"/>
+      <c r="L33" s="190"/>
+      <c r="M33" s="190"/>
+      <c r="N33" s="191"/>
       <c r="O33" s="60"/>
       <c r="P33" s="60"/>
       <c r="Q33" s="76"/>
@@ -10170,10 +10201,10 @@
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
       <c r="J34" s="40"/>
-      <c r="K34" s="187"/>
-      <c r="L34" s="188"/>
-      <c r="M34" s="188"/>
-      <c r="N34" s="189"/>
+      <c r="K34" s="189"/>
+      <c r="L34" s="190"/>
+      <c r="M34" s="190"/>
+      <c r="N34" s="191"/>
       <c r="O34" s="60"/>
       <c r="P34" s="60"/>
       <c r="Q34" s="76"/>
@@ -10195,10 +10226,10 @@
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
       <c r="J35" s="82"/>
-      <c r="K35" s="187"/>
-      <c r="L35" s="188"/>
-      <c r="M35" s="188"/>
-      <c r="N35" s="189"/>
+      <c r="K35" s="189"/>
+      <c r="L35" s="190"/>
+      <c r="M35" s="190"/>
+      <c r="N35" s="191"/>
       <c r="O35" s="85"/>
       <c r="P35" s="85"/>
       <c r="Q35" s="76"/>
@@ -10220,10 +10251,10 @@
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="187"/>
-      <c r="L36" s="188"/>
-      <c r="M36" s="188"/>
-      <c r="N36" s="189"/>
+      <c r="K36" s="189"/>
+      <c r="L36" s="190"/>
+      <c r="M36" s="190"/>
+      <c r="N36" s="191"/>
       <c r="O36" s="60"/>
       <c r="P36" s="60"/>
       <c r="Q36" s="76"/>
@@ -10245,10 +10276,10 @@
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="187"/>
-      <c r="L37" s="188"/>
-      <c r="M37" s="188"/>
-      <c r="N37" s="189"/>
+      <c r="K37" s="189"/>
+      <c r="L37" s="190"/>
+      <c r="M37" s="190"/>
+      <c r="N37" s="191"/>
       <c r="O37" s="60"/>
       <c r="P37" s="60"/>
       <c r="Q37" s="76"/>
@@ -10270,10 +10301,10 @@
       <c r="H38" s="63"/>
       <c r="I38" s="63"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="187"/>
-      <c r="L38" s="188"/>
-      <c r="M38" s="188"/>
-      <c r="N38" s="189"/>
+      <c r="K38" s="189"/>
+      <c r="L38" s="190"/>
+      <c r="M38" s="190"/>
+      <c r="N38" s="191"/>
       <c r="O38" s="60"/>
       <c r="P38" s="60"/>
       <c r="Q38" s="76"/>
@@ -10295,10 +10326,10 @@
       <c r="H39" s="63"/>
       <c r="I39" s="63"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="187"/>
-      <c r="L39" s="188"/>
-      <c r="M39" s="188"/>
-      <c r="N39" s="189"/>
+      <c r="K39" s="189"/>
+      <c r="L39" s="190"/>
+      <c r="M39" s="190"/>
+      <c r="N39" s="191"/>
       <c r="O39" s="60"/>
       <c r="P39" s="60"/>
       <c r="Q39" s="76"/>
@@ -10320,10 +10351,10 @@
       <c r="H40" s="63"/>
       <c r="I40" s="63"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="187"/>
-      <c r="L40" s="188"/>
-      <c r="M40" s="188"/>
-      <c r="N40" s="189"/>
+      <c r="K40" s="189"/>
+      <c r="L40" s="190"/>
+      <c r="M40" s="190"/>
+      <c r="N40" s="191"/>
       <c r="O40" s="60"/>
       <c r="P40" s="60"/>
       <c r="Q40" s="76"/>
@@ -10345,10 +10376,10 @@
       <c r="H41" s="63"/>
       <c r="I41" s="63"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="187"/>
-      <c r="L41" s="188"/>
-      <c r="M41" s="188"/>
-      <c r="N41" s="189"/>
+      <c r="K41" s="189"/>
+      <c r="L41" s="190"/>
+      <c r="M41" s="190"/>
+      <c r="N41" s="191"/>
       <c r="O41" s="74"/>
       <c r="P41" s="74"/>
       <c r="Q41" s="76"/>
@@ -10370,10 +10401,10 @@
       <c r="H42" s="63"/>
       <c r="I42" s="63"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="187"/>
-      <c r="L42" s="188"/>
-      <c r="M42" s="188"/>
-      <c r="N42" s="189"/>
+      <c r="K42" s="189"/>
+      <c r="L42" s="190"/>
+      <c r="M42" s="190"/>
+      <c r="N42" s="191"/>
       <c r="O42" s="74"/>
       <c r="P42" s="74"/>
       <c r="Q42" s="76"/>
@@ -10395,10 +10426,10 @@
       <c r="H43" s="63"/>
       <c r="I43" s="63"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="187"/>
-      <c r="L43" s="188"/>
-      <c r="M43" s="188"/>
-      <c r="N43" s="189"/>
+      <c r="K43" s="189"/>
+      <c r="L43" s="190"/>
+      <c r="M43" s="190"/>
+      <c r="N43" s="191"/>
       <c r="O43" s="74"/>
       <c r="P43" s="74"/>
       <c r="Q43" s="76"/>
@@ -10420,10 +10451,10 @@
       <c r="H44" s="63"/>
       <c r="I44" s="63"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="187"/>
-      <c r="L44" s="188"/>
-      <c r="M44" s="188"/>
-      <c r="N44" s="189"/>
+      <c r="K44" s="189"/>
+      <c r="L44" s="190"/>
+      <c r="M44" s="190"/>
+      <c r="N44" s="191"/>
       <c r="O44" s="74"/>
       <c r="P44" s="74"/>
       <c r="Q44" s="76"/>
@@ -10445,10 +10476,10 @@
       <c r="H45" s="63"/>
       <c r="I45" s="63"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="187"/>
-      <c r="L45" s="188"/>
-      <c r="M45" s="188"/>
-      <c r="N45" s="189"/>
+      <c r="K45" s="189"/>
+      <c r="L45" s="190"/>
+      <c r="M45" s="190"/>
+      <c r="N45" s="191"/>
       <c r="O45" s="74"/>
       <c r="P45" s="74"/>
       <c r="Q45" s="76"/>
@@ -10470,10 +10501,10 @@
       <c r="H46" s="63"/>
       <c r="I46" s="63"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="187"/>
-      <c r="L46" s="188"/>
-      <c r="M46" s="188"/>
-      <c r="N46" s="189"/>
+      <c r="K46" s="189"/>
+      <c r="L46" s="190"/>
+      <c r="M46" s="190"/>
+      <c r="N46" s="191"/>
       <c r="O46" s="74"/>
       <c r="P46" s="74"/>
       <c r="Q46" s="76"/>
@@ -10495,10 +10526,10 @@
       <c r="H47" s="63"/>
       <c r="I47" s="63"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="187"/>
-      <c r="L47" s="188"/>
-      <c r="M47" s="188"/>
-      <c r="N47" s="189"/>
+      <c r="K47" s="189"/>
+      <c r="L47" s="190"/>
+      <c r="M47" s="190"/>
+      <c r="N47" s="191"/>
       <c r="O47" s="74"/>
       <c r="P47" s="74"/>
       <c r="Q47" s="76"/>
@@ -10520,10 +10551,10 @@
       <c r="H48" s="63"/>
       <c r="I48" s="63"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="187"/>
-      <c r="L48" s="188"/>
-      <c r="M48" s="188"/>
-      <c r="N48" s="189"/>
+      <c r="K48" s="189"/>
+      <c r="L48" s="190"/>
+      <c r="M48" s="190"/>
+      <c r="N48" s="191"/>
       <c r="O48" s="74"/>
       <c r="P48" s="74"/>
       <c r="Q48" s="76"/>
@@ -10545,10 +10576,10 @@
       <c r="H49" s="63"/>
       <c r="I49" s="63"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="187"/>
-      <c r="L49" s="188"/>
-      <c r="M49" s="188"/>
-      <c r="N49" s="189"/>
+      <c r="K49" s="189"/>
+      <c r="L49" s="190"/>
+      <c r="M49" s="190"/>
+      <c r="N49" s="191"/>
       <c r="O49" s="74"/>
       <c r="P49" s="74"/>
       <c r="Q49" s="76"/>
@@ -10570,10 +10601,10 @@
       <c r="H50" s="63"/>
       <c r="I50" s="63"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="187"/>
-      <c r="L50" s="188"/>
-      <c r="M50" s="188"/>
-      <c r="N50" s="189"/>
+      <c r="K50" s="189"/>
+      <c r="L50" s="190"/>
+      <c r="M50" s="190"/>
+      <c r="N50" s="191"/>
       <c r="O50" s="74"/>
       <c r="P50" s="74"/>
       <c r="Q50" s="76"/>
@@ -10595,10 +10626,10 @@
       <c r="H51" s="63"/>
       <c r="I51" s="63"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="187"/>
-      <c r="L51" s="188"/>
-      <c r="M51" s="188"/>
-      <c r="N51" s="189"/>
+      <c r="K51" s="189"/>
+      <c r="L51" s="190"/>
+      <c r="M51" s="190"/>
+      <c r="N51" s="191"/>
       <c r="O51" s="74"/>
       <c r="P51" s="74"/>
       <c r="Q51" s="76"/>
@@ -10620,10 +10651,10 @@
       <c r="H52" s="63"/>
       <c r="I52" s="63"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="187"/>
-      <c r="L52" s="188"/>
-      <c r="M52" s="188"/>
-      <c r="N52" s="189"/>
+      <c r="K52" s="189"/>
+      <c r="L52" s="190"/>
+      <c r="M52" s="190"/>
+      <c r="N52" s="191"/>
       <c r="O52" s="74"/>
       <c r="P52" s="74"/>
       <c r="Q52" s="76"/>
@@ -10645,10 +10676,10 @@
       <c r="H53" s="63"/>
       <c r="I53" s="63"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="187"/>
-      <c r="L53" s="188"/>
-      <c r="M53" s="188"/>
-      <c r="N53" s="189"/>
+      <c r="K53" s="189"/>
+      <c r="L53" s="190"/>
+      <c r="M53" s="190"/>
+      <c r="N53" s="191"/>
       <c r="O53" s="74"/>
       <c r="P53" s="74"/>
       <c r="Q53" s="76"/>
@@ -10670,10 +10701,10 @@
       <c r="H54" s="63"/>
       <c r="I54" s="63"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="187"/>
-      <c r="L54" s="188"/>
-      <c r="M54" s="188"/>
-      <c r="N54" s="189"/>
+      <c r="K54" s="189"/>
+      <c r="L54" s="190"/>
+      <c r="M54" s="190"/>
+      <c r="N54" s="191"/>
       <c r="O54" s="74"/>
       <c r="P54" s="74"/>
       <c r="Q54" s="76"/>
@@ -10695,10 +10726,10 @@
       <c r="H55" s="63"/>
       <c r="I55" s="63"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="187"/>
-      <c r="L55" s="188"/>
-      <c r="M55" s="188"/>
-      <c r="N55" s="189"/>
+      <c r="K55" s="189"/>
+      <c r="L55" s="190"/>
+      <c r="M55" s="190"/>
+      <c r="N55" s="191"/>
       <c r="O55" s="74"/>
       <c r="P55" s="74"/>
       <c r="Q55" s="76"/>
@@ -10720,10 +10751,10 @@
       <c r="H56" s="63"/>
       <c r="I56" s="63"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="187"/>
-      <c r="L56" s="188"/>
-      <c r="M56" s="188"/>
-      <c r="N56" s="189"/>
+      <c r="K56" s="189"/>
+      <c r="L56" s="190"/>
+      <c r="M56" s="190"/>
+      <c r="N56" s="191"/>
       <c r="O56" s="74"/>
       <c r="P56" s="74"/>
       <c r="Q56" s="76"/>
@@ -10745,10 +10776,10 @@
       <c r="H57" s="63"/>
       <c r="I57" s="63"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="187"/>
-      <c r="L57" s="188"/>
-      <c r="M57" s="188"/>
-      <c r="N57" s="189"/>
+      <c r="K57" s="189"/>
+      <c r="L57" s="190"/>
+      <c r="M57" s="190"/>
+      <c r="N57" s="191"/>
       <c r="O57" s="74"/>
       <c r="P57" s="74"/>
       <c r="Q57" s="76"/>
@@ -10770,10 +10801,10 @@
       <c r="H58" s="63"/>
       <c r="I58" s="63"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="187"/>
-      <c r="L58" s="188"/>
-      <c r="M58" s="188"/>
-      <c r="N58" s="189"/>
+      <c r="K58" s="189"/>
+      <c r="L58" s="190"/>
+      <c r="M58" s="190"/>
+      <c r="N58" s="191"/>
       <c r="O58" s="74"/>
       <c r="P58" s="74"/>
       <c r="Q58" s="76"/>
@@ -10795,10 +10826,10 @@
       <c r="H59" s="63"/>
       <c r="I59" s="63"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="187"/>
-      <c r="L59" s="188"/>
-      <c r="M59" s="188"/>
-      <c r="N59" s="189"/>
+      <c r="K59" s="189"/>
+      <c r="L59" s="190"/>
+      <c r="M59" s="190"/>
+      <c r="N59" s="191"/>
       <c r="O59" s="74"/>
       <c r="P59" s="74"/>
       <c r="Q59" s="76"/>
@@ -10820,10 +10851,10 @@
       <c r="H60" s="63"/>
       <c r="I60" s="63"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="187"/>
-      <c r="L60" s="188"/>
-      <c r="M60" s="188"/>
-      <c r="N60" s="189"/>
+      <c r="K60" s="189"/>
+      <c r="L60" s="190"/>
+      <c r="M60" s="190"/>
+      <c r="N60" s="191"/>
       <c r="O60" s="74"/>
       <c r="P60" s="74"/>
       <c r="Q60" s="76"/>
@@ -10845,10 +10876,10 @@
       <c r="H61" s="63"/>
       <c r="I61" s="63"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="187"/>
-      <c r="L61" s="188"/>
-      <c r="M61" s="188"/>
-      <c r="N61" s="189"/>
+      <c r="K61" s="189"/>
+      <c r="L61" s="190"/>
+      <c r="M61" s="190"/>
+      <c r="N61" s="191"/>
       <c r="O61" s="74"/>
       <c r="P61" s="74"/>
       <c r="Q61" s="76"/>
@@ -10870,10 +10901,10 @@
       <c r="H62" s="63"/>
       <c r="I62" s="63"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="187"/>
-      <c r="L62" s="188"/>
-      <c r="M62" s="188"/>
-      <c r="N62" s="189"/>
+      <c r="K62" s="189"/>
+      <c r="L62" s="190"/>
+      <c r="M62" s="190"/>
+      <c r="N62" s="191"/>
       <c r="O62" s="74"/>
       <c r="P62" s="74"/>
       <c r="Q62" s="76"/>
@@ -10895,10 +10926,10 @@
       <c r="H63" s="63"/>
       <c r="I63" s="63"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="187"/>
-      <c r="L63" s="188"/>
-      <c r="M63" s="188"/>
-      <c r="N63" s="189"/>
+      <c r="K63" s="189"/>
+      <c r="L63" s="190"/>
+      <c r="M63" s="190"/>
+      <c r="N63" s="191"/>
       <c r="O63" s="84"/>
       <c r="P63" s="84"/>
       <c r="Q63" s="76"/>
@@ -10920,10 +10951,10 @@
       <c r="H64" s="63"/>
       <c r="I64" s="63"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="187"/>
-      <c r="L64" s="188"/>
-      <c r="M64" s="188"/>
-      <c r="N64" s="189"/>
+      <c r="K64" s="189"/>
+      <c r="L64" s="190"/>
+      <c r="M64" s="190"/>
+      <c r="N64" s="191"/>
       <c r="O64" s="84"/>
       <c r="P64" s="84"/>
       <c r="Q64" s="76"/>
@@ -10945,10 +10976,10 @@
       <c r="H65" s="63"/>
       <c r="I65" s="63"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="187"/>
-      <c r="L65" s="188"/>
-      <c r="M65" s="188"/>
-      <c r="N65" s="189"/>
+      <c r="K65" s="189"/>
+      <c r="L65" s="190"/>
+      <c r="M65" s="190"/>
+      <c r="N65" s="191"/>
       <c r="O65" s="84"/>
       <c r="P65" s="84"/>
       <c r="Q65" s="76"/>
@@ -10968,10 +10999,10 @@
       <c r="H66" s="63"/>
       <c r="I66" s="63"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="187"/>
-      <c r="L66" s="188"/>
-      <c r="M66" s="188"/>
-      <c r="N66" s="189"/>
+      <c r="K66" s="189"/>
+      <c r="L66" s="190"/>
+      <c r="M66" s="190"/>
+      <c r="N66" s="191"/>
       <c r="O66" s="84"/>
       <c r="P66" s="84"/>
       <c r="Q66" s="76"/>
@@ -10991,10 +11022,10 @@
       <c r="H67" s="63"/>
       <c r="I67" s="63"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="187"/>
-      <c r="L67" s="188"/>
-      <c r="M67" s="188"/>
-      <c r="N67" s="189"/>
+      <c r="K67" s="189"/>
+      <c r="L67" s="190"/>
+      <c r="M67" s="190"/>
+      <c r="N67" s="191"/>
       <c r="O67" s="84"/>
       <c r="P67" s="84"/>
       <c r="Q67" s="76"/>
@@ -11014,10 +11045,10 @@
       <c r="H68" s="63"/>
       <c r="I68" s="63"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="187"/>
-      <c r="L68" s="188"/>
-      <c r="M68" s="188"/>
-      <c r="N68" s="189"/>
+      <c r="K68" s="189"/>
+      <c r="L68" s="190"/>
+      <c r="M68" s="190"/>
+      <c r="N68" s="191"/>
       <c r="O68" s="84"/>
       <c r="P68" s="84"/>
       <c r="Q68" s="76"/>
@@ -11037,10 +11068,10 @@
       <c r="H69" s="63"/>
       <c r="I69" s="63"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="187"/>
-      <c r="L69" s="188"/>
-      <c r="M69" s="188"/>
-      <c r="N69" s="189"/>
+      <c r="K69" s="189"/>
+      <c r="L69" s="190"/>
+      <c r="M69" s="190"/>
+      <c r="N69" s="191"/>
       <c r="O69" s="84"/>
       <c r="P69" s="84"/>
       <c r="Q69" s="76"/>
@@ -11060,10 +11091,10 @@
       <c r="H70" s="63"/>
       <c r="I70" s="63"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="187"/>
-      <c r="L70" s="188"/>
-      <c r="M70" s="188"/>
-      <c r="N70" s="189"/>
+      <c r="K70" s="189"/>
+      <c r="L70" s="190"/>
+      <c r="M70" s="190"/>
+      <c r="N70" s="191"/>
       <c r="O70" s="84"/>
       <c r="P70" s="84"/>
       <c r="Q70" s="76"/>
@@ -11083,10 +11114,10 @@
       <c r="H71" s="63"/>
       <c r="I71" s="63"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="187"/>
-      <c r="L71" s="188"/>
-      <c r="M71" s="188"/>
-      <c r="N71" s="189"/>
+      <c r="K71" s="189"/>
+      <c r="L71" s="190"/>
+      <c r="M71" s="190"/>
+      <c r="N71" s="191"/>
       <c r="O71" s="84"/>
       <c r="P71" s="84"/>
       <c r="Q71" s="76"/>
@@ -11106,10 +11137,10 @@
       <c r="H72" s="63"/>
       <c r="I72" s="63"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="187"/>
-      <c r="L72" s="188"/>
-      <c r="M72" s="188"/>
-      <c r="N72" s="189"/>
+      <c r="K72" s="189"/>
+      <c r="L72" s="190"/>
+      <c r="M72" s="190"/>
+      <c r="N72" s="191"/>
       <c r="O72" s="84"/>
       <c r="P72" s="84"/>
       <c r="Q72" s="76"/>
@@ -11129,10 +11160,10 @@
       <c r="H73" s="63"/>
       <c r="I73" s="63"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="187"/>
-      <c r="L73" s="188"/>
-      <c r="M73" s="188"/>
-      <c r="N73" s="189"/>
+      <c r="K73" s="189"/>
+      <c r="L73" s="190"/>
+      <c r="M73" s="190"/>
+      <c r="N73" s="191"/>
       <c r="O73" s="84"/>
       <c r="P73" s="84"/>
       <c r="Q73" s="76"/>
@@ -11152,10 +11183,10 @@
       <c r="H74" s="63"/>
       <c r="I74" s="63"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="187"/>
-      <c r="L74" s="188"/>
-      <c r="M74" s="188"/>
-      <c r="N74" s="189"/>
+      <c r="K74" s="189"/>
+      <c r="L74" s="190"/>
+      <c r="M74" s="190"/>
+      <c r="N74" s="191"/>
       <c r="O74" s="84"/>
       <c r="P74" s="84"/>
       <c r="Q74" s="76"/>
@@ -11175,10 +11206,10 @@
       <c r="H75" s="63"/>
       <c r="I75" s="63"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="187"/>
-      <c r="L75" s="188"/>
-      <c r="M75" s="188"/>
-      <c r="N75" s="189"/>
+      <c r="K75" s="189"/>
+      <c r="L75" s="190"/>
+      <c r="M75" s="190"/>
+      <c r="N75" s="191"/>
       <c r="O75" s="84"/>
       <c r="P75" s="84"/>
       <c r="Q75" s="76"/>
@@ -11198,10 +11229,10 @@
       <c r="H76" s="63"/>
       <c r="I76" s="63"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="187"/>
-      <c r="L76" s="188"/>
-      <c r="M76" s="188"/>
-      <c r="N76" s="189"/>
+      <c r="K76" s="189"/>
+      <c r="L76" s="190"/>
+      <c r="M76" s="190"/>
+      <c r="N76" s="191"/>
       <c r="O76" s="84"/>
       <c r="P76" s="84"/>
       <c r="Q76" s="76"/>
@@ -11221,10 +11252,10 @@
       <c r="H77" s="63"/>
       <c r="I77" s="63"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="187"/>
-      <c r="L77" s="188"/>
-      <c r="M77" s="188"/>
-      <c r="N77" s="189"/>
+      <c r="K77" s="189"/>
+      <c r="L77" s="190"/>
+      <c r="M77" s="190"/>
+      <c r="N77" s="191"/>
       <c r="O77" s="84"/>
       <c r="P77" s="84"/>
       <c r="Q77" s="76"/>
@@ -11244,10 +11275,10 @@
       <c r="H78" s="63"/>
       <c r="I78" s="63"/>
       <c r="J78" s="40"/>
-      <c r="K78" s="187"/>
-      <c r="L78" s="188"/>
-      <c r="M78" s="188"/>
-      <c r="N78" s="189"/>
+      <c r="K78" s="189"/>
+      <c r="L78" s="190"/>
+      <c r="M78" s="190"/>
+      <c r="N78" s="191"/>
       <c r="O78" s="84"/>
       <c r="P78" s="84"/>
       <c r="Q78" s="76"/>
@@ -11267,10 +11298,10 @@
       <c r="H79" s="63"/>
       <c r="I79" s="63"/>
       <c r="J79" s="40"/>
-      <c r="K79" s="187"/>
-      <c r="L79" s="188"/>
-      <c r="M79" s="188"/>
-      <c r="N79" s="189"/>
+      <c r="K79" s="189"/>
+      <c r="L79" s="190"/>
+      <c r="M79" s="190"/>
+      <c r="N79" s="191"/>
       <c r="O79" s="84"/>
       <c r="P79" s="84"/>
       <c r="Q79" s="76"/>
@@ -11290,10 +11321,10 @@
       <c r="H80" s="63"/>
       <c r="I80" s="63"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="187"/>
-      <c r="L80" s="188"/>
-      <c r="M80" s="188"/>
-      <c r="N80" s="189"/>
+      <c r="K80" s="189"/>
+      <c r="L80" s="190"/>
+      <c r="M80" s="190"/>
+      <c r="N80" s="191"/>
       <c r="O80" s="84"/>
       <c r="P80" s="84"/>
       <c r="Q80" s="76"/>
@@ -11313,10 +11344,10 @@
       <c r="H81" s="63"/>
       <c r="I81" s="63"/>
       <c r="J81" s="40"/>
-      <c r="K81" s="187"/>
-      <c r="L81" s="188"/>
-      <c r="M81" s="188"/>
-      <c r="N81" s="189"/>
+      <c r="K81" s="189"/>
+      <c r="L81" s="190"/>
+      <c r="M81" s="190"/>
+      <c r="N81" s="191"/>
       <c r="O81" s="84"/>
       <c r="P81" s="84"/>
       <c r="Q81" s="76"/>
@@ -11336,10 +11367,10 @@
       <c r="H82" s="63"/>
       <c r="I82" s="63"/>
       <c r="J82" s="40"/>
-      <c r="K82" s="187"/>
-      <c r="L82" s="188"/>
-      <c r="M82" s="188"/>
-      <c r="N82" s="189"/>
+      <c r="K82" s="189"/>
+      <c r="L82" s="190"/>
+      <c r="M82" s="190"/>
+      <c r="N82" s="191"/>
       <c r="O82" s="84"/>
       <c r="P82" s="84"/>
       <c r="Q82" s="76"/>
@@ -11359,10 +11390,10 @@
       <c r="H83" s="63"/>
       <c r="I83" s="63"/>
       <c r="J83" s="40"/>
-      <c r="K83" s="187"/>
-      <c r="L83" s="188"/>
-      <c r="M83" s="188"/>
-      <c r="N83" s="189"/>
+      <c r="K83" s="189"/>
+      <c r="L83" s="190"/>
+      <c r="M83" s="190"/>
+      <c r="N83" s="191"/>
       <c r="O83" s="84"/>
       <c r="P83" s="84"/>
       <c r="Q83" s="76"/>
@@ -11382,10 +11413,10 @@
       <c r="H84" s="63"/>
       <c r="I84" s="63"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="187"/>
-      <c r="L84" s="188"/>
-      <c r="M84" s="188"/>
-      <c r="N84" s="189"/>
+      <c r="K84" s="189"/>
+      <c r="L84" s="190"/>
+      <c r="M84" s="190"/>
+      <c r="N84" s="191"/>
       <c r="O84" s="84"/>
       <c r="P84" s="84"/>
       <c r="Q84" s="76"/>
@@ -11405,10 +11436,10 @@
       <c r="H85" s="63"/>
       <c r="I85" s="63"/>
       <c r="J85" s="40"/>
-      <c r="K85" s="187"/>
-      <c r="L85" s="188"/>
-      <c r="M85" s="188"/>
-      <c r="N85" s="189"/>
+      <c r="K85" s="189"/>
+      <c r="L85" s="190"/>
+      <c r="M85" s="190"/>
+      <c r="N85" s="191"/>
       <c r="O85" s="84"/>
       <c r="P85" s="84"/>
       <c r="Q85" s="76"/>
@@ -11428,10 +11459,10 @@
       <c r="H86" s="63"/>
       <c r="I86" s="63"/>
       <c r="J86" s="40"/>
-      <c r="K86" s="187"/>
-      <c r="L86" s="188"/>
-      <c r="M86" s="188"/>
-      <c r="N86" s="189"/>
+      <c r="K86" s="189"/>
+      <c r="L86" s="190"/>
+      <c r="M86" s="190"/>
+      <c r="N86" s="191"/>
       <c r="O86" s="84"/>
       <c r="P86" s="84"/>
       <c r="Q86" s="76"/>
@@ -11451,10 +11482,10 @@
       <c r="H87" s="63"/>
       <c r="I87" s="63"/>
       <c r="J87" s="40"/>
-      <c r="K87" s="187"/>
-      <c r="L87" s="188"/>
-      <c r="M87" s="188"/>
-      <c r="N87" s="189"/>
+      <c r="K87" s="189"/>
+      <c r="L87" s="190"/>
+      <c r="M87" s="190"/>
+      <c r="N87" s="191"/>
       <c r="O87" s="84"/>
       <c r="P87" s="84"/>
       <c r="Q87" s="76"/>
@@ -11474,10 +11505,10 @@
       <c r="H88" s="63"/>
       <c r="I88" s="63"/>
       <c r="J88" s="40"/>
-      <c r="K88" s="187"/>
-      <c r="L88" s="188"/>
-      <c r="M88" s="188"/>
-      <c r="N88" s="189"/>
+      <c r="K88" s="189"/>
+      <c r="L88" s="190"/>
+      <c r="M88" s="190"/>
+      <c r="N88" s="191"/>
       <c r="O88" s="84"/>
       <c r="P88" s="84"/>
       <c r="Q88" s="76"/>
@@ -11497,10 +11528,10 @@
       <c r="H89" s="63"/>
       <c r="I89" s="63"/>
       <c r="J89" s="40"/>
-      <c r="K89" s="187"/>
-      <c r="L89" s="188"/>
-      <c r="M89" s="188"/>
-      <c r="N89" s="189"/>
+      <c r="K89" s="189"/>
+      <c r="L89" s="190"/>
+      <c r="M89" s="190"/>
+      <c r="N89" s="191"/>
       <c r="O89" s="84"/>
       <c r="P89" s="84"/>
       <c r="Q89" s="76"/>
@@ -11520,10 +11551,10 @@
       <c r="H90" s="63"/>
       <c r="I90" s="63"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="187"/>
-      <c r="L90" s="188"/>
-      <c r="M90" s="188"/>
-      <c r="N90" s="189"/>
+      <c r="K90" s="189"/>
+      <c r="L90" s="190"/>
+      <c r="M90" s="190"/>
+      <c r="N90" s="191"/>
       <c r="O90" s="84"/>
       <c r="P90" s="84"/>
       <c r="Q90" s="76"/>
@@ -11543,10 +11574,10 @@
       <c r="H91" s="63"/>
       <c r="I91" s="63"/>
       <c r="J91" s="40"/>
-      <c r="K91" s="187"/>
-      <c r="L91" s="188"/>
-      <c r="M91" s="188"/>
-      <c r="N91" s="189"/>
+      <c r="K91" s="189"/>
+      <c r="L91" s="190"/>
+      <c r="M91" s="190"/>
+      <c r="N91" s="191"/>
       <c r="O91" s="84"/>
       <c r="P91" s="84"/>
       <c r="Q91" s="76"/>
@@ -11566,10 +11597,10 @@
       <c r="H92" s="63"/>
       <c r="I92" s="63"/>
       <c r="J92" s="40"/>
-      <c r="K92" s="187"/>
-      <c r="L92" s="188"/>
-      <c r="M92" s="188"/>
-      <c r="N92" s="189"/>
+      <c r="K92" s="189"/>
+      <c r="L92" s="190"/>
+      <c r="M92" s="190"/>
+      <c r="N92" s="191"/>
       <c r="O92" s="84"/>
       <c r="P92" s="84"/>
       <c r="Q92" s="76"/>
@@ -11589,10 +11620,10 @@
       <c r="H93" s="63"/>
       <c r="I93" s="63"/>
       <c r="J93" s="40"/>
-      <c r="K93" s="187"/>
-      <c r="L93" s="188"/>
-      <c r="M93" s="188"/>
-      <c r="N93" s="189"/>
+      <c r="K93" s="189"/>
+      <c r="L93" s="190"/>
+      <c r="M93" s="190"/>
+      <c r="N93" s="191"/>
       <c r="O93" s="84"/>
       <c r="P93" s="84"/>
       <c r="Q93" s="76"/>
@@ -11612,10 +11643,10 @@
       <c r="H94" s="63"/>
       <c r="I94" s="63"/>
       <c r="J94" s="40"/>
-      <c r="K94" s="187"/>
-      <c r="L94" s="188"/>
-      <c r="M94" s="188"/>
-      <c r="N94" s="189"/>
+      <c r="K94" s="189"/>
+      <c r="L94" s="190"/>
+      <c r="M94" s="190"/>
+      <c r="N94" s="191"/>
       <c r="O94" s="84"/>
       <c r="P94" s="84"/>
       <c r="Q94" s="76"/>
@@ -11635,10 +11666,10 @@
       <c r="H95" s="63"/>
       <c r="I95" s="63"/>
       <c r="J95" s="40"/>
-      <c r="K95" s="187"/>
-      <c r="L95" s="188"/>
-      <c r="M95" s="188"/>
-      <c r="N95" s="189"/>
+      <c r="K95" s="189"/>
+      <c r="L95" s="190"/>
+      <c r="M95" s="190"/>
+      <c r="N95" s="191"/>
       <c r="O95" s="84"/>
       <c r="P95" s="84"/>
       <c r="Q95" s="76"/>
@@ -11651,6 +11682,85 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="95">
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K95:N95"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="K15:N15"/>
     <mergeCell ref="K16:N16"/>
@@ -11667,85 +11777,6 @@
     <mergeCell ref="K11:N11"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K95:N95"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
-    <mergeCell ref="K93:N93"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048468:Q1048576 Q5:Q95"/>
@@ -11774,7 +11805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -11791,10 +11822,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
+      <c r="B1" s="151"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -11825,8 +11856,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="151"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -11885,7 +11916,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -11976,8 +12007,8 @@
       <c r="J12" s="46"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="139" t="s">
-        <v>272</v>
+      <c r="C13" s="138" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -12031,11 +12062,11 @@
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="43"/>
       <c r="C18" s="86" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
-      <c r="F18" s="128"/>
+      <c r="F18" s="127"/>
       <c r="G18" s="43"/>
       <c r="H18" s="43"/>
       <c r="I18" s="43"/>
@@ -12105,7 +12136,7 @@
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="42"/>
       <c r="B24" s="80" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C24" s="43"/>
       <c r="D24" s="43"/>
@@ -12119,7 +12150,7 @@
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="42"/>
       <c r="B25" s="86" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="43"/>
@@ -12133,7 +12164,7 @@
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="42"/>
       <c r="B26" s="80" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
@@ -12147,7 +12178,7 @@
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="42"/>
       <c r="B27" s="86" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
@@ -12161,7 +12192,7 @@
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="42"/>
       <c r="B28" s="80" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C28" s="43"/>
       <c r="D28" s="43"/>
@@ -12175,7 +12206,7 @@
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="42"/>
       <c r="B29" s="86" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>
@@ -12188,8 +12219,8 @@
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="42"/>
-      <c r="B30" s="128" t="s">
-        <v>277</v>
+      <c r="B30" s="127" t="s">
+        <v>274</v>
       </c>
       <c r="C30" s="43"/>
       <c r="D30" s="43"/>
@@ -12203,7 +12234,7 @@
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="42"/>
       <c r="B31" s="86" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C31" s="43"/>
       <c r="D31" s="43"/>
@@ -12217,7 +12248,7 @@
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="42"/>
       <c r="B32" s="86" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C32" s="43"/>
       <c r="D32" s="43"/>
@@ -12231,7 +12262,7 @@
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="42"/>
       <c r="B33" s="86" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C33" s="43"/>
       <c r="D33" s="43"/>
@@ -12245,7 +12276,7 @@
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="42"/>
       <c r="B34" s="80" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C34" s="43"/>
       <c r="D34" s="43"/>
@@ -12259,7 +12290,7 @@
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="42"/>
       <c r="B35" s="86" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
@@ -12271,8 +12302,8 @@
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="42"/>
-      <c r="B36" s="128" t="s">
-        <v>287</v>
+      <c r="B36" s="127" t="s">
+        <v>284</v>
       </c>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
@@ -12285,7 +12316,7 @@
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="42"/>
       <c r="B37" s="86" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
@@ -12298,7 +12329,7 @@
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="42"/>
       <c r="B38" s="86" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
@@ -12311,7 +12342,7 @@
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="42"/>
       <c r="B39" s="80" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
@@ -12325,7 +12356,7 @@
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="42"/>
       <c r="B40" s="86" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C40" s="43"/>
       <c r="D40" s="43"/>
@@ -12339,7 +12370,7 @@
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="42"/>
       <c r="B41" s="80" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C41" s="43"/>
       <c r="D41" s="43"/>
@@ -12353,7 +12384,7 @@
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="42"/>
       <c r="B42" s="86" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
@@ -12582,12 +12613,12 @@
     </row>
     <row r="61" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="86" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C61" s="86"/>
       <c r="D61" s="43"/>
       <c r="E61" s="43"/>
-      <c r="F61" s="128"/>
+      <c r="F61" s="127"/>
       <c r="G61" s="43"/>
       <c r="H61" s="43"/>
       <c r="I61" s="43"/>
@@ -12619,12 +12650,12 @@
     </row>
     <row r="64" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="86" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C64" s="43"/>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
-      <c r="F64" s="128"/>
+      <c r="F64" s="127"/>
       <c r="G64" s="43"/>
       <c r="H64" s="43"/>
       <c r="I64" s="43"/>
@@ -12635,7 +12666,7 @@
       <c r="C65" s="43"/>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
-      <c r="F65" s="128"/>
+      <c r="F65" s="127"/>
       <c r="G65" s="43"/>
       <c r="H65" s="43"/>
       <c r="I65" s="43"/>
@@ -12670,12 +12701,12 @@
     </row>
     <row r="68" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="86" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C68" s="86"/>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
-      <c r="F68" s="128"/>
+      <c r="F68" s="127"/>
       <c r="G68" s="43"/>
       <c r="H68" s="43"/>
       <c r="I68" s="43"/>
@@ -13157,10 +13188,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
+      <c r="B1" s="151"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13188,8 +13219,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="151"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13600,14 +13631,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="191" t="s">
+      <c r="B1" s="193" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="16"/>
@@ -13800,11 +13831,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="192" t="s">
+      <c r="E27" s="194" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="193"/>
-      <c r="G27" s="194"/>
+      <c r="F27" s="195"/>
+      <c r="G27" s="196"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="19" t="s">

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc so do tuyen/CF0143_Danh muc so do tuyen.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc so do tuyen/CF0143_Danh muc so do tuyen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="4" r:id="rId1"/>
@@ -1391,7 +1391,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="300">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2382,21 +2382,12 @@
 @@RouteID</t>
   </si>
   <si>
-    <t>EXEC PROCEDURE [dbo].[CP0143]  
- @DivisionID NVARCHAR(50),
- @RouteIDList NVARCHAR(MAX)</t>
-  </si>
-  <si>
     <t>Thỏa câu @SQL0002 thì thực thi câu SQL này</t>
   </si>
   <si>
     <t>Thực thi câu SQL này khi thực hiện menuItem Print</t>
   </si>
   <si>
-    <t>@DivisioID
-@RouteIDList</t>
-  </si>
-  <si>
     <t>Truy vấn danh mục sơ đồ tuyến</t>
   </si>
   <si>
@@ -2455,9 +2446,6 @@
   </si>
   <si>
     <t xml:space="preserve">- Thực thi @SQL0005 gọi store in báo cáo sơ đồ tuyến </t>
-  </si>
-  <si>
-    <t>- Thực hiện in mẫu báo cáo sơ đồ tuyến AR0135</t>
   </si>
   <si>
     <t>Tham khảo luồng nghiệp vụ 6</t>
@@ -2501,8 +2489,16 @@
 0</t>
   </si>
   <si>
-    <t>@@DivisionID
-@@RouteIDList</t>
+    <t>EXEC PROCEDURE [dbo].[CP0143]  
+ @DivisionID NVARCHAR(50),
+ @RouteID NVARCHAR(MAX)</t>
+  </si>
+  <si>
+    <t>@DivisioID
+@RouteID</t>
+  </si>
+  <si>
+    <t>- Thực hiện in mẫu báo cáo sơ đồ tuyến AR0143</t>
   </si>
 </sst>
 </file>
@@ -2961,7 +2957,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3327,6 +3323,12 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3354,9 +3356,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3426,6 +3425,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3440,24 +3457,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3866,10 +3865,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
+      <c r="B1" s="153"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -3896,8 +3895,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="151"/>
-      <c r="B2" s="151"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -3936,14 +3935,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="152" t="s">
+      <c r="E4" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="40">
@@ -3959,14 +3958,14 @@
       <c r="D5" s="101" t="s">
         <v>225</v>
       </c>
-      <c r="E5" s="153" t="s">
+      <c r="E5" s="155" t="s">
         <v>226</v>
       </c>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="91">
@@ -3977,12 +3976,12 @@
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="157"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="158"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="92">
@@ -3993,12 +3992,12 @@
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="149"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="93">
@@ -4009,12 +4008,12 @@
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="150"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="152"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="94">
@@ -4025,12 +4024,12 @@
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="147"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="149"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="95">
@@ -4041,12 +4040,12 @@
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="149"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="96">
@@ -4057,12 +4056,12 @@
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="149"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="97">
@@ -4073,12 +4072,12 @@
       </c>
       <c r="C12" s="79"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="149"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="98">
@@ -4089,12 +4088,12 @@
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="149"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="99">
@@ -4105,12 +4104,12 @@
       </c>
       <c r="C14" s="79"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="149"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40">
@@ -4121,12 +4120,12 @@
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="146"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="91">
@@ -4137,12 +4136,12 @@
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="146"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="92">
@@ -4153,12 +4152,12 @@
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="146"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="93">
@@ -4169,12 +4168,12 @@
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="154"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="146"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="94">
@@ -4185,12 +4184,12 @@
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="154"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="146"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="95">
@@ -4201,12 +4200,12 @@
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="154"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="154"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="146"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="96">
@@ -4217,12 +4216,12 @@
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="154"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="146"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="97">
@@ -4233,12 +4232,12 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="154"/>
-      <c r="I22" s="154"/>
-      <c r="J22" s="154"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="146"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="98">
@@ -4249,12 +4248,12 @@
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="154"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="146"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="99">
@@ -4265,12 +4264,12 @@
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="154"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="154"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="146"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="40">
@@ -4281,12 +4280,12 @@
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="154"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="146"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="91">
@@ -4297,12 +4296,12 @@
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="154"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="146"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="92">
@@ -4313,12 +4312,12 @@
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="154"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="146"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="93">
@@ -4329,12 +4328,12 @@
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="94">
@@ -4345,12 +4344,12 @@
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="154"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="95">
@@ -4361,12 +4360,12 @@
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="154"/>
-      <c r="I30" s="154"/>
-      <c r="J30" s="154"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="96">
@@ -4377,12 +4376,12 @@
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="154"/>
-      <c r="I31" s="154"/>
-      <c r="J31" s="154"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="146"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="97">
@@ -4393,12 +4392,12 @@
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="154"/>
-      <c r="G32" s="154"/>
-      <c r="H32" s="154"/>
-      <c r="I32" s="154"/>
-      <c r="J32" s="154"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="98">
@@ -4409,12 +4408,12 @@
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="154"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="154"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="146"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="99">
@@ -4425,12 +4424,12 @@
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="154"/>
-      <c r="H34" s="154"/>
-      <c r="I34" s="154"/>
-      <c r="J34" s="154"/>
+      <c r="E34" s="146"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="146"/>
+      <c r="J34" s="146"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="40">
@@ -4441,12 +4440,12 @@
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="154"/>
-      <c r="F35" s="154"/>
-      <c r="G35" s="154"/>
-      <c r="H35" s="154"/>
-      <c r="I35" s="154"/>
-      <c r="J35" s="154"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="146"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="91">
@@ -4457,12 +4456,12 @@
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="154"/>
-      <c r="F36" s="154"/>
-      <c r="G36" s="154"/>
-      <c r="H36" s="154"/>
-      <c r="I36" s="154"/>
-      <c r="J36" s="154"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="146"/>
+      <c r="G36" s="146"/>
+      <c r="H36" s="146"/>
+      <c r="I36" s="146"/>
+      <c r="J36" s="146"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="92">
@@ -4473,12 +4472,12 @@
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="154"/>
-      <c r="F37" s="154"/>
-      <c r="G37" s="154"/>
-      <c r="H37" s="154"/>
-      <c r="I37" s="154"/>
-      <c r="J37" s="154"/>
+      <c r="E37" s="146"/>
+      <c r="F37" s="146"/>
+      <c r="G37" s="146"/>
+      <c r="H37" s="146"/>
+      <c r="I37" s="146"/>
+      <c r="J37" s="146"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="93">
@@ -4489,12 +4488,12 @@
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="154"/>
-      <c r="F38" s="154"/>
-      <c r="G38" s="154"/>
-      <c r="H38" s="154"/>
-      <c r="I38" s="154"/>
-      <c r="J38" s="154"/>
+      <c r="E38" s="146"/>
+      <c r="F38" s="146"/>
+      <c r="G38" s="146"/>
+      <c r="H38" s="146"/>
+      <c r="I38" s="146"/>
+      <c r="J38" s="146"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="94">
@@ -4505,12 +4504,12 @@
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="154"/>
-      <c r="F39" s="154"/>
-      <c r="G39" s="154"/>
-      <c r="H39" s="154"/>
-      <c r="I39" s="154"/>
-      <c r="J39" s="154"/>
+      <c r="E39" s="146"/>
+      <c r="F39" s="146"/>
+      <c r="G39" s="146"/>
+      <c r="H39" s="146"/>
+      <c r="I39" s="146"/>
+      <c r="J39" s="146"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="95">
@@ -4521,12 +4520,12 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="154"/>
-      <c r="F40" s="154"/>
-      <c r="G40" s="154"/>
-      <c r="H40" s="154"/>
-      <c r="I40" s="154"/>
-      <c r="J40" s="154"/>
+      <c r="E40" s="146"/>
+      <c r="F40" s="146"/>
+      <c r="G40" s="146"/>
+      <c r="H40" s="146"/>
+      <c r="I40" s="146"/>
+      <c r="J40" s="146"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="96">
@@ -4537,12 +4536,12 @@
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="154"/>
-      <c r="F41" s="154"/>
-      <c r="G41" s="154"/>
-      <c r="H41" s="154"/>
-      <c r="I41" s="154"/>
-      <c r="J41" s="154"/>
+      <c r="E41" s="146"/>
+      <c r="F41" s="146"/>
+      <c r="G41" s="146"/>
+      <c r="H41" s="146"/>
+      <c r="I41" s="146"/>
+      <c r="J41" s="146"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="97">
@@ -4553,32 +4552,23 @@
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="154"/>
-      <c r="F42" s="154"/>
-      <c r="G42" s="154"/>
-      <c r="H42" s="154"/>
-      <c r="I42" s="154"/>
-      <c r="J42" s="154"/>
+      <c r="E42" s="146"/>
+      <c r="F42" s="146"/>
+      <c r="G42" s="146"/>
+      <c r="H42" s="146"/>
+      <c r="I42" s="146"/>
+      <c r="J42" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -4594,14 +4584,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -4816,10 +4815,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
+      <c r="B1" s="153"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -4850,8 +4849,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="151"/>
-      <c r="B2" s="151"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -4882,20 +4881,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="158" t="s">
+      <c r="A4" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="160"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="158" t="s">
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="159"/>
+      <c r="J4" s="160"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="42"/>
@@ -4906,10 +4905,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="167" t="s">
+      <c r="I5" s="168" t="s">
         <v>227</v>
       </c>
-      <c r="J5" s="168"/>
+      <c r="J5" s="169"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42"/>
@@ -4920,8 +4919,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="171"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="42"/>
@@ -4932,8 +4931,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="171"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="42"/>
@@ -4944,8 +4943,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="171"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="42"/>
@@ -4956,8 +4955,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="169"/>
-      <c r="J9" s="170"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="171"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="42"/>
@@ -4968,8 +4967,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="172"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="173"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="42"/>
@@ -4980,10 +4979,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="158" t="s">
+      <c r="I11" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="159"/>
+      <c r="J11" s="160"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="42"/>
@@ -4994,10 +4993,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="161" t="s">
+      <c r="I12" s="162" t="s">
         <v>172</v>
       </c>
-      <c r="J12" s="162"/>
+      <c r="J12" s="163"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="42"/>
@@ -5008,8 +5007,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="165"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="42"/>
@@ -5020,8 +5019,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="165"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="42"/>
@@ -5032,8 +5031,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="165"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="42"/>
@@ -5044,8 +5043,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="165"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="42"/>
@@ -5056,8 +5055,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="164"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="165"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="42"/>
@@ -5068,8 +5067,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="164"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="165"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="42"/>
@@ -5080,8 +5079,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="164"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="165"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="42"/>
@@ -5092,8 +5091,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="164"/>
+      <c r="I20" s="164"/>
+      <c r="J20" s="165"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="42"/>
@@ -5104,8 +5103,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="165"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="42"/>
@@ -5116,8 +5115,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="164"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="165"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
@@ -5128,8 +5127,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="164"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="165"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="42"/>
@@ -5140,8 +5139,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="163"/>
-      <c r="J24" s="164"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="165"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="42"/>
@@ -5152,8 +5151,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="163"/>
-      <c r="J25" s="164"/>
+      <c r="I25" s="164"/>
+      <c r="J25" s="165"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="42"/>
@@ -5164,8 +5163,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="165"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="42"/>
@@ -5176,8 +5175,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="164"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="165"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="42"/>
@@ -5188,8 +5187,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="163"/>
-      <c r="J28" s="164"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="165"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="42"/>
@@ -5200,8 +5199,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="163"/>
-      <c r="J29" s="164"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="165"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="42"/>
@@ -5212,8 +5211,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="163"/>
-      <c r="J30" s="164"/>
+      <c r="I30" s="164"/>
+      <c r="J30" s="165"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="42"/>
@@ -5224,8 +5223,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="163"/>
-      <c r="J31" s="164"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="165"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="42"/>
@@ -5236,8 +5235,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="163"/>
-      <c r="J32" s="164"/>
+      <c r="I32" s="164"/>
+      <c r="J32" s="165"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="42"/>
@@ -5248,8 +5247,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="163"/>
-      <c r="J33" s="164"/>
+      <c r="I33" s="164"/>
+      <c r="J33" s="165"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="42"/>
@@ -5260,8 +5259,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="163"/>
-      <c r="J34" s="164"/>
+      <c r="I34" s="164"/>
+      <c r="J34" s="165"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="42"/>
@@ -5272,8 +5271,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="163"/>
-      <c r="J35" s="164"/>
+      <c r="I35" s="164"/>
+      <c r="J35" s="165"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="42"/>
@@ -5284,8 +5283,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="163"/>
-      <c r="J36" s="164"/>
+      <c r="I36" s="164"/>
+      <c r="J36" s="165"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="42"/>
@@ -5296,8 +5295,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="163"/>
-      <c r="J37" s="164"/>
+      <c r="I37" s="164"/>
+      <c r="J37" s="165"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="42"/>
@@ -5308,8 +5307,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="163"/>
-      <c r="J38" s="164"/>
+      <c r="I38" s="164"/>
+      <c r="J38" s="165"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="42"/>
@@ -5320,8 +5319,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="163"/>
-      <c r="J39" s="164"/>
+      <c r="I39" s="164"/>
+      <c r="J39" s="165"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="42"/>
@@ -5332,8 +5331,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="163"/>
-      <c r="J40" s="164"/>
+      <c r="I40" s="164"/>
+      <c r="J40" s="165"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="42"/>
@@ -5344,8 +5343,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="163"/>
-      <c r="J41" s="164"/>
+      <c r="I41" s="164"/>
+      <c r="J41" s="165"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="42"/>
@@ -5356,8 +5355,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="163"/>
-      <c r="J42" s="164"/>
+      <c r="I42" s="164"/>
+      <c r="J42" s="165"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="47"/>
@@ -5368,8 +5367,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="165"/>
-      <c r="J43" s="166"/>
+      <c r="I43" s="166"/>
+      <c r="J43" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5399,8 +5398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="4" topLeftCell="H29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
@@ -5428,13 +5427,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -5442,16 +5441,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="173" t="s">
+      <c r="H1" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="174"/>
-      <c r="J1" s="175" t="str">
+      <c r="I1" s="175"/>
+      <c r="J1" s="176" t="str">
         <f>'Update History'!F1</f>
         <v>CF0143</v>
       </c>
-      <c r="K1" s="176"/>
-      <c r="L1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="178"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -5468,11 +5467,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="151"/>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -5480,16 +5479,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="H2" s="173" t="s">
+      <c r="H2" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="174"/>
-      <c r="J2" s="175" t="str">
+      <c r="I2" s="175"/>
+      <c r="J2" s="176" t="str">
         <f>'Update History'!F2</f>
         <v>Danh mục sơ đồ tuyến</v>
       </c>
-      <c r="K2" s="176"/>
-      <c r="L2" s="177"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="178"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -7880,7 +7879,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="183" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="134"/>
@@ -7917,7 +7916,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="188"/>
+      <c r="A2" s="184"/>
       <c r="B2" s="135"/>
       <c r="C2" s="141"/>
       <c r="D2" s="31" t="s">
@@ -7970,15 +7969,15 @@
       <c r="F4" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="151" t="s">
+      <c r="G4" s="153" t="s">
         <v>132</v>
       </c>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151" t="s">
+      <c r="H4" s="153"/>
+      <c r="I4" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="151"/>
-      <c r="K4" s="151"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
@@ -7999,13 +7998,13 @@
       <c r="F5" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="G5" s="185" t="s">
+      <c r="G5" s="179" t="s">
         <v>249</v>
       </c>
-      <c r="H5" s="186"/>
-      <c r="I5" s="178"/>
-      <c r="J5" s="179"/>
-      <c r="K5" s="180"/>
+      <c r="H5" s="180"/>
+      <c r="I5" s="185"/>
+      <c r="J5" s="186"/>
+      <c r="K5" s="187"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
@@ -8026,13 +8025,13 @@
       <c r="F6" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="G6" s="183" t="s">
+      <c r="G6" s="181" t="s">
         <v>257</v>
       </c>
-      <c r="H6" s="184"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="179"/>
-      <c r="K6" s="180"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="185"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="187"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
@@ -8053,13 +8052,13 @@
       <c r="F7" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="G7" s="183" t="s">
+      <c r="G7" s="181" t="s">
         <v>257</v>
       </c>
-      <c r="H7" s="184"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="179"/>
-      <c r="K7" s="180"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="185"/>
+      <c r="J7" s="186"/>
+      <c r="K7" s="187"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -8080,13 +8079,13 @@
       <c r="F8" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="G8" s="185" t="s">
+      <c r="G8" s="179" t="s">
         <v>245</v>
       </c>
-      <c r="H8" s="186"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="179"/>
-      <c r="K8" s="180"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="186"/>
+      <c r="K8" s="187"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
@@ -8099,7 +8098,7 @@
         <v>51</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E9" s="136" t="s">
         <v>135</v>
@@ -8107,10 +8106,10 @@
       <c r="F9" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="G9" s="183" t="s">
-        <v>293</v>
-      </c>
-      <c r="H9" s="184"/>
+      <c r="G9" s="181" t="s">
+        <v>290</v>
+      </c>
+      <c r="H9" s="182"/>
       <c r="I9" s="131"/>
       <c r="J9" s="132"/>
       <c r="K9" s="133"/>
@@ -8134,13 +8133,13 @@
       <c r="F10" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="G10" s="185" t="s">
+      <c r="G10" s="179" t="s">
         <v>247</v>
       </c>
-      <c r="H10" s="186"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="180"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="185"/>
+      <c r="J10" s="186"/>
+      <c r="K10" s="187"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
@@ -8161,13 +8160,13 @@
       <c r="F11" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="G11" s="185" t="s">
+      <c r="G11" s="179" t="s">
         <v>248</v>
       </c>
-      <c r="H11" s="186"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="180"/>
+      <c r="H11" s="180"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="186"/>
+      <c r="K11" s="187"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
@@ -8178,11 +8177,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="181"/>
-      <c r="H12" s="182"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="180"/>
+      <c r="G12" s="188"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="185"/>
+      <c r="J12" s="186"/>
+      <c r="K12" s="187"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
@@ -8193,11 +8192,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="180"/>
+      <c r="G13" s="188"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="185"/>
+      <c r="J13" s="186"/>
+      <c r="K13" s="187"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
@@ -8208,11 +8207,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="181"/>
-      <c r="H14" s="182"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="179"/>
-      <c r="K14" s="180"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="185"/>
+      <c r="J14" s="186"/>
+      <c r="K14" s="187"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -8223,11 +8222,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="179"/>
-      <c r="K15" s="180"/>
+      <c r="G15" s="188"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="186"/>
+      <c r="K15" s="187"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -8238,11 +8237,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="181"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="179"/>
-      <c r="K16" s="180"/>
+      <c r="G16" s="188"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="186"/>
+      <c r="K16" s="187"/>
     </row>
     <row r="17" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -8253,11 +8252,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="182"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="179"/>
-      <c r="K17" s="180"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="189"/>
+      <c r="I17" s="185"/>
+      <c r="J17" s="186"/>
+      <c r="K17" s="187"/>
     </row>
     <row r="18" spans="1:11" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -8268,11 +8267,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="181"/>
-      <c r="H18" s="182"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="179"/>
-      <c r="K18" s="180"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="185"/>
+      <c r="J18" s="186"/>
+      <c r="K18" s="187"/>
     </row>
     <row r="19" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -8283,11 +8282,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="182"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="179"/>
-      <c r="K19" s="180"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="185"/>
+      <c r="J19" s="186"/>
+      <c r="K19" s="187"/>
     </row>
     <row r="20" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
@@ -8298,11 +8297,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="181"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="179"/>
-      <c r="K20" s="180"/>
+      <c r="G20" s="188"/>
+      <c r="H20" s="189"/>
+      <c r="I20" s="185"/>
+      <c r="J20" s="186"/>
+      <c r="K20" s="187"/>
     </row>
     <row r="21" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
@@ -8313,11 +8312,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="181"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="179"/>
-      <c r="K21" s="180"/>
+      <c r="G21" s="188"/>
+      <c r="H21" s="189"/>
+      <c r="I21" s="185"/>
+      <c r="J21" s="186"/>
+      <c r="K21" s="187"/>
     </row>
     <row r="22" spans="1:11" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
@@ -8328,11 +8327,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="181"/>
-      <c r="H22" s="182"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="179"/>
-      <c r="K22" s="180"/>
+      <c r="G22" s="188"/>
+      <c r="H22" s="189"/>
+      <c r="I22" s="185"/>
+      <c r="J22" s="186"/>
+      <c r="K22" s="187"/>
     </row>
     <row r="23" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
@@ -8343,11 +8342,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="179"/>
-      <c r="K23" s="180"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="185"/>
+      <c r="J23" s="186"/>
+      <c r="K23" s="187"/>
     </row>
     <row r="24" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
@@ -8358,11 +8357,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="179"/>
-      <c r="K24" s="180"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="185"/>
+      <c r="J24" s="186"/>
+      <c r="K24" s="187"/>
     </row>
     <row r="25" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
@@ -8373,11 +8372,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="179"/>
-      <c r="K25" s="180"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="185"/>
+      <c r="J25" s="186"/>
+      <c r="K25" s="187"/>
     </row>
     <row r="26" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
@@ -8388,11 +8387,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="147"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="179"/>
-      <c r="K26" s="180"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="185"/>
+      <c r="J26" s="186"/>
+      <c r="K26" s="187"/>
     </row>
     <row r="27" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
@@ -8403,11 +8402,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="179"/>
-      <c r="K27" s="180"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="185"/>
+      <c r="J27" s="186"/>
+      <c r="K27" s="187"/>
     </row>
     <row r="28" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
@@ -8418,11 +8417,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="147"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="179"/>
-      <c r="K28" s="180"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="186"/>
+      <c r="K28" s="187"/>
     </row>
     <row r="29" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
@@ -8433,11 +8432,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="179"/>
-      <c r="K29" s="180"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="185"/>
+      <c r="J29" s="186"/>
+      <c r="K29" s="187"/>
     </row>
     <row r="30" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
@@ -8448,11 +8447,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="179"/>
-      <c r="K30" s="180"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="186"/>
+      <c r="K30" s="187"/>
     </row>
     <row r="31" spans="1:11" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
@@ -8463,11 +8462,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="147"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="179"/>
-      <c r="K31" s="180"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="185"/>
+      <c r="J31" s="186"/>
+      <c r="K31" s="187"/>
     </row>
     <row r="32" spans="1:11" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33">
@@ -8478,11 +8477,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="178"/>
-      <c r="J32" s="179"/>
-      <c r="K32" s="180"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="185"/>
+      <c r="J32" s="186"/>
+      <c r="K32" s="187"/>
     </row>
     <row r="33" spans="1:19" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A33" s="33">
@@ -8493,11 +8492,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="178"/>
-      <c r="J33" s="179"/>
-      <c r="K33" s="180"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="185"/>
+      <c r="J33" s="186"/>
+      <c r="K33" s="187"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -8515,11 +8514,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="145"/>
-      <c r="H34" s="147"/>
-      <c r="I34" s="178"/>
-      <c r="J34" s="179"/>
-      <c r="K34" s="180"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="185"/>
+      <c r="J34" s="186"/>
+      <c r="K34" s="187"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -8537,11 +8536,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="145"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="178"/>
-      <c r="J35" s="179"/>
-      <c r="K35" s="180"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="185"/>
+      <c r="J35" s="186"/>
+      <c r="K35" s="187"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -8559,11 +8558,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="145"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="178"/>
-      <c r="J36" s="179"/>
-      <c r="K36" s="180"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="185"/>
+      <c r="J36" s="186"/>
+      <c r="K36" s="187"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -8581,11 +8580,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="145"/>
-      <c r="H37" s="147"/>
-      <c r="I37" s="178"/>
-      <c r="J37" s="179"/>
-      <c r="K37" s="180"/>
+      <c r="G37" s="147"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="185"/>
+      <c r="J37" s="186"/>
+      <c r="K37" s="187"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -8603,11 +8602,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="145"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="178"/>
-      <c r="J38" s="179"/>
-      <c r="K38" s="180"/>
+      <c r="G38" s="147"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="185"/>
+      <c r="J38" s="186"/>
+      <c r="K38" s="187"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -8625,11 +8624,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="145"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="178"/>
-      <c r="J39" s="179"/>
-      <c r="K39" s="180"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="185"/>
+      <c r="J39" s="186"/>
+      <c r="K39" s="187"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -8647,11 +8646,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="145"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="178"/>
-      <c r="J40" s="179"/>
-      <c r="K40" s="180"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="185"/>
+      <c r="J40" s="186"/>
+      <c r="K40" s="187"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -8669,11 +8668,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="145"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="178"/>
-      <c r="J41" s="179"/>
-      <c r="K41" s="180"/>
+      <c r="G41" s="147"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="185"/>
+      <c r="J41" s="186"/>
+      <c r="K41" s="187"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -8691,11 +8690,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="145"/>
-      <c r="H42" s="147"/>
-      <c r="I42" s="178"/>
-      <c r="J42" s="179"/>
-      <c r="K42" s="180"/>
+      <c r="G42" s="147"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="185"/>
+      <c r="J42" s="186"/>
+      <c r="K42" s="187"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -8713,11 +8712,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="145"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="178"/>
-      <c r="J43" s="179"/>
-      <c r="K43" s="180"/>
+      <c r="G43" s="147"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="185"/>
+      <c r="J43" s="186"/>
+      <c r="K43" s="187"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -8735,11 +8734,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="145"/>
-      <c r="H44" s="147"/>
-      <c r="I44" s="178"/>
-      <c r="J44" s="179"/>
-      <c r="K44" s="180"/>
+      <c r="G44" s="147"/>
+      <c r="H44" s="149"/>
+      <c r="I44" s="185"/>
+      <c r="J44" s="186"/>
+      <c r="K44" s="187"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -8757,11 +8756,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="145"/>
-      <c r="H45" s="147"/>
-      <c r="I45" s="178"/>
-      <c r="J45" s="179"/>
-      <c r="K45" s="180"/>
+      <c r="G45" s="147"/>
+      <c r="H45" s="149"/>
+      <c r="I45" s="185"/>
+      <c r="J45" s="186"/>
+      <c r="K45" s="187"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -8779,11 +8778,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="145"/>
-      <c r="H46" s="147"/>
-      <c r="I46" s="178"/>
-      <c r="J46" s="179"/>
-      <c r="K46" s="180"/>
+      <c r="G46" s="147"/>
+      <c r="H46" s="149"/>
+      <c r="I46" s="185"/>
+      <c r="J46" s="186"/>
+      <c r="K46" s="187"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -8801,11 +8800,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="145"/>
-      <c r="H47" s="147"/>
-      <c r="I47" s="178"/>
-      <c r="J47" s="179"/>
-      <c r="K47" s="180"/>
+      <c r="G47" s="147"/>
+      <c r="H47" s="149"/>
+      <c r="I47" s="185"/>
+      <c r="J47" s="186"/>
+      <c r="K47" s="187"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -8823,11 +8822,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="145"/>
-      <c r="H48" s="147"/>
-      <c r="I48" s="178"/>
-      <c r="J48" s="179"/>
-      <c r="K48" s="180"/>
+      <c r="G48" s="147"/>
+      <c r="H48" s="149"/>
+      <c r="I48" s="185"/>
+      <c r="J48" s="186"/>
+      <c r="K48" s="187"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -8845,11 +8844,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="145"/>
-      <c r="H49" s="147"/>
-      <c r="I49" s="178"/>
-      <c r="J49" s="179"/>
-      <c r="K49" s="180"/>
+      <c r="G49" s="147"/>
+      <c r="H49" s="149"/>
+      <c r="I49" s="185"/>
+      <c r="J49" s="186"/>
+      <c r="K49" s="187"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -8867,11 +8866,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="145"/>
-      <c r="H50" s="147"/>
-      <c r="I50" s="178"/>
-      <c r="J50" s="179"/>
-      <c r="K50" s="180"/>
+      <c r="G50" s="147"/>
+      <c r="H50" s="149"/>
+      <c r="I50" s="185"/>
+      <c r="J50" s="186"/>
+      <c r="K50" s="187"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -8889,11 +8888,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="145"/>
-      <c r="H51" s="147"/>
-      <c r="I51" s="178"/>
-      <c r="J51" s="179"/>
-      <c r="K51" s="180"/>
+      <c r="G51" s="147"/>
+      <c r="H51" s="149"/>
+      <c r="I51" s="185"/>
+      <c r="J51" s="186"/>
+      <c r="K51" s="187"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -8911,11 +8910,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="145"/>
-      <c r="H52" s="147"/>
-      <c r="I52" s="178"/>
-      <c r="J52" s="179"/>
-      <c r="K52" s="180"/>
+      <c r="G52" s="147"/>
+      <c r="H52" s="149"/>
+      <c r="I52" s="185"/>
+      <c r="J52" s="186"/>
+      <c r="K52" s="187"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -8933,11 +8932,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="145"/>
-      <c r="H53" s="147"/>
-      <c r="I53" s="178"/>
-      <c r="J53" s="179"/>
-      <c r="K53" s="180"/>
+      <c r="G53" s="147"/>
+      <c r="H53" s="149"/>
+      <c r="I53" s="185"/>
+      <c r="J53" s="186"/>
+      <c r="K53" s="187"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -8955,11 +8954,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="145"/>
-      <c r="H54" s="147"/>
-      <c r="I54" s="178"/>
-      <c r="J54" s="179"/>
-      <c r="K54" s="180"/>
+      <c r="G54" s="147"/>
+      <c r="H54" s="149"/>
+      <c r="I54" s="185"/>
+      <c r="J54" s="186"/>
+      <c r="K54" s="187"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -8977,11 +8976,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="145"/>
-      <c r="H55" s="147"/>
-      <c r="I55" s="178"/>
-      <c r="J55" s="179"/>
-      <c r="K55" s="180"/>
+      <c r="G55" s="147"/>
+      <c r="H55" s="149"/>
+      <c r="I55" s="185"/>
+      <c r="J55" s="186"/>
+      <c r="K55" s="187"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -8999,11 +8998,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="145"/>
-      <c r="H56" s="147"/>
-      <c r="I56" s="178"/>
-      <c r="J56" s="179"/>
-      <c r="K56" s="180"/>
+      <c r="G56" s="147"/>
+      <c r="H56" s="149"/>
+      <c r="I56" s="185"/>
+      <c r="J56" s="186"/>
+      <c r="K56" s="187"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -9021,11 +9020,11 @@
       <c r="D57" s="33"/>
       <c r="E57" s="33"/>
       <c r="F57" s="32"/>
-      <c r="G57" s="145"/>
-      <c r="H57" s="147"/>
-      <c r="I57" s="178"/>
-      <c r="J57" s="179"/>
-      <c r="K57" s="180"/>
+      <c r="G57" s="147"/>
+      <c r="H57" s="149"/>
+      <c r="I57" s="185"/>
+      <c r="J57" s="186"/>
+      <c r="K57" s="187"/>
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
@@ -9037,26 +9036,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="108">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
@@ -9071,80 +9124,26 @@
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="I20:K20"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F57">
@@ -9167,7 +9166,7 @@
   <dimension ref="A1:U1048468"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9195,24 +9194,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="192" t="str">
+      <c r="J1" s="193" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="192"/>
+      <c r="K1" s="193"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -9240,22 +9239,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="151"/>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="192" t="str">
+      <c r="J2" s="193" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="K2" s="192"/>
+      <c r="K2" s="193"/>
       <c r="L2" s="26" t="s">
         <v>50</v>
       </c>
@@ -9313,12 +9312,12 @@
       <c r="J4" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="158" t="s">
+      <c r="K4" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="159"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="160"/>
       <c r="O4" s="39" t="s">
         <v>57</v>
       </c>
@@ -9346,13 +9345,13 @@
         <v>51</v>
       </c>
       <c r="D5" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="F5" s="63" t="s">
         <v>294</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>296</v>
-      </c>
-      <c r="F5" s="63" t="s">
-        <v>297</v>
       </c>
       <c r="G5" s="124" t="s">
         <v>211</v>
@@ -9366,12 +9365,12 @@
       <c r="J5" s="126" t="s">
         <v>213</v>
       </c>
-      <c r="K5" s="148" t="s">
+      <c r="K5" s="150" t="s">
         <v>252</v>
       </c>
-      <c r="L5" s="149"/>
-      <c r="M5" s="149"/>
-      <c r="N5" s="150"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="151"/>
+      <c r="N5" s="152"/>
       <c r="O5" s="129" t="s">
         <v>135</v>
       </c>
@@ -9415,17 +9414,17 @@
       <c r="J6" s="126" t="s">
         <v>215</v>
       </c>
-      <c r="K6" s="148" t="s">
+      <c r="K6" s="150" t="s">
         <v>258</v>
       </c>
-      <c r="L6" s="149"/>
-      <c r="M6" s="149"/>
-      <c r="N6" s="150"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="151"/>
+      <c r="N6" s="152"/>
       <c r="O6" s="143" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P6" s="143" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="Q6" s="76" t="s">
         <v>197</v>
@@ -9448,7 +9447,7 @@
         <v>51</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
@@ -9464,12 +9463,12 @@
       <c r="J7" s="126" t="s">
         <v>216</v>
       </c>
-      <c r="K7" s="148" t="s">
+      <c r="K7" s="150" t="s">
         <v>259</v>
       </c>
-      <c r="L7" s="149"/>
-      <c r="M7" s="149"/>
-      <c r="N7" s="150"/>
+      <c r="L7" s="151"/>
+      <c r="M7" s="151"/>
+      <c r="N7" s="152"/>
       <c r="O7" s="129" t="s">
         <v>256</v>
       </c>
@@ -9483,7 +9482,7 @@
         <v>152</v>
       </c>
       <c r="S7" s="125" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="T7" s="64"/>
       <c r="U7" s="64"/>
@@ -9499,7 +9498,7 @@
         <v>51</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
@@ -9515,12 +9514,12 @@
       <c r="J8" s="126" t="s">
         <v>218</v>
       </c>
-      <c r="K8" s="148" t="s">
+      <c r="K8" s="150" t="s">
         <v>260</v>
       </c>
-      <c r="L8" s="149"/>
-      <c r="M8" s="149"/>
-      <c r="N8" s="150"/>
+      <c r="L8" s="151"/>
+      <c r="M8" s="151"/>
+      <c r="N8" s="152"/>
       <c r="O8" s="129" t="s">
         <v>261</v>
       </c>
@@ -9534,7 +9533,7 @@
         <v>152</v>
       </c>
       <c r="S8" s="130" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="T8" s="64"/>
       <c r="U8" s="64"/>
@@ -9564,17 +9563,17 @@
       <c r="J9" s="126" t="s">
         <v>223</v>
       </c>
-      <c r="K9" s="148" t="s">
-        <v>264</v>
-      </c>
-      <c r="L9" s="149"/>
-      <c r="M9" s="149"/>
-      <c r="N9" s="150"/>
-      <c r="O9" s="129" t="s">
-        <v>267</v>
-      </c>
-      <c r="P9" s="143" t="s">
-        <v>300</v>
+      <c r="K9" s="150" t="s">
+        <v>297</v>
+      </c>
+      <c r="L9" s="151"/>
+      <c r="M9" s="151"/>
+      <c r="N9" s="152"/>
+      <c r="O9" s="145" t="s">
+        <v>298</v>
+      </c>
+      <c r="P9" s="145" t="s">
+        <v>262</v>
       </c>
       <c r="Q9" s="76" t="s">
         <v>210</v>
@@ -9583,7 +9582,7 @@
         <v>152</v>
       </c>
       <c r="S9" s="82" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
@@ -9601,10 +9600,10 @@
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
       <c r="J10" s="82"/>
-      <c r="K10" s="189"/>
-      <c r="L10" s="190"/>
-      <c r="M10" s="190"/>
-      <c r="N10" s="191"/>
+      <c r="K10" s="190"/>
+      <c r="L10" s="191"/>
+      <c r="M10" s="191"/>
+      <c r="N10" s="192"/>
       <c r="O10" s="143"/>
       <c r="P10" s="143"/>
       <c r="Q10" s="76"/>
@@ -9626,10 +9625,10 @@
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="82"/>
-      <c r="K11" s="189"/>
-      <c r="L11" s="190"/>
-      <c r="M11" s="190"/>
-      <c r="N11" s="191"/>
+      <c r="K11" s="190"/>
+      <c r="L11" s="191"/>
+      <c r="M11" s="191"/>
+      <c r="N11" s="192"/>
       <c r="O11" s="89"/>
       <c r="P11" s="89"/>
       <c r="Q11" s="76"/>
@@ -9651,10 +9650,10 @@
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
       <c r="J12" s="82"/>
-      <c r="K12" s="189"/>
-      <c r="L12" s="190"/>
-      <c r="M12" s="190"/>
-      <c r="N12" s="191"/>
+      <c r="K12" s="190"/>
+      <c r="L12" s="191"/>
+      <c r="M12" s="191"/>
+      <c r="N12" s="192"/>
       <c r="O12" s="89"/>
       <c r="P12" s="89"/>
       <c r="Q12" s="76"/>
@@ -9676,10 +9675,10 @@
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="J13" s="82"/>
-      <c r="K13" s="189"/>
-      <c r="L13" s="190"/>
-      <c r="M13" s="190"/>
-      <c r="N13" s="191"/>
+      <c r="K13" s="190"/>
+      <c r="L13" s="191"/>
+      <c r="M13" s="191"/>
+      <c r="N13" s="192"/>
       <c r="O13" s="85"/>
       <c r="P13" s="85"/>
       <c r="Q13" s="76"/>
@@ -9701,10 +9700,10 @@
       <c r="H14" s="63"/>
       <c r="I14" s="63"/>
       <c r="J14" s="82"/>
-      <c r="K14" s="189"/>
-      <c r="L14" s="190"/>
-      <c r="M14" s="190"/>
-      <c r="N14" s="191"/>
+      <c r="K14" s="190"/>
+      <c r="L14" s="191"/>
+      <c r="M14" s="191"/>
+      <c r="N14" s="192"/>
       <c r="O14" s="85"/>
       <c r="P14" s="85"/>
       <c r="Q14" s="76"/>
@@ -9726,10 +9725,10 @@
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
       <c r="J15" s="82"/>
-      <c r="K15" s="189"/>
-      <c r="L15" s="190"/>
-      <c r="M15" s="190"/>
-      <c r="N15" s="191"/>
+      <c r="K15" s="190"/>
+      <c r="L15" s="191"/>
+      <c r="M15" s="191"/>
+      <c r="N15" s="192"/>
       <c r="O15" s="81"/>
       <c r="P15" s="81"/>
       <c r="Q15" s="76"/>
@@ -9751,10 +9750,10 @@
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
       <c r="J16" s="82"/>
-      <c r="K16" s="189"/>
-      <c r="L16" s="190"/>
-      <c r="M16" s="190"/>
-      <c r="N16" s="191"/>
+      <c r="K16" s="190"/>
+      <c r="L16" s="191"/>
+      <c r="M16" s="191"/>
+      <c r="N16" s="192"/>
       <c r="O16" s="81"/>
       <c r="P16" s="81"/>
       <c r="Q16" s="76"/>
@@ -9776,10 +9775,10 @@
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="189"/>
-      <c r="L17" s="190"/>
-      <c r="M17" s="190"/>
-      <c r="N17" s="191"/>
+      <c r="K17" s="190"/>
+      <c r="L17" s="191"/>
+      <c r="M17" s="191"/>
+      <c r="N17" s="192"/>
       <c r="O17" s="72"/>
       <c r="P17" s="60"/>
       <c r="Q17" s="76"/>
@@ -9801,10 +9800,10 @@
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="189"/>
-      <c r="L18" s="190"/>
-      <c r="M18" s="190"/>
-      <c r="N18" s="191"/>
+      <c r="K18" s="190"/>
+      <c r="L18" s="191"/>
+      <c r="M18" s="191"/>
+      <c r="N18" s="192"/>
       <c r="O18" s="60"/>
       <c r="P18" s="60"/>
       <c r="Q18" s="76"/>
@@ -9826,10 +9825,10 @@
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="189"/>
-      <c r="L19" s="190"/>
-      <c r="M19" s="190"/>
-      <c r="N19" s="191"/>
+      <c r="K19" s="190"/>
+      <c r="L19" s="191"/>
+      <c r="M19" s="191"/>
+      <c r="N19" s="192"/>
       <c r="O19" s="60"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="76"/>
@@ -9851,10 +9850,10 @@
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="189"/>
-      <c r="L20" s="190"/>
-      <c r="M20" s="190"/>
-      <c r="N20" s="191"/>
+      <c r="K20" s="190"/>
+      <c r="L20" s="191"/>
+      <c r="M20" s="191"/>
+      <c r="N20" s="192"/>
       <c r="O20" s="60"/>
       <c r="P20" s="60"/>
       <c r="Q20" s="76"/>
@@ -9876,10 +9875,10 @@
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="189"/>
-      <c r="L21" s="190"/>
-      <c r="M21" s="190"/>
-      <c r="N21" s="191"/>
+      <c r="K21" s="190"/>
+      <c r="L21" s="191"/>
+      <c r="M21" s="191"/>
+      <c r="N21" s="192"/>
       <c r="O21" s="60"/>
       <c r="P21" s="60"/>
       <c r="Q21" s="76"/>
@@ -9901,10 +9900,10 @@
       <c r="H22" s="63"/>
       <c r="I22" s="63"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="189"/>
-      <c r="L22" s="190"/>
-      <c r="M22" s="190"/>
-      <c r="N22" s="191"/>
+      <c r="K22" s="190"/>
+      <c r="L22" s="191"/>
+      <c r="M22" s="191"/>
+      <c r="N22" s="192"/>
       <c r="O22" s="60"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="76"/>
@@ -9926,10 +9925,10 @@
       <c r="H23" s="63"/>
       <c r="I23" s="63"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="189"/>
-      <c r="L23" s="190"/>
-      <c r="M23" s="190"/>
-      <c r="N23" s="191"/>
+      <c r="K23" s="190"/>
+      <c r="L23" s="191"/>
+      <c r="M23" s="191"/>
+      <c r="N23" s="192"/>
       <c r="O23" s="60"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="76"/>
@@ -9951,10 +9950,10 @@
       <c r="H24" s="63"/>
       <c r="I24" s="63"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="189"/>
-      <c r="L24" s="190"/>
-      <c r="M24" s="190"/>
-      <c r="N24" s="191"/>
+      <c r="K24" s="190"/>
+      <c r="L24" s="191"/>
+      <c r="M24" s="191"/>
+      <c r="N24" s="192"/>
       <c r="O24" s="60"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="76"/>
@@ -9976,10 +9975,10 @@
       <c r="H25" s="63"/>
       <c r="I25" s="63"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="189"/>
-      <c r="L25" s="190"/>
-      <c r="M25" s="190"/>
-      <c r="N25" s="191"/>
+      <c r="K25" s="190"/>
+      <c r="L25" s="191"/>
+      <c r="M25" s="191"/>
+      <c r="N25" s="192"/>
       <c r="O25" s="60"/>
       <c r="P25" s="60"/>
       <c r="Q25" s="76"/>
@@ -10001,10 +10000,10 @@
       <c r="H26" s="63"/>
       <c r="I26" s="63"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="189"/>
-      <c r="L26" s="190"/>
-      <c r="M26" s="190"/>
-      <c r="N26" s="191"/>
+      <c r="K26" s="190"/>
+      <c r="L26" s="191"/>
+      <c r="M26" s="191"/>
+      <c r="N26" s="192"/>
       <c r="O26" s="60"/>
       <c r="P26" s="60"/>
       <c r="Q26" s="76"/>
@@ -10026,10 +10025,10 @@
       <c r="H27" s="63"/>
       <c r="I27" s="63"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="189"/>
-      <c r="L27" s="190"/>
-      <c r="M27" s="190"/>
-      <c r="N27" s="191"/>
+      <c r="K27" s="190"/>
+      <c r="L27" s="191"/>
+      <c r="M27" s="191"/>
+      <c r="N27" s="192"/>
       <c r="O27" s="60"/>
       <c r="P27" s="60"/>
       <c r="Q27" s="76"/>
@@ -10051,10 +10050,10 @@
       <c r="H28" s="63"/>
       <c r="I28" s="63"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="189"/>
-      <c r="L28" s="190"/>
-      <c r="M28" s="190"/>
-      <c r="N28" s="191"/>
+      <c r="K28" s="190"/>
+      <c r="L28" s="191"/>
+      <c r="M28" s="191"/>
+      <c r="N28" s="192"/>
       <c r="O28" s="60"/>
       <c r="P28" s="60"/>
       <c r="Q28" s="76"/>
@@ -10076,10 +10075,10 @@
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="189"/>
-      <c r="L29" s="190"/>
-      <c r="M29" s="190"/>
-      <c r="N29" s="191"/>
+      <c r="K29" s="190"/>
+      <c r="L29" s="191"/>
+      <c r="M29" s="191"/>
+      <c r="N29" s="192"/>
       <c r="O29" s="60"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="76"/>
@@ -10101,10 +10100,10 @@
       <c r="H30" s="63"/>
       <c r="I30" s="63"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="189"/>
-      <c r="L30" s="190"/>
-      <c r="M30" s="190"/>
-      <c r="N30" s="191"/>
+      <c r="K30" s="190"/>
+      <c r="L30" s="191"/>
+      <c r="M30" s="191"/>
+      <c r="N30" s="192"/>
       <c r="O30" s="60"/>
       <c r="P30" s="60"/>
       <c r="Q30" s="76"/>
@@ -10126,10 +10125,10 @@
       <c r="H31" s="63"/>
       <c r="I31" s="63"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="189"/>
-      <c r="L31" s="190"/>
-      <c r="M31" s="190"/>
-      <c r="N31" s="191"/>
+      <c r="K31" s="190"/>
+      <c r="L31" s="191"/>
+      <c r="M31" s="191"/>
+      <c r="N31" s="192"/>
       <c r="O31" s="60"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="76"/>
@@ -10151,10 +10150,10 @@
       <c r="H32" s="63"/>
       <c r="I32" s="63"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="189"/>
-      <c r="L32" s="190"/>
-      <c r="M32" s="190"/>
-      <c r="N32" s="191"/>
+      <c r="K32" s="190"/>
+      <c r="L32" s="191"/>
+      <c r="M32" s="191"/>
+      <c r="N32" s="192"/>
       <c r="O32" s="60"/>
       <c r="P32" s="60"/>
       <c r="Q32" s="76"/>
@@ -10176,10 +10175,10 @@
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="189"/>
-      <c r="L33" s="190"/>
-      <c r="M33" s="190"/>
-      <c r="N33" s="191"/>
+      <c r="K33" s="190"/>
+      <c r="L33" s="191"/>
+      <c r="M33" s="191"/>
+      <c r="N33" s="192"/>
       <c r="O33" s="60"/>
       <c r="P33" s="60"/>
       <c r="Q33" s="76"/>
@@ -10201,10 +10200,10 @@
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
       <c r="J34" s="40"/>
-      <c r="K34" s="189"/>
-      <c r="L34" s="190"/>
-      <c r="M34" s="190"/>
-      <c r="N34" s="191"/>
+      <c r="K34" s="190"/>
+      <c r="L34" s="191"/>
+      <c r="M34" s="191"/>
+      <c r="N34" s="192"/>
       <c r="O34" s="60"/>
       <c r="P34" s="60"/>
       <c r="Q34" s="76"/>
@@ -10226,10 +10225,10 @@
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
       <c r="J35" s="82"/>
-      <c r="K35" s="189"/>
-      <c r="L35" s="190"/>
-      <c r="M35" s="190"/>
-      <c r="N35" s="191"/>
+      <c r="K35" s="190"/>
+      <c r="L35" s="191"/>
+      <c r="M35" s="191"/>
+      <c r="N35" s="192"/>
       <c r="O35" s="85"/>
       <c r="P35" s="85"/>
       <c r="Q35" s="76"/>
@@ -10251,10 +10250,10 @@
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="189"/>
-      <c r="L36" s="190"/>
-      <c r="M36" s="190"/>
-      <c r="N36" s="191"/>
+      <c r="K36" s="190"/>
+      <c r="L36" s="191"/>
+      <c r="M36" s="191"/>
+      <c r="N36" s="192"/>
       <c r="O36" s="60"/>
       <c r="P36" s="60"/>
       <c r="Q36" s="76"/>
@@ -10276,10 +10275,10 @@
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="189"/>
-      <c r="L37" s="190"/>
-      <c r="M37" s="190"/>
-      <c r="N37" s="191"/>
+      <c r="K37" s="190"/>
+      <c r="L37" s="191"/>
+      <c r="M37" s="191"/>
+      <c r="N37" s="192"/>
       <c r="O37" s="60"/>
       <c r="P37" s="60"/>
       <c r="Q37" s="76"/>
@@ -10301,10 +10300,10 @@
       <c r="H38" s="63"/>
       <c r="I38" s="63"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="189"/>
-      <c r="L38" s="190"/>
-      <c r="M38" s="190"/>
-      <c r="N38" s="191"/>
+      <c r="K38" s="190"/>
+      <c r="L38" s="191"/>
+      <c r="M38" s="191"/>
+      <c r="N38" s="192"/>
       <c r="O38" s="60"/>
       <c r="P38" s="60"/>
       <c r="Q38" s="76"/>
@@ -10326,10 +10325,10 @@
       <c r="H39" s="63"/>
       <c r="I39" s="63"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="189"/>
-      <c r="L39" s="190"/>
-      <c r="M39" s="190"/>
-      <c r="N39" s="191"/>
+      <c r="K39" s="190"/>
+      <c r="L39" s="191"/>
+      <c r="M39" s="191"/>
+      <c r="N39" s="192"/>
       <c r="O39" s="60"/>
       <c r="P39" s="60"/>
       <c r="Q39" s="76"/>
@@ -10351,10 +10350,10 @@
       <c r="H40" s="63"/>
       <c r="I40" s="63"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="189"/>
-      <c r="L40" s="190"/>
-      <c r="M40" s="190"/>
-      <c r="N40" s="191"/>
+      <c r="K40" s="190"/>
+      <c r="L40" s="191"/>
+      <c r="M40" s="191"/>
+      <c r="N40" s="192"/>
       <c r="O40" s="60"/>
       <c r="P40" s="60"/>
       <c r="Q40" s="76"/>
@@ -10376,10 +10375,10 @@
       <c r="H41" s="63"/>
       <c r="I41" s="63"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="189"/>
-      <c r="L41" s="190"/>
-      <c r="M41" s="190"/>
-      <c r="N41" s="191"/>
+      <c r="K41" s="190"/>
+      <c r="L41" s="191"/>
+      <c r="M41" s="191"/>
+      <c r="N41" s="192"/>
       <c r="O41" s="74"/>
       <c r="P41" s="74"/>
       <c r="Q41" s="76"/>
@@ -10401,10 +10400,10 @@
       <c r="H42" s="63"/>
       <c r="I42" s="63"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="189"/>
-      <c r="L42" s="190"/>
-      <c r="M42" s="190"/>
-      <c r="N42" s="191"/>
+      <c r="K42" s="190"/>
+      <c r="L42" s="191"/>
+      <c r="M42" s="191"/>
+      <c r="N42" s="192"/>
       <c r="O42" s="74"/>
       <c r="P42" s="74"/>
       <c r="Q42" s="76"/>
@@ -10426,10 +10425,10 @@
       <c r="H43" s="63"/>
       <c r="I43" s="63"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="189"/>
-      <c r="L43" s="190"/>
-      <c r="M43" s="190"/>
-      <c r="N43" s="191"/>
+      <c r="K43" s="190"/>
+      <c r="L43" s="191"/>
+      <c r="M43" s="191"/>
+      <c r="N43" s="192"/>
       <c r="O43" s="74"/>
       <c r="P43" s="74"/>
       <c r="Q43" s="76"/>
@@ -10451,10 +10450,10 @@
       <c r="H44" s="63"/>
       <c r="I44" s="63"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="189"/>
-      <c r="L44" s="190"/>
-      <c r="M44" s="190"/>
-      <c r="N44" s="191"/>
+      <c r="K44" s="190"/>
+      <c r="L44" s="191"/>
+      <c r="M44" s="191"/>
+      <c r="N44" s="192"/>
       <c r="O44" s="74"/>
       <c r="P44" s="74"/>
       <c r="Q44" s="76"/>
@@ -10476,10 +10475,10 @@
       <c r="H45" s="63"/>
       <c r="I45" s="63"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="189"/>
-      <c r="L45" s="190"/>
-      <c r="M45" s="190"/>
-      <c r="N45" s="191"/>
+      <c r="K45" s="190"/>
+      <c r="L45" s="191"/>
+      <c r="M45" s="191"/>
+      <c r="N45" s="192"/>
       <c r="O45" s="74"/>
       <c r="P45" s="74"/>
       <c r="Q45" s="76"/>
@@ -10501,10 +10500,10 @@
       <c r="H46" s="63"/>
       <c r="I46" s="63"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="189"/>
-      <c r="L46" s="190"/>
-      <c r="M46" s="190"/>
-      <c r="N46" s="191"/>
+      <c r="K46" s="190"/>
+      <c r="L46" s="191"/>
+      <c r="M46" s="191"/>
+      <c r="N46" s="192"/>
       <c r="O46" s="74"/>
       <c r="P46" s="74"/>
       <c r="Q46" s="76"/>
@@ -10526,10 +10525,10 @@
       <c r="H47" s="63"/>
       <c r="I47" s="63"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="189"/>
-      <c r="L47" s="190"/>
-      <c r="M47" s="190"/>
-      <c r="N47" s="191"/>
+      <c r="K47" s="190"/>
+      <c r="L47" s="191"/>
+      <c r="M47" s="191"/>
+      <c r="N47" s="192"/>
       <c r="O47" s="74"/>
       <c r="P47" s="74"/>
       <c r="Q47" s="76"/>
@@ -10551,10 +10550,10 @@
       <c r="H48" s="63"/>
       <c r="I48" s="63"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="189"/>
-      <c r="L48" s="190"/>
-      <c r="M48" s="190"/>
-      <c r="N48" s="191"/>
+      <c r="K48" s="190"/>
+      <c r="L48" s="191"/>
+      <c r="M48" s="191"/>
+      <c r="N48" s="192"/>
       <c r="O48" s="74"/>
       <c r="P48" s="74"/>
       <c r="Q48" s="76"/>
@@ -10576,10 +10575,10 @@
       <c r="H49" s="63"/>
       <c r="I49" s="63"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="189"/>
-      <c r="L49" s="190"/>
-      <c r="M49" s="190"/>
-      <c r="N49" s="191"/>
+      <c r="K49" s="190"/>
+      <c r="L49" s="191"/>
+      <c r="M49" s="191"/>
+      <c r="N49" s="192"/>
       <c r="O49" s="74"/>
       <c r="P49" s="74"/>
       <c r="Q49" s="76"/>
@@ -10601,10 +10600,10 @@
       <c r="H50" s="63"/>
       <c r="I50" s="63"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="189"/>
-      <c r="L50" s="190"/>
-      <c r="M50" s="190"/>
-      <c r="N50" s="191"/>
+      <c r="K50" s="190"/>
+      <c r="L50" s="191"/>
+      <c r="M50" s="191"/>
+      <c r="N50" s="192"/>
       <c r="O50" s="74"/>
       <c r="P50" s="74"/>
       <c r="Q50" s="76"/>
@@ -10626,10 +10625,10 @@
       <c r="H51" s="63"/>
       <c r="I51" s="63"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="189"/>
-      <c r="L51" s="190"/>
-      <c r="M51" s="190"/>
-      <c r="N51" s="191"/>
+      <c r="K51" s="190"/>
+      <c r="L51" s="191"/>
+      <c r="M51" s="191"/>
+      <c r="N51" s="192"/>
       <c r="O51" s="74"/>
       <c r="P51" s="74"/>
       <c r="Q51" s="76"/>
@@ -10651,10 +10650,10 @@
       <c r="H52" s="63"/>
       <c r="I52" s="63"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="189"/>
-      <c r="L52" s="190"/>
-      <c r="M52" s="190"/>
-      <c r="N52" s="191"/>
+      <c r="K52" s="190"/>
+      <c r="L52" s="191"/>
+      <c r="M52" s="191"/>
+      <c r="N52" s="192"/>
       <c r="O52" s="74"/>
       <c r="P52" s="74"/>
       <c r="Q52" s="76"/>
@@ -10676,10 +10675,10 @@
       <c r="H53" s="63"/>
       <c r="I53" s="63"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="189"/>
-      <c r="L53" s="190"/>
-      <c r="M53" s="190"/>
-      <c r="N53" s="191"/>
+      <c r="K53" s="190"/>
+      <c r="L53" s="191"/>
+      <c r="M53" s="191"/>
+      <c r="N53" s="192"/>
       <c r="O53" s="74"/>
       <c r="P53" s="74"/>
       <c r="Q53" s="76"/>
@@ -10701,10 +10700,10 @@
       <c r="H54" s="63"/>
       <c r="I54" s="63"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="189"/>
-      <c r="L54" s="190"/>
-      <c r="M54" s="190"/>
-      <c r="N54" s="191"/>
+      <c r="K54" s="190"/>
+      <c r="L54" s="191"/>
+      <c r="M54" s="191"/>
+      <c r="N54" s="192"/>
       <c r="O54" s="74"/>
       <c r="P54" s="74"/>
       <c r="Q54" s="76"/>
@@ -10726,10 +10725,10 @@
       <c r="H55" s="63"/>
       <c r="I55" s="63"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="189"/>
-      <c r="L55" s="190"/>
-      <c r="M55" s="190"/>
-      <c r="N55" s="191"/>
+      <c r="K55" s="190"/>
+      <c r="L55" s="191"/>
+      <c r="M55" s="191"/>
+      <c r="N55" s="192"/>
       <c r="O55" s="74"/>
       <c r="P55" s="74"/>
       <c r="Q55" s="76"/>
@@ -10751,10 +10750,10 @@
       <c r="H56" s="63"/>
       <c r="I56" s="63"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="189"/>
-      <c r="L56" s="190"/>
-      <c r="M56" s="190"/>
-      <c r="N56" s="191"/>
+      <c r="K56" s="190"/>
+      <c r="L56" s="191"/>
+      <c r="M56" s="191"/>
+      <c r="N56" s="192"/>
       <c r="O56" s="74"/>
       <c r="P56" s="74"/>
       <c r="Q56" s="76"/>
@@ -10776,10 +10775,10 @@
       <c r="H57" s="63"/>
       <c r="I57" s="63"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="189"/>
-      <c r="L57" s="190"/>
-      <c r="M57" s="190"/>
-      <c r="N57" s="191"/>
+      <c r="K57" s="190"/>
+      <c r="L57" s="191"/>
+      <c r="M57" s="191"/>
+      <c r="N57" s="192"/>
       <c r="O57" s="74"/>
       <c r="P57" s="74"/>
       <c r="Q57" s="76"/>
@@ -10801,10 +10800,10 @@
       <c r="H58" s="63"/>
       <c r="I58" s="63"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="189"/>
-      <c r="L58" s="190"/>
-      <c r="M58" s="190"/>
-      <c r="N58" s="191"/>
+      <c r="K58" s="190"/>
+      <c r="L58" s="191"/>
+      <c r="M58" s="191"/>
+      <c r="N58" s="192"/>
       <c r="O58" s="74"/>
       <c r="P58" s="74"/>
       <c r="Q58" s="76"/>
@@ -10826,10 +10825,10 @@
       <c r="H59" s="63"/>
       <c r="I59" s="63"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="189"/>
-      <c r="L59" s="190"/>
-      <c r="M59" s="190"/>
-      <c r="N59" s="191"/>
+      <c r="K59" s="190"/>
+      <c r="L59" s="191"/>
+      <c r="M59" s="191"/>
+      <c r="N59" s="192"/>
       <c r="O59" s="74"/>
       <c r="P59" s="74"/>
       <c r="Q59" s="76"/>
@@ -10851,10 +10850,10 @@
       <c r="H60" s="63"/>
       <c r="I60" s="63"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="189"/>
-      <c r="L60" s="190"/>
-      <c r="M60" s="190"/>
-      <c r="N60" s="191"/>
+      <c r="K60" s="190"/>
+      <c r="L60" s="191"/>
+      <c r="M60" s="191"/>
+      <c r="N60" s="192"/>
       <c r="O60" s="74"/>
       <c r="P60" s="74"/>
       <c r="Q60" s="76"/>
@@ -10876,10 +10875,10 @@
       <c r="H61" s="63"/>
       <c r="I61" s="63"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="189"/>
-      <c r="L61" s="190"/>
-      <c r="M61" s="190"/>
-      <c r="N61" s="191"/>
+      <c r="K61" s="190"/>
+      <c r="L61" s="191"/>
+      <c r="M61" s="191"/>
+      <c r="N61" s="192"/>
       <c r="O61" s="74"/>
       <c r="P61" s="74"/>
       <c r="Q61" s="76"/>
@@ -10901,10 +10900,10 @@
       <c r="H62" s="63"/>
       <c r="I62" s="63"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="189"/>
-      <c r="L62" s="190"/>
-      <c r="M62" s="190"/>
-      <c r="N62" s="191"/>
+      <c r="K62" s="190"/>
+      <c r="L62" s="191"/>
+      <c r="M62" s="191"/>
+      <c r="N62" s="192"/>
       <c r="O62" s="74"/>
       <c r="P62" s="74"/>
       <c r="Q62" s="76"/>
@@ -10926,10 +10925,10 @@
       <c r="H63" s="63"/>
       <c r="I63" s="63"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="189"/>
-      <c r="L63" s="190"/>
-      <c r="M63" s="190"/>
-      <c r="N63" s="191"/>
+      <c r="K63" s="190"/>
+      <c r="L63" s="191"/>
+      <c r="M63" s="191"/>
+      <c r="N63" s="192"/>
       <c r="O63" s="84"/>
       <c r="P63" s="84"/>
       <c r="Q63" s="76"/>
@@ -10951,10 +10950,10 @@
       <c r="H64" s="63"/>
       <c r="I64" s="63"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="189"/>
-      <c r="L64" s="190"/>
-      <c r="M64" s="190"/>
-      <c r="N64" s="191"/>
+      <c r="K64" s="190"/>
+      <c r="L64" s="191"/>
+      <c r="M64" s="191"/>
+      <c r="N64" s="192"/>
       <c r="O64" s="84"/>
       <c r="P64" s="84"/>
       <c r="Q64" s="76"/>
@@ -10976,10 +10975,10 @@
       <c r="H65" s="63"/>
       <c r="I65" s="63"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="189"/>
-      <c r="L65" s="190"/>
-      <c r="M65" s="190"/>
-      <c r="N65" s="191"/>
+      <c r="K65" s="190"/>
+      <c r="L65" s="191"/>
+      <c r="M65" s="191"/>
+      <c r="N65" s="192"/>
       <c r="O65" s="84"/>
       <c r="P65" s="84"/>
       <c r="Q65" s="76"/>
@@ -10999,10 +10998,10 @@
       <c r="H66" s="63"/>
       <c r="I66" s="63"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="189"/>
-      <c r="L66" s="190"/>
-      <c r="M66" s="190"/>
-      <c r="N66" s="191"/>
+      <c r="K66" s="190"/>
+      <c r="L66" s="191"/>
+      <c r="M66" s="191"/>
+      <c r="N66" s="192"/>
       <c r="O66" s="84"/>
       <c r="P66" s="84"/>
       <c r="Q66" s="76"/>
@@ -11022,10 +11021,10 @@
       <c r="H67" s="63"/>
       <c r="I67" s="63"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="189"/>
-      <c r="L67" s="190"/>
-      <c r="M67" s="190"/>
-      <c r="N67" s="191"/>
+      <c r="K67" s="190"/>
+      <c r="L67" s="191"/>
+      <c r="M67" s="191"/>
+      <c r="N67" s="192"/>
       <c r="O67" s="84"/>
       <c r="P67" s="84"/>
       <c r="Q67" s="76"/>
@@ -11045,10 +11044,10 @@
       <c r="H68" s="63"/>
       <c r="I68" s="63"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="189"/>
-      <c r="L68" s="190"/>
-      <c r="M68" s="190"/>
-      <c r="N68" s="191"/>
+      <c r="K68" s="190"/>
+      <c r="L68" s="191"/>
+      <c r="M68" s="191"/>
+      <c r="N68" s="192"/>
       <c r="O68" s="84"/>
       <c r="P68" s="84"/>
       <c r="Q68" s="76"/>
@@ -11068,10 +11067,10 @@
       <c r="H69" s="63"/>
       <c r="I69" s="63"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="189"/>
-      <c r="L69" s="190"/>
-      <c r="M69" s="190"/>
-      <c r="N69" s="191"/>
+      <c r="K69" s="190"/>
+      <c r="L69" s="191"/>
+      <c r="M69" s="191"/>
+      <c r="N69" s="192"/>
       <c r="O69" s="84"/>
       <c r="P69" s="84"/>
       <c r="Q69" s="76"/>
@@ -11091,10 +11090,10 @@
       <c r="H70" s="63"/>
       <c r="I70" s="63"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="189"/>
-      <c r="L70" s="190"/>
-      <c r="M70" s="190"/>
-      <c r="N70" s="191"/>
+      <c r="K70" s="190"/>
+      <c r="L70" s="191"/>
+      <c r="M70" s="191"/>
+      <c r="N70" s="192"/>
       <c r="O70" s="84"/>
       <c r="P70" s="84"/>
       <c r="Q70" s="76"/>
@@ -11114,10 +11113,10 @@
       <c r="H71" s="63"/>
       <c r="I71" s="63"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="189"/>
-      <c r="L71" s="190"/>
-      <c r="M71" s="190"/>
-      <c r="N71" s="191"/>
+      <c r="K71" s="190"/>
+      <c r="L71" s="191"/>
+      <c r="M71" s="191"/>
+      <c r="N71" s="192"/>
       <c r="O71" s="84"/>
       <c r="P71" s="84"/>
       <c r="Q71" s="76"/>
@@ -11137,10 +11136,10 @@
       <c r="H72" s="63"/>
       <c r="I72" s="63"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="189"/>
-      <c r="L72" s="190"/>
-      <c r="M72" s="190"/>
-      <c r="N72" s="191"/>
+      <c r="K72" s="190"/>
+      <c r="L72" s="191"/>
+      <c r="M72" s="191"/>
+      <c r="N72" s="192"/>
       <c r="O72" s="84"/>
       <c r="P72" s="84"/>
       <c r="Q72" s="76"/>
@@ -11160,10 +11159,10 @@
       <c r="H73" s="63"/>
       <c r="I73" s="63"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="189"/>
-      <c r="L73" s="190"/>
-      <c r="M73" s="190"/>
-      <c r="N73" s="191"/>
+      <c r="K73" s="190"/>
+      <c r="L73" s="191"/>
+      <c r="M73" s="191"/>
+      <c r="N73" s="192"/>
       <c r="O73" s="84"/>
       <c r="P73" s="84"/>
       <c r="Q73" s="76"/>
@@ -11183,10 +11182,10 @@
       <c r="H74" s="63"/>
       <c r="I74" s="63"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="189"/>
-      <c r="L74" s="190"/>
-      <c r="M74" s="190"/>
-      <c r="N74" s="191"/>
+      <c r="K74" s="190"/>
+      <c r="L74" s="191"/>
+      <c r="M74" s="191"/>
+      <c r="N74" s="192"/>
       <c r="O74" s="84"/>
       <c r="P74" s="84"/>
       <c r="Q74" s="76"/>
@@ -11206,10 +11205,10 @@
       <c r="H75" s="63"/>
       <c r="I75" s="63"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="189"/>
-      <c r="L75" s="190"/>
-      <c r="M75" s="190"/>
-      <c r="N75" s="191"/>
+      <c r="K75" s="190"/>
+      <c r="L75" s="191"/>
+      <c r="M75" s="191"/>
+      <c r="N75" s="192"/>
       <c r="O75" s="84"/>
       <c r="P75" s="84"/>
       <c r="Q75" s="76"/>
@@ -11229,10 +11228,10 @@
       <c r="H76" s="63"/>
       <c r="I76" s="63"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="189"/>
-      <c r="L76" s="190"/>
-      <c r="M76" s="190"/>
-      <c r="N76" s="191"/>
+      <c r="K76" s="190"/>
+      <c r="L76" s="191"/>
+      <c r="M76" s="191"/>
+      <c r="N76" s="192"/>
       <c r="O76" s="84"/>
       <c r="P76" s="84"/>
       <c r="Q76" s="76"/>
@@ -11252,10 +11251,10 @@
       <c r="H77" s="63"/>
       <c r="I77" s="63"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="189"/>
-      <c r="L77" s="190"/>
-      <c r="M77" s="190"/>
-      <c r="N77" s="191"/>
+      <c r="K77" s="190"/>
+      <c r="L77" s="191"/>
+      <c r="M77" s="191"/>
+      <c r="N77" s="192"/>
       <c r="O77" s="84"/>
       <c r="P77" s="84"/>
       <c r="Q77" s="76"/>
@@ -11275,10 +11274,10 @@
       <c r="H78" s="63"/>
       <c r="I78" s="63"/>
       <c r="J78" s="40"/>
-      <c r="K78" s="189"/>
-      <c r="L78" s="190"/>
-      <c r="M78" s="190"/>
-      <c r="N78" s="191"/>
+      <c r="K78" s="190"/>
+      <c r="L78" s="191"/>
+      <c r="M78" s="191"/>
+      <c r="N78" s="192"/>
       <c r="O78" s="84"/>
       <c r="P78" s="84"/>
       <c r="Q78" s="76"/>
@@ -11298,10 +11297,10 @@
       <c r="H79" s="63"/>
       <c r="I79" s="63"/>
       <c r="J79" s="40"/>
-      <c r="K79" s="189"/>
-      <c r="L79" s="190"/>
-      <c r="M79" s="190"/>
-      <c r="N79" s="191"/>
+      <c r="K79" s="190"/>
+      <c r="L79" s="191"/>
+      <c r="M79" s="191"/>
+      <c r="N79" s="192"/>
       <c r="O79" s="84"/>
       <c r="P79" s="84"/>
       <c r="Q79" s="76"/>
@@ -11321,10 +11320,10 @@
       <c r="H80" s="63"/>
       <c r="I80" s="63"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="189"/>
-      <c r="L80" s="190"/>
-      <c r="M80" s="190"/>
-      <c r="N80" s="191"/>
+      <c r="K80" s="190"/>
+      <c r="L80" s="191"/>
+      <c r="M80" s="191"/>
+      <c r="N80" s="192"/>
       <c r="O80" s="84"/>
       <c r="P80" s="84"/>
       <c r="Q80" s="76"/>
@@ -11344,10 +11343,10 @@
       <c r="H81" s="63"/>
       <c r="I81" s="63"/>
       <c r="J81" s="40"/>
-      <c r="K81" s="189"/>
-      <c r="L81" s="190"/>
-      <c r="M81" s="190"/>
-      <c r="N81" s="191"/>
+      <c r="K81" s="190"/>
+      <c r="L81" s="191"/>
+      <c r="M81" s="191"/>
+      <c r="N81" s="192"/>
       <c r="O81" s="84"/>
       <c r="P81" s="84"/>
       <c r="Q81" s="76"/>
@@ -11367,10 +11366,10 @@
       <c r="H82" s="63"/>
       <c r="I82" s="63"/>
       <c r="J82" s="40"/>
-      <c r="K82" s="189"/>
-      <c r="L82" s="190"/>
-      <c r="M82" s="190"/>
-      <c r="N82" s="191"/>
+      <c r="K82" s="190"/>
+      <c r="L82" s="191"/>
+      <c r="M82" s="191"/>
+      <c r="N82" s="192"/>
       <c r="O82" s="84"/>
       <c r="P82" s="84"/>
       <c r="Q82" s="76"/>
@@ -11390,10 +11389,10 @@
       <c r="H83" s="63"/>
       <c r="I83" s="63"/>
       <c r="J83" s="40"/>
-      <c r="K83" s="189"/>
-      <c r="L83" s="190"/>
-      <c r="M83" s="190"/>
-      <c r="N83" s="191"/>
+      <c r="K83" s="190"/>
+      <c r="L83" s="191"/>
+      <c r="M83" s="191"/>
+      <c r="N83" s="192"/>
       <c r="O83" s="84"/>
       <c r="P83" s="84"/>
       <c r="Q83" s="76"/>
@@ -11413,10 +11412,10 @@
       <c r="H84" s="63"/>
       <c r="I84" s="63"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="189"/>
-      <c r="L84" s="190"/>
-      <c r="M84" s="190"/>
-      <c r="N84" s="191"/>
+      <c r="K84" s="190"/>
+      <c r="L84" s="191"/>
+      <c r="M84" s="191"/>
+      <c r="N84" s="192"/>
       <c r="O84" s="84"/>
       <c r="P84" s="84"/>
       <c r="Q84" s="76"/>
@@ -11436,10 +11435,10 @@
       <c r="H85" s="63"/>
       <c r="I85" s="63"/>
       <c r="J85" s="40"/>
-      <c r="K85" s="189"/>
-      <c r="L85" s="190"/>
-      <c r="M85" s="190"/>
-      <c r="N85" s="191"/>
+      <c r="K85" s="190"/>
+      <c r="L85" s="191"/>
+      <c r="M85" s="191"/>
+      <c r="N85" s="192"/>
       <c r="O85" s="84"/>
       <c r="P85" s="84"/>
       <c r="Q85" s="76"/>
@@ -11459,10 +11458,10 @@
       <c r="H86" s="63"/>
       <c r="I86" s="63"/>
       <c r="J86" s="40"/>
-      <c r="K86" s="189"/>
-      <c r="L86" s="190"/>
-      <c r="M86" s="190"/>
-      <c r="N86" s="191"/>
+      <c r="K86" s="190"/>
+      <c r="L86" s="191"/>
+      <c r="M86" s="191"/>
+      <c r="N86" s="192"/>
       <c r="O86" s="84"/>
       <c r="P86" s="84"/>
       <c r="Q86" s="76"/>
@@ -11482,10 +11481,10 @@
       <c r="H87" s="63"/>
       <c r="I87" s="63"/>
       <c r="J87" s="40"/>
-      <c r="K87" s="189"/>
-      <c r="L87" s="190"/>
-      <c r="M87" s="190"/>
-      <c r="N87" s="191"/>
+      <c r="K87" s="190"/>
+      <c r="L87" s="191"/>
+      <c r="M87" s="191"/>
+      <c r="N87" s="192"/>
       <c r="O87" s="84"/>
       <c r="P87" s="84"/>
       <c r="Q87" s="76"/>
@@ -11505,10 +11504,10 @@
       <c r="H88" s="63"/>
       <c r="I88" s="63"/>
       <c r="J88" s="40"/>
-      <c r="K88" s="189"/>
-      <c r="L88" s="190"/>
-      <c r="M88" s="190"/>
-      <c r="N88" s="191"/>
+      <c r="K88" s="190"/>
+      <c r="L88" s="191"/>
+      <c r="M88" s="191"/>
+      <c r="N88" s="192"/>
       <c r="O88" s="84"/>
       <c r="P88" s="84"/>
       <c r="Q88" s="76"/>
@@ -11528,10 +11527,10 @@
       <c r="H89" s="63"/>
       <c r="I89" s="63"/>
       <c r="J89" s="40"/>
-      <c r="K89" s="189"/>
-      <c r="L89" s="190"/>
-      <c r="M89" s="190"/>
-      <c r="N89" s="191"/>
+      <c r="K89" s="190"/>
+      <c r="L89" s="191"/>
+      <c r="M89" s="191"/>
+      <c r="N89" s="192"/>
       <c r="O89" s="84"/>
       <c r="P89" s="84"/>
       <c r="Q89" s="76"/>
@@ -11551,10 +11550,10 @@
       <c r="H90" s="63"/>
       <c r="I90" s="63"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="189"/>
-      <c r="L90" s="190"/>
-      <c r="M90" s="190"/>
-      <c r="N90" s="191"/>
+      <c r="K90" s="190"/>
+      <c r="L90" s="191"/>
+      <c r="M90" s="191"/>
+      <c r="N90" s="192"/>
       <c r="O90" s="84"/>
       <c r="P90" s="84"/>
       <c r="Q90" s="76"/>
@@ -11574,10 +11573,10 @@
       <c r="H91" s="63"/>
       <c r="I91" s="63"/>
       <c r="J91" s="40"/>
-      <c r="K91" s="189"/>
-      <c r="L91" s="190"/>
-      <c r="M91" s="190"/>
-      <c r="N91" s="191"/>
+      <c r="K91" s="190"/>
+      <c r="L91" s="191"/>
+      <c r="M91" s="191"/>
+      <c r="N91" s="192"/>
       <c r="O91" s="84"/>
       <c r="P91" s="84"/>
       <c r="Q91" s="76"/>
@@ -11597,10 +11596,10 @@
       <c r="H92" s="63"/>
       <c r="I92" s="63"/>
       <c r="J92" s="40"/>
-      <c r="K92" s="189"/>
-      <c r="L92" s="190"/>
-      <c r="M92" s="190"/>
-      <c r="N92" s="191"/>
+      <c r="K92" s="190"/>
+      <c r="L92" s="191"/>
+      <c r="M92" s="191"/>
+      <c r="N92" s="192"/>
       <c r="O92" s="84"/>
       <c r="P92" s="84"/>
       <c r="Q92" s="76"/>
@@ -11620,10 +11619,10 @@
       <c r="H93" s="63"/>
       <c r="I93" s="63"/>
       <c r="J93" s="40"/>
-      <c r="K93" s="189"/>
-      <c r="L93" s="190"/>
-      <c r="M93" s="190"/>
-      <c r="N93" s="191"/>
+      <c r="K93" s="190"/>
+      <c r="L93" s="191"/>
+      <c r="M93" s="191"/>
+      <c r="N93" s="192"/>
       <c r="O93" s="84"/>
       <c r="P93" s="84"/>
       <c r="Q93" s="76"/>
@@ -11643,10 +11642,10 @@
       <c r="H94" s="63"/>
       <c r="I94" s="63"/>
       <c r="J94" s="40"/>
-      <c r="K94" s="189"/>
-      <c r="L94" s="190"/>
-      <c r="M94" s="190"/>
-      <c r="N94" s="191"/>
+      <c r="K94" s="190"/>
+      <c r="L94" s="191"/>
+      <c r="M94" s="191"/>
+      <c r="N94" s="192"/>
       <c r="O94" s="84"/>
       <c r="P94" s="84"/>
       <c r="Q94" s="76"/>
@@ -11666,10 +11665,10 @@
       <c r="H95" s="63"/>
       <c r="I95" s="63"/>
       <c r="J95" s="40"/>
-      <c r="K95" s="189"/>
-      <c r="L95" s="190"/>
-      <c r="M95" s="190"/>
-      <c r="N95" s="191"/>
+      <c r="K95" s="190"/>
+      <c r="L95" s="191"/>
+      <c r="M95" s="191"/>
+      <c r="N95" s="192"/>
       <c r="O95" s="84"/>
       <c r="P95" s="84"/>
       <c r="Q95" s="76"/>
@@ -11682,33 +11681,58 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="95">
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K52:N52"/>
     <mergeCell ref="K94:N94"/>
     <mergeCell ref="K95:N95"/>
     <mergeCell ref="K5:N5"/>
@@ -11725,58 +11749,33 @@
     <mergeCell ref="K70:N70"/>
     <mergeCell ref="K71:N71"/>
     <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K93:N93"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048468:Q1048576 Q5:Q95"/>
@@ -11805,8 +11804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11822,10 +11821,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
+      <c r="B1" s="153"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -11856,8 +11855,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="151"/>
-      <c r="B2" s="151"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -11916,7 +11915,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -12008,7 +12007,7 @@
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="138" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -12062,7 +12061,7 @@
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="43"/>
       <c r="C18" s="86" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
@@ -12136,7 +12135,7 @@
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="42"/>
       <c r="B24" s="80" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C24" s="43"/>
       <c r="D24" s="43"/>
@@ -12150,7 +12149,7 @@
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="42"/>
       <c r="B25" s="86" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="43"/>
@@ -12164,7 +12163,7 @@
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="42"/>
       <c r="B26" s="80" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
@@ -12178,7 +12177,7 @@
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="42"/>
       <c r="B27" s="86" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
@@ -12192,7 +12191,7 @@
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="42"/>
       <c r="B28" s="80" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C28" s="43"/>
       <c r="D28" s="43"/>
@@ -12206,7 +12205,7 @@
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="42"/>
       <c r="B29" s="86" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>
@@ -12220,7 +12219,7 @@
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="42"/>
       <c r="B30" s="127" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C30" s="43"/>
       <c r="D30" s="43"/>
@@ -12234,7 +12233,7 @@
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="42"/>
       <c r="B31" s="86" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C31" s="43"/>
       <c r="D31" s="43"/>
@@ -12248,7 +12247,7 @@
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="42"/>
       <c r="B32" s="86" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C32" s="43"/>
       <c r="D32" s="43"/>
@@ -12262,7 +12261,7 @@
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="42"/>
       <c r="B33" s="86" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C33" s="43"/>
       <c r="D33" s="43"/>
@@ -12276,7 +12275,7 @@
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="42"/>
       <c r="B34" s="80" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C34" s="43"/>
       <c r="D34" s="43"/>
@@ -12290,7 +12289,7 @@
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="42"/>
       <c r="B35" s="86" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
@@ -12303,7 +12302,7 @@
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="42"/>
       <c r="B36" s="127" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
@@ -12316,7 +12315,7 @@
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="42"/>
       <c r="B37" s="86" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
@@ -12329,7 +12328,7 @@
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="42"/>
       <c r="B38" s="86" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
@@ -12342,7 +12341,7 @@
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="42"/>
       <c r="B39" s="80" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
@@ -12356,7 +12355,7 @@
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="42"/>
       <c r="B40" s="86" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C40" s="43"/>
       <c r="D40" s="43"/>
@@ -12370,7 +12369,7 @@
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="42"/>
       <c r="B41" s="80" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C41" s="43"/>
       <c r="D41" s="43"/>
@@ -12384,7 +12383,7 @@
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="42"/>
       <c r="B42" s="86" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
@@ -12613,7 +12612,7 @@
     </row>
     <row r="61" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="86" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C61" s="86"/>
       <c r="D61" s="43"/>
@@ -12650,7 +12649,7 @@
     </row>
     <row r="64" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="86" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C64" s="43"/>
       <c r="D64" s="43"/>
@@ -12701,7 +12700,7 @@
     </row>
     <row r="68" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="86" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C68" s="86"/>
       <c r="D68" s="43"/>
@@ -13188,10 +13187,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
+      <c r="B1" s="153"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13219,8 +13218,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="151"/>
-      <c r="B2" s="151"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13631,14 +13630,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="193" t="s">
+      <c r="B1" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="16"/>
@@ -13831,11 +13830,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="194" t="s">
+      <c r="E27" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="195"/>
-      <c r="G27" s="196"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="197"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="19" t="s">

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc so do tuyen/CF0143_Danh muc so do tuyen.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc so do tuyen/CF0143_Danh muc so do tuyen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="4" r:id="rId1"/>
@@ -1391,7 +1391,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="295">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2254,10 +2254,6 @@
     <t>Thị Phượng</t>
   </si>
   <si>
-    <t>- Tạo mới tài liệu
-- Danh mục sơ đồ tuyến (Customize Hoàng Trần) - CustomizeIndex =51</t>
-  </si>
-  <si>
     <t>Sử dụng màn hình này để:
 Truy vấn danh mục sơ đồ tuyến</t>
   </si>
@@ -2283,36 +2279,12 @@
     <t>Ver 1.0</t>
   </si>
   <si>
-    <t>Xóa</t>
-  </si>
-  <si>
-    <t>Require</t>
-  </si>
-  <si>
-    <t>CFML000038</t>
-  </si>
-  <si>
-    <t>CFML000064</t>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
     <t>CustomizeIndex</t>
   </si>
   <si>
-    <t>click LinkAdd</t>
-  </si>
-  <si>
-    <t>Click LinkEdit</t>
-  </si>
-  <si>
-    <t>Click LinkView</t>
-  </si>
-  <si>
-    <t>Click LinkSearch</t>
-  </si>
-  <si>
     <t>Truyền tham số @DivisionID gọi màn hình Thanh tìm kiếm - AS0060</t>
   </si>
   <si>
@@ -2326,12 +2298,6 @@
   </si>
   <si>
     <t>Truyền tham số @DivisionID gọi màn hình Cập nhật sơ đồ tuyến - CF0144</t>
-  </si>
-  <si>
-    <t>Click System</t>
-  </si>
-  <si>
-    <t>Click Excel</t>
   </si>
   <si>
     <t>SELECT CT43.RouteID, CT43.RouteName, CT43.[Description], CT43.[Disabled] 
@@ -2457,9 +2423,6 @@
     <t>- Click LinkEdit Gọi màn hình CF0144 - Cập nhật sơ đồ tuyến (dạng Edit)</t>
   </si>
   <si>
-    <t>Click Print</t>
-  </si>
-  <si>
     <t>Truyền tham số @DivisionID để in mẫu báo cáo AR0135</t>
   </si>
   <si>
@@ -2489,16 +2452,42 @@
 0</t>
   </si>
   <si>
+    <t>- Thực hiện in mẫu báo cáo sơ đồ tuyến AR0143</t>
+  </si>
+  <si>
+    <t>- Tạo mới tài liệu
+- Danh mục sơ đồ tuyến</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popup menu </t>
+  </si>
+  <si>
+    <t>không cho phép nhập dấu và ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LinkAdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LinkEdit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Print</t>
+  </si>
+  <si>
     <t>EXEC PROCEDURE [dbo].[CP0143]  
  @DivisionID NVARCHAR(50),
- @RouteID NVARCHAR(MAX)</t>
+ @RouteID NVARCHAR(MAX),
+@UserID AS VARCHAR(50) = ''</t>
   </si>
   <si>
     <t>@DivisioID
-@RouteID</t>
-  </si>
-  <si>
-    <t>- Thực hiện in mẫu báo cáo sơ đồ tuyến AR0143</t>
+@RouteID 
+@UserID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@@DivisionID
+@@RouteID
+@@UserID </t>
   </si>
 </sst>
 </file>
@@ -3505,18 +3494,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>743259</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3536,8 +3525,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="47625" y="1209676"/>
-          <a:ext cx="7572684" cy="4286250"/>
+          <a:off x="47625" y="857250"/>
+          <a:ext cx="7600950" cy="4324350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3849,7 +3838,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J2"/>
+      <selection activeCell="E17" sqref="E17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3919,7 +3908,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="37">
-        <v>42382</v>
+        <v>42387</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3959,7 +3948,7 @@
         <v>225</v>
       </c>
       <c r="E5" s="155" t="s">
-        <v>226</v>
+        <v>286</v>
       </c>
       <c r="F5" s="146"/>
       <c r="G5" s="146"/>
@@ -4798,7 +4787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J2"/>
     </sheetView>
   </sheetViews>
@@ -4877,7 +4866,7 @@
       </c>
       <c r="J2" s="38">
         <f>'Update History'!J2</f>
-        <v>42382</v>
+        <v>42387</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4906,7 +4895,7 @@
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
       <c r="I5" s="168" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J5" s="169"/>
     </row>
@@ -5399,10 +5388,10 @@
   <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5501,7 +5490,7 @@
       </c>
       <c r="P2" s="28">
         <f>'Update History'!J2</f>
-        <v>42382</v>
+        <v>42387</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5509,10 +5498,10 @@
         <v>45</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>109</v>
@@ -5559,7 +5548,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C5" s="33">
         <v>51</v>
@@ -5593,7 +5582,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C6" s="33">
         <v>51</v>
@@ -5621,7 +5610,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C7" s="33">
         <v>51</v>
@@ -5655,7 +5644,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C8" s="33">
         <v>51</v>
@@ -5686,14 +5675,16 @@
       <c r="M8" s="69"/>
       <c r="N8" s="69"/>
       <c r="O8" s="69"/>
-      <c r="P8" s="88"/>
+      <c r="P8" s="88" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="9" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C9" s="33">
         <v>51</v>
@@ -5731,7 +5722,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C10" s="33">
         <v>51</v>
@@ -5769,7 +5760,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C11" s="33">
         <v>51</v>
@@ -5807,7 +5798,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C12" s="33">
         <v>51</v>
@@ -5839,7 +5830,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C13" s="33">
         <v>51</v>
@@ -5871,7 +5862,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="33">
         <v>51</v>
@@ -5903,7 +5894,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C15" s="33">
         <v>51</v>
@@ -5911,8 +5902,12 @@
       <c r="D15" s="33">
         <v>6</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="88"/>
+      <c r="E15" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="F15" s="88" t="s">
+        <v>204</v>
+      </c>
       <c r="G15" s="84"/>
       <c r="H15" s="40"/>
       <c r="I15" s="40"/>
@@ -5929,7 +5924,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C16" s="33">
         <v>51</v>
@@ -5941,7 +5936,7 @@
         <v>183</v>
       </c>
       <c r="F16" s="130" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G16" s="88"/>
       <c r="H16" s="40" t="s">
@@ -5961,7 +5956,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C17" s="33">
         <v>51</v>
@@ -5973,7 +5968,7 @@
         <v>184</v>
       </c>
       <c r="F17" s="130" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G17" s="88"/>
       <c r="H17" s="40" t="s">
@@ -5993,7 +5988,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C18" s="33">
         <v>51</v>
@@ -6005,7 +6000,7 @@
         <v>185</v>
       </c>
       <c r="F18" s="130" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G18" s="88"/>
       <c r="H18" s="40" t="s">
@@ -6025,7 +6020,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C19" s="33">
         <v>51</v>
@@ -6037,7 +6032,7 @@
         <v>186</v>
       </c>
       <c r="F19" s="130" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G19" s="84"/>
       <c r="H19" s="40" t="s">
@@ -6057,7 +6052,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C20" s="33">
         <v>51</v>
@@ -6069,7 +6064,7 @@
         <v>187</v>
       </c>
       <c r="F20" s="130" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G20" s="88"/>
       <c r="H20" s="40" t="s">
@@ -6089,7 +6084,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C21" s="33">
         <v>51</v>
@@ -6101,7 +6096,7 @@
         <v>188</v>
       </c>
       <c r="F21" s="130" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G21" s="88"/>
       <c r="H21" s="40" t="s">
@@ -6119,7 +6114,7 @@
     <row r="22" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33"/>
       <c r="B22" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C22" s="33">
         <v>51</v>
@@ -6151,7 +6146,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C23" s="33">
         <v>51</v>
@@ -6183,7 +6178,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C24" s="33">
         <v>51</v>
@@ -6949,7 +6944,7 @@
       </c>
       <c r="I2" s="67">
         <f>'Update History'!J2</f>
-        <v>42382</v>
+        <v>42387</v>
       </c>
       <c r="J2" s="67"/>
     </row>
@@ -6958,7 +6953,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>104</v>
@@ -6994,52 +6989,28 @@
       <c r="A5" s="33">
         <v>1</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="C5" s="130" t="s">
-        <v>235</v>
-      </c>
-      <c r="D5" s="130" t="s">
-        <v>236</v>
-      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
       <c r="E5" s="40"/>
       <c r="F5" s="62"/>
-      <c r="G5" s="130" t="s">
-        <v>197</v>
-      </c>
-      <c r="H5" s="130" t="s">
-        <v>152</v>
-      </c>
-      <c r="I5" s="63" t="s">
-        <v>237</v>
-      </c>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="69"/>
     </row>
     <row r="6" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>2</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="130" t="s">
-        <v>235</v>
-      </c>
-      <c r="D6" s="130" t="s">
-        <v>236</v>
-      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
       <c r="E6" s="40"/>
       <c r="F6" s="62"/>
-      <c r="G6" s="130" t="s">
-        <v>197</v>
-      </c>
-      <c r="H6" s="130" t="s">
-        <v>152</v>
-      </c>
-      <c r="I6" s="63" t="s">
-        <v>238</v>
-      </c>
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="63"/>
       <c r="J6" s="69"/>
     </row>
     <row r="7" spans="1:16" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
@@ -7855,7 +7826,7 @@
   <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7945,7 +7916,7 @@
       </c>
       <c r="K2" s="51">
         <f>'Update History'!J2</f>
-        <v>42382</v>
+        <v>42387</v>
       </c>
       <c r="L2" s="52"/>
       <c r="M2" s="52"/>
@@ -7955,10 +7926,10 @@
         <v>45</v>
       </c>
       <c r="B4" s="128" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C4" s="139" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>130</v>
@@ -7984,13 +7955,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C5" s="33">
         <v>51</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="E5" s="136" t="s">
         <v>135</v>
@@ -7999,7 +7970,7 @@
         <v>207</v>
       </c>
       <c r="G5" s="179" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="H5" s="180"/>
       <c r="I5" s="185"/>
@@ -8011,22 +7982,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C6" s="33">
         <v>51</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="E6" s="137" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>207</v>
       </c>
       <c r="G6" s="181" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="H6" s="182"/>
       <c r="I6" s="185"/>
@@ -8038,22 +8009,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C7" s="33">
         <v>51</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="E7" s="137" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="F7" s="27" t="s">
         <v>207</v>
       </c>
       <c r="G7" s="181" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="H7" s="182"/>
       <c r="I7" s="185"/>
@@ -8065,13 +8036,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C8" s="33">
         <v>51</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="E8" s="136" t="s">
         <v>135</v>
@@ -8080,7 +8051,7 @@
         <v>207</v>
       </c>
       <c r="G8" s="179" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="H8" s="180"/>
       <c r="I8" s="185"/>
@@ -8092,13 +8063,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C9" s="33">
         <v>51</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E9" s="136" t="s">
         <v>135</v>
@@ -8107,7 +8078,7 @@
         <v>207</v>
       </c>
       <c r="G9" s="181" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="H9" s="182"/>
       <c r="I9" s="131"/>
@@ -8119,22 +8090,22 @@
         <v>6</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C10" s="33">
         <v>51</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="E10" s="137" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>207</v>
       </c>
       <c r="G10" s="179" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H10" s="180"/>
       <c r="I10" s="185"/>
@@ -8146,13 +8117,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C11" s="33">
         <v>51</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>251</v>
+        <v>199</v>
       </c>
       <c r="E11" s="136" t="s">
         <v>135</v>
@@ -8161,7 +8132,7 @@
         <v>207</v>
       </c>
       <c r="G11" s="179" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="H11" s="180"/>
       <c r="I11" s="185"/>
@@ -9165,8 +9136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048468"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9274,7 +9245,7 @@
       </c>
       <c r="Q2" s="51">
         <f>'Update History'!J2</f>
-        <v>42382</v>
+        <v>42387</v>
       </c>
       <c r="R2" s="51"/>
       <c r="S2" s="51"/>
@@ -9286,10 +9257,10 @@
         <v>45</v>
       </c>
       <c r="B4" s="144" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C4" s="144" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D4" s="68" t="s">
         <v>98</v>
@@ -9339,19 +9310,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C5" s="33">
         <v>51</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="G5" s="124" t="s">
         <v>211</v>
@@ -9366,7 +9337,7 @@
         <v>213</v>
       </c>
       <c r="K5" s="150" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="L5" s="151"/>
       <c r="M5" s="151"/>
@@ -9375,7 +9346,7 @@
         <v>135</v>
       </c>
       <c r="P5" s="129" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="76" t="s">
         <v>106</v>
@@ -9384,7 +9355,7 @@
         <v>219</v>
       </c>
       <c r="S5" s="88" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="T5" s="64"/>
       <c r="U5" s="64"/>
@@ -9394,7 +9365,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C6" s="33">
         <v>51</v>
@@ -9415,25 +9386,25 @@
         <v>215</v>
       </c>
       <c r="K6" s="150" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="L6" s="151"/>
       <c r="M6" s="151"/>
       <c r="N6" s="152"/>
       <c r="O6" s="143" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="P6" s="143" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="Q6" s="76" t="s">
         <v>197</v>
       </c>
       <c r="R6" s="75" t="s">
-        <v>219</v>
+        <v>152</v>
       </c>
       <c r="S6" s="88" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="T6" s="64"/>
       <c r="U6" s="64"/>
@@ -9441,13 +9412,13 @@
     <row r="7" spans="1:21" s="34" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33"/>
       <c r="B7" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C7" s="33">
         <v>51</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
@@ -9464,16 +9435,16 @@
         <v>216</v>
       </c>
       <c r="K7" s="150" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="L7" s="151"/>
       <c r="M7" s="151"/>
       <c r="N7" s="152"/>
       <c r="O7" s="129" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="P7" s="129" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="Q7" s="76" t="s">
         <v>197</v>
@@ -9482,7 +9453,7 @@
         <v>152</v>
       </c>
       <c r="S7" s="125" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="T7" s="64"/>
       <c r="U7" s="64"/>
@@ -9492,13 +9463,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C8" s="33">
         <v>51</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
@@ -9515,16 +9486,16 @@
         <v>218</v>
       </c>
       <c r="K8" s="150" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="L8" s="151"/>
       <c r="M8" s="151"/>
       <c r="N8" s="152"/>
       <c r="O8" s="129" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="P8" s="129" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="76" t="s">
         <v>197</v>
@@ -9533,17 +9504,17 @@
         <v>152</v>
       </c>
       <c r="S8" s="130" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="T8" s="64"/>
       <c r="U8" s="64"/>
     </row>
-    <row r="9" spans="1:21" s="34" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" s="34" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>4</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C9" s="33">
         <v>51</v>
@@ -9564,16 +9535,16 @@
         <v>223</v>
       </c>
       <c r="K9" s="150" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="L9" s="151"/>
       <c r="M9" s="151"/>
       <c r="N9" s="152"/>
       <c r="O9" s="145" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="P9" s="145" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="Q9" s="76" t="s">
         <v>210</v>
@@ -9582,7 +9553,7 @@
         <v>152</v>
       </c>
       <c r="S9" s="82" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
@@ -11804,8 +11775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11883,7 +11854,7 @@
       </c>
       <c r="J2" s="38">
         <f>'Update History'!J2</f>
-        <v>42382</v>
+        <v>42387</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11915,7 +11886,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -12007,7 +11978,7 @@
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="138" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -12061,7 +12032,7 @@
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="43"/>
       <c r="C18" s="86" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
@@ -12135,7 +12106,7 @@
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="42"/>
       <c r="B24" s="80" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C24" s="43"/>
       <c r="D24" s="43"/>
@@ -12149,7 +12120,7 @@
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="42"/>
       <c r="B25" s="86" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="43"/>
@@ -12163,7 +12134,7 @@
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="42"/>
       <c r="B26" s="80" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
@@ -12177,7 +12148,7 @@
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="42"/>
       <c r="B27" s="86" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
@@ -12191,7 +12162,7 @@
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="42"/>
       <c r="B28" s="80" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C28" s="43"/>
       <c r="D28" s="43"/>
@@ -12205,7 +12176,7 @@
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="42"/>
       <c r="B29" s="86" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>
@@ -12219,7 +12190,7 @@
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="42"/>
       <c r="B30" s="127" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C30" s="43"/>
       <c r="D30" s="43"/>
@@ -12233,7 +12204,7 @@
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="42"/>
       <c r="B31" s="86" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C31" s="43"/>
       <c r="D31" s="43"/>
@@ -12247,7 +12218,7 @@
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="42"/>
       <c r="B32" s="86" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C32" s="43"/>
       <c r="D32" s="43"/>
@@ -12261,7 +12232,7 @@
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="42"/>
       <c r="B33" s="86" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C33" s="43"/>
       <c r="D33" s="43"/>
@@ -12275,7 +12246,7 @@
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="42"/>
       <c r="B34" s="80" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C34" s="43"/>
       <c r="D34" s="43"/>
@@ -12289,7 +12260,7 @@
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="42"/>
       <c r="B35" s="86" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
@@ -12302,7 +12273,7 @@
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="42"/>
       <c r="B36" s="127" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
@@ -12315,7 +12286,7 @@
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="42"/>
       <c r="B37" s="86" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
@@ -12328,7 +12299,7 @@
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="42"/>
       <c r="B38" s="86" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
@@ -12341,7 +12312,7 @@
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="42"/>
       <c r="B39" s="80" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
@@ -12355,7 +12326,7 @@
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="42"/>
       <c r="B40" s="86" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C40" s="43"/>
       <c r="D40" s="43"/>
@@ -12369,7 +12340,7 @@
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="42"/>
       <c r="B41" s="80" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C41" s="43"/>
       <c r="D41" s="43"/>
@@ -12383,7 +12354,7 @@
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="42"/>
       <c r="B42" s="86" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
@@ -12612,7 +12583,7 @@
     </row>
     <row r="61" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="86" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C61" s="86"/>
       <c r="D61" s="43"/>
@@ -12649,7 +12620,7 @@
     </row>
     <row r="64" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="86" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C64" s="43"/>
       <c r="D64" s="43"/>
@@ -12700,7 +12671,7 @@
     </row>
     <row r="68" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="86" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C68" s="86"/>
       <c r="D68" s="43"/>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc so do tuyen/CF0143_Danh muc so do tuyen.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc so do tuyen/CF0143_Danh muc so do tuyen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="4" r:id="rId1"/>
@@ -1391,7 +1391,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="292">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2463,15 +2463,6 @@
   </si>
   <si>
     <t>không cho phép nhập dấu và ký tự đặc biệt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LinkAdd</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LinkEdit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Print</t>
   </si>
   <si>
     <t>EXEC PROCEDURE [dbo].[CP0143]  
@@ -3315,36 +3306,36 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3414,38 +3405,38 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3854,10 +3845,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="152"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -3884,8 +3875,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -3924,14 +3915,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="154" t="s">
+      <c r="E4" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="40">
@@ -3947,14 +3938,14 @@
       <c r="D5" s="101" t="s">
         <v>225</v>
       </c>
-      <c r="E5" s="155" t="s">
+      <c r="E5" s="154" t="s">
         <v>286</v>
       </c>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="91">
@@ -3981,12 +3972,12 @@
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="149"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="148"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="93">
@@ -3997,12 +3988,12 @@
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
-      <c r="I8" s="151"/>
-      <c r="J8" s="152"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="151"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="94">
@@ -4013,12 +4004,12 @@
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="149"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="148"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="95">
@@ -4029,12 +4020,12 @@
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="149"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="148"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="96">
@@ -4045,12 +4036,12 @@
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="149"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="148"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="97">
@@ -4061,12 +4052,12 @@
       </c>
       <c r="C12" s="79"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="149"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="148"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="98">
@@ -4077,12 +4068,12 @@
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="149"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="148"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="99">
@@ -4093,12 +4084,12 @@
       </c>
       <c r="C14" s="79"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="149"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="148"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40">
@@ -4109,12 +4100,12 @@
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="146"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="155"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="91">
@@ -4125,12 +4116,12 @@
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="146"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="92">
@@ -4141,12 +4132,12 @@
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="146"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="155"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="93">
@@ -4157,12 +4148,12 @@
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="155"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="155"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="94">
@@ -4173,12 +4164,12 @@
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="146"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="155"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="95">
@@ -4189,12 +4180,12 @@
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="146"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="155"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="155"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="96">
@@ -4205,12 +4196,12 @@
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="146"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="155"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="155"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="97">
@@ -4221,12 +4212,12 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="146"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="155"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="98">
@@ -4237,12 +4228,12 @@
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="146"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="155"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="155"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="99">
@@ -4253,12 +4244,12 @@
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="146"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="155"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="155"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="40">
@@ -4269,12 +4260,12 @@
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="146"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="155"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="155"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="91">
@@ -4285,12 +4276,12 @@
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="146"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="92">
@@ -4301,12 +4292,12 @@
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="146"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="155"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="93">
@@ -4317,12 +4308,12 @@
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="155"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="94">
@@ -4333,12 +4324,12 @@
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="155"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="155"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="155"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="95">
@@ -4349,12 +4340,12 @@
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="155"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="155"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="96">
@@ -4365,12 +4356,12 @@
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="146"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="155"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="97">
@@ -4381,12 +4372,12 @@
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="146"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="155"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="98">
@@ -4397,12 +4388,12 @@
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="146"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="155"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="155"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="99">
@@ -4413,12 +4404,12 @@
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="146"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="146"/>
-      <c r="I34" s="146"/>
-      <c r="J34" s="146"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="155"/>
+      <c r="H34" s="155"/>
+      <c r="I34" s="155"/>
+      <c r="J34" s="155"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="40">
@@ -4429,12 +4420,12 @@
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="146"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="146"/>
-      <c r="I35" s="146"/>
-      <c r="J35" s="146"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="155"/>
+      <c r="H35" s="155"/>
+      <c r="I35" s="155"/>
+      <c r="J35" s="155"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="91">
@@ -4445,12 +4436,12 @@
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="146"/>
-      <c r="F36" s="146"/>
-      <c r="G36" s="146"/>
-      <c r="H36" s="146"/>
-      <c r="I36" s="146"/>
-      <c r="J36" s="146"/>
+      <c r="E36" s="155"/>
+      <c r="F36" s="155"/>
+      <c r="G36" s="155"/>
+      <c r="H36" s="155"/>
+      <c r="I36" s="155"/>
+      <c r="J36" s="155"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="92">
@@ -4461,12 +4452,12 @@
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="146"/>
-      <c r="F37" s="146"/>
-      <c r="G37" s="146"/>
-      <c r="H37" s="146"/>
-      <c r="I37" s="146"/>
-      <c r="J37" s="146"/>
+      <c r="E37" s="155"/>
+      <c r="F37" s="155"/>
+      <c r="G37" s="155"/>
+      <c r="H37" s="155"/>
+      <c r="I37" s="155"/>
+      <c r="J37" s="155"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="93">
@@ -4477,12 +4468,12 @@
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="146"/>
-      <c r="G38" s="146"/>
-      <c r="H38" s="146"/>
-      <c r="I38" s="146"/>
-      <c r="J38" s="146"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="155"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="155"/>
+      <c r="J38" s="155"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="94">
@@ -4493,12 +4484,12 @@
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="146"/>
-      <c r="F39" s="146"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="146"/>
-      <c r="I39" s="146"/>
-      <c r="J39" s="146"/>
+      <c r="E39" s="155"/>
+      <c r="F39" s="155"/>
+      <c r="G39" s="155"/>
+      <c r="H39" s="155"/>
+      <c r="I39" s="155"/>
+      <c r="J39" s="155"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="95">
@@ -4509,12 +4500,12 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="146"/>
-      <c r="F40" s="146"/>
-      <c r="G40" s="146"/>
-      <c r="H40" s="146"/>
-      <c r="I40" s="146"/>
-      <c r="J40" s="146"/>
+      <c r="E40" s="155"/>
+      <c r="F40" s="155"/>
+      <c r="G40" s="155"/>
+      <c r="H40" s="155"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="155"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="96">
@@ -4525,12 +4516,12 @@
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="146"/>
-      <c r="F41" s="146"/>
-      <c r="G41" s="146"/>
-      <c r="H41" s="146"/>
-      <c r="I41" s="146"/>
-      <c r="J41" s="146"/>
+      <c r="E41" s="155"/>
+      <c r="F41" s="155"/>
+      <c r="G41" s="155"/>
+      <c r="H41" s="155"/>
+      <c r="I41" s="155"/>
+      <c r="J41" s="155"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="97">
@@ -4541,23 +4532,32 @@
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="146"/>
-      <c r="F42" s="146"/>
-      <c r="G42" s="146"/>
-      <c r="H42" s="146"/>
-      <c r="I42" s="146"/>
-      <c r="J42" s="146"/>
+      <c r="E42" s="155"/>
+      <c r="F42" s="155"/>
+      <c r="G42" s="155"/>
+      <c r="H42" s="155"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -4573,23 +4573,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -4804,10 +4795,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="152"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -4838,8 +4829,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5416,13 +5407,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -5456,11 +5447,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -7825,8 +7816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7850,7 +7841,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="188" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="134"/>
@@ -7887,7 +7878,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="184"/>
+      <c r="A2" s="189"/>
       <c r="B2" s="135"/>
       <c r="C2" s="141"/>
       <c r="D2" s="31" t="s">
@@ -7940,15 +7931,15 @@
       <c r="F4" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="153" t="s">
+      <c r="G4" s="152" t="s">
         <v>132</v>
       </c>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153" t="s">
+      <c r="H4" s="152"/>
+      <c r="I4" s="152" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
@@ -7960,22 +7951,20 @@
       <c r="C5" s="33">
         <v>51</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>289</v>
-      </c>
+      <c r="D5" s="27"/>
       <c r="E5" s="136" t="s">
         <v>135</v>
       </c>
       <c r="F5" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="G5" s="179" t="s">
+      <c r="G5" s="186" t="s">
         <v>240</v>
       </c>
-      <c r="H5" s="180"/>
-      <c r="I5" s="185"/>
-      <c r="J5" s="186"/>
-      <c r="K5" s="187"/>
+      <c r="H5" s="187"/>
+      <c r="I5" s="179"/>
+      <c r="J5" s="180"/>
+      <c r="K5" s="181"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
@@ -7987,22 +7976,20 @@
       <c r="C6" s="33">
         <v>51</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>290</v>
-      </c>
+      <c r="D6" s="27"/>
       <c r="E6" s="137" t="s">
         <v>245</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="G6" s="181" t="s">
+      <c r="G6" s="184" t="s">
         <v>246</v>
       </c>
-      <c r="H6" s="182"/>
-      <c r="I6" s="185"/>
-      <c r="J6" s="186"/>
-      <c r="K6" s="187"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="179"/>
+      <c r="J6" s="180"/>
+      <c r="K6" s="181"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
@@ -8014,22 +8001,20 @@
       <c r="C7" s="33">
         <v>51</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>230</v>
-      </c>
+      <c r="D7" s="27"/>
       <c r="E7" s="137" t="s">
         <v>245</v>
       </c>
       <c r="F7" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="G7" s="181" t="s">
+      <c r="G7" s="184" t="s">
         <v>246</v>
       </c>
-      <c r="H7" s="182"/>
-      <c r="I7" s="185"/>
-      <c r="J7" s="186"/>
-      <c r="K7" s="187"/>
+      <c r="H7" s="185"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="180"/>
+      <c r="K7" s="181"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -8041,22 +8026,20 @@
       <c r="C8" s="33">
         <v>51</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>231</v>
-      </c>
+      <c r="D8" s="27"/>
       <c r="E8" s="136" t="s">
         <v>135</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="G8" s="179" t="s">
+      <c r="G8" s="186" t="s">
         <v>236</v>
       </c>
-      <c r="H8" s="180"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="186"/>
-      <c r="K8" s="187"/>
+      <c r="H8" s="187"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="180"/>
+      <c r="K8" s="181"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
@@ -8068,19 +8051,17 @@
       <c r="C9" s="33">
         <v>51</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>291</v>
-      </c>
+      <c r="D9" s="27"/>
       <c r="E9" s="136" t="s">
         <v>135</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="G9" s="181" t="s">
+      <c r="G9" s="184" t="s">
         <v>278</v>
       </c>
-      <c r="H9" s="182"/>
+      <c r="H9" s="185"/>
       <c r="I9" s="131"/>
       <c r="J9" s="132"/>
       <c r="K9" s="133"/>
@@ -8095,22 +8076,20 @@
       <c r="C10" s="33">
         <v>51</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>198</v>
-      </c>
+      <c r="D10" s="27"/>
       <c r="E10" s="137" t="s">
         <v>237</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="G10" s="179" t="s">
+      <c r="G10" s="186" t="s">
         <v>238</v>
       </c>
-      <c r="H10" s="180"/>
-      <c r="I10" s="185"/>
-      <c r="J10" s="186"/>
-      <c r="K10" s="187"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="181"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
@@ -8122,22 +8101,20 @@
       <c r="C11" s="33">
         <v>51</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>199</v>
-      </c>
+      <c r="D11" s="27"/>
       <c r="E11" s="136" t="s">
         <v>135</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="G11" s="179" t="s">
+      <c r="G11" s="186" t="s">
         <v>239</v>
       </c>
-      <c r="H11" s="180"/>
-      <c r="I11" s="185"/>
-      <c r="J11" s="186"/>
-      <c r="K11" s="187"/>
+      <c r="H11" s="187"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="181"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
@@ -8148,11 +8125,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="188"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="185"/>
-      <c r="J12" s="186"/>
-      <c r="K12" s="187"/>
+      <c r="G12" s="182"/>
+      <c r="H12" s="183"/>
+      <c r="I12" s="179"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="181"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
@@ -8163,11 +8140,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="188"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="185"/>
-      <c r="J13" s="186"/>
-      <c r="K13" s="187"/>
+      <c r="G13" s="182"/>
+      <c r="H13" s="183"/>
+      <c r="I13" s="179"/>
+      <c r="J13" s="180"/>
+      <c r="K13" s="181"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
@@ -8178,11 +8155,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="188"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="185"/>
-      <c r="J14" s="186"/>
-      <c r="K14" s="187"/>
+      <c r="G14" s="182"/>
+      <c r="H14" s="183"/>
+      <c r="I14" s="179"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="181"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -8193,11 +8170,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="188"/>
-      <c r="H15" s="189"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="186"/>
-      <c r="K15" s="187"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="183"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="180"/>
+      <c r="K15" s="181"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -8208,11 +8185,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="188"/>
-      <c r="H16" s="189"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="186"/>
-      <c r="K16" s="187"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="183"/>
+      <c r="I16" s="179"/>
+      <c r="J16" s="180"/>
+      <c r="K16" s="181"/>
     </row>
     <row r="17" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -8223,11 +8200,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="188"/>
-      <c r="H17" s="189"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="186"/>
-      <c r="K17" s="187"/>
+      <c r="G17" s="182"/>
+      <c r="H17" s="183"/>
+      <c r="I17" s="179"/>
+      <c r="J17" s="180"/>
+      <c r="K17" s="181"/>
     </row>
     <row r="18" spans="1:11" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -8238,11 +8215,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="189"/>
-      <c r="I18" s="185"/>
-      <c r="J18" s="186"/>
-      <c r="K18" s="187"/>
+      <c r="G18" s="182"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="180"/>
+      <c r="K18" s="181"/>
     </row>
     <row r="19" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -8253,11 +8230,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="189"/>
-      <c r="I19" s="185"/>
-      <c r="J19" s="186"/>
-      <c r="K19" s="187"/>
+      <c r="G19" s="182"/>
+      <c r="H19" s="183"/>
+      <c r="I19" s="179"/>
+      <c r="J19" s="180"/>
+      <c r="K19" s="181"/>
     </row>
     <row r="20" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
@@ -8268,11 +8245,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="188"/>
-      <c r="H20" s="189"/>
-      <c r="I20" s="185"/>
-      <c r="J20" s="186"/>
-      <c r="K20" s="187"/>
+      <c r="G20" s="182"/>
+      <c r="H20" s="183"/>
+      <c r="I20" s="179"/>
+      <c r="J20" s="180"/>
+      <c r="K20" s="181"/>
     </row>
     <row r="21" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
@@ -8283,11 +8260,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="188"/>
-      <c r="H21" s="189"/>
-      <c r="I21" s="185"/>
-      <c r="J21" s="186"/>
-      <c r="K21" s="187"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="183"/>
+      <c r="I21" s="179"/>
+      <c r="J21" s="180"/>
+      <c r="K21" s="181"/>
     </row>
     <row r="22" spans="1:11" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
@@ -8298,11 +8275,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="188"/>
-      <c r="H22" s="189"/>
-      <c r="I22" s="185"/>
-      <c r="J22" s="186"/>
-      <c r="K22" s="187"/>
+      <c r="G22" s="182"/>
+      <c r="H22" s="183"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="180"/>
+      <c r="K22" s="181"/>
     </row>
     <row r="23" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
@@ -8313,11 +8290,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="149"/>
-      <c r="I23" s="185"/>
-      <c r="J23" s="186"/>
-      <c r="K23" s="187"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="179"/>
+      <c r="J23" s="180"/>
+      <c r="K23" s="181"/>
     </row>
     <row r="24" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
@@ -8328,11 +8305,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="185"/>
-      <c r="J24" s="186"/>
-      <c r="K24" s="187"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="148"/>
+      <c r="I24" s="179"/>
+      <c r="J24" s="180"/>
+      <c r="K24" s="181"/>
     </row>
     <row r="25" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
@@ -8343,11 +8320,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="185"/>
-      <c r="J25" s="186"/>
-      <c r="K25" s="187"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="179"/>
+      <c r="J25" s="180"/>
+      <c r="K25" s="181"/>
     </row>
     <row r="26" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
@@ -8358,11 +8335,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="185"/>
-      <c r="J26" s="186"/>
-      <c r="K26" s="187"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="179"/>
+      <c r="J26" s="180"/>
+      <c r="K26" s="181"/>
     </row>
     <row r="27" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
@@ -8373,11 +8350,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="185"/>
-      <c r="J27" s="186"/>
-      <c r="K27" s="187"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="179"/>
+      <c r="J27" s="180"/>
+      <c r="K27" s="181"/>
     </row>
     <row r="28" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
@@ -8388,11 +8365,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="185"/>
-      <c r="J28" s="186"/>
-      <c r="K28" s="187"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="179"/>
+      <c r="J28" s="180"/>
+      <c r="K28" s="181"/>
     </row>
     <row r="29" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
@@ -8403,11 +8380,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="185"/>
-      <c r="J29" s="186"/>
-      <c r="K29" s="187"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="179"/>
+      <c r="J29" s="180"/>
+      <c r="K29" s="181"/>
     </row>
     <row r="30" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
@@ -8418,11 +8395,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="185"/>
-      <c r="J30" s="186"/>
-      <c r="K30" s="187"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="179"/>
+      <c r="J30" s="180"/>
+      <c r="K30" s="181"/>
     </row>
     <row r="31" spans="1:11" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
@@ -8433,11 +8410,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="185"/>
-      <c r="J31" s="186"/>
-      <c r="K31" s="187"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="179"/>
+      <c r="J31" s="180"/>
+      <c r="K31" s="181"/>
     </row>
     <row r="32" spans="1:11" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33">
@@ -8448,11 +8425,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="185"/>
-      <c r="J32" s="186"/>
-      <c r="K32" s="187"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="179"/>
+      <c r="J32" s="180"/>
+      <c r="K32" s="181"/>
     </row>
     <row r="33" spans="1:19" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A33" s="33">
@@ -8463,11 +8440,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="185"/>
-      <c r="J33" s="186"/>
-      <c r="K33" s="187"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="179"/>
+      <c r="J33" s="180"/>
+      <c r="K33" s="181"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -8485,11 +8462,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="185"/>
-      <c r="J34" s="186"/>
-      <c r="K34" s="187"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="179"/>
+      <c r="J34" s="180"/>
+      <c r="K34" s="181"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -8507,11 +8484,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="185"/>
-      <c r="J35" s="186"/>
-      <c r="K35" s="187"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="179"/>
+      <c r="J35" s="180"/>
+      <c r="K35" s="181"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -8529,11 +8506,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="185"/>
-      <c r="J36" s="186"/>
-      <c r="K36" s="187"/>
+      <c r="G36" s="146"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="179"/>
+      <c r="J36" s="180"/>
+      <c r="K36" s="181"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -8551,11 +8528,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="147"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="185"/>
-      <c r="J37" s="186"/>
-      <c r="K37" s="187"/>
+      <c r="G37" s="146"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="179"/>
+      <c r="J37" s="180"/>
+      <c r="K37" s="181"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -8573,11 +8550,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="147"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="185"/>
-      <c r="J38" s="186"/>
-      <c r="K38" s="187"/>
+      <c r="G38" s="146"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="179"/>
+      <c r="J38" s="180"/>
+      <c r="K38" s="181"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -8595,11 +8572,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="185"/>
-      <c r="J39" s="186"/>
-      <c r="K39" s="187"/>
+      <c r="G39" s="146"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="179"/>
+      <c r="J39" s="180"/>
+      <c r="K39" s="181"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -8617,11 +8594,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="185"/>
-      <c r="J40" s="186"/>
-      <c r="K40" s="187"/>
+      <c r="G40" s="146"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="179"/>
+      <c r="J40" s="180"/>
+      <c r="K40" s="181"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -8639,11 +8616,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="147"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="185"/>
-      <c r="J41" s="186"/>
-      <c r="K41" s="187"/>
+      <c r="G41" s="146"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="179"/>
+      <c r="J41" s="180"/>
+      <c r="K41" s="181"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -8661,11 +8638,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="147"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="185"/>
-      <c r="J42" s="186"/>
-      <c r="K42" s="187"/>
+      <c r="G42" s="146"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="179"/>
+      <c r="J42" s="180"/>
+      <c r="K42" s="181"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -8683,11 +8660,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="185"/>
-      <c r="J43" s="186"/>
-      <c r="K43" s="187"/>
+      <c r="G43" s="146"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="179"/>
+      <c r="J43" s="180"/>
+      <c r="K43" s="181"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -8705,11 +8682,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="147"/>
-      <c r="H44" s="149"/>
-      <c r="I44" s="185"/>
-      <c r="J44" s="186"/>
-      <c r="K44" s="187"/>
+      <c r="G44" s="146"/>
+      <c r="H44" s="148"/>
+      <c r="I44" s="179"/>
+      <c r="J44" s="180"/>
+      <c r="K44" s="181"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -8727,11 +8704,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="147"/>
-      <c r="H45" s="149"/>
-      <c r="I45" s="185"/>
-      <c r="J45" s="186"/>
-      <c r="K45" s="187"/>
+      <c r="G45" s="146"/>
+      <c r="H45" s="148"/>
+      <c r="I45" s="179"/>
+      <c r="J45" s="180"/>
+      <c r="K45" s="181"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -8749,11 +8726,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="147"/>
-      <c r="H46" s="149"/>
-      <c r="I46" s="185"/>
-      <c r="J46" s="186"/>
-      <c r="K46" s="187"/>
+      <c r="G46" s="146"/>
+      <c r="H46" s="148"/>
+      <c r="I46" s="179"/>
+      <c r="J46" s="180"/>
+      <c r="K46" s="181"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -8771,11 +8748,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="147"/>
-      <c r="H47" s="149"/>
-      <c r="I47" s="185"/>
-      <c r="J47" s="186"/>
-      <c r="K47" s="187"/>
+      <c r="G47" s="146"/>
+      <c r="H47" s="148"/>
+      <c r="I47" s="179"/>
+      <c r="J47" s="180"/>
+      <c r="K47" s="181"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -8793,11 +8770,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="147"/>
-      <c r="H48" s="149"/>
-      <c r="I48" s="185"/>
-      <c r="J48" s="186"/>
-      <c r="K48" s="187"/>
+      <c r="G48" s="146"/>
+      <c r="H48" s="148"/>
+      <c r="I48" s="179"/>
+      <c r="J48" s="180"/>
+      <c r="K48" s="181"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -8815,11 +8792,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="147"/>
-      <c r="H49" s="149"/>
-      <c r="I49" s="185"/>
-      <c r="J49" s="186"/>
-      <c r="K49" s="187"/>
+      <c r="G49" s="146"/>
+      <c r="H49" s="148"/>
+      <c r="I49" s="179"/>
+      <c r="J49" s="180"/>
+      <c r="K49" s="181"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -8837,11 +8814,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="147"/>
-      <c r="H50" s="149"/>
-      <c r="I50" s="185"/>
-      <c r="J50" s="186"/>
-      <c r="K50" s="187"/>
+      <c r="G50" s="146"/>
+      <c r="H50" s="148"/>
+      <c r="I50" s="179"/>
+      <c r="J50" s="180"/>
+      <c r="K50" s="181"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -8859,11 +8836,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="147"/>
-      <c r="H51" s="149"/>
-      <c r="I51" s="185"/>
-      <c r="J51" s="186"/>
-      <c r="K51" s="187"/>
+      <c r="G51" s="146"/>
+      <c r="H51" s="148"/>
+      <c r="I51" s="179"/>
+      <c r="J51" s="180"/>
+      <c r="K51" s="181"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -8881,11 +8858,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="147"/>
-      <c r="H52" s="149"/>
-      <c r="I52" s="185"/>
-      <c r="J52" s="186"/>
-      <c r="K52" s="187"/>
+      <c r="G52" s="146"/>
+      <c r="H52" s="148"/>
+      <c r="I52" s="179"/>
+      <c r="J52" s="180"/>
+      <c r="K52" s="181"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -8903,11 +8880,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="147"/>
-      <c r="H53" s="149"/>
-      <c r="I53" s="185"/>
-      <c r="J53" s="186"/>
-      <c r="K53" s="187"/>
+      <c r="G53" s="146"/>
+      <c r="H53" s="148"/>
+      <c r="I53" s="179"/>
+      <c r="J53" s="180"/>
+      <c r="K53" s="181"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -8925,11 +8902,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="147"/>
-      <c r="H54" s="149"/>
-      <c r="I54" s="185"/>
-      <c r="J54" s="186"/>
-      <c r="K54" s="187"/>
+      <c r="G54" s="146"/>
+      <c r="H54" s="148"/>
+      <c r="I54" s="179"/>
+      <c r="J54" s="180"/>
+      <c r="K54" s="181"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -8947,11 +8924,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="147"/>
-      <c r="H55" s="149"/>
-      <c r="I55" s="185"/>
-      <c r="J55" s="186"/>
-      <c r="K55" s="187"/>
+      <c r="G55" s="146"/>
+      <c r="H55" s="148"/>
+      <c r="I55" s="179"/>
+      <c r="J55" s="180"/>
+      <c r="K55" s="181"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -8969,11 +8946,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="147"/>
-      <c r="H56" s="149"/>
-      <c r="I56" s="185"/>
-      <c r="J56" s="186"/>
-      <c r="K56" s="187"/>
+      <c r="G56" s="146"/>
+      <c r="H56" s="148"/>
+      <c r="I56" s="179"/>
+      <c r="J56" s="180"/>
+      <c r="K56" s="181"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -8991,11 +8968,11 @@
       <c r="D57" s="33"/>
       <c r="E57" s="33"/>
       <c r="F57" s="32"/>
-      <c r="G57" s="147"/>
-      <c r="H57" s="149"/>
-      <c r="I57" s="185"/>
-      <c r="J57" s="186"/>
-      <c r="K57" s="187"/>
+      <c r="G57" s="146"/>
+      <c r="H57" s="148"/>
+      <c r="I57" s="179"/>
+      <c r="J57" s="180"/>
+      <c r="K57" s="181"/>
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
@@ -9007,6 +8984,100 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="108">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="I50:K50"/>
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="G54:H54"/>
     <mergeCell ref="G55:H55"/>
@@ -9021,100 +9092,6 @@
     <mergeCell ref="I55:K55"/>
     <mergeCell ref="I56:K56"/>
     <mergeCell ref="I57:K57"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F57">
@@ -9136,8 +9113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:N6"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9165,16 +9142,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
@@ -9210,14 +9187,14 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
@@ -9336,12 +9313,12 @@
       <c r="J5" s="126" t="s">
         <v>213</v>
       </c>
-      <c r="K5" s="150" t="s">
+      <c r="K5" s="149" t="s">
         <v>241</v>
       </c>
-      <c r="L5" s="151"/>
-      <c r="M5" s="151"/>
-      <c r="N5" s="152"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="151"/>
       <c r="O5" s="129" t="s">
         <v>135</v>
       </c>
@@ -9385,12 +9362,12 @@
       <c r="J6" s="126" t="s">
         <v>215</v>
       </c>
-      <c r="K6" s="150" t="s">
+      <c r="K6" s="149" t="s">
         <v>247</v>
       </c>
-      <c r="L6" s="151"/>
-      <c r="M6" s="151"/>
-      <c r="N6" s="152"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="151"/>
       <c r="O6" s="143" t="s">
         <v>283</v>
       </c>
@@ -9434,12 +9411,12 @@
       <c r="J7" s="126" t="s">
         <v>216</v>
       </c>
-      <c r="K7" s="150" t="s">
+      <c r="K7" s="149" t="s">
         <v>248</v>
       </c>
-      <c r="L7" s="151"/>
-      <c r="M7" s="151"/>
-      <c r="N7" s="152"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="151"/>
       <c r="O7" s="129" t="s">
         <v>245</v>
       </c>
@@ -9485,12 +9462,12 @@
       <c r="J8" s="126" t="s">
         <v>218</v>
       </c>
-      <c r="K8" s="150" t="s">
+      <c r="K8" s="149" t="s">
         <v>249</v>
       </c>
-      <c r="L8" s="151"/>
-      <c r="M8" s="151"/>
-      <c r="N8" s="152"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="151"/>
       <c r="O8" s="129" t="s">
         <v>250</v>
       </c>
@@ -9534,17 +9511,17 @@
       <c r="J9" s="126" t="s">
         <v>223</v>
       </c>
-      <c r="K9" s="150" t="s">
-        <v>292</v>
-      </c>
-      <c r="L9" s="151"/>
-      <c r="M9" s="151"/>
-      <c r="N9" s="152"/>
+      <c r="K9" s="149" t="s">
+        <v>289</v>
+      </c>
+      <c r="L9" s="150"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="151"/>
       <c r="O9" s="145" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P9" s="145" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q9" s="76" t="s">
         <v>210</v>
@@ -11652,6 +11629,85 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="95">
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K95:N95"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="K15:N15"/>
     <mergeCell ref="K16:N16"/>
@@ -11668,85 +11724,6 @@
     <mergeCell ref="K11:N11"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K95:N95"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
-    <mergeCell ref="K93:N93"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048468:Q1048576 Q5:Q95"/>
@@ -11792,10 +11769,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="152"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -11826,8 +11803,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13158,10 +13135,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="152"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13189,8 +13166,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc so do tuyen/CF0143_Danh muc so do tuyen.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc so do tuyen/CF0143_Danh muc so do tuyen.xlsx
@@ -1391,7 +1391,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="299">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2479,6 +2479,27 @@
     <t xml:space="preserve">@@DivisionID
 @@RouteID
 @@UserID </t>
+  </si>
+  <si>
+    <t>Click LinkAdd</t>
+  </si>
+  <si>
+    <t>Click LinkEdit</t>
+  </si>
+  <si>
+    <t>Click LinkView</t>
+  </si>
+  <si>
+    <t>Click LinkSearch</t>
+  </si>
+  <si>
+    <t>Click Print</t>
+  </si>
+  <si>
+    <t>Click System</t>
+  </si>
+  <si>
+    <t>Click Excel</t>
   </si>
 </sst>
 </file>
@@ -2937,7 +2958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3263,15 +3284,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3306,6 +3318,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3333,9 +3348,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3405,6 +3417,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3419,24 +3449,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3845,10 +3857,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="152"/>
+      <c r="B1" s="150"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -3875,8 +3887,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="152"/>
-      <c r="B2" s="152"/>
+      <c r="A2" s="150"/>
+      <c r="B2" s="150"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -3915,14 +3927,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="153" t="s">
+      <c r="E4" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="40">
@@ -3938,14 +3950,14 @@
       <c r="D5" s="101" t="s">
         <v>225</v>
       </c>
-      <c r="E5" s="154" t="s">
+      <c r="E5" s="152" t="s">
         <v>286</v>
       </c>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="155"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="91">
@@ -3956,12 +3968,12 @@
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="158"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="155"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="92">
@@ -3972,12 +3984,12 @@
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="148"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="146"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="93">
@@ -3988,12 +4000,12 @@
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="150"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="150"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="151"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="149"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="94">
@@ -4004,12 +4016,12 @@
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="148"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="146"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="95">
@@ -4020,12 +4032,12 @@
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="148"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="146"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="96">
@@ -4036,12 +4048,12 @@
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="148"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="146"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="97">
@@ -4052,12 +4064,12 @@
       </c>
       <c r="C12" s="79"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="148"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="146"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="98">
@@ -4068,12 +4080,12 @@
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="148"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="146"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="99">
@@ -4084,12 +4096,12 @@
       </c>
       <c r="C14" s="79"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="148"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="146"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40">
@@ -4100,12 +4112,12 @@
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
-      <c r="I15" s="155"/>
-      <c r="J15" s="155"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="91">
@@ -4116,12 +4128,12 @@
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="143"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="92">
@@ -4132,12 +4144,12 @@
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="155"/>
-      <c r="J17" s="155"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="93">
@@ -4148,12 +4160,12 @@
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="155"/>
-      <c r="I18" s="155"/>
-      <c r="J18" s="155"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="143"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="94">
@@ -4164,12 +4176,12 @@
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="155"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="95">
@@ -4180,12 +4192,12 @@
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="155"/>
-      <c r="J20" s="155"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="96">
@@ -4196,12 +4208,12 @@
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="155"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="143"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="97">
@@ -4212,12 +4224,12 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="155"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="143"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="98">
@@ -4228,12 +4240,12 @@
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="155"/>
-      <c r="I23" s="155"/>
-      <c r="J23" s="155"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="143"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="99">
@@ -4244,12 +4256,12 @@
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="155"/>
-      <c r="I24" s="155"/>
-      <c r="J24" s="155"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="143"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="40">
@@ -4260,12 +4272,12 @@
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="155"/>
-      <c r="I25" s="155"/>
-      <c r="J25" s="155"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="143"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="91">
@@ -4276,12 +4288,12 @@
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="155"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="143"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="92">
@@ -4292,12 +4304,12 @@
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="155"/>
-      <c r="I27" s="155"/>
-      <c r="J27" s="155"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="93">
@@ -4308,12 +4320,12 @@
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="143"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="94">
@@ -4324,12 +4336,12 @@
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="155"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="155"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="143"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="95">
@@ -4340,12 +4352,12 @@
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="155"/>
-      <c r="I30" s="155"/>
-      <c r="J30" s="155"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="143"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="143"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="96">
@@ -4356,12 +4368,12 @@
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="155"/>
-      <c r="I31" s="155"/>
-      <c r="J31" s="155"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="143"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="143"/>
+      <c r="J31" s="143"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="97">
@@ -4372,12 +4384,12 @@
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="155"/>
+      <c r="E32" s="143"/>
+      <c r="F32" s="143"/>
+      <c r="G32" s="143"/>
+      <c r="H32" s="143"/>
+      <c r="I32" s="143"/>
+      <c r="J32" s="143"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="98">
@@ -4388,12 +4400,12 @@
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="155"/>
-      <c r="I33" s="155"/>
-      <c r="J33" s="155"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="143"/>
+      <c r="G33" s="143"/>
+      <c r="H33" s="143"/>
+      <c r="I33" s="143"/>
+      <c r="J33" s="143"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="99">
@@ -4404,12 +4416,12 @@
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="155"/>
-      <c r="H34" s="155"/>
-      <c r="I34" s="155"/>
-      <c r="J34" s="155"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="143"/>
+      <c r="H34" s="143"/>
+      <c r="I34" s="143"/>
+      <c r="J34" s="143"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="40">
@@ -4420,12 +4432,12 @@
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="155"/>
-      <c r="H35" s="155"/>
-      <c r="I35" s="155"/>
-      <c r="J35" s="155"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="143"/>
+      <c r="I35" s="143"/>
+      <c r="J35" s="143"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="91">
@@ -4436,12 +4448,12 @@
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="155"/>
-      <c r="F36" s="155"/>
-      <c r="G36" s="155"/>
-      <c r="H36" s="155"/>
-      <c r="I36" s="155"/>
-      <c r="J36" s="155"/>
+      <c r="E36" s="143"/>
+      <c r="F36" s="143"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="143"/>
+      <c r="I36" s="143"/>
+      <c r="J36" s="143"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="92">
@@ -4452,12 +4464,12 @@
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="155"/>
-      <c r="F37" s="155"/>
-      <c r="G37" s="155"/>
-      <c r="H37" s="155"/>
-      <c r="I37" s="155"/>
-      <c r="J37" s="155"/>
+      <c r="E37" s="143"/>
+      <c r="F37" s="143"/>
+      <c r="G37" s="143"/>
+      <c r="H37" s="143"/>
+      <c r="I37" s="143"/>
+      <c r="J37" s="143"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="93">
@@ -4468,12 +4480,12 @@
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="155"/>
-      <c r="F38" s="155"/>
-      <c r="G38" s="155"/>
-      <c r="H38" s="155"/>
-      <c r="I38" s="155"/>
-      <c r="J38" s="155"/>
+      <c r="E38" s="143"/>
+      <c r="F38" s="143"/>
+      <c r="G38" s="143"/>
+      <c r="H38" s="143"/>
+      <c r="I38" s="143"/>
+      <c r="J38" s="143"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="94">
@@ -4484,12 +4496,12 @@
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="155"/>
-      <c r="F39" s="155"/>
-      <c r="G39" s="155"/>
-      <c r="H39" s="155"/>
-      <c r="I39" s="155"/>
-      <c r="J39" s="155"/>
+      <c r="E39" s="143"/>
+      <c r="F39" s="143"/>
+      <c r="G39" s="143"/>
+      <c r="H39" s="143"/>
+      <c r="I39" s="143"/>
+      <c r="J39" s="143"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="95">
@@ -4500,12 +4512,12 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="155"/>
-      <c r="F40" s="155"/>
-      <c r="G40" s="155"/>
-      <c r="H40" s="155"/>
-      <c r="I40" s="155"/>
-      <c r="J40" s="155"/>
+      <c r="E40" s="143"/>
+      <c r="F40" s="143"/>
+      <c r="G40" s="143"/>
+      <c r="H40" s="143"/>
+      <c r="I40" s="143"/>
+      <c r="J40" s="143"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="96">
@@ -4516,12 +4528,12 @@
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="155"/>
-      <c r="F41" s="155"/>
-      <c r="G41" s="155"/>
-      <c r="H41" s="155"/>
-      <c r="I41" s="155"/>
-      <c r="J41" s="155"/>
+      <c r="E41" s="143"/>
+      <c r="F41" s="143"/>
+      <c r="G41" s="143"/>
+      <c r="H41" s="143"/>
+      <c r="I41" s="143"/>
+      <c r="J41" s="143"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="97">
@@ -4532,32 +4544,23 @@
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="155"/>
-      <c r="F42" s="155"/>
-      <c r="G42" s="155"/>
-      <c r="H42" s="155"/>
-      <c r="I42" s="155"/>
-      <c r="J42" s="155"/>
+      <c r="E42" s="143"/>
+      <c r="F42" s="143"/>
+      <c r="G42" s="143"/>
+      <c r="H42" s="143"/>
+      <c r="I42" s="143"/>
+      <c r="J42" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -4573,14 +4576,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -4795,10 +4807,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="152"/>
+      <c r="B1" s="150"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -4829,8 +4841,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="152"/>
-      <c r="B2" s="152"/>
+      <c r="A2" s="150"/>
+      <c r="B2" s="150"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -4861,20 +4873,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="159" t="s">
+      <c r="A4" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="161"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="159" t="s">
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="160"/>
+      <c r="J4" s="157"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="42"/>
@@ -4885,10 +4897,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="168" t="s">
+      <c r="I5" s="165" t="s">
         <v>226</v>
       </c>
-      <c r="J5" s="169"/>
+      <c r="J5" s="166"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42"/>
@@ -4899,8 +4911,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="171"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="168"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="42"/>
@@ -4911,8 +4923,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="171"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="168"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="42"/>
@@ -4923,8 +4935,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="171"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="168"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="42"/>
@@ -4935,8 +4947,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="171"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="168"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="42"/>
@@ -4947,8 +4959,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="173"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="170"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="42"/>
@@ -4959,10 +4971,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="159" t="s">
+      <c r="I11" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="160"/>
+      <c r="J11" s="157"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="42"/>
@@ -4973,10 +4985,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="162" t="s">
+      <c r="I12" s="159" t="s">
         <v>172</v>
       </c>
-      <c r="J12" s="163"/>
+      <c r="J12" s="160"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="42"/>
@@ -4987,8 +4999,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="165"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="162"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="42"/>
@@ -4999,8 +5011,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="165"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="162"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="42"/>
@@ -5011,8 +5023,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="165"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="162"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="42"/>
@@ -5023,8 +5035,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="165"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="162"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="42"/>
@@ -5035,8 +5047,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="165"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="162"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="42"/>
@@ -5047,8 +5059,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="164"/>
-      <c r="J18" s="165"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="162"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="42"/>
@@ -5059,8 +5071,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="164"/>
-      <c r="J19" s="165"/>
+      <c r="I19" s="161"/>
+      <c r="J19" s="162"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="42"/>
@@ -5071,8 +5083,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="164"/>
-      <c r="J20" s="165"/>
+      <c r="I20" s="161"/>
+      <c r="J20" s="162"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="42"/>
@@ -5083,8 +5095,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="165"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="162"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="42"/>
@@ -5095,8 +5107,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="164"/>
-      <c r="J22" s="165"/>
+      <c r="I22" s="161"/>
+      <c r="J22" s="162"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
@@ -5107,8 +5119,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="164"/>
-      <c r="J23" s="165"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="162"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="42"/>
@@ -5119,8 +5131,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="165"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="162"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="42"/>
@@ -5131,8 +5143,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="164"/>
-      <c r="J25" s="165"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="162"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="42"/>
@@ -5143,8 +5155,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="165"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="162"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="42"/>
@@ -5155,8 +5167,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="164"/>
-      <c r="J27" s="165"/>
+      <c r="I27" s="161"/>
+      <c r="J27" s="162"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="42"/>
@@ -5167,8 +5179,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="164"/>
-      <c r="J28" s="165"/>
+      <c r="I28" s="161"/>
+      <c r="J28" s="162"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="42"/>
@@ -5179,8 +5191,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="164"/>
-      <c r="J29" s="165"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="162"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="42"/>
@@ -5191,8 +5203,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="164"/>
-      <c r="J30" s="165"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="162"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="42"/>
@@ -5203,8 +5215,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="164"/>
-      <c r="J31" s="165"/>
+      <c r="I31" s="161"/>
+      <c r="J31" s="162"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="42"/>
@@ -5215,8 +5227,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="164"/>
-      <c r="J32" s="165"/>
+      <c r="I32" s="161"/>
+      <c r="J32" s="162"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="42"/>
@@ -5227,8 +5239,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="164"/>
-      <c r="J33" s="165"/>
+      <c r="I33" s="161"/>
+      <c r="J33" s="162"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="42"/>
@@ -5239,8 +5251,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="164"/>
-      <c r="J34" s="165"/>
+      <c r="I34" s="161"/>
+      <c r="J34" s="162"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="42"/>
@@ -5251,8 +5263,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="164"/>
-      <c r="J35" s="165"/>
+      <c r="I35" s="161"/>
+      <c r="J35" s="162"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="42"/>
@@ -5263,8 +5275,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="164"/>
-      <c r="J36" s="165"/>
+      <c r="I36" s="161"/>
+      <c r="J36" s="162"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="42"/>
@@ -5275,8 +5287,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="164"/>
-      <c r="J37" s="165"/>
+      <c r="I37" s="161"/>
+      <c r="J37" s="162"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="42"/>
@@ -5287,8 +5299,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="164"/>
-      <c r="J38" s="165"/>
+      <c r="I38" s="161"/>
+      <c r="J38" s="162"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="42"/>
@@ -5299,8 +5311,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="164"/>
-      <c r="J39" s="165"/>
+      <c r="I39" s="161"/>
+      <c r="J39" s="162"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="42"/>
@@ -5311,8 +5323,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="164"/>
-      <c r="J40" s="165"/>
+      <c r="I40" s="161"/>
+      <c r="J40" s="162"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="42"/>
@@ -5323,8 +5335,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="164"/>
-      <c r="J41" s="165"/>
+      <c r="I41" s="161"/>
+      <c r="J41" s="162"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="42"/>
@@ -5335,8 +5347,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="164"/>
-      <c r="J42" s="165"/>
+      <c r="I42" s="161"/>
+      <c r="J42" s="162"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="47"/>
@@ -5347,8 +5359,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="166"/>
-      <c r="J43" s="167"/>
+      <c r="I43" s="163"/>
+      <c r="J43" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5407,13 +5419,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -5421,16 +5433,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="174" t="s">
+      <c r="H1" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="175"/>
-      <c r="J1" s="176" t="str">
+      <c r="I1" s="172"/>
+      <c r="J1" s="173" t="str">
         <f>'Update History'!F1</f>
         <v>CF0143</v>
       </c>
-      <c r="K1" s="177"/>
-      <c r="L1" s="178"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="175"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -5447,11 +5459,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
+      <c r="A2" s="150"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -5459,16 +5471,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="H2" s="174" t="s">
+      <c r="H2" s="171" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="175"/>
-      <c r="J2" s="176" t="str">
+      <c r="I2" s="172"/>
+      <c r="J2" s="173" t="str">
         <f>'Update History'!F2</f>
         <v>Danh mục sơ đồ tuyến</v>
       </c>
-      <c r="K2" s="177"/>
-      <c r="L2" s="178"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="175"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -7817,7 +7829,7 @@
   <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:K5"/>
+      <selection activeCell="I12" sqref="I12:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7841,11 +7853,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="140"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="137"/>
       <c r="D1" s="31" t="s">
         <v>1</v>
       </c>
@@ -7878,9 +7890,9 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="189"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="141"/>
+      <c r="A2" s="181"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="138"/>
       <c r="D2" s="31" t="s">
         <v>2</v>
       </c>
@@ -7919,7 +7931,7 @@
       <c r="B4" s="128" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="136" t="s">
         <v>235</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -7931,15 +7943,15 @@
       <c r="F4" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="152" t="s">
+      <c r="G4" s="150" t="s">
         <v>132</v>
       </c>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152" t="s">
+      <c r="H4" s="150"/>
+      <c r="I4" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
@@ -7952,19 +7964,19 @@
         <v>51</v>
       </c>
       <c r="D5" s="27"/>
-      <c r="E5" s="136" t="s">
+      <c r="E5" s="133" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="G5" s="186" t="s">
+      <c r="F5" s="27"/>
+      <c r="G5" s="176" t="s">
         <v>240</v>
       </c>
-      <c r="H5" s="187"/>
-      <c r="I5" s="179"/>
-      <c r="J5" s="180"/>
-      <c r="K5" s="181"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="182" t="s">
+        <v>292</v>
+      </c>
+      <c r="J5" s="183"/>
+      <c r="K5" s="184"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
@@ -7977,19 +7989,19 @@
         <v>51</v>
       </c>
       <c r="D6" s="27"/>
-      <c r="E6" s="137" t="s">
+      <c r="E6" s="134" t="s">
         <v>245</v>
       </c>
-      <c r="F6" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="G6" s="184" t="s">
+      <c r="F6" s="27"/>
+      <c r="G6" s="178" t="s">
         <v>246</v>
       </c>
-      <c r="H6" s="185"/>
-      <c r="I6" s="179"/>
-      <c r="J6" s="180"/>
-      <c r="K6" s="181"/>
+      <c r="H6" s="179"/>
+      <c r="I6" s="182" t="s">
+        <v>293</v>
+      </c>
+      <c r="J6" s="183"/>
+      <c r="K6" s="184"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
@@ -8002,19 +8014,19 @@
         <v>51</v>
       </c>
       <c r="D7" s="27"/>
-      <c r="E7" s="137" t="s">
+      <c r="E7" s="134" t="s">
         <v>245</v>
       </c>
-      <c r="F7" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="G7" s="184" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="178" t="s">
         <v>246</v>
       </c>
-      <c r="H7" s="185"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="180"/>
-      <c r="K7" s="181"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="182" t="s">
+        <v>294</v>
+      </c>
+      <c r="J7" s="183"/>
+      <c r="K7" s="184"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -8027,19 +8039,19 @@
         <v>51</v>
       </c>
       <c r="D8" s="27"/>
-      <c r="E8" s="136" t="s">
+      <c r="E8" s="133" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="G8" s="186" t="s">
+      <c r="F8" s="27"/>
+      <c r="G8" s="176" t="s">
         <v>236</v>
       </c>
-      <c r="H8" s="187"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="180"/>
-      <c r="K8" s="181"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="182" t="s">
+        <v>295</v>
+      </c>
+      <c r="J8" s="183"/>
+      <c r="K8" s="184"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
@@ -8052,19 +8064,19 @@
         <v>51</v>
       </c>
       <c r="D9" s="27"/>
-      <c r="E9" s="136" t="s">
+      <c r="E9" s="133" t="s">
         <v>135</v>
       </c>
-      <c r="F9" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="G9" s="184" t="s">
+      <c r="F9" s="27"/>
+      <c r="G9" s="178" t="s">
         <v>278</v>
       </c>
-      <c r="H9" s="185"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="133"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="182" t="s">
+        <v>296</v>
+      </c>
+      <c r="J9" s="183"/>
+      <c r="K9" s="184"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
@@ -8077,19 +8089,19 @@
         <v>51</v>
       </c>
       <c r="D10" s="27"/>
-      <c r="E10" s="137" t="s">
+      <c r="E10" s="134" t="s">
         <v>237</v>
       </c>
-      <c r="F10" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="G10" s="186" t="s">
+      <c r="F10" s="27"/>
+      <c r="G10" s="176" t="s">
         <v>238</v>
       </c>
-      <c r="H10" s="187"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="181"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="182" t="s">
+        <v>297</v>
+      </c>
+      <c r="J10" s="183"/>
+      <c r="K10" s="184"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
@@ -8102,19 +8114,19 @@
         <v>51</v>
       </c>
       <c r="D11" s="27"/>
-      <c r="E11" s="136" t="s">
+      <c r="E11" s="133" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="G11" s="186" t="s">
+      <c r="F11" s="27"/>
+      <c r="G11" s="176" t="s">
         <v>239</v>
       </c>
-      <c r="H11" s="187"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="180"/>
-      <c r="K11" s="181"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="182" t="s">
+        <v>298</v>
+      </c>
+      <c r="J11" s="183"/>
+      <c r="K11" s="184"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
@@ -8125,11 +8137,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="183"/>
-      <c r="I12" s="179"/>
-      <c r="J12" s="180"/>
-      <c r="K12" s="181"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="186"/>
+      <c r="I12" s="182"/>
+      <c r="J12" s="183"/>
+      <c r="K12" s="184"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
@@ -8140,11 +8152,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="182"/>
-      <c r="H13" s="183"/>
-      <c r="I13" s="179"/>
-      <c r="J13" s="180"/>
-      <c r="K13" s="181"/>
+      <c r="G13" s="185"/>
+      <c r="H13" s="186"/>
+      <c r="I13" s="182"/>
+      <c r="J13" s="183"/>
+      <c r="K13" s="184"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
@@ -8155,11 +8167,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="182"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="179"/>
-      <c r="J14" s="180"/>
-      <c r="K14" s="181"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="182"/>
+      <c r="J14" s="183"/>
+      <c r="K14" s="184"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -8170,11 +8182,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="179"/>
-      <c r="J15" s="180"/>
-      <c r="K15" s="181"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="183"/>
+      <c r="K15" s="184"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -8185,11 +8197,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="180"/>
-      <c r="K16" s="181"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="183"/>
+      <c r="K16" s="184"/>
     </row>
     <row r="17" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -8200,11 +8212,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="182"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="179"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="181"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="186"/>
+      <c r="I17" s="182"/>
+      <c r="J17" s="183"/>
+      <c r="K17" s="184"/>
     </row>
     <row r="18" spans="1:11" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -8215,11 +8227,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="182"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="180"/>
-      <c r="K18" s="181"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="182"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="184"/>
     </row>
     <row r="19" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -8230,11 +8242,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="182"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="180"/>
-      <c r="K19" s="181"/>
+      <c r="G19" s="185"/>
+      <c r="H19" s="186"/>
+      <c r="I19" s="182"/>
+      <c r="J19" s="183"/>
+      <c r="K19" s="184"/>
     </row>
     <row r="20" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
@@ -8245,11 +8257,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="182"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="179"/>
-      <c r="J20" s="180"/>
-      <c r="K20" s="181"/>
+      <c r="G20" s="185"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="182"/>
+      <c r="J20" s="183"/>
+      <c r="K20" s="184"/>
     </row>
     <row r="21" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
@@ -8260,11 +8272,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="182"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="180"/>
-      <c r="K21" s="181"/>
+      <c r="G21" s="185"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="183"/>
+      <c r="K21" s="184"/>
     </row>
     <row r="22" spans="1:11" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
@@ -8275,11 +8287,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="182"/>
-      <c r="H22" s="183"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="180"/>
-      <c r="K22" s="181"/>
+      <c r="G22" s="185"/>
+      <c r="H22" s="186"/>
+      <c r="I22" s="182"/>
+      <c r="J22" s="183"/>
+      <c r="K22" s="184"/>
     </row>
     <row r="23" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
@@ -8290,11 +8302,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="148"/>
-      <c r="I23" s="179"/>
-      <c r="J23" s="180"/>
-      <c r="K23" s="181"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="182"/>
+      <c r="J23" s="183"/>
+      <c r="K23" s="184"/>
     </row>
     <row r="24" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
@@ -8305,11 +8317,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="148"/>
-      <c r="I24" s="179"/>
-      <c r="J24" s="180"/>
-      <c r="K24" s="181"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="182"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="184"/>
     </row>
     <row r="25" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
@@ -8320,11 +8332,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="179"/>
-      <c r="J25" s="180"/>
-      <c r="K25" s="181"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="182"/>
+      <c r="J25" s="183"/>
+      <c r="K25" s="184"/>
     </row>
     <row r="26" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
@@ -8335,11 +8347,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="148"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="180"/>
-      <c r="K26" s="181"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="182"/>
+      <c r="J26" s="183"/>
+      <c r="K26" s="184"/>
     </row>
     <row r="27" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
@@ -8350,11 +8362,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="148"/>
-      <c r="I27" s="179"/>
-      <c r="J27" s="180"/>
-      <c r="K27" s="181"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="182"/>
+      <c r="J27" s="183"/>
+      <c r="K27" s="184"/>
     </row>
     <row r="28" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
@@ -8365,11 +8377,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="179"/>
-      <c r="J28" s="180"/>
-      <c r="K28" s="181"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="182"/>
+      <c r="J28" s="183"/>
+      <c r="K28" s="184"/>
     </row>
     <row r="29" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
@@ -8380,11 +8392,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="148"/>
-      <c r="I29" s="179"/>
-      <c r="J29" s="180"/>
-      <c r="K29" s="181"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="183"/>
+      <c r="K29" s="184"/>
     </row>
     <row r="30" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
@@ -8395,11 +8407,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="179"/>
-      <c r="J30" s="180"/>
-      <c r="K30" s="181"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="182"/>
+      <c r="J30" s="183"/>
+      <c r="K30" s="184"/>
     </row>
     <row r="31" spans="1:11" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
@@ -8410,11 +8422,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="148"/>
-      <c r="I31" s="179"/>
-      <c r="J31" s="180"/>
-      <c r="K31" s="181"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="182"/>
+      <c r="J31" s="183"/>
+      <c r="K31" s="184"/>
     </row>
     <row r="32" spans="1:11" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33">
@@ -8425,11 +8437,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="148"/>
-      <c r="I32" s="179"/>
-      <c r="J32" s="180"/>
-      <c r="K32" s="181"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="182"/>
+      <c r="J32" s="183"/>
+      <c r="K32" s="184"/>
     </row>
     <row r="33" spans="1:19" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A33" s="33">
@@ -8440,11 +8452,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="148"/>
-      <c r="I33" s="179"/>
-      <c r="J33" s="180"/>
-      <c r="K33" s="181"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="182"/>
+      <c r="J33" s="183"/>
+      <c r="K33" s="184"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -8462,11 +8474,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="179"/>
-      <c r="J34" s="180"/>
-      <c r="K34" s="181"/>
+      <c r="G34" s="144"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="182"/>
+      <c r="J34" s="183"/>
+      <c r="K34" s="184"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -8484,11 +8496,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="148"/>
-      <c r="I35" s="179"/>
-      <c r="J35" s="180"/>
-      <c r="K35" s="181"/>
+      <c r="G35" s="144"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="182"/>
+      <c r="J35" s="183"/>
+      <c r="K35" s="184"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -8506,11 +8518,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="146"/>
-      <c r="H36" s="148"/>
-      <c r="I36" s="179"/>
-      <c r="J36" s="180"/>
-      <c r="K36" s="181"/>
+      <c r="G36" s="144"/>
+      <c r="H36" s="146"/>
+      <c r="I36" s="182"/>
+      <c r="J36" s="183"/>
+      <c r="K36" s="184"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -8528,11 +8540,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="146"/>
-      <c r="H37" s="148"/>
-      <c r="I37" s="179"/>
-      <c r="J37" s="180"/>
-      <c r="K37" s="181"/>
+      <c r="G37" s="144"/>
+      <c r="H37" s="146"/>
+      <c r="I37" s="182"/>
+      <c r="J37" s="183"/>
+      <c r="K37" s="184"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -8550,11 +8562,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="146"/>
-      <c r="H38" s="148"/>
-      <c r="I38" s="179"/>
-      <c r="J38" s="180"/>
-      <c r="K38" s="181"/>
+      <c r="G38" s="144"/>
+      <c r="H38" s="146"/>
+      <c r="I38" s="182"/>
+      <c r="J38" s="183"/>
+      <c r="K38" s="184"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -8572,11 +8584,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="148"/>
-      <c r="I39" s="179"/>
-      <c r="J39" s="180"/>
-      <c r="K39" s="181"/>
+      <c r="G39" s="144"/>
+      <c r="H39" s="146"/>
+      <c r="I39" s="182"/>
+      <c r="J39" s="183"/>
+      <c r="K39" s="184"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -8594,11 +8606,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="146"/>
-      <c r="H40" s="148"/>
-      <c r="I40" s="179"/>
-      <c r="J40" s="180"/>
-      <c r="K40" s="181"/>
+      <c r="G40" s="144"/>
+      <c r="H40" s="146"/>
+      <c r="I40" s="182"/>
+      <c r="J40" s="183"/>
+      <c r="K40" s="184"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -8616,11 +8628,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="146"/>
-      <c r="H41" s="148"/>
-      <c r="I41" s="179"/>
-      <c r="J41" s="180"/>
-      <c r="K41" s="181"/>
+      <c r="G41" s="144"/>
+      <c r="H41" s="146"/>
+      <c r="I41" s="182"/>
+      <c r="J41" s="183"/>
+      <c r="K41" s="184"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -8638,11 +8650,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="146"/>
-      <c r="H42" s="148"/>
-      <c r="I42" s="179"/>
-      <c r="J42" s="180"/>
-      <c r="K42" s="181"/>
+      <c r="G42" s="144"/>
+      <c r="H42" s="146"/>
+      <c r="I42" s="182"/>
+      <c r="J42" s="183"/>
+      <c r="K42" s="184"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -8660,11 +8672,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="146"/>
-      <c r="H43" s="148"/>
-      <c r="I43" s="179"/>
-      <c r="J43" s="180"/>
-      <c r="K43" s="181"/>
+      <c r="G43" s="144"/>
+      <c r="H43" s="146"/>
+      <c r="I43" s="182"/>
+      <c r="J43" s="183"/>
+      <c r="K43" s="184"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -8682,11 +8694,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="146"/>
-      <c r="H44" s="148"/>
-      <c r="I44" s="179"/>
-      <c r="J44" s="180"/>
-      <c r="K44" s="181"/>
+      <c r="G44" s="144"/>
+      <c r="H44" s="146"/>
+      <c r="I44" s="182"/>
+      <c r="J44" s="183"/>
+      <c r="K44" s="184"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -8704,11 +8716,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="146"/>
-      <c r="H45" s="148"/>
-      <c r="I45" s="179"/>
-      <c r="J45" s="180"/>
-      <c r="K45" s="181"/>
+      <c r="G45" s="144"/>
+      <c r="H45" s="146"/>
+      <c r="I45" s="182"/>
+      <c r="J45" s="183"/>
+      <c r="K45" s="184"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -8726,11 +8738,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="146"/>
-      <c r="H46" s="148"/>
-      <c r="I46" s="179"/>
-      <c r="J46" s="180"/>
-      <c r="K46" s="181"/>
+      <c r="G46" s="144"/>
+      <c r="H46" s="146"/>
+      <c r="I46" s="182"/>
+      <c r="J46" s="183"/>
+      <c r="K46" s="184"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -8748,11 +8760,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="146"/>
-      <c r="H47" s="148"/>
-      <c r="I47" s="179"/>
-      <c r="J47" s="180"/>
-      <c r="K47" s="181"/>
+      <c r="G47" s="144"/>
+      <c r="H47" s="146"/>
+      <c r="I47" s="182"/>
+      <c r="J47" s="183"/>
+      <c r="K47" s="184"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -8770,11 +8782,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="146"/>
-      <c r="H48" s="148"/>
-      <c r="I48" s="179"/>
-      <c r="J48" s="180"/>
-      <c r="K48" s="181"/>
+      <c r="G48" s="144"/>
+      <c r="H48" s="146"/>
+      <c r="I48" s="182"/>
+      <c r="J48" s="183"/>
+      <c r="K48" s="184"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -8792,11 +8804,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="146"/>
-      <c r="H49" s="148"/>
-      <c r="I49" s="179"/>
-      <c r="J49" s="180"/>
-      <c r="K49" s="181"/>
+      <c r="G49" s="144"/>
+      <c r="H49" s="146"/>
+      <c r="I49" s="182"/>
+      <c r="J49" s="183"/>
+      <c r="K49" s="184"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -8814,11 +8826,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="146"/>
-      <c r="H50" s="148"/>
-      <c r="I50" s="179"/>
-      <c r="J50" s="180"/>
-      <c r="K50" s="181"/>
+      <c r="G50" s="144"/>
+      <c r="H50" s="146"/>
+      <c r="I50" s="182"/>
+      <c r="J50" s="183"/>
+      <c r="K50" s="184"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -8836,11 +8848,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="146"/>
-      <c r="H51" s="148"/>
-      <c r="I51" s="179"/>
-      <c r="J51" s="180"/>
-      <c r="K51" s="181"/>
+      <c r="G51" s="144"/>
+      <c r="H51" s="146"/>
+      <c r="I51" s="182"/>
+      <c r="J51" s="183"/>
+      <c r="K51" s="184"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -8858,11 +8870,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="146"/>
-      <c r="H52" s="148"/>
-      <c r="I52" s="179"/>
-      <c r="J52" s="180"/>
-      <c r="K52" s="181"/>
+      <c r="G52" s="144"/>
+      <c r="H52" s="146"/>
+      <c r="I52" s="182"/>
+      <c r="J52" s="183"/>
+      <c r="K52" s="184"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -8880,11 +8892,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="146"/>
-      <c r="H53" s="148"/>
-      <c r="I53" s="179"/>
-      <c r="J53" s="180"/>
-      <c r="K53" s="181"/>
+      <c r="G53" s="144"/>
+      <c r="H53" s="146"/>
+      <c r="I53" s="182"/>
+      <c r="J53" s="183"/>
+      <c r="K53" s="184"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -8902,11 +8914,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="146"/>
-      <c r="H54" s="148"/>
-      <c r="I54" s="179"/>
-      <c r="J54" s="180"/>
-      <c r="K54" s="181"/>
+      <c r="G54" s="144"/>
+      <c r="H54" s="146"/>
+      <c r="I54" s="182"/>
+      <c r="J54" s="183"/>
+      <c r="K54" s="184"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -8924,11 +8936,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="146"/>
-      <c r="H55" s="148"/>
-      <c r="I55" s="179"/>
-      <c r="J55" s="180"/>
-      <c r="K55" s="181"/>
+      <c r="G55" s="144"/>
+      <c r="H55" s="146"/>
+      <c r="I55" s="182"/>
+      <c r="J55" s="183"/>
+      <c r="K55" s="184"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -8946,11 +8958,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="146"/>
-      <c r="H56" s="148"/>
-      <c r="I56" s="179"/>
-      <c r="J56" s="180"/>
-      <c r="K56" s="181"/>
+      <c r="G56" s="144"/>
+      <c r="H56" s="146"/>
+      <c r="I56" s="182"/>
+      <c r="J56" s="183"/>
+      <c r="K56" s="184"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -8968,11 +8980,11 @@
       <c r="D57" s="33"/>
       <c r="E57" s="33"/>
       <c r="F57" s="32"/>
-      <c r="G57" s="146"/>
-      <c r="H57" s="148"/>
-      <c r="I57" s="179"/>
-      <c r="J57" s="180"/>
-      <c r="K57" s="181"/>
+      <c r="G57" s="144"/>
+      <c r="H57" s="146"/>
+      <c r="I57" s="182"/>
+      <c r="J57" s="183"/>
+      <c r="K57" s="184"/>
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
@@ -8983,27 +8995,81 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="108">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="G9:H9"/>
+  <mergeCells count="109">
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
@@ -9018,80 +9084,27 @@
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="I20:K20"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F57">
@@ -9142,24 +9155,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="193" t="str">
+      <c r="J1" s="190" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="193"/>
+      <c r="K1" s="190"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -9187,22 +9200,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
+      <c r="A2" s="150"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="193" t="str">
+      <c r="J2" s="190" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="K2" s="193"/>
+      <c r="K2" s="190"/>
       <c r="L2" s="26" t="s">
         <v>50</v>
       </c>
@@ -9233,10 +9246,10 @@
       <c r="A4" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="141" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="141" t="s">
         <v>235</v>
       </c>
       <c r="D4" s="68" t="s">
@@ -9260,12 +9273,12 @@
       <c r="J4" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="159" t="s">
+      <c r="K4" s="156" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="160"/>
+      <c r="L4" s="158"/>
+      <c r="M4" s="158"/>
+      <c r="N4" s="157"/>
       <c r="O4" s="39" t="s">
         <v>57</v>
       </c>
@@ -9313,12 +9326,12 @@
       <c r="J5" s="126" t="s">
         <v>213</v>
       </c>
-      <c r="K5" s="149" t="s">
+      <c r="K5" s="147" t="s">
         <v>241</v>
       </c>
-      <c r="L5" s="150"/>
-      <c r="M5" s="150"/>
-      <c r="N5" s="151"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="149"/>
       <c r="O5" s="129" t="s">
         <v>135</v>
       </c>
@@ -9362,16 +9375,16 @@
       <c r="J6" s="126" t="s">
         <v>215</v>
       </c>
-      <c r="K6" s="149" t="s">
+      <c r="K6" s="147" t="s">
         <v>247</v>
       </c>
-      <c r="L6" s="150"/>
-      <c r="M6" s="150"/>
-      <c r="N6" s="151"/>
-      <c r="O6" s="143" t="s">
+      <c r="L6" s="148"/>
+      <c r="M6" s="148"/>
+      <c r="N6" s="149"/>
+      <c r="O6" s="140" t="s">
         <v>283</v>
       </c>
-      <c r="P6" s="143" t="s">
+      <c r="P6" s="140" t="s">
         <v>284</v>
       </c>
       <c r="Q6" s="76" t="s">
@@ -9411,12 +9424,12 @@
       <c r="J7" s="126" t="s">
         <v>216</v>
       </c>
-      <c r="K7" s="149" t="s">
+      <c r="K7" s="147" t="s">
         <v>248</v>
       </c>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="151"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="149"/>
       <c r="O7" s="129" t="s">
         <v>245</v>
       </c>
@@ -9462,12 +9475,12 @@
       <c r="J8" s="126" t="s">
         <v>218</v>
       </c>
-      <c r="K8" s="149" t="s">
+      <c r="K8" s="147" t="s">
         <v>249</v>
       </c>
-      <c r="L8" s="150"/>
-      <c r="M8" s="150"/>
-      <c r="N8" s="151"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="148"/>
+      <c r="N8" s="149"/>
       <c r="O8" s="129" t="s">
         <v>250</v>
       </c>
@@ -9511,16 +9524,16 @@
       <c r="J9" s="126" t="s">
         <v>223</v>
       </c>
-      <c r="K9" s="149" t="s">
+      <c r="K9" s="147" t="s">
         <v>289</v>
       </c>
-      <c r="L9" s="150"/>
-      <c r="M9" s="150"/>
-      <c r="N9" s="151"/>
-      <c r="O9" s="145" t="s">
+      <c r="L9" s="148"/>
+      <c r="M9" s="148"/>
+      <c r="N9" s="149"/>
+      <c r="O9" s="142" t="s">
         <v>290</v>
       </c>
-      <c r="P9" s="145" t="s">
+      <c r="P9" s="142" t="s">
         <v>291</v>
       </c>
       <c r="Q9" s="76" t="s">
@@ -9544,16 +9557,16 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="142"/>
+      <c r="G10" s="139"/>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
       <c r="J10" s="82"/>
-      <c r="K10" s="190"/>
-      <c r="L10" s="191"/>
-      <c r="M10" s="191"/>
-      <c r="N10" s="192"/>
-      <c r="O10" s="143"/>
-      <c r="P10" s="143"/>
+      <c r="K10" s="187"/>
+      <c r="L10" s="188"/>
+      <c r="M10" s="188"/>
+      <c r="N10" s="189"/>
+      <c r="O10" s="140"/>
+      <c r="P10" s="140"/>
       <c r="Q10" s="76"/>
       <c r="R10" s="75"/>
       <c r="S10" s="82"/>
@@ -9573,10 +9586,10 @@
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="82"/>
-      <c r="K11" s="190"/>
-      <c r="L11" s="191"/>
-      <c r="M11" s="191"/>
-      <c r="N11" s="192"/>
+      <c r="K11" s="187"/>
+      <c r="L11" s="188"/>
+      <c r="M11" s="188"/>
+      <c r="N11" s="189"/>
       <c r="O11" s="89"/>
       <c r="P11" s="89"/>
       <c r="Q11" s="76"/>
@@ -9598,10 +9611,10 @@
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
       <c r="J12" s="82"/>
-      <c r="K12" s="190"/>
-      <c r="L12" s="191"/>
-      <c r="M12" s="191"/>
-      <c r="N12" s="192"/>
+      <c r="K12" s="187"/>
+      <c r="L12" s="188"/>
+      <c r="M12" s="188"/>
+      <c r="N12" s="189"/>
       <c r="O12" s="89"/>
       <c r="P12" s="89"/>
       <c r="Q12" s="76"/>
@@ -9623,10 +9636,10 @@
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="J13" s="82"/>
-      <c r="K13" s="190"/>
-      <c r="L13" s="191"/>
-      <c r="M13" s="191"/>
-      <c r="N13" s="192"/>
+      <c r="K13" s="187"/>
+      <c r="L13" s="188"/>
+      <c r="M13" s="188"/>
+      <c r="N13" s="189"/>
       <c r="O13" s="85"/>
       <c r="P13" s="85"/>
       <c r="Q13" s="76"/>
@@ -9648,10 +9661,10 @@
       <c r="H14" s="63"/>
       <c r="I14" s="63"/>
       <c r="J14" s="82"/>
-      <c r="K14" s="190"/>
-      <c r="L14" s="191"/>
-      <c r="M14" s="191"/>
-      <c r="N14" s="192"/>
+      <c r="K14" s="187"/>
+      <c r="L14" s="188"/>
+      <c r="M14" s="188"/>
+      <c r="N14" s="189"/>
       <c r="O14" s="85"/>
       <c r="P14" s="85"/>
       <c r="Q14" s="76"/>
@@ -9673,10 +9686,10 @@
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
       <c r="J15" s="82"/>
-      <c r="K15" s="190"/>
-      <c r="L15" s="191"/>
-      <c r="M15" s="191"/>
-      <c r="N15" s="192"/>
+      <c r="K15" s="187"/>
+      <c r="L15" s="188"/>
+      <c r="M15" s="188"/>
+      <c r="N15" s="189"/>
       <c r="O15" s="81"/>
       <c r="P15" s="81"/>
       <c r="Q15" s="76"/>
@@ -9698,10 +9711,10 @@
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
       <c r="J16" s="82"/>
-      <c r="K16" s="190"/>
-      <c r="L16" s="191"/>
-      <c r="M16" s="191"/>
-      <c r="N16" s="192"/>
+      <c r="K16" s="187"/>
+      <c r="L16" s="188"/>
+      <c r="M16" s="188"/>
+      <c r="N16" s="189"/>
       <c r="O16" s="81"/>
       <c r="P16" s="81"/>
       <c r="Q16" s="76"/>
@@ -9723,10 +9736,10 @@
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="190"/>
-      <c r="L17" s="191"/>
-      <c r="M17" s="191"/>
-      <c r="N17" s="192"/>
+      <c r="K17" s="187"/>
+      <c r="L17" s="188"/>
+      <c r="M17" s="188"/>
+      <c r="N17" s="189"/>
       <c r="O17" s="72"/>
       <c r="P17" s="60"/>
       <c r="Q17" s="76"/>
@@ -9748,10 +9761,10 @@
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="190"/>
-      <c r="L18" s="191"/>
-      <c r="M18" s="191"/>
-      <c r="N18" s="192"/>
+      <c r="K18" s="187"/>
+      <c r="L18" s="188"/>
+      <c r="M18" s="188"/>
+      <c r="N18" s="189"/>
       <c r="O18" s="60"/>
       <c r="P18" s="60"/>
       <c r="Q18" s="76"/>
@@ -9773,10 +9786,10 @@
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="190"/>
-      <c r="L19" s="191"/>
-      <c r="M19" s="191"/>
-      <c r="N19" s="192"/>
+      <c r="K19" s="187"/>
+      <c r="L19" s="188"/>
+      <c r="M19" s="188"/>
+      <c r="N19" s="189"/>
       <c r="O19" s="60"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="76"/>
@@ -9798,10 +9811,10 @@
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="190"/>
-      <c r="L20" s="191"/>
-      <c r="M20" s="191"/>
-      <c r="N20" s="192"/>
+      <c r="K20" s="187"/>
+      <c r="L20" s="188"/>
+      <c r="M20" s="188"/>
+      <c r="N20" s="189"/>
       <c r="O20" s="60"/>
       <c r="P20" s="60"/>
       <c r="Q20" s="76"/>
@@ -9823,10 +9836,10 @@
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="190"/>
-      <c r="L21" s="191"/>
-      <c r="M21" s="191"/>
-      <c r="N21" s="192"/>
+      <c r="K21" s="187"/>
+      <c r="L21" s="188"/>
+      <c r="M21" s="188"/>
+      <c r="N21" s="189"/>
       <c r="O21" s="60"/>
       <c r="P21" s="60"/>
       <c r="Q21" s="76"/>
@@ -9848,10 +9861,10 @@
       <c r="H22" s="63"/>
       <c r="I22" s="63"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="190"/>
-      <c r="L22" s="191"/>
-      <c r="M22" s="191"/>
-      <c r="N22" s="192"/>
+      <c r="K22" s="187"/>
+      <c r="L22" s="188"/>
+      <c r="M22" s="188"/>
+      <c r="N22" s="189"/>
       <c r="O22" s="60"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="76"/>
@@ -9873,10 +9886,10 @@
       <c r="H23" s="63"/>
       <c r="I23" s="63"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="190"/>
-      <c r="L23" s="191"/>
-      <c r="M23" s="191"/>
-      <c r="N23" s="192"/>
+      <c r="K23" s="187"/>
+      <c r="L23" s="188"/>
+      <c r="M23" s="188"/>
+      <c r="N23" s="189"/>
       <c r="O23" s="60"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="76"/>
@@ -9898,10 +9911,10 @@
       <c r="H24" s="63"/>
       <c r="I24" s="63"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="190"/>
-      <c r="L24" s="191"/>
-      <c r="M24" s="191"/>
-      <c r="N24" s="192"/>
+      <c r="K24" s="187"/>
+      <c r="L24" s="188"/>
+      <c r="M24" s="188"/>
+      <c r="N24" s="189"/>
       <c r="O24" s="60"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="76"/>
@@ -9923,10 +9936,10 @@
       <c r="H25" s="63"/>
       <c r="I25" s="63"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="190"/>
-      <c r="L25" s="191"/>
-      <c r="M25" s="191"/>
-      <c r="N25" s="192"/>
+      <c r="K25" s="187"/>
+      <c r="L25" s="188"/>
+      <c r="M25" s="188"/>
+      <c r="N25" s="189"/>
       <c r="O25" s="60"/>
       <c r="P25" s="60"/>
       <c r="Q25" s="76"/>
@@ -9948,10 +9961,10 @@
       <c r="H26" s="63"/>
       <c r="I26" s="63"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="190"/>
-      <c r="L26" s="191"/>
-      <c r="M26" s="191"/>
-      <c r="N26" s="192"/>
+      <c r="K26" s="187"/>
+      <c r="L26" s="188"/>
+      <c r="M26" s="188"/>
+      <c r="N26" s="189"/>
       <c r="O26" s="60"/>
       <c r="P26" s="60"/>
       <c r="Q26" s="76"/>
@@ -9973,10 +9986,10 @@
       <c r="H27" s="63"/>
       <c r="I27" s="63"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="190"/>
-      <c r="L27" s="191"/>
-      <c r="M27" s="191"/>
-      <c r="N27" s="192"/>
+      <c r="K27" s="187"/>
+      <c r="L27" s="188"/>
+      <c r="M27" s="188"/>
+      <c r="N27" s="189"/>
       <c r="O27" s="60"/>
       <c r="P27" s="60"/>
       <c r="Q27" s="76"/>
@@ -9998,10 +10011,10 @@
       <c r="H28" s="63"/>
       <c r="I28" s="63"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="190"/>
-      <c r="L28" s="191"/>
-      <c r="M28" s="191"/>
-      <c r="N28" s="192"/>
+      <c r="K28" s="187"/>
+      <c r="L28" s="188"/>
+      <c r="M28" s="188"/>
+      <c r="N28" s="189"/>
       <c r="O28" s="60"/>
       <c r="P28" s="60"/>
       <c r="Q28" s="76"/>
@@ -10023,10 +10036,10 @@
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="190"/>
-      <c r="L29" s="191"/>
-      <c r="M29" s="191"/>
-      <c r="N29" s="192"/>
+      <c r="K29" s="187"/>
+      <c r="L29" s="188"/>
+      <c r="M29" s="188"/>
+      <c r="N29" s="189"/>
       <c r="O29" s="60"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="76"/>
@@ -10048,10 +10061,10 @@
       <c r="H30" s="63"/>
       <c r="I30" s="63"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="190"/>
-      <c r="L30" s="191"/>
-      <c r="M30" s="191"/>
-      <c r="N30" s="192"/>
+      <c r="K30" s="187"/>
+      <c r="L30" s="188"/>
+      <c r="M30" s="188"/>
+      <c r="N30" s="189"/>
       <c r="O30" s="60"/>
       <c r="P30" s="60"/>
       <c r="Q30" s="76"/>
@@ -10073,10 +10086,10 @@
       <c r="H31" s="63"/>
       <c r="I31" s="63"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="190"/>
-      <c r="L31" s="191"/>
-      <c r="M31" s="191"/>
-      <c r="N31" s="192"/>
+      <c r="K31" s="187"/>
+      <c r="L31" s="188"/>
+      <c r="M31" s="188"/>
+      <c r="N31" s="189"/>
       <c r="O31" s="60"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="76"/>
@@ -10098,10 +10111,10 @@
       <c r="H32" s="63"/>
       <c r="I32" s="63"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="190"/>
-      <c r="L32" s="191"/>
-      <c r="M32" s="191"/>
-      <c r="N32" s="192"/>
+      <c r="K32" s="187"/>
+      <c r="L32" s="188"/>
+      <c r="M32" s="188"/>
+      <c r="N32" s="189"/>
       <c r="O32" s="60"/>
       <c r="P32" s="60"/>
       <c r="Q32" s="76"/>
@@ -10123,10 +10136,10 @@
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="190"/>
-      <c r="L33" s="191"/>
-      <c r="M33" s="191"/>
-      <c r="N33" s="192"/>
+      <c r="K33" s="187"/>
+      <c r="L33" s="188"/>
+      <c r="M33" s="188"/>
+      <c r="N33" s="189"/>
       <c r="O33" s="60"/>
       <c r="P33" s="60"/>
       <c r="Q33" s="76"/>
@@ -10148,10 +10161,10 @@
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
       <c r="J34" s="40"/>
-      <c r="K34" s="190"/>
-      <c r="L34" s="191"/>
-      <c r="M34" s="191"/>
-      <c r="N34" s="192"/>
+      <c r="K34" s="187"/>
+      <c r="L34" s="188"/>
+      <c r="M34" s="188"/>
+      <c r="N34" s="189"/>
       <c r="O34" s="60"/>
       <c r="P34" s="60"/>
       <c r="Q34" s="76"/>
@@ -10173,10 +10186,10 @@
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
       <c r="J35" s="82"/>
-      <c r="K35" s="190"/>
-      <c r="L35" s="191"/>
-      <c r="M35" s="191"/>
-      <c r="N35" s="192"/>
+      <c r="K35" s="187"/>
+      <c r="L35" s="188"/>
+      <c r="M35" s="188"/>
+      <c r="N35" s="189"/>
       <c r="O35" s="85"/>
       <c r="P35" s="85"/>
       <c r="Q35" s="76"/>
@@ -10198,10 +10211,10 @@
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="190"/>
-      <c r="L36" s="191"/>
-      <c r="M36" s="191"/>
-      <c r="N36" s="192"/>
+      <c r="K36" s="187"/>
+      <c r="L36" s="188"/>
+      <c r="M36" s="188"/>
+      <c r="N36" s="189"/>
       <c r="O36" s="60"/>
       <c r="P36" s="60"/>
       <c r="Q36" s="76"/>
@@ -10223,10 +10236,10 @@
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="190"/>
-      <c r="L37" s="191"/>
-      <c r="M37" s="191"/>
-      <c r="N37" s="192"/>
+      <c r="K37" s="187"/>
+      <c r="L37" s="188"/>
+      <c r="M37" s="188"/>
+      <c r="N37" s="189"/>
       <c r="O37" s="60"/>
       <c r="P37" s="60"/>
       <c r="Q37" s="76"/>
@@ -10248,10 +10261,10 @@
       <c r="H38" s="63"/>
       <c r="I38" s="63"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="190"/>
-      <c r="L38" s="191"/>
-      <c r="M38" s="191"/>
-      <c r="N38" s="192"/>
+      <c r="K38" s="187"/>
+      <c r="L38" s="188"/>
+      <c r="M38" s="188"/>
+      <c r="N38" s="189"/>
       <c r="O38" s="60"/>
       <c r="P38" s="60"/>
       <c r="Q38" s="76"/>
@@ -10273,10 +10286,10 @@
       <c r="H39" s="63"/>
       <c r="I39" s="63"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="190"/>
-      <c r="L39" s="191"/>
-      <c r="M39" s="191"/>
-      <c r="N39" s="192"/>
+      <c r="K39" s="187"/>
+      <c r="L39" s="188"/>
+      <c r="M39" s="188"/>
+      <c r="N39" s="189"/>
       <c r="O39" s="60"/>
       <c r="P39" s="60"/>
       <c r="Q39" s="76"/>
@@ -10298,10 +10311,10 @@
       <c r="H40" s="63"/>
       <c r="I40" s="63"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="190"/>
-      <c r="L40" s="191"/>
-      <c r="M40" s="191"/>
-      <c r="N40" s="192"/>
+      <c r="K40" s="187"/>
+      <c r="L40" s="188"/>
+      <c r="M40" s="188"/>
+      <c r="N40" s="189"/>
       <c r="O40" s="60"/>
       <c r="P40" s="60"/>
       <c r="Q40" s="76"/>
@@ -10323,10 +10336,10 @@
       <c r="H41" s="63"/>
       <c r="I41" s="63"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="190"/>
-      <c r="L41" s="191"/>
-      <c r="M41" s="191"/>
-      <c r="N41" s="192"/>
+      <c r="K41" s="187"/>
+      <c r="L41" s="188"/>
+      <c r="M41" s="188"/>
+      <c r="N41" s="189"/>
       <c r="O41" s="74"/>
       <c r="P41" s="74"/>
       <c r="Q41" s="76"/>
@@ -10348,10 +10361,10 @@
       <c r="H42" s="63"/>
       <c r="I42" s="63"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="190"/>
-      <c r="L42" s="191"/>
-      <c r="M42" s="191"/>
-      <c r="N42" s="192"/>
+      <c r="K42" s="187"/>
+      <c r="L42" s="188"/>
+      <c r="M42" s="188"/>
+      <c r="N42" s="189"/>
       <c r="O42" s="74"/>
       <c r="P42" s="74"/>
       <c r="Q42" s="76"/>
@@ -10373,10 +10386,10 @@
       <c r="H43" s="63"/>
       <c r="I43" s="63"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="190"/>
-      <c r="L43" s="191"/>
-      <c r="M43" s="191"/>
-      <c r="N43" s="192"/>
+      <c r="K43" s="187"/>
+      <c r="L43" s="188"/>
+      <c r="M43" s="188"/>
+      <c r="N43" s="189"/>
       <c r="O43" s="74"/>
       <c r="P43" s="74"/>
       <c r="Q43" s="76"/>
@@ -10398,10 +10411,10 @@
       <c r="H44" s="63"/>
       <c r="I44" s="63"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="190"/>
-      <c r="L44" s="191"/>
-      <c r="M44" s="191"/>
-      <c r="N44" s="192"/>
+      <c r="K44" s="187"/>
+      <c r="L44" s="188"/>
+      <c r="M44" s="188"/>
+      <c r="N44" s="189"/>
       <c r="O44" s="74"/>
       <c r="P44" s="74"/>
       <c r="Q44" s="76"/>
@@ -10423,10 +10436,10 @@
       <c r="H45" s="63"/>
       <c r="I45" s="63"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="190"/>
-      <c r="L45" s="191"/>
-      <c r="M45" s="191"/>
-      <c r="N45" s="192"/>
+      <c r="K45" s="187"/>
+      <c r="L45" s="188"/>
+      <c r="M45" s="188"/>
+      <c r="N45" s="189"/>
       <c r="O45" s="74"/>
       <c r="P45" s="74"/>
       <c r="Q45" s="76"/>
@@ -10448,10 +10461,10 @@
       <c r="H46" s="63"/>
       <c r="I46" s="63"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="190"/>
-      <c r="L46" s="191"/>
-      <c r="M46" s="191"/>
-      <c r="N46" s="192"/>
+      <c r="K46" s="187"/>
+      <c r="L46" s="188"/>
+      <c r="M46" s="188"/>
+      <c r="N46" s="189"/>
       <c r="O46" s="74"/>
       <c r="P46" s="74"/>
       <c r="Q46" s="76"/>
@@ -10473,10 +10486,10 @@
       <c r="H47" s="63"/>
       <c r="I47" s="63"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="190"/>
-      <c r="L47" s="191"/>
-      <c r="M47" s="191"/>
-      <c r="N47" s="192"/>
+      <c r="K47" s="187"/>
+      <c r="L47" s="188"/>
+      <c r="M47" s="188"/>
+      <c r="N47" s="189"/>
       <c r="O47" s="74"/>
       <c r="P47" s="74"/>
       <c r="Q47" s="76"/>
@@ -10498,10 +10511,10 @@
       <c r="H48" s="63"/>
       <c r="I48" s="63"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="190"/>
-      <c r="L48" s="191"/>
-      <c r="M48" s="191"/>
-      <c r="N48" s="192"/>
+      <c r="K48" s="187"/>
+      <c r="L48" s="188"/>
+      <c r="M48" s="188"/>
+      <c r="N48" s="189"/>
       <c r="O48" s="74"/>
       <c r="P48" s="74"/>
       <c r="Q48" s="76"/>
@@ -10523,10 +10536,10 @@
       <c r="H49" s="63"/>
       <c r="I49" s="63"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="190"/>
-      <c r="L49" s="191"/>
-      <c r="M49" s="191"/>
-      <c r="N49" s="192"/>
+      <c r="K49" s="187"/>
+      <c r="L49" s="188"/>
+      <c r="M49" s="188"/>
+      <c r="N49" s="189"/>
       <c r="O49" s="74"/>
       <c r="P49" s="74"/>
       <c r="Q49" s="76"/>
@@ -10548,10 +10561,10 @@
       <c r="H50" s="63"/>
       <c r="I50" s="63"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="190"/>
-      <c r="L50" s="191"/>
-      <c r="M50" s="191"/>
-      <c r="N50" s="192"/>
+      <c r="K50" s="187"/>
+      <c r="L50" s="188"/>
+      <c r="M50" s="188"/>
+      <c r="N50" s="189"/>
       <c r="O50" s="74"/>
       <c r="P50" s="74"/>
       <c r="Q50" s="76"/>
@@ -10573,10 +10586,10 @@
       <c r="H51" s="63"/>
       <c r="I51" s="63"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="190"/>
-      <c r="L51" s="191"/>
-      <c r="M51" s="191"/>
-      <c r="N51" s="192"/>
+      <c r="K51" s="187"/>
+      <c r="L51" s="188"/>
+      <c r="M51" s="188"/>
+      <c r="N51" s="189"/>
       <c r="O51" s="74"/>
       <c r="P51" s="74"/>
       <c r="Q51" s="76"/>
@@ -10598,10 +10611,10 @@
       <c r="H52" s="63"/>
       <c r="I52" s="63"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="190"/>
-      <c r="L52" s="191"/>
-      <c r="M52" s="191"/>
-      <c r="N52" s="192"/>
+      <c r="K52" s="187"/>
+      <c r="L52" s="188"/>
+      <c r="M52" s="188"/>
+      <c r="N52" s="189"/>
       <c r="O52" s="74"/>
       <c r="P52" s="74"/>
       <c r="Q52" s="76"/>
@@ -10623,10 +10636,10 @@
       <c r="H53" s="63"/>
       <c r="I53" s="63"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="190"/>
-      <c r="L53" s="191"/>
-      <c r="M53" s="191"/>
-      <c r="N53" s="192"/>
+      <c r="K53" s="187"/>
+      <c r="L53" s="188"/>
+      <c r="M53" s="188"/>
+      <c r="N53" s="189"/>
       <c r="O53" s="74"/>
       <c r="P53" s="74"/>
       <c r="Q53" s="76"/>
@@ -10648,10 +10661,10 @@
       <c r="H54" s="63"/>
       <c r="I54" s="63"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="190"/>
-      <c r="L54" s="191"/>
-      <c r="M54" s="191"/>
-      <c r="N54" s="192"/>
+      <c r="K54" s="187"/>
+      <c r="L54" s="188"/>
+      <c r="M54" s="188"/>
+      <c r="N54" s="189"/>
       <c r="O54" s="74"/>
       <c r="P54" s="74"/>
       <c r="Q54" s="76"/>
@@ -10673,10 +10686,10 @@
       <c r="H55" s="63"/>
       <c r="I55" s="63"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="190"/>
-      <c r="L55" s="191"/>
-      <c r="M55" s="191"/>
-      <c r="N55" s="192"/>
+      <c r="K55" s="187"/>
+      <c r="L55" s="188"/>
+      <c r="M55" s="188"/>
+      <c r="N55" s="189"/>
       <c r="O55" s="74"/>
       <c r="P55" s="74"/>
       <c r="Q55" s="76"/>
@@ -10698,10 +10711,10 @@
       <c r="H56" s="63"/>
       <c r="I56" s="63"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="190"/>
-      <c r="L56" s="191"/>
-      <c r="M56" s="191"/>
-      <c r="N56" s="192"/>
+      <c r="K56" s="187"/>
+      <c r="L56" s="188"/>
+      <c r="M56" s="188"/>
+      <c r="N56" s="189"/>
       <c r="O56" s="74"/>
       <c r="P56" s="74"/>
       <c r="Q56" s="76"/>
@@ -10723,10 +10736,10 @@
       <c r="H57" s="63"/>
       <c r="I57" s="63"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="190"/>
-      <c r="L57" s="191"/>
-      <c r="M57" s="191"/>
-      <c r="N57" s="192"/>
+      <c r="K57" s="187"/>
+      <c r="L57" s="188"/>
+      <c r="M57" s="188"/>
+      <c r="N57" s="189"/>
       <c r="O57" s="74"/>
       <c r="P57" s="74"/>
       <c r="Q57" s="76"/>
@@ -10748,10 +10761,10 @@
       <c r="H58" s="63"/>
       <c r="I58" s="63"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="190"/>
-      <c r="L58" s="191"/>
-      <c r="M58" s="191"/>
-      <c r="N58" s="192"/>
+      <c r="K58" s="187"/>
+      <c r="L58" s="188"/>
+      <c r="M58" s="188"/>
+      <c r="N58" s="189"/>
       <c r="O58" s="74"/>
       <c r="P58" s="74"/>
       <c r="Q58" s="76"/>
@@ -10773,10 +10786,10 @@
       <c r="H59" s="63"/>
       <c r="I59" s="63"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="190"/>
-      <c r="L59" s="191"/>
-      <c r="M59" s="191"/>
-      <c r="N59" s="192"/>
+      <c r="K59" s="187"/>
+      <c r="L59" s="188"/>
+      <c r="M59" s="188"/>
+      <c r="N59" s="189"/>
       <c r="O59" s="74"/>
       <c r="P59" s="74"/>
       <c r="Q59" s="76"/>
@@ -10798,10 +10811,10 @@
       <c r="H60" s="63"/>
       <c r="I60" s="63"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="190"/>
-      <c r="L60" s="191"/>
-      <c r="M60" s="191"/>
-      <c r="N60" s="192"/>
+      <c r="K60" s="187"/>
+      <c r="L60" s="188"/>
+      <c r="M60" s="188"/>
+      <c r="N60" s="189"/>
       <c r="O60" s="74"/>
       <c r="P60" s="74"/>
       <c r="Q60" s="76"/>
@@ -10823,10 +10836,10 @@
       <c r="H61" s="63"/>
       <c r="I61" s="63"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="190"/>
-      <c r="L61" s="191"/>
-      <c r="M61" s="191"/>
-      <c r="N61" s="192"/>
+      <c r="K61" s="187"/>
+      <c r="L61" s="188"/>
+      <c r="M61" s="188"/>
+      <c r="N61" s="189"/>
       <c r="O61" s="74"/>
       <c r="P61" s="74"/>
       <c r="Q61" s="76"/>
@@ -10848,10 +10861,10 @@
       <c r="H62" s="63"/>
       <c r="I62" s="63"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="190"/>
-      <c r="L62" s="191"/>
-      <c r="M62" s="191"/>
-      <c r="N62" s="192"/>
+      <c r="K62" s="187"/>
+      <c r="L62" s="188"/>
+      <c r="M62" s="188"/>
+      <c r="N62" s="189"/>
       <c r="O62" s="74"/>
       <c r="P62" s="74"/>
       <c r="Q62" s="76"/>
@@ -10873,10 +10886,10 @@
       <c r="H63" s="63"/>
       <c r="I63" s="63"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="190"/>
-      <c r="L63" s="191"/>
-      <c r="M63" s="191"/>
-      <c r="N63" s="192"/>
+      <c r="K63" s="187"/>
+      <c r="L63" s="188"/>
+      <c r="M63" s="188"/>
+      <c r="N63" s="189"/>
       <c r="O63" s="84"/>
       <c r="P63" s="84"/>
       <c r="Q63" s="76"/>
@@ -10898,10 +10911,10 @@
       <c r="H64" s="63"/>
       <c r="I64" s="63"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="190"/>
-      <c r="L64" s="191"/>
-      <c r="M64" s="191"/>
-      <c r="N64" s="192"/>
+      <c r="K64" s="187"/>
+      <c r="L64" s="188"/>
+      <c r="M64" s="188"/>
+      <c r="N64" s="189"/>
       <c r="O64" s="84"/>
       <c r="P64" s="84"/>
       <c r="Q64" s="76"/>
@@ -10923,10 +10936,10 @@
       <c r="H65" s="63"/>
       <c r="I65" s="63"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="190"/>
-      <c r="L65" s="191"/>
-      <c r="M65" s="191"/>
-      <c r="N65" s="192"/>
+      <c r="K65" s="187"/>
+      <c r="L65" s="188"/>
+      <c r="M65" s="188"/>
+      <c r="N65" s="189"/>
       <c r="O65" s="84"/>
       <c r="P65" s="84"/>
       <c r="Q65" s="76"/>
@@ -10946,10 +10959,10 @@
       <c r="H66" s="63"/>
       <c r="I66" s="63"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="190"/>
-      <c r="L66" s="191"/>
-      <c r="M66" s="191"/>
-      <c r="N66" s="192"/>
+      <c r="K66" s="187"/>
+      <c r="L66" s="188"/>
+      <c r="M66" s="188"/>
+      <c r="N66" s="189"/>
       <c r="O66" s="84"/>
       <c r="P66" s="84"/>
       <c r="Q66" s="76"/>
@@ -10969,10 +10982,10 @@
       <c r="H67" s="63"/>
       <c r="I67" s="63"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="190"/>
-      <c r="L67" s="191"/>
-      <c r="M67" s="191"/>
-      <c r="N67" s="192"/>
+      <c r="K67" s="187"/>
+      <c r="L67" s="188"/>
+      <c r="M67" s="188"/>
+      <c r="N67" s="189"/>
       <c r="O67" s="84"/>
       <c r="P67" s="84"/>
       <c r="Q67" s="76"/>
@@ -10992,10 +11005,10 @@
       <c r="H68" s="63"/>
       <c r="I68" s="63"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="190"/>
-      <c r="L68" s="191"/>
-      <c r="M68" s="191"/>
-      <c r="N68" s="192"/>
+      <c r="K68" s="187"/>
+      <c r="L68" s="188"/>
+      <c r="M68" s="188"/>
+      <c r="N68" s="189"/>
       <c r="O68" s="84"/>
       <c r="P68" s="84"/>
       <c r="Q68" s="76"/>
@@ -11015,10 +11028,10 @@
       <c r="H69" s="63"/>
       <c r="I69" s="63"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="190"/>
-      <c r="L69" s="191"/>
-      <c r="M69" s="191"/>
-      <c r="N69" s="192"/>
+      <c r="K69" s="187"/>
+      <c r="L69" s="188"/>
+      <c r="M69" s="188"/>
+      <c r="N69" s="189"/>
       <c r="O69" s="84"/>
       <c r="P69" s="84"/>
       <c r="Q69" s="76"/>
@@ -11038,10 +11051,10 @@
       <c r="H70" s="63"/>
       <c r="I70" s="63"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="190"/>
-      <c r="L70" s="191"/>
-      <c r="M70" s="191"/>
-      <c r="N70" s="192"/>
+      <c r="K70" s="187"/>
+      <c r="L70" s="188"/>
+      <c r="M70" s="188"/>
+      <c r="N70" s="189"/>
       <c r="O70" s="84"/>
       <c r="P70" s="84"/>
       <c r="Q70" s="76"/>
@@ -11061,10 +11074,10 @@
       <c r="H71" s="63"/>
       <c r="I71" s="63"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="190"/>
-      <c r="L71" s="191"/>
-      <c r="M71" s="191"/>
-      <c r="N71" s="192"/>
+      <c r="K71" s="187"/>
+      <c r="L71" s="188"/>
+      <c r="M71" s="188"/>
+      <c r="N71" s="189"/>
       <c r="O71" s="84"/>
       <c r="P71" s="84"/>
       <c r="Q71" s="76"/>
@@ -11084,10 +11097,10 @@
       <c r="H72" s="63"/>
       <c r="I72" s="63"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="190"/>
-      <c r="L72" s="191"/>
-      <c r="M72" s="191"/>
-      <c r="N72" s="192"/>
+      <c r="K72" s="187"/>
+      <c r="L72" s="188"/>
+      <c r="M72" s="188"/>
+      <c r="N72" s="189"/>
       <c r="O72" s="84"/>
       <c r="P72" s="84"/>
       <c r="Q72" s="76"/>
@@ -11107,10 +11120,10 @@
       <c r="H73" s="63"/>
       <c r="I73" s="63"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="190"/>
-      <c r="L73" s="191"/>
-      <c r="M73" s="191"/>
-      <c r="N73" s="192"/>
+      <c r="K73" s="187"/>
+      <c r="L73" s="188"/>
+      <c r="M73" s="188"/>
+      <c r="N73" s="189"/>
       <c r="O73" s="84"/>
       <c r="P73" s="84"/>
       <c r="Q73" s="76"/>
@@ -11130,10 +11143,10 @@
       <c r="H74" s="63"/>
       <c r="I74" s="63"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="190"/>
-      <c r="L74" s="191"/>
-      <c r="M74" s="191"/>
-      <c r="N74" s="192"/>
+      <c r="K74" s="187"/>
+      <c r="L74" s="188"/>
+      <c r="M74" s="188"/>
+      <c r="N74" s="189"/>
       <c r="O74" s="84"/>
       <c r="P74" s="84"/>
       <c r="Q74" s="76"/>
@@ -11153,10 +11166,10 @@
       <c r="H75" s="63"/>
       <c r="I75" s="63"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="190"/>
-      <c r="L75" s="191"/>
-      <c r="M75" s="191"/>
-      <c r="N75" s="192"/>
+      <c r="K75" s="187"/>
+      <c r="L75" s="188"/>
+      <c r="M75" s="188"/>
+      <c r="N75" s="189"/>
       <c r="O75" s="84"/>
       <c r="P75" s="84"/>
       <c r="Q75" s="76"/>
@@ -11176,10 +11189,10 @@
       <c r="H76" s="63"/>
       <c r="I76" s="63"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="190"/>
-      <c r="L76" s="191"/>
-      <c r="M76" s="191"/>
-      <c r="N76" s="192"/>
+      <c r="K76" s="187"/>
+      <c r="L76" s="188"/>
+      <c r="M76" s="188"/>
+      <c r="N76" s="189"/>
       <c r="O76" s="84"/>
       <c r="P76" s="84"/>
       <c r="Q76" s="76"/>
@@ -11199,10 +11212,10 @@
       <c r="H77" s="63"/>
       <c r="I77" s="63"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="190"/>
-      <c r="L77" s="191"/>
-      <c r="M77" s="191"/>
-      <c r="N77" s="192"/>
+      <c r="K77" s="187"/>
+      <c r="L77" s="188"/>
+      <c r="M77" s="188"/>
+      <c r="N77" s="189"/>
       <c r="O77" s="84"/>
       <c r="P77" s="84"/>
       <c r="Q77" s="76"/>
@@ -11222,10 +11235,10 @@
       <c r="H78" s="63"/>
       <c r="I78" s="63"/>
       <c r="J78" s="40"/>
-      <c r="K78" s="190"/>
-      <c r="L78" s="191"/>
-      <c r="M78" s="191"/>
-      <c r="N78" s="192"/>
+      <c r="K78" s="187"/>
+      <c r="L78" s="188"/>
+      <c r="M78" s="188"/>
+      <c r="N78" s="189"/>
       <c r="O78" s="84"/>
       <c r="P78" s="84"/>
       <c r="Q78" s="76"/>
@@ -11245,10 +11258,10 @@
       <c r="H79" s="63"/>
       <c r="I79" s="63"/>
       <c r="J79" s="40"/>
-      <c r="K79" s="190"/>
-      <c r="L79" s="191"/>
-      <c r="M79" s="191"/>
-      <c r="N79" s="192"/>
+      <c r="K79" s="187"/>
+      <c r="L79" s="188"/>
+      <c r="M79" s="188"/>
+      <c r="N79" s="189"/>
       <c r="O79" s="84"/>
       <c r="P79" s="84"/>
       <c r="Q79" s="76"/>
@@ -11268,10 +11281,10 @@
       <c r="H80" s="63"/>
       <c r="I80" s="63"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="190"/>
-      <c r="L80" s="191"/>
-      <c r="M80" s="191"/>
-      <c r="N80" s="192"/>
+      <c r="K80" s="187"/>
+      <c r="L80" s="188"/>
+      <c r="M80" s="188"/>
+      <c r="N80" s="189"/>
       <c r="O80" s="84"/>
       <c r="P80" s="84"/>
       <c r="Q80" s="76"/>
@@ -11291,10 +11304,10 @@
       <c r="H81" s="63"/>
       <c r="I81" s="63"/>
       <c r="J81" s="40"/>
-      <c r="K81" s="190"/>
-      <c r="L81" s="191"/>
-      <c r="M81" s="191"/>
-      <c r="N81" s="192"/>
+      <c r="K81" s="187"/>
+      <c r="L81" s="188"/>
+      <c r="M81" s="188"/>
+      <c r="N81" s="189"/>
       <c r="O81" s="84"/>
       <c r="P81" s="84"/>
       <c r="Q81" s="76"/>
@@ -11314,10 +11327,10 @@
       <c r="H82" s="63"/>
       <c r="I82" s="63"/>
       <c r="J82" s="40"/>
-      <c r="K82" s="190"/>
-      <c r="L82" s="191"/>
-      <c r="M82" s="191"/>
-      <c r="N82" s="192"/>
+      <c r="K82" s="187"/>
+      <c r="L82" s="188"/>
+      <c r="M82" s="188"/>
+      <c r="N82" s="189"/>
       <c r="O82" s="84"/>
       <c r="P82" s="84"/>
       <c r="Q82" s="76"/>
@@ -11337,10 +11350,10 @@
       <c r="H83" s="63"/>
       <c r="I83" s="63"/>
       <c r="J83" s="40"/>
-      <c r="K83" s="190"/>
-      <c r="L83" s="191"/>
-      <c r="M83" s="191"/>
-      <c r="N83" s="192"/>
+      <c r="K83" s="187"/>
+      <c r="L83" s="188"/>
+      <c r="M83" s="188"/>
+      <c r="N83" s="189"/>
       <c r="O83" s="84"/>
       <c r="P83" s="84"/>
       <c r="Q83" s="76"/>
@@ -11360,10 +11373,10 @@
       <c r="H84" s="63"/>
       <c r="I84" s="63"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="190"/>
-      <c r="L84" s="191"/>
-      <c r="M84" s="191"/>
-      <c r="N84" s="192"/>
+      <c r="K84" s="187"/>
+      <c r="L84" s="188"/>
+      <c r="M84" s="188"/>
+      <c r="N84" s="189"/>
       <c r="O84" s="84"/>
       <c r="P84" s="84"/>
       <c r="Q84" s="76"/>
@@ -11383,10 +11396,10 @@
       <c r="H85" s="63"/>
       <c r="I85" s="63"/>
       <c r="J85" s="40"/>
-      <c r="K85" s="190"/>
-      <c r="L85" s="191"/>
-      <c r="M85" s="191"/>
-      <c r="N85" s="192"/>
+      <c r="K85" s="187"/>
+      <c r="L85" s="188"/>
+      <c r="M85" s="188"/>
+      <c r="N85" s="189"/>
       <c r="O85" s="84"/>
       <c r="P85" s="84"/>
       <c r="Q85" s="76"/>
@@ -11406,10 +11419,10 @@
       <c r="H86" s="63"/>
       <c r="I86" s="63"/>
       <c r="J86" s="40"/>
-      <c r="K86" s="190"/>
-      <c r="L86" s="191"/>
-      <c r="M86" s="191"/>
-      <c r="N86" s="192"/>
+      <c r="K86" s="187"/>
+      <c r="L86" s="188"/>
+      <c r="M86" s="188"/>
+      <c r="N86" s="189"/>
       <c r="O86" s="84"/>
       <c r="P86" s="84"/>
       <c r="Q86" s="76"/>
@@ -11429,10 +11442,10 @@
       <c r="H87" s="63"/>
       <c r="I87" s="63"/>
       <c r="J87" s="40"/>
-      <c r="K87" s="190"/>
-      <c r="L87" s="191"/>
-      <c r="M87" s="191"/>
-      <c r="N87" s="192"/>
+      <c r="K87" s="187"/>
+      <c r="L87" s="188"/>
+      <c r="M87" s="188"/>
+      <c r="N87" s="189"/>
       <c r="O87" s="84"/>
       <c r="P87" s="84"/>
       <c r="Q87" s="76"/>
@@ -11452,10 +11465,10 @@
       <c r="H88" s="63"/>
       <c r="I88" s="63"/>
       <c r="J88" s="40"/>
-      <c r="K88" s="190"/>
-      <c r="L88" s="191"/>
-      <c r="M88" s="191"/>
-      <c r="N88" s="192"/>
+      <c r="K88" s="187"/>
+      <c r="L88" s="188"/>
+      <c r="M88" s="188"/>
+      <c r="N88" s="189"/>
       <c r="O88" s="84"/>
       <c r="P88" s="84"/>
       <c r="Q88" s="76"/>
@@ -11475,10 +11488,10 @@
       <c r="H89" s="63"/>
       <c r="I89" s="63"/>
       <c r="J89" s="40"/>
-      <c r="K89" s="190"/>
-      <c r="L89" s="191"/>
-      <c r="M89" s="191"/>
-      <c r="N89" s="192"/>
+      <c r="K89" s="187"/>
+      <c r="L89" s="188"/>
+      <c r="M89" s="188"/>
+      <c r="N89" s="189"/>
       <c r="O89" s="84"/>
       <c r="P89" s="84"/>
       <c r="Q89" s="76"/>
@@ -11498,10 +11511,10 @@
       <c r="H90" s="63"/>
       <c r="I90" s="63"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="190"/>
-      <c r="L90" s="191"/>
-      <c r="M90" s="191"/>
-      <c r="N90" s="192"/>
+      <c r="K90" s="187"/>
+      <c r="L90" s="188"/>
+      <c r="M90" s="188"/>
+      <c r="N90" s="189"/>
       <c r="O90" s="84"/>
       <c r="P90" s="84"/>
       <c r="Q90" s="76"/>
@@ -11521,10 +11534,10 @@
       <c r="H91" s="63"/>
       <c r="I91" s="63"/>
       <c r="J91" s="40"/>
-      <c r="K91" s="190"/>
-      <c r="L91" s="191"/>
-      <c r="M91" s="191"/>
-      <c r="N91" s="192"/>
+      <c r="K91" s="187"/>
+      <c r="L91" s="188"/>
+      <c r="M91" s="188"/>
+      <c r="N91" s="189"/>
       <c r="O91" s="84"/>
       <c r="P91" s="84"/>
       <c r="Q91" s="76"/>
@@ -11544,10 +11557,10 @@
       <c r="H92" s="63"/>
       <c r="I92" s="63"/>
       <c r="J92" s="40"/>
-      <c r="K92" s="190"/>
-      <c r="L92" s="191"/>
-      <c r="M92" s="191"/>
-      <c r="N92" s="192"/>
+      <c r="K92" s="187"/>
+      <c r="L92" s="188"/>
+      <c r="M92" s="188"/>
+      <c r="N92" s="189"/>
       <c r="O92" s="84"/>
       <c r="P92" s="84"/>
       <c r="Q92" s="76"/>
@@ -11567,10 +11580,10 @@
       <c r="H93" s="63"/>
       <c r="I93" s="63"/>
       <c r="J93" s="40"/>
-      <c r="K93" s="190"/>
-      <c r="L93" s="191"/>
-      <c r="M93" s="191"/>
-      <c r="N93" s="192"/>
+      <c r="K93" s="187"/>
+      <c r="L93" s="188"/>
+      <c r="M93" s="188"/>
+      <c r="N93" s="189"/>
       <c r="O93" s="84"/>
       <c r="P93" s="84"/>
       <c r="Q93" s="76"/>
@@ -11590,10 +11603,10 @@
       <c r="H94" s="63"/>
       <c r="I94" s="63"/>
       <c r="J94" s="40"/>
-      <c r="K94" s="190"/>
-      <c r="L94" s="191"/>
-      <c r="M94" s="191"/>
-      <c r="N94" s="192"/>
+      <c r="K94" s="187"/>
+      <c r="L94" s="188"/>
+      <c r="M94" s="188"/>
+      <c r="N94" s="189"/>
       <c r="O94" s="84"/>
       <c r="P94" s="84"/>
       <c r="Q94" s="76"/>
@@ -11613,10 +11626,10 @@
       <c r="H95" s="63"/>
       <c r="I95" s="63"/>
       <c r="J95" s="40"/>
-      <c r="K95" s="190"/>
-      <c r="L95" s="191"/>
-      <c r="M95" s="191"/>
-      <c r="N95" s="192"/>
+      <c r="K95" s="187"/>
+      <c r="L95" s="188"/>
+      <c r="M95" s="188"/>
+      <c r="N95" s="189"/>
       <c r="O95" s="84"/>
       <c r="P95" s="84"/>
       <c r="Q95" s="76"/>
@@ -11629,33 +11642,58 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="95">
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K52:N52"/>
     <mergeCell ref="K94:N94"/>
     <mergeCell ref="K95:N95"/>
     <mergeCell ref="K5:N5"/>
@@ -11672,58 +11710,33 @@
     <mergeCell ref="K70:N70"/>
     <mergeCell ref="K71:N71"/>
     <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K93:N93"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048468:Q1048576 Q5:Q95"/>
@@ -11769,10 +11782,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="152"/>
+      <c r="B1" s="150"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -11803,8 +11816,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="152"/>
-      <c r="B2" s="152"/>
+      <c r="A2" s="150"/>
+      <c r="B2" s="150"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -11954,7 +11967,7 @@
       <c r="J12" s="46"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="138" t="s">
+      <c r="C13" s="135" t="s">
         <v>256</v>
       </c>
     </row>
@@ -13135,10 +13148,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="152"/>
+      <c r="B1" s="150"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13166,8 +13179,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="152"/>
-      <c r="B2" s="152"/>
+      <c r="A2" s="150"/>
+      <c r="B2" s="150"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13578,14 +13591,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="191" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="16"/>
@@ -13778,11 +13791,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="195" t="s">
+      <c r="E27" s="192" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="196"/>
-      <c r="G27" s="197"/>
+      <c r="F27" s="193"/>
+      <c r="G27" s="194"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="19" t="s">

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc so do tuyen/CF0143_Danh muc so do tuyen.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc so do tuyen/CF0143_Danh muc so do tuyen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="4" r:id="rId1"/>
@@ -1391,7 +1391,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="302">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2300,12 +2300,6 @@
     <t>Truyền tham số @DivisionID gọi màn hình Cập nhật sơ đồ tuyến - CF0144</t>
   </si>
   <si>
-    <t>SELECT CT43.RouteID, CT43.RouteName, CT43.[Description], CT43.[Disabled] 
-FROM CT0143 CT43
-WHERE CT43.DivisionID = @DivisionID
-ORDER BY CT43.RouteID</t>
-  </si>
-  <si>
     <t>@@DivisionID</t>
   </si>
   <si>
@@ -2322,13 +2316,6 @@
     <t>Truyền 2 tham số @DivisionID và @RouteID gọi màn hình Cập nhật sơ đồ tuyến - CF0144</t>
   </si>
   <si>
-    <t>EXEC PROCEDURE [dbo].[CP0141]  
- @DivisionID NVARCHAR(50),
- @KeyID NVARCHAR(50),
- @TableID NVARCHAR(50),
- @IsEdit TINYINT  ----  =0  la Xoa,  = 1 la Sua</t>
-  </si>
-  <si>
     <t>DELETE FROM CT0144
 WHERE DivisionID = @DivisionID AND RouteID = @RouteID</t>
   </si>
@@ -2344,10 +2331,6 @@
 @@RouteID</t>
   </si>
   <si>
-    <t>@@DIvisionID
-@@RouteID</t>
-  </si>
-  <si>
     <t>Thỏa câu @SQL0002 thì thực thi câu SQL này</t>
   </si>
   <si>
@@ -2430,26 +2413,6 @@
   </si>
   <si>
     <t>CT0144</t>
-  </si>
-  <si>
-    <t>RouteID RouteName Description Disabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mã số tuyên Tên tuyến
-Diễn giải
-Không hiển thị </t>
-  </si>
-  <si>
-    <t>@DivisionID
-@KeyID
-@TableID
-@IsEdit</t>
-  </si>
-  <si>
-    <t>@@DivisionID
-@@KeyID
-@@TableID
-0</t>
   </si>
   <si>
     <t>- Thực hiện in mẫu báo cáo sơ đồ tuyến AR0143</t>
@@ -2500,6 +2463,55 @@
   </si>
   <si>
     <t>Click Excel</t>
+  </si>
+  <si>
+    <t>Nhân viên giao hàng</t>
+  </si>
+  <si>
+    <t>Dùng chung</t>
+  </si>
+  <si>
+    <t>EmployeeID</t>
+  </si>
+  <si>
+    <t>IsCommon</t>
+  </si>
+  <si>
+    <t>Mã số tuyên Tên tuyến
+Nhân viên giao hàng
+Diễn giải
+Không hiển thị 
+Dùng chung</t>
+  </si>
+  <si>
+    <t>RouteID RouteName
+EmployeeID
+ Description Disabled
+IsCommon</t>
+  </si>
+  <si>
+    <t>EXEC PROCEDURE [dbo].[AP1000]  
+ @DivisionID NVARCHAR(50),
+ @KeyValues NVARCHAR(50),
+ @TableID NVARCHAR(50),</t>
+  </si>
+  <si>
+    <t>@DivisionID
+@KeyValues
+@TableID
+@IsEdit</t>
+  </si>
+  <si>
+    <t>@@DivisionID
+@@KeyValues
+@@TableID
+0</t>
+  </si>
+  <si>
+    <t>SELECT CT43.RouteID, CT43.RouteName, CT43.[Description], CT43.[Disabled], CT43.IsCommon, CT43.EmployeeID
+FROM CT0143 CT43
+WHERE CT43.DivisionID = @DivisionID
+ORDER BY CT43.RouteID</t>
   </si>
 </sst>
 </file>
@@ -2958,7 +2970,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3321,6 +3333,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3348,6 +3363,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3417,38 +3435,38 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3857,10 +3875,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
+      <c r="B1" s="151"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -3887,8 +3905,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="151"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -3927,14 +3945,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="151" t="s">
+      <c r="E4" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="40">
@@ -3950,14 +3968,14 @@
       <c r="D5" s="101" t="s">
         <v>225</v>
       </c>
-      <c r="E5" s="152" t="s">
-        <v>286</v>
-      </c>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
+      <c r="E5" s="153" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="91">
@@ -3968,12 +3986,12 @@
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="157"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="92">
@@ -3984,12 +4002,12 @@
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="147"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="93">
@@ -4000,12 +4018,12 @@
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="149"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="150"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="94">
@@ -4016,12 +4034,12 @@
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="146"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="147"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="95">
@@ -4032,12 +4050,12 @@
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="146"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="147"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="96">
@@ -4048,12 +4066,12 @@
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="146"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="147"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="97">
@@ -4064,12 +4082,12 @@
       </c>
       <c r="C12" s="79"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="146"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="147"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="98">
@@ -4080,12 +4098,12 @@
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="146"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="147"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="99">
@@ -4096,12 +4114,12 @@
       </c>
       <c r="C14" s="79"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="146"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="147"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40">
@@ -4112,12 +4130,12 @@
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="143"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="154"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="91">
@@ -4128,12 +4146,12 @@
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="143"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="92">
@@ -4144,12 +4162,12 @@
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="143"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="93">
@@ -4160,12 +4178,12 @@
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="143"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="154"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="94">
@@ -4176,12 +4194,12 @@
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="143"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="95">
@@ -4192,12 +4210,12 @@
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="154"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="96">
@@ -4208,12 +4226,12 @@
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="143"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="154"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="97">
@@ -4224,12 +4242,12 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="143"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="98">
@@ -4240,12 +4258,12 @@
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="143"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="154"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="99">
@@ -4256,12 +4274,12 @@
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="143"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="154"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="40">
@@ -4272,12 +4290,12 @@
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="143"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="154"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="91">
@@ -4288,12 +4306,12 @@
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="143"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="92">
@@ -4304,12 +4322,12 @@
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="154"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="154"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="93">
@@ -4320,12 +4338,12 @@
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="143"/>
-      <c r="J28" s="143"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="94">
@@ -4336,12 +4354,12 @@
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="143"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="143"/>
-      <c r="H29" s="143"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="143"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="95">
@@ -4352,12 +4370,12 @@
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="143"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="154"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="96">
@@ -4368,12 +4386,12 @@
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="143"/>
-      <c r="F31" s="143"/>
-      <c r="G31" s="143"/>
-      <c r="H31" s="143"/>
-      <c r="I31" s="143"/>
-      <c r="J31" s="143"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="154"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="154"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="97">
@@ -4384,12 +4402,12 @@
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="143"/>
-      <c r="F32" s="143"/>
-      <c r="G32" s="143"/>
-      <c r="H32" s="143"/>
-      <c r="I32" s="143"/>
-      <c r="J32" s="143"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="154"/>
+      <c r="I32" s="154"/>
+      <c r="J32" s="154"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="98">
@@ -4400,12 +4418,12 @@
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="143"/>
-      <c r="F33" s="143"/>
-      <c r="G33" s="143"/>
-      <c r="H33" s="143"/>
-      <c r="I33" s="143"/>
-      <c r="J33" s="143"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="154"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="99">
@@ -4416,12 +4434,12 @@
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="143"/>
-      <c r="F34" s="143"/>
-      <c r="G34" s="143"/>
-      <c r="H34" s="143"/>
-      <c r="I34" s="143"/>
-      <c r="J34" s="143"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="154"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="40">
@@ -4432,12 +4450,12 @@
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="143"/>
-      <c r="F35" s="143"/>
-      <c r="G35" s="143"/>
-      <c r="H35" s="143"/>
-      <c r="I35" s="143"/>
-      <c r="J35" s="143"/>
+      <c r="E35" s="154"/>
+      <c r="F35" s="154"/>
+      <c r="G35" s="154"/>
+      <c r="H35" s="154"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="154"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="91">
@@ -4448,12 +4466,12 @@
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="143"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="143"/>
-      <c r="I36" s="143"/>
-      <c r="J36" s="143"/>
+      <c r="E36" s="154"/>
+      <c r="F36" s="154"/>
+      <c r="G36" s="154"/>
+      <c r="H36" s="154"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="154"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="92">
@@ -4464,12 +4482,12 @@
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="143"/>
-      <c r="F37" s="143"/>
-      <c r="G37" s="143"/>
-      <c r="H37" s="143"/>
-      <c r="I37" s="143"/>
-      <c r="J37" s="143"/>
+      <c r="E37" s="154"/>
+      <c r="F37" s="154"/>
+      <c r="G37" s="154"/>
+      <c r="H37" s="154"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="154"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="93">
@@ -4480,12 +4498,12 @@
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="143"/>
-      <c r="F38" s="143"/>
-      <c r="G38" s="143"/>
-      <c r="H38" s="143"/>
-      <c r="I38" s="143"/>
-      <c r="J38" s="143"/>
+      <c r="E38" s="154"/>
+      <c r="F38" s="154"/>
+      <c r="G38" s="154"/>
+      <c r="H38" s="154"/>
+      <c r="I38" s="154"/>
+      <c r="J38" s="154"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="94">
@@ -4496,12 +4514,12 @@
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="143"/>
-      <c r="F39" s="143"/>
-      <c r="G39" s="143"/>
-      <c r="H39" s="143"/>
-      <c r="I39" s="143"/>
-      <c r="J39" s="143"/>
+      <c r="E39" s="154"/>
+      <c r="F39" s="154"/>
+      <c r="G39" s="154"/>
+      <c r="H39" s="154"/>
+      <c r="I39" s="154"/>
+      <c r="J39" s="154"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="95">
@@ -4512,12 +4530,12 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="143"/>
-      <c r="F40" s="143"/>
-      <c r="G40" s="143"/>
-      <c r="H40" s="143"/>
-      <c r="I40" s="143"/>
-      <c r="J40" s="143"/>
+      <c r="E40" s="154"/>
+      <c r="F40" s="154"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="154"/>
+      <c r="I40" s="154"/>
+      <c r="J40" s="154"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="96">
@@ -4528,12 +4546,12 @@
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="143"/>
-      <c r="F41" s="143"/>
-      <c r="G41" s="143"/>
-      <c r="H41" s="143"/>
-      <c r="I41" s="143"/>
-      <c r="J41" s="143"/>
+      <c r="E41" s="154"/>
+      <c r="F41" s="154"/>
+      <c r="G41" s="154"/>
+      <c r="H41" s="154"/>
+      <c r="I41" s="154"/>
+      <c r="J41" s="154"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="97">
@@ -4544,23 +4562,32 @@
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="143"/>
-      <c r="F42" s="143"/>
-      <c r="G42" s="143"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="143"/>
-      <c r="J42" s="143"/>
+      <c r="E42" s="154"/>
+      <c r="F42" s="154"/>
+      <c r="G42" s="154"/>
+      <c r="H42" s="154"/>
+      <c r="I42" s="154"/>
+      <c r="J42" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -4576,23 +4603,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -4790,7 +4808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J2"/>
     </sheetView>
   </sheetViews>
@@ -4807,10 +4825,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
+      <c r="B1" s="151"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -4841,8 +4859,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="151"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -4873,20 +4891,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="156" t="s">
+      <c r="A4" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="158"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="156" t="s">
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="157"/>
+      <c r="J4" s="159"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="42"/>
@@ -4897,10 +4915,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="165" t="s">
+      <c r="I5" s="167" t="s">
         <v>226</v>
       </c>
-      <c r="J5" s="166"/>
+      <c r="J5" s="168"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42"/>
@@ -4911,8 +4929,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="168"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="170"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="42"/>
@@ -4923,8 +4941,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="168"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="170"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="42"/>
@@ -4935,8 +4953,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="168"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="170"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="42"/>
@@ -4947,8 +4965,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="168"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="170"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="42"/>
@@ -4959,8 +4977,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="170"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="172"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="42"/>
@@ -4971,10 +4989,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="156" t="s">
+      <c r="I11" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="157"/>
+      <c r="J11" s="159"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="42"/>
@@ -4985,10 +5003,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="159" t="s">
+      <c r="I12" s="161" t="s">
         <v>172</v>
       </c>
-      <c r="J12" s="160"/>
+      <c r="J12" s="162"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="42"/>
@@ -4999,8 +5017,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="161"/>
-      <c r="J13" s="162"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="164"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="42"/>
@@ -5011,8 +5029,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="162"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="164"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="42"/>
@@ -5023,8 +5041,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="162"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="164"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="42"/>
@@ -5035,8 +5053,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="161"/>
-      <c r="J16" s="162"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="164"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="42"/>
@@ -5047,8 +5065,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="161"/>
-      <c r="J17" s="162"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="164"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="42"/>
@@ -5059,8 +5077,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="162"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="164"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="42"/>
@@ -5071,8 +5089,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="162"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="164"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="42"/>
@@ -5083,8 +5101,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="162"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="164"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="42"/>
@@ -5095,8 +5113,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="162"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="164"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="42"/>
@@ -5107,8 +5125,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="162"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="164"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
@@ -5119,8 +5137,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="162"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="164"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="42"/>
@@ -5131,8 +5149,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="162"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="164"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="42"/>
@@ -5143,8 +5161,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="162"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="164"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="42"/>
@@ -5155,8 +5173,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="162"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="164"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="42"/>
@@ -5167,8 +5185,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="161"/>
-      <c r="J27" s="162"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="164"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="42"/>
@@ -5179,8 +5197,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="162"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="164"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="42"/>
@@ -5191,8 +5209,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="161"/>
-      <c r="J29" s="162"/>
+      <c r="I29" s="163"/>
+      <c r="J29" s="164"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="42"/>
@@ -5203,8 +5221,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="161"/>
-      <c r="J30" s="162"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="164"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="42"/>
@@ -5215,8 +5233,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="161"/>
-      <c r="J31" s="162"/>
+      <c r="I31" s="163"/>
+      <c r="J31" s="164"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="42"/>
@@ -5227,8 +5245,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="161"/>
-      <c r="J32" s="162"/>
+      <c r="I32" s="163"/>
+      <c r="J32" s="164"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="42"/>
@@ -5239,8 +5257,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="161"/>
-      <c r="J33" s="162"/>
+      <c r="I33" s="163"/>
+      <c r="J33" s="164"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="42"/>
@@ -5251,8 +5269,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="161"/>
-      <c r="J34" s="162"/>
+      <c r="I34" s="163"/>
+      <c r="J34" s="164"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="42"/>
@@ -5263,8 +5281,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="161"/>
-      <c r="J35" s="162"/>
+      <c r="I35" s="163"/>
+      <c r="J35" s="164"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="42"/>
@@ -5275,8 +5293,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="161"/>
-      <c r="J36" s="162"/>
+      <c r="I36" s="163"/>
+      <c r="J36" s="164"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="42"/>
@@ -5287,8 +5305,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="161"/>
-      <c r="J37" s="162"/>
+      <c r="I37" s="163"/>
+      <c r="J37" s="164"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="42"/>
@@ -5299,8 +5317,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="161"/>
-      <c r="J38" s="162"/>
+      <c r="I38" s="163"/>
+      <c r="J38" s="164"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="42"/>
@@ -5311,8 +5329,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="161"/>
-      <c r="J39" s="162"/>
+      <c r="I39" s="163"/>
+      <c r="J39" s="164"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="42"/>
@@ -5323,8 +5341,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="161"/>
-      <c r="J40" s="162"/>
+      <c r="I40" s="163"/>
+      <c r="J40" s="164"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="42"/>
@@ -5335,8 +5353,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="161"/>
-      <c r="J41" s="162"/>
+      <c r="I41" s="163"/>
+      <c r="J41" s="164"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="42"/>
@@ -5347,8 +5365,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="161"/>
-      <c r="J42" s="162"/>
+      <c r="I42" s="163"/>
+      <c r="J42" s="164"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="47"/>
@@ -5359,8 +5377,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="163"/>
-      <c r="J43" s="164"/>
+      <c r="I43" s="165"/>
+      <c r="J43" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5388,13 +5406,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5419,13 +5437,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -5433,16 +5451,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="171" t="s">
+      <c r="H1" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="172"/>
-      <c r="J1" s="173" t="str">
+      <c r="I1" s="174"/>
+      <c r="J1" s="175" t="str">
         <f>'Update History'!F1</f>
         <v>CF0143</v>
       </c>
-      <c r="K1" s="174"/>
-      <c r="L1" s="175"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="177"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -5459,11 +5477,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -5471,16 +5489,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="H2" s="171" t="s">
+      <c r="H2" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="172"/>
-      <c r="J2" s="173" t="str">
+      <c r="I2" s="174"/>
+      <c r="J2" s="175" t="str">
         <f>'Update History'!F2</f>
         <v>Danh mục sơ đồ tuyến</v>
       </c>
-      <c r="K2" s="174"/>
-      <c r="L2" s="175"/>
+      <c r="K2" s="176"/>
+      <c r="L2" s="177"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -5553,9 +5571,7 @@
       <c r="B5" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="33">
-        <v>51</v>
-      </c>
+      <c r="C5" s="33"/>
       <c r="D5" s="33">
         <v>1</v>
       </c>
@@ -5587,9 +5603,7 @@
       <c r="B6" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="C6" s="33">
-        <v>51</v>
-      </c>
+      <c r="C6" s="33"/>
       <c r="D6" s="33">
         <v>2</v>
       </c>
@@ -5615,9 +5629,7 @@
       <c r="B7" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="C7" s="33">
-        <v>51</v>
-      </c>
+      <c r="C7" s="33"/>
       <c r="D7" s="33">
         <v>2.1</v>
       </c>
@@ -5649,9 +5661,7 @@
       <c r="B8" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="C8" s="33">
-        <v>51</v>
-      </c>
+      <c r="C8" s="33"/>
       <c r="D8" s="33">
         <v>2.2000000000000002</v>
       </c>
@@ -5679,7 +5689,7 @@
       <c r="N8" s="69"/>
       <c r="O8" s="69"/>
       <c r="P8" s="88" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5689,9 +5699,7 @@
       <c r="B9" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="C9" s="33">
-        <v>51</v>
-      </c>
+      <c r="C9" s="33"/>
       <c r="D9" s="33">
         <v>2.2999999999999998</v>
       </c>
@@ -5727,9 +5735,7 @@
       <c r="B10" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="33">
-        <v>51</v>
-      </c>
+      <c r="C10" s="33"/>
       <c r="D10" s="33">
         <v>2.4</v>
       </c>
@@ -5765,9 +5771,7 @@
       <c r="B11" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="C11" s="33">
-        <v>51</v>
-      </c>
+      <c r="C11" s="33"/>
       <c r="D11" s="33">
         <v>2.5</v>
       </c>
@@ -5796,37 +5800,37 @@
       <c r="O11" s="69"/>
       <c r="P11" s="88"/>
     </row>
-    <row r="12" spans="1:16" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
         <v>8</v>
       </c>
       <c r="B12" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="C12" s="33">
-        <v>51</v>
-      </c>
+      <c r="C12" s="33"/>
       <c r="D12" s="33">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="F12" s="88" t="s">
-        <v>194</v>
-      </c>
-      <c r="G12" s="88"/>
-      <c r="H12" s="40" t="s">
-        <v>202</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="F12" s="143" t="s">
+        <v>294</v>
+      </c>
+      <c r="G12" s="143" t="s">
+        <v>294</v>
+      </c>
+      <c r="H12" s="40"/>
       <c r="I12" s="40"/>
       <c r="J12" s="62"/>
       <c r="K12" s="62"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="88"/>
+      <c r="L12" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="M12" s="143"/>
+      <c r="N12" s="143"/>
+      <c r="O12" s="143"/>
+      <c r="P12" s="143"/>
     </row>
     <row r="13" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
@@ -5835,49 +5839,47 @@
       <c r="B13" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="C13" s="33">
-        <v>51</v>
-      </c>
+      <c r="C13" s="33"/>
       <c r="D13" s="33">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>181</v>
-      </c>
-      <c r="F13" s="88" t="s">
-        <v>195</v>
-      </c>
-      <c r="G13" s="84"/>
-      <c r="H13" s="40" t="s">
-        <v>203</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="F13" s="143" t="s">
+        <v>295</v>
+      </c>
+      <c r="G13" s="143" t="s">
+        <v>295</v>
+      </c>
+      <c r="H13" s="40"/>
       <c r="I13" s="40"/>
       <c r="J13" s="62"/>
       <c r="K13" s="62"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="88"/>
-    </row>
-    <row r="14" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="M13" s="143"/>
+      <c r="N13" s="143"/>
+      <c r="O13" s="143"/>
+      <c r="P13" s="143"/>
+    </row>
+    <row r="14" spans="1:16" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>10</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="33">
-        <v>51</v>
-      </c>
+      <c r="C14" s="33"/>
       <c r="D14" s="33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F14" s="88" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G14" s="88"/>
       <c r="H14" s="40" t="s">
@@ -5887,7 +5889,7 @@
       <c r="J14" s="62"/>
       <c r="K14" s="62"/>
       <c r="L14" s="40"/>
-      <c r="M14" s="62"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="69"/>
       <c r="O14" s="69"/>
       <c r="P14" s="88"/>
@@ -5899,25 +5901,25 @@
       <c r="B15" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="C15" s="33">
-        <v>51</v>
-      </c>
+      <c r="C15" s="33"/>
       <c r="D15" s="33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>287</v>
+        <v>181</v>
       </c>
       <c r="F15" s="88" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="G15" s="84"/>
-      <c r="H15" s="40"/>
+      <c r="H15" s="40" t="s">
+        <v>203</v>
+      </c>
       <c r="I15" s="40"/>
       <c r="J15" s="62"/>
       <c r="K15" s="62"/>
       <c r="L15" s="40"/>
-      <c r="M15" s="62"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="69"/>
       <c r="O15" s="69"/>
       <c r="P15" s="88"/>
@@ -5929,21 +5931,19 @@
       <c r="B16" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="C16" s="33">
-        <v>51</v>
-      </c>
+      <c r="C16" s="33"/>
       <c r="D16" s="33">
-        <v>6.1</v>
+        <v>5</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="F16" s="130" t="s">
-        <v>227</v>
+        <v>182</v>
+      </c>
+      <c r="F16" s="88" t="s">
+        <v>196</v>
       </c>
       <c r="G16" s="88"/>
       <c r="H16" s="40" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I16" s="40"/>
       <c r="J16" s="62"/>
@@ -5961,27 +5961,23 @@
       <c r="B17" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="C17" s="33">
-        <v>51</v>
-      </c>
+      <c r="C17" s="33"/>
       <c r="D17" s="33">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>184</v>
-      </c>
-      <c r="F17" s="130" t="s">
-        <v>228</v>
-      </c>
-      <c r="G17" s="88"/>
-      <c r="H17" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="F17" s="88" t="s">
         <v>204</v>
       </c>
+      <c r="G17" s="84"/>
+      <c r="H17" s="40"/>
       <c r="I17" s="40"/>
       <c r="J17" s="62"/>
-      <c r="K17" s="40"/>
+      <c r="K17" s="62"/>
       <c r="L17" s="40"/>
-      <c r="M17" s="69"/>
+      <c r="M17" s="62"/>
       <c r="N17" s="69"/>
       <c r="O17" s="69"/>
       <c r="P17" s="88"/>
@@ -5993,28 +5989,26 @@
       <c r="B18" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="C18" s="33">
-        <v>51</v>
-      </c>
+      <c r="C18" s="33"/>
       <c r="D18" s="33">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F18" s="130" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G18" s="88"/>
       <c r="H18" s="40" t="s">
         <v>204</v>
       </c>
       <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
       <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="69"/>
       <c r="O18" s="69"/>
       <c r="P18" s="88"/>
     </row>
@@ -6025,29 +6019,27 @@
       <c r="B19" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="C19" s="33">
-        <v>51</v>
-      </c>
+      <c r="C19" s="33"/>
       <c r="D19" s="33">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="E19" s="59" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F19" s="130" t="s">
-        <v>230</v>
-      </c>
-      <c r="G19" s="84"/>
+        <v>228</v>
+      </c>
+      <c r="G19" s="88"/>
       <c r="H19" s="40" t="s">
         <v>204</v>
       </c>
       <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
+      <c r="J19" s="62"/>
       <c r="K19" s="40"/>
       <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="83"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
       <c r="P19" s="88"/>
     </row>
     <row r="20" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -6057,17 +6049,15 @@
       <c r="B20" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="C20" s="33">
-        <v>51</v>
-      </c>
+      <c r="C20" s="33"/>
       <c r="D20" s="33">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="E20" s="59" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F20" s="130" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G20" s="88"/>
       <c r="H20" s="40" t="s">
@@ -6089,19 +6079,17 @@
       <c r="B21" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="C21" s="33">
-        <v>51</v>
-      </c>
+      <c r="C21" s="33"/>
       <c r="D21" s="33">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="E21" s="59" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F21" s="130" t="s">
-        <v>232</v>
-      </c>
-      <c r="G21" s="88"/>
+        <v>230</v>
+      </c>
+      <c r="G21" s="84"/>
       <c r="H21" s="40" t="s">
         <v>204</v>
       </c>
@@ -6111,27 +6099,27 @@
       <c r="L21" s="40"/>
       <c r="M21" s="40"/>
       <c r="N21" s="40"/>
-      <c r="O21" s="69"/>
+      <c r="O21" s="83"/>
       <c r="P21" s="88"/>
     </row>
     <row r="22" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
+      <c r="A22" s="33">
+        <v>18</v>
+      </c>
       <c r="B22" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="C22" s="33">
-        <v>51</v>
-      </c>
+      <c r="C22" s="33"/>
       <c r="D22" s="33">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="E22" s="59" t="s">
-        <v>209</v>
-      </c>
-      <c r="F22" s="123" t="s">
-        <v>210</v>
-      </c>
-      <c r="G22" s="123"/>
+        <v>187</v>
+      </c>
+      <c r="F22" s="130" t="s">
+        <v>231</v>
+      </c>
+      <c r="G22" s="88"/>
       <c r="H22" s="40" t="s">
         <v>204</v>
       </c>
@@ -6141,27 +6129,25 @@
       <c r="L22" s="40"/>
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
-      <c r="O22" s="123"/>
-      <c r="P22" s="123"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="88"/>
     </row>
     <row r="23" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B23" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="C23" s="33">
-        <v>51</v>
-      </c>
+      <c r="C23" s="33"/>
       <c r="D23" s="33">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="E23" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="F23" s="88" t="s">
-        <v>198</v>
+        <v>188</v>
+      </c>
+      <c r="F23" s="130" t="s">
+        <v>232</v>
       </c>
       <c r="G23" s="88"/>
       <c r="H23" s="40" t="s">
@@ -6173,109 +6159,127 @@
       <c r="L23" s="40"/>
       <c r="M23" s="40"/>
       <c r="N23" s="40"/>
-      <c r="O23" s="88"/>
+      <c r="O23" s="69"/>
       <c r="P23" s="88"/>
     </row>
     <row r="24" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="C24" s="33">
-        <v>51</v>
-      </c>
+      <c r="C24" s="33"/>
       <c r="D24" s="33">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="E24" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="F24" s="88" t="s">
-        <v>199</v>
-      </c>
-      <c r="G24" s="88"/>
-      <c r="H24" s="40"/>
+        <v>209</v>
+      </c>
+      <c r="F24" s="123" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" s="123"/>
+      <c r="H24" s="40" t="s">
+        <v>204</v>
+      </c>
       <c r="I24" s="40"/>
       <c r="J24" s="40"/>
       <c r="K24" s="40"/>
       <c r="L24" s="40"/>
       <c r="M24" s="40"/>
       <c r="N24" s="40"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="88"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="123"/>
     </row>
     <row r="25" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
-        <v>20</v>
-      </c>
-      <c r="B25" s="33"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>233</v>
+      </c>
       <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="40"/>
+      <c r="D25" s="33">
+        <v>6.8</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="F25" s="88" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" s="88"/>
+      <c r="H25" s="40" t="s">
+        <v>204</v>
+      </c>
       <c r="I25" s="40"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="61"/>
+      <c r="K25" s="40"/>
       <c r="L25" s="40"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="32"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
     </row>
     <row r="26" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
-        <v>21</v>
-      </c>
-      <c r="B26" s="33"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>233</v>
+      </c>
       <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="83"/>
+      <c r="D26" s="33">
+        <v>6.9</v>
+      </c>
+      <c r="E26" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="F26" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" s="88"/>
       <c r="H26" s="40"/>
       <c r="I26" s="40"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="61"/>
+      <c r="K26" s="40"/>
       <c r="L26" s="40"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="32"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="88"/>
     </row>
     <row r="27" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="40"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
       <c r="H27" s="40"/>
       <c r="I27" s="40"/>
       <c r="J27" s="40"/>
       <c r="K27" s="61"/>
       <c r="L27" s="40"/>
-      <c r="M27" s="62"/>
+      <c r="M27" s="61"/>
       <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
+      <c r="O27" s="40"/>
       <c r="P27" s="32"/>
     </row>
     <row r="28" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="40"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="83"/>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
       <c r="J28" s="40"/>
@@ -6288,13 +6292,13 @@
     </row>
     <row r="29" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
       <c r="G29" s="40"/>
       <c r="H29" s="40"/>
       <c r="I29" s="40"/>
@@ -6308,7 +6312,7 @@
     </row>
     <row r="30" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
@@ -6328,7 +6332,7 @@
     </row>
     <row r="31" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -6348,7 +6352,7 @@
     </row>
     <row r="32" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
@@ -6368,7 +6372,7 @@
     </row>
     <row r="33" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
@@ -6388,7 +6392,7 @@
     </row>
     <row r="34" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="33">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
@@ -6408,7 +6412,7 @@
     </row>
     <row r="35" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -6428,7 +6432,7 @@
     </row>
     <row r="36" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
@@ -6448,7 +6452,7 @@
     </row>
     <row r="37" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="33">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
@@ -6468,7 +6472,7 @@
     </row>
     <row r="38" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="33">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
@@ -6488,7 +6492,7 @@
     </row>
     <row r="39" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="33">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
@@ -6508,7 +6512,7 @@
     </row>
     <row r="40" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="33">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
@@ -6528,7 +6532,7 @@
     </row>
     <row r="41" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="33">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
@@ -6548,7 +6552,7 @@
     </row>
     <row r="42" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="33">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
@@ -6568,7 +6572,7 @@
     </row>
     <row r="43" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="33">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
@@ -6588,7 +6592,7 @@
     </row>
     <row r="44" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="33">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
@@ -6608,7 +6612,7 @@
     </row>
     <row r="45" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="33">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
@@ -6628,7 +6632,7 @@
     </row>
     <row r="46" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="33">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
@@ -6648,7 +6652,7 @@
     </row>
     <row r="47" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="33">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
@@ -6668,7 +6672,7 @@
     </row>
     <row r="48" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="33">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
@@ -6688,14 +6692,14 @@
     </row>
     <row r="49" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="33">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="74"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="40"/>
       <c r="H49" s="40"/>
       <c r="I49" s="40"/>
       <c r="J49" s="40"/>
@@ -6708,13 +6712,13 @@
     </row>
     <row r="50" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="33">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
       <c r="G50" s="40"/>
       <c r="H50" s="40"/>
       <c r="I50" s="40"/>
@@ -6728,7 +6732,7 @@
     </row>
     <row r="51" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="33">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
@@ -6748,7 +6752,7 @@
     </row>
     <row r="52" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="33">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
@@ -6768,14 +6772,14 @@
     </row>
     <row r="53" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="33">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="74"/>
       <c r="F53" s="74"/>
-      <c r="G53" s="40"/>
+      <c r="G53" s="74"/>
       <c r="H53" s="40"/>
       <c r="I53" s="40"/>
       <c r="J53" s="40"/>
@@ -6788,7 +6792,7 @@
     </row>
     <row r="54" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="33">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B54" s="33"/>
       <c r="C54" s="33"/>
@@ -6808,7 +6812,7 @@
     </row>
     <row r="55" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="33">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B55" s="33"/>
       <c r="C55" s="33"/>
@@ -6826,6 +6830,46 @@
       <c r="O55" s="61"/>
       <c r="P55" s="32"/>
     </row>
+    <row r="56" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="33">
+        <v>49</v>
+      </c>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="62"/>
+      <c r="N56" s="61"/>
+      <c r="O56" s="61"/>
+      <c r="P56" s="32"/>
+    </row>
+    <row r="57" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="33">
+        <v>50</v>
+      </c>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="61"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="62"/>
+      <c r="N57" s="61"/>
+      <c r="O57" s="61"/>
+      <c r="P57" s="32"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:E2"/>
@@ -6835,20 +6879,20 @@
     <mergeCell ref="J2:L2"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N26:O55 M25:N25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N28:O57 M27:N27">
       <formula1>"   ,l"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I23:I55 I5:I19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I25:I57 I5:I21">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G27:G55 G5"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L55">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G29:G57 G5"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L57">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5">
       <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Combo Column,Grid Column,Data Column,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H57">
       <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Combo Column,Grid Column,Data Column,DropDown,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7828,7 +7872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I12" sqref="I12:K12"/>
     </sheetView>
   </sheetViews>
@@ -7853,7 +7897,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="187" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="131"/>
@@ -7890,7 +7934,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="181"/>
+      <c r="A2" s="188"/>
       <c r="B2" s="132"/>
       <c r="C2" s="138"/>
       <c r="D2" s="31" t="s">
@@ -7943,15 +7987,15 @@
       <c r="F4" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="150" t="s">
+      <c r="G4" s="151" t="s">
         <v>132</v>
       </c>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150" t="s">
+      <c r="H4" s="151"/>
+      <c r="I4" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
@@ -7968,15 +8012,15 @@
         <v>135</v>
       </c>
       <c r="F5" s="27"/>
-      <c r="G5" s="176" t="s">
+      <c r="G5" s="185" t="s">
         <v>240</v>
       </c>
-      <c r="H5" s="177"/>
-      <c r="I5" s="182" t="s">
-        <v>292</v>
-      </c>
-      <c r="J5" s="183"/>
-      <c r="K5" s="184"/>
+      <c r="H5" s="186"/>
+      <c r="I5" s="178" t="s">
+        <v>285</v>
+      </c>
+      <c r="J5" s="179"/>
+      <c r="K5" s="180"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
@@ -7990,18 +8034,18 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="134" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="183" t="s">
         <v>245</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="178" t="s">
-        <v>246</v>
-      </c>
-      <c r="H6" s="179"/>
-      <c r="I6" s="182" t="s">
-        <v>293</v>
-      </c>
-      <c r="J6" s="183"/>
-      <c r="K6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="178" t="s">
+        <v>286</v>
+      </c>
+      <c r="J6" s="179"/>
+      <c r="K6" s="180"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
@@ -8015,18 +8059,18 @@
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="134" t="s">
+        <v>244</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="183" t="s">
         <v>245</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="178" t="s">
-        <v>246</v>
-      </c>
-      <c r="H7" s="179"/>
-      <c r="I7" s="182" t="s">
-        <v>294</v>
-      </c>
-      <c r="J7" s="183"/>
-      <c r="K7" s="184"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="178" t="s">
+        <v>287</v>
+      </c>
+      <c r="J7" s="179"/>
+      <c r="K7" s="180"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -8043,15 +8087,15 @@
         <v>135</v>
       </c>
       <c r="F8" s="27"/>
-      <c r="G8" s="176" t="s">
+      <c r="G8" s="185" t="s">
         <v>236</v>
       </c>
-      <c r="H8" s="177"/>
-      <c r="I8" s="182" t="s">
-        <v>295</v>
-      </c>
-      <c r="J8" s="183"/>
-      <c r="K8" s="184"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="178" t="s">
+        <v>288</v>
+      </c>
+      <c r="J8" s="179"/>
+      <c r="K8" s="180"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
@@ -8068,15 +8112,15 @@
         <v>135</v>
       </c>
       <c r="F9" s="27"/>
-      <c r="G9" s="178" t="s">
-        <v>278</v>
-      </c>
-      <c r="H9" s="179"/>
-      <c r="I9" s="182" t="s">
-        <v>296</v>
-      </c>
-      <c r="J9" s="183"/>
-      <c r="K9" s="184"/>
+      <c r="G9" s="183" t="s">
+        <v>275</v>
+      </c>
+      <c r="H9" s="184"/>
+      <c r="I9" s="178" t="s">
+        <v>289</v>
+      </c>
+      <c r="J9" s="179"/>
+      <c r="K9" s="180"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
@@ -8093,15 +8137,15 @@
         <v>237</v>
       </c>
       <c r="F10" s="27"/>
-      <c r="G10" s="176" t="s">
+      <c r="G10" s="185" t="s">
         <v>238</v>
       </c>
-      <c r="H10" s="177"/>
-      <c r="I10" s="182" t="s">
-        <v>297</v>
-      </c>
-      <c r="J10" s="183"/>
-      <c r="K10" s="184"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="178" t="s">
+        <v>290</v>
+      </c>
+      <c r="J10" s="179"/>
+      <c r="K10" s="180"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
@@ -8118,15 +8162,15 @@
         <v>135</v>
       </c>
       <c r="F11" s="27"/>
-      <c r="G11" s="176" t="s">
+      <c r="G11" s="185" t="s">
         <v>239</v>
       </c>
-      <c r="H11" s="177"/>
-      <c r="I11" s="182" t="s">
-        <v>298</v>
-      </c>
-      <c r="J11" s="183"/>
-      <c r="K11" s="184"/>
+      <c r="H11" s="186"/>
+      <c r="I11" s="178" t="s">
+        <v>291</v>
+      </c>
+      <c r="J11" s="179"/>
+      <c r="K11" s="180"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
@@ -8137,11 +8181,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="185"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="182"/>
-      <c r="J12" s="183"/>
-      <c r="K12" s="184"/>
+      <c r="G12" s="181"/>
+      <c r="H12" s="182"/>
+      <c r="I12" s="178"/>
+      <c r="J12" s="179"/>
+      <c r="K12" s="180"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
@@ -8152,11 +8196,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="185"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="182"/>
-      <c r="J13" s="183"/>
-      <c r="K13" s="184"/>
+      <c r="G13" s="181"/>
+      <c r="H13" s="182"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="179"/>
+      <c r="K13" s="180"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
@@ -8167,11 +8211,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="182"/>
-      <c r="J14" s="183"/>
-      <c r="K14" s="184"/>
+      <c r="G14" s="181"/>
+      <c r="H14" s="182"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="179"/>
+      <c r="K14" s="180"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -8182,11 +8226,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="184"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="179"/>
+      <c r="K15" s="180"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -8197,11 +8241,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="182"/>
-      <c r="J16" s="183"/>
-      <c r="K16" s="184"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="179"/>
+      <c r="K16" s="180"/>
     </row>
     <row r="17" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -8212,11 +8256,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="182"/>
-      <c r="J17" s="183"/>
-      <c r="K17" s="184"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="178"/>
+      <c r="J17" s="179"/>
+      <c r="K17" s="180"/>
     </row>
     <row r="18" spans="1:11" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -8227,11 +8271,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="186"/>
-      <c r="I18" s="182"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="184"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="182"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="179"/>
+      <c r="K18" s="180"/>
     </row>
     <row r="19" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -8242,11 +8286,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="185"/>
-      <c r="H19" s="186"/>
-      <c r="I19" s="182"/>
-      <c r="J19" s="183"/>
-      <c r="K19" s="184"/>
+      <c r="G19" s="181"/>
+      <c r="H19" s="182"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="179"/>
+      <c r="K19" s="180"/>
     </row>
     <row r="20" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
@@ -8257,11 +8301,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="185"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="182"/>
-      <c r="J20" s="183"/>
-      <c r="K20" s="184"/>
+      <c r="G20" s="181"/>
+      <c r="H20" s="182"/>
+      <c r="I20" s="178"/>
+      <c r="J20" s="179"/>
+      <c r="K20" s="180"/>
     </row>
     <row r="21" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
@@ -8272,11 +8316,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="185"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="183"/>
-      <c r="K21" s="184"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="179"/>
+      <c r="K21" s="180"/>
     </row>
     <row r="22" spans="1:11" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
@@ -8287,11 +8331,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="185"/>
-      <c r="H22" s="186"/>
-      <c r="I22" s="182"/>
-      <c r="J22" s="183"/>
-      <c r="K22" s="184"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="182"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="179"/>
+      <c r="K22" s="180"/>
     </row>
     <row r="23" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
@@ -8302,11 +8346,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="182"/>
-      <c r="J23" s="183"/>
-      <c r="K23" s="184"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="179"/>
+      <c r="K23" s="180"/>
     </row>
     <row r="24" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
@@ -8317,11 +8361,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="182"/>
-      <c r="J24" s="183"/>
-      <c r="K24" s="184"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="179"/>
+      <c r="K24" s="180"/>
     </row>
     <row r="25" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
@@ -8332,11 +8376,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="182"/>
-      <c r="J25" s="183"/>
-      <c r="K25" s="184"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="179"/>
+      <c r="K25" s="180"/>
     </row>
     <row r="26" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
@@ -8347,11 +8391,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="182"/>
-      <c r="J26" s="183"/>
-      <c r="K26" s="184"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="179"/>
+      <c r="K26" s="180"/>
     </row>
     <row r="27" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
@@ -8362,11 +8406,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="182"/>
-      <c r="J27" s="183"/>
-      <c r="K27" s="184"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="179"/>
+      <c r="K27" s="180"/>
     </row>
     <row r="28" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
@@ -8377,11 +8421,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="182"/>
-      <c r="J28" s="183"/>
-      <c r="K28" s="184"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="179"/>
+      <c r="K28" s="180"/>
     </row>
     <row r="29" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
@@ -8392,11 +8436,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="183"/>
-      <c r="K29" s="184"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="179"/>
+      <c r="K29" s="180"/>
     </row>
     <row r="30" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
@@ -8407,11 +8451,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="182"/>
-      <c r="J30" s="183"/>
-      <c r="K30" s="184"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="179"/>
+      <c r="K30" s="180"/>
     </row>
     <row r="31" spans="1:11" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
@@ -8422,11 +8466,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="182"/>
-      <c r="J31" s="183"/>
-      <c r="K31" s="184"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="179"/>
+      <c r="K31" s="180"/>
     </row>
     <row r="32" spans="1:11" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33">
@@ -8437,11 +8481,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="182"/>
-      <c r="J32" s="183"/>
-      <c r="K32" s="184"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="179"/>
+      <c r="K32" s="180"/>
     </row>
     <row r="33" spans="1:19" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A33" s="33">
@@ -8452,11 +8496,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="144"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="182"/>
-      <c r="J33" s="183"/>
-      <c r="K33" s="184"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="178"/>
+      <c r="J33" s="179"/>
+      <c r="K33" s="180"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -8474,11 +8518,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="144"/>
-      <c r="H34" s="146"/>
-      <c r="I34" s="182"/>
-      <c r="J34" s="183"/>
-      <c r="K34" s="184"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="147"/>
+      <c r="I34" s="178"/>
+      <c r="J34" s="179"/>
+      <c r="K34" s="180"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -8496,11 +8540,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="144"/>
-      <c r="H35" s="146"/>
-      <c r="I35" s="182"/>
-      <c r="J35" s="183"/>
-      <c r="K35" s="184"/>
+      <c r="G35" s="145"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="178"/>
+      <c r="J35" s="179"/>
+      <c r="K35" s="180"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -8518,11 +8562,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="144"/>
-      <c r="H36" s="146"/>
-      <c r="I36" s="182"/>
-      <c r="J36" s="183"/>
-      <c r="K36" s="184"/>
+      <c r="G36" s="145"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="178"/>
+      <c r="J36" s="179"/>
+      <c r="K36" s="180"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -8540,11 +8584,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="144"/>
-      <c r="H37" s="146"/>
-      <c r="I37" s="182"/>
-      <c r="J37" s="183"/>
-      <c r="K37" s="184"/>
+      <c r="G37" s="145"/>
+      <c r="H37" s="147"/>
+      <c r="I37" s="178"/>
+      <c r="J37" s="179"/>
+      <c r="K37" s="180"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -8562,11 +8606,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="144"/>
-      <c r="H38" s="146"/>
-      <c r="I38" s="182"/>
-      <c r="J38" s="183"/>
-      <c r="K38" s="184"/>
+      <c r="G38" s="145"/>
+      <c r="H38" s="147"/>
+      <c r="I38" s="178"/>
+      <c r="J38" s="179"/>
+      <c r="K38" s="180"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -8584,11 +8628,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="144"/>
-      <c r="H39" s="146"/>
-      <c r="I39" s="182"/>
-      <c r="J39" s="183"/>
-      <c r="K39" s="184"/>
+      <c r="G39" s="145"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="178"/>
+      <c r="J39" s="179"/>
+      <c r="K39" s="180"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -8606,11 +8650,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="144"/>
-      <c r="H40" s="146"/>
-      <c r="I40" s="182"/>
-      <c r="J40" s="183"/>
-      <c r="K40" s="184"/>
+      <c r="G40" s="145"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="178"/>
+      <c r="J40" s="179"/>
+      <c r="K40" s="180"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -8628,11 +8672,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="144"/>
-      <c r="H41" s="146"/>
-      <c r="I41" s="182"/>
-      <c r="J41" s="183"/>
-      <c r="K41" s="184"/>
+      <c r="G41" s="145"/>
+      <c r="H41" s="147"/>
+      <c r="I41" s="178"/>
+      <c r="J41" s="179"/>
+      <c r="K41" s="180"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -8650,11 +8694,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="144"/>
-      <c r="H42" s="146"/>
-      <c r="I42" s="182"/>
-      <c r="J42" s="183"/>
-      <c r="K42" s="184"/>
+      <c r="G42" s="145"/>
+      <c r="H42" s="147"/>
+      <c r="I42" s="178"/>
+      <c r="J42" s="179"/>
+      <c r="K42" s="180"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -8672,11 +8716,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="144"/>
-      <c r="H43" s="146"/>
-      <c r="I43" s="182"/>
-      <c r="J43" s="183"/>
-      <c r="K43" s="184"/>
+      <c r="G43" s="145"/>
+      <c r="H43" s="147"/>
+      <c r="I43" s="178"/>
+      <c r="J43" s="179"/>
+      <c r="K43" s="180"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -8694,11 +8738,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="144"/>
-      <c r="H44" s="146"/>
-      <c r="I44" s="182"/>
-      <c r="J44" s="183"/>
-      <c r="K44" s="184"/>
+      <c r="G44" s="145"/>
+      <c r="H44" s="147"/>
+      <c r="I44" s="178"/>
+      <c r="J44" s="179"/>
+      <c r="K44" s="180"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -8716,11 +8760,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="144"/>
-      <c r="H45" s="146"/>
-      <c r="I45" s="182"/>
-      <c r="J45" s="183"/>
-      <c r="K45" s="184"/>
+      <c r="G45" s="145"/>
+      <c r="H45" s="147"/>
+      <c r="I45" s="178"/>
+      <c r="J45" s="179"/>
+      <c r="K45" s="180"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -8738,11 +8782,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="144"/>
-      <c r="H46" s="146"/>
-      <c r="I46" s="182"/>
-      <c r="J46" s="183"/>
-      <c r="K46" s="184"/>
+      <c r="G46" s="145"/>
+      <c r="H46" s="147"/>
+      <c r="I46" s="178"/>
+      <c r="J46" s="179"/>
+      <c r="K46" s="180"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -8760,11 +8804,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="144"/>
-      <c r="H47" s="146"/>
-      <c r="I47" s="182"/>
-      <c r="J47" s="183"/>
-      <c r="K47" s="184"/>
+      <c r="G47" s="145"/>
+      <c r="H47" s="147"/>
+      <c r="I47" s="178"/>
+      <c r="J47" s="179"/>
+      <c r="K47" s="180"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -8782,11 +8826,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="144"/>
-      <c r="H48" s="146"/>
-      <c r="I48" s="182"/>
-      <c r="J48" s="183"/>
-      <c r="K48" s="184"/>
+      <c r="G48" s="145"/>
+      <c r="H48" s="147"/>
+      <c r="I48" s="178"/>
+      <c r="J48" s="179"/>
+      <c r="K48" s="180"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -8804,11 +8848,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="144"/>
-      <c r="H49" s="146"/>
-      <c r="I49" s="182"/>
-      <c r="J49" s="183"/>
-      <c r="K49" s="184"/>
+      <c r="G49" s="145"/>
+      <c r="H49" s="147"/>
+      <c r="I49" s="178"/>
+      <c r="J49" s="179"/>
+      <c r="K49" s="180"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -8826,11 +8870,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="144"/>
-      <c r="H50" s="146"/>
-      <c r="I50" s="182"/>
-      <c r="J50" s="183"/>
-      <c r="K50" s="184"/>
+      <c r="G50" s="145"/>
+      <c r="H50" s="147"/>
+      <c r="I50" s="178"/>
+      <c r="J50" s="179"/>
+      <c r="K50" s="180"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -8848,11 +8892,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="144"/>
-      <c r="H51" s="146"/>
-      <c r="I51" s="182"/>
-      <c r="J51" s="183"/>
-      <c r="K51" s="184"/>
+      <c r="G51" s="145"/>
+      <c r="H51" s="147"/>
+      <c r="I51" s="178"/>
+      <c r="J51" s="179"/>
+      <c r="K51" s="180"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -8870,11 +8914,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="144"/>
-      <c r="H52" s="146"/>
-      <c r="I52" s="182"/>
-      <c r="J52" s="183"/>
-      <c r="K52" s="184"/>
+      <c r="G52" s="145"/>
+      <c r="H52" s="147"/>
+      <c r="I52" s="178"/>
+      <c r="J52" s="179"/>
+      <c r="K52" s="180"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -8892,11 +8936,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="144"/>
-      <c r="H53" s="146"/>
-      <c r="I53" s="182"/>
-      <c r="J53" s="183"/>
-      <c r="K53" s="184"/>
+      <c r="G53" s="145"/>
+      <c r="H53" s="147"/>
+      <c r="I53" s="178"/>
+      <c r="J53" s="179"/>
+      <c r="K53" s="180"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -8914,11 +8958,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="144"/>
-      <c r="H54" s="146"/>
-      <c r="I54" s="182"/>
-      <c r="J54" s="183"/>
-      <c r="K54" s="184"/>
+      <c r="G54" s="145"/>
+      <c r="H54" s="147"/>
+      <c r="I54" s="178"/>
+      <c r="J54" s="179"/>
+      <c r="K54" s="180"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -8936,11 +8980,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="144"/>
-      <c r="H55" s="146"/>
-      <c r="I55" s="182"/>
-      <c r="J55" s="183"/>
-      <c r="K55" s="184"/>
+      <c r="G55" s="145"/>
+      <c r="H55" s="147"/>
+      <c r="I55" s="178"/>
+      <c r="J55" s="179"/>
+      <c r="K55" s="180"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -8958,11 +9002,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="144"/>
-      <c r="H56" s="146"/>
-      <c r="I56" s="182"/>
-      <c r="J56" s="183"/>
-      <c r="K56" s="184"/>
+      <c r="G56" s="145"/>
+      <c r="H56" s="147"/>
+      <c r="I56" s="178"/>
+      <c r="J56" s="179"/>
+      <c r="K56" s="180"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -8980,11 +9024,11 @@
       <c r="D57" s="33"/>
       <c r="E57" s="33"/>
       <c r="F57" s="32"/>
-      <c r="G57" s="144"/>
-      <c r="H57" s="146"/>
-      <c r="I57" s="182"/>
-      <c r="J57" s="183"/>
-      <c r="K57" s="184"/>
+      <c r="G57" s="145"/>
+      <c r="H57" s="147"/>
+      <c r="I57" s="178"/>
+      <c r="J57" s="179"/>
+      <c r="K57" s="180"/>
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
@@ -8996,6 +9040,101 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="109">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="I50:K50"/>
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="G54:H54"/>
     <mergeCell ref="G55:H55"/>
@@ -9010,101 +9149,6 @@
     <mergeCell ref="I55:K55"/>
     <mergeCell ref="I56:K56"/>
     <mergeCell ref="I57:K57"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F57">
@@ -9127,7 +9171,7 @@
   <dimension ref="A1:U1048468"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9137,7 +9181,7 @@
     <col min="3" max="3" width="8.85546875" style="22" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="22" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="25.42578125" style="22" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" style="22" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" style="22" customWidth="1"/>
@@ -9155,24 +9199,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="190" t="str">
+      <c r="J1" s="192" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="190"/>
+      <c r="K1" s="192"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -9200,22 +9244,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="190" t="str">
+      <c r="J2" s="192" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="K2" s="190"/>
+      <c r="K2" s="192"/>
       <c r="L2" s="26" t="s">
         <v>50</v>
       </c>
@@ -9273,12 +9317,12 @@
       <c r="J4" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="156" t="s">
+      <c r="K4" s="158" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="157"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="159"/>
       <c r="O4" s="39" t="s">
         <v>57</v>
       </c>
@@ -9295,7 +9339,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="34" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="34" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>1</v>
       </c>
@@ -9306,13 +9350,13 @@
         <v>51</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="G5" s="124" t="s">
         <v>211</v>
@@ -9326,17 +9370,17 @@
       <c r="J5" s="126" t="s">
         <v>213</v>
       </c>
-      <c r="K5" s="147" t="s">
-        <v>241</v>
-      </c>
-      <c r="L5" s="148"/>
-      <c r="M5" s="148"/>
-      <c r="N5" s="149"/>
+      <c r="K5" s="148" t="s">
+        <v>301</v>
+      </c>
+      <c r="L5" s="149"/>
+      <c r="M5" s="149"/>
+      <c r="N5" s="150"/>
       <c r="O5" s="129" t="s">
         <v>135</v>
       </c>
       <c r="P5" s="129" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="76" t="s">
         <v>106</v>
@@ -9345,7 +9389,7 @@
         <v>219</v>
       </c>
       <c r="S5" s="88" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T5" s="64"/>
       <c r="U5" s="64"/>
@@ -9375,17 +9419,17 @@
       <c r="J6" s="126" t="s">
         <v>215</v>
       </c>
-      <c r="K6" s="147" t="s">
-        <v>247</v>
-      </c>
-      <c r="L6" s="148"/>
-      <c r="M6" s="148"/>
-      <c r="N6" s="149"/>
-      <c r="O6" s="140" t="s">
-        <v>283</v>
-      </c>
-      <c r="P6" s="140" t="s">
-        <v>284</v>
+      <c r="K6" s="148" t="s">
+        <v>298</v>
+      </c>
+      <c r="L6" s="149"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="150"/>
+      <c r="O6" s="144" t="s">
+        <v>299</v>
+      </c>
+      <c r="P6" s="144" t="s">
+        <v>300</v>
       </c>
       <c r="Q6" s="76" t="s">
         <v>197</v>
@@ -9394,7 +9438,7 @@
         <v>152</v>
       </c>
       <c r="S6" s="88" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="T6" s="64"/>
       <c r="U6" s="64"/>
@@ -9408,7 +9452,7 @@
         <v>51</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
@@ -9424,17 +9468,17 @@
       <c r="J7" s="126" t="s">
         <v>216</v>
       </c>
-      <c r="K7" s="147" t="s">
-        <v>248</v>
-      </c>
-      <c r="L7" s="148"/>
-      <c r="M7" s="148"/>
-      <c r="N7" s="149"/>
+      <c r="K7" s="148" t="s">
+        <v>246</v>
+      </c>
+      <c r="L7" s="149"/>
+      <c r="M7" s="149"/>
+      <c r="N7" s="150"/>
       <c r="O7" s="129" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P7" s="129" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="76" t="s">
         <v>197</v>
@@ -9443,7 +9487,7 @@
         <v>152</v>
       </c>
       <c r="S7" s="125" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="T7" s="64"/>
       <c r="U7" s="64"/>
@@ -9459,7 +9503,7 @@
         <v>51</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
@@ -9475,17 +9519,17 @@
       <c r="J8" s="126" t="s">
         <v>218</v>
       </c>
-      <c r="K8" s="147" t="s">
+      <c r="K8" s="148" t="s">
+        <v>247</v>
+      </c>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="129" t="s">
+        <v>248</v>
+      </c>
+      <c r="P8" s="144" t="s">
         <v>249</v>
-      </c>
-      <c r="L8" s="148"/>
-      <c r="M8" s="148"/>
-      <c r="N8" s="149"/>
-      <c r="O8" s="129" t="s">
-        <v>250</v>
-      </c>
-      <c r="P8" s="129" t="s">
-        <v>252</v>
       </c>
       <c r="Q8" s="76" t="s">
         <v>197</v>
@@ -9494,7 +9538,7 @@
         <v>152</v>
       </c>
       <c r="S8" s="130" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="T8" s="64"/>
       <c r="U8" s="64"/>
@@ -9524,17 +9568,17 @@
       <c r="J9" s="126" t="s">
         <v>223</v>
       </c>
-      <c r="K9" s="147" t="s">
-        <v>289</v>
-      </c>
-      <c r="L9" s="148"/>
-      <c r="M9" s="148"/>
-      <c r="N9" s="149"/>
+      <c r="K9" s="148" t="s">
+        <v>282</v>
+      </c>
+      <c r="L9" s="149"/>
+      <c r="M9" s="149"/>
+      <c r="N9" s="150"/>
       <c r="O9" s="142" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="P9" s="142" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="Q9" s="76" t="s">
         <v>210</v>
@@ -9543,7 +9587,7 @@
         <v>152</v>
       </c>
       <c r="S9" s="82" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
@@ -9561,10 +9605,10 @@
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
       <c r="J10" s="82"/>
-      <c r="K10" s="187"/>
-      <c r="L10" s="188"/>
-      <c r="M10" s="188"/>
-      <c r="N10" s="189"/>
+      <c r="K10" s="189"/>
+      <c r="L10" s="190"/>
+      <c r="M10" s="190"/>
+      <c r="N10" s="191"/>
       <c r="O10" s="140"/>
       <c r="P10" s="140"/>
       <c r="Q10" s="76"/>
@@ -9586,10 +9630,10 @@
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="82"/>
-      <c r="K11" s="187"/>
-      <c r="L11" s="188"/>
-      <c r="M11" s="188"/>
-      <c r="N11" s="189"/>
+      <c r="K11" s="189"/>
+      <c r="L11" s="190"/>
+      <c r="M11" s="190"/>
+      <c r="N11" s="191"/>
       <c r="O11" s="89"/>
       <c r="P11" s="89"/>
       <c r="Q11" s="76"/>
@@ -9611,10 +9655,10 @@
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
       <c r="J12" s="82"/>
-      <c r="K12" s="187"/>
-      <c r="L12" s="188"/>
-      <c r="M12" s="188"/>
-      <c r="N12" s="189"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="190"/>
+      <c r="M12" s="190"/>
+      <c r="N12" s="191"/>
       <c r="O12" s="89"/>
       <c r="P12" s="89"/>
       <c r="Q12" s="76"/>
@@ -9636,10 +9680,10 @@
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="J13" s="82"/>
-      <c r="K13" s="187"/>
-      <c r="L13" s="188"/>
-      <c r="M13" s="188"/>
-      <c r="N13" s="189"/>
+      <c r="K13" s="189"/>
+      <c r="L13" s="190"/>
+      <c r="M13" s="190"/>
+      <c r="N13" s="191"/>
       <c r="O13" s="85"/>
       <c r="P13" s="85"/>
       <c r="Q13" s="76"/>
@@ -9661,10 +9705,10 @@
       <c r="H14" s="63"/>
       <c r="I14" s="63"/>
       <c r="J14" s="82"/>
-      <c r="K14" s="187"/>
-      <c r="L14" s="188"/>
-      <c r="M14" s="188"/>
-      <c r="N14" s="189"/>
+      <c r="K14" s="189"/>
+      <c r="L14" s="190"/>
+      <c r="M14" s="190"/>
+      <c r="N14" s="191"/>
       <c r="O14" s="85"/>
       <c r="P14" s="85"/>
       <c r="Q14" s="76"/>
@@ -9686,10 +9730,10 @@
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
       <c r="J15" s="82"/>
-      <c r="K15" s="187"/>
-      <c r="L15" s="188"/>
-      <c r="M15" s="188"/>
-      <c r="N15" s="189"/>
+      <c r="K15" s="189"/>
+      <c r="L15" s="190"/>
+      <c r="M15" s="190"/>
+      <c r="N15" s="191"/>
       <c r="O15" s="81"/>
       <c r="P15" s="81"/>
       <c r="Q15" s="76"/>
@@ -9711,10 +9755,10 @@
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
       <c r="J16" s="82"/>
-      <c r="K16" s="187"/>
-      <c r="L16" s="188"/>
-      <c r="M16" s="188"/>
-      <c r="N16" s="189"/>
+      <c r="K16" s="189"/>
+      <c r="L16" s="190"/>
+      <c r="M16" s="190"/>
+      <c r="N16" s="191"/>
       <c r="O16" s="81"/>
       <c r="P16" s="81"/>
       <c r="Q16" s="76"/>
@@ -9736,10 +9780,10 @@
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="187"/>
-      <c r="L17" s="188"/>
-      <c r="M17" s="188"/>
-      <c r="N17" s="189"/>
+      <c r="K17" s="189"/>
+      <c r="L17" s="190"/>
+      <c r="M17" s="190"/>
+      <c r="N17" s="191"/>
       <c r="O17" s="72"/>
       <c r="P17" s="60"/>
       <c r="Q17" s="76"/>
@@ -9761,10 +9805,10 @@
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="187"/>
-      <c r="L18" s="188"/>
-      <c r="M18" s="188"/>
-      <c r="N18" s="189"/>
+      <c r="K18" s="189"/>
+      <c r="L18" s="190"/>
+      <c r="M18" s="190"/>
+      <c r="N18" s="191"/>
       <c r="O18" s="60"/>
       <c r="P18" s="60"/>
       <c r="Q18" s="76"/>
@@ -9786,10 +9830,10 @@
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="187"/>
-      <c r="L19" s="188"/>
-      <c r="M19" s="188"/>
-      <c r="N19" s="189"/>
+      <c r="K19" s="189"/>
+      <c r="L19" s="190"/>
+      <c r="M19" s="190"/>
+      <c r="N19" s="191"/>
       <c r="O19" s="60"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="76"/>
@@ -9811,10 +9855,10 @@
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="187"/>
-      <c r="L20" s="188"/>
-      <c r="M20" s="188"/>
-      <c r="N20" s="189"/>
+      <c r="K20" s="189"/>
+      <c r="L20" s="190"/>
+      <c r="M20" s="190"/>
+      <c r="N20" s="191"/>
       <c r="O20" s="60"/>
       <c r="P20" s="60"/>
       <c r="Q20" s="76"/>
@@ -9836,10 +9880,10 @@
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="187"/>
-      <c r="L21" s="188"/>
-      <c r="M21" s="188"/>
-      <c r="N21" s="189"/>
+      <c r="K21" s="189"/>
+      <c r="L21" s="190"/>
+      <c r="M21" s="190"/>
+      <c r="N21" s="191"/>
       <c r="O21" s="60"/>
       <c r="P21" s="60"/>
       <c r="Q21" s="76"/>
@@ -9861,10 +9905,10 @@
       <c r="H22" s="63"/>
       <c r="I22" s="63"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="187"/>
-      <c r="L22" s="188"/>
-      <c r="M22" s="188"/>
-      <c r="N22" s="189"/>
+      <c r="K22" s="189"/>
+      <c r="L22" s="190"/>
+      <c r="M22" s="190"/>
+      <c r="N22" s="191"/>
       <c r="O22" s="60"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="76"/>
@@ -9886,10 +9930,10 @@
       <c r="H23" s="63"/>
       <c r="I23" s="63"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="187"/>
-      <c r="L23" s="188"/>
-      <c r="M23" s="188"/>
-      <c r="N23" s="189"/>
+      <c r="K23" s="189"/>
+      <c r="L23" s="190"/>
+      <c r="M23" s="190"/>
+      <c r="N23" s="191"/>
       <c r="O23" s="60"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="76"/>
@@ -9911,10 +9955,10 @@
       <c r="H24" s="63"/>
       <c r="I24" s="63"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="187"/>
-      <c r="L24" s="188"/>
-      <c r="M24" s="188"/>
-      <c r="N24" s="189"/>
+      <c r="K24" s="189"/>
+      <c r="L24" s="190"/>
+      <c r="M24" s="190"/>
+      <c r="N24" s="191"/>
       <c r="O24" s="60"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="76"/>
@@ -9936,10 +9980,10 @@
       <c r="H25" s="63"/>
       <c r="I25" s="63"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="187"/>
-      <c r="L25" s="188"/>
-      <c r="M25" s="188"/>
-      <c r="N25" s="189"/>
+      <c r="K25" s="189"/>
+      <c r="L25" s="190"/>
+      <c r="M25" s="190"/>
+      <c r="N25" s="191"/>
       <c r="O25" s="60"/>
       <c r="P25" s="60"/>
       <c r="Q25" s="76"/>
@@ -9961,10 +10005,10 @@
       <c r="H26" s="63"/>
       <c r="I26" s="63"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="187"/>
-      <c r="L26" s="188"/>
-      <c r="M26" s="188"/>
-      <c r="N26" s="189"/>
+      <c r="K26" s="189"/>
+      <c r="L26" s="190"/>
+      <c r="M26" s="190"/>
+      <c r="N26" s="191"/>
       <c r="O26" s="60"/>
       <c r="P26" s="60"/>
       <c r="Q26" s="76"/>
@@ -9986,10 +10030,10 @@
       <c r="H27" s="63"/>
       <c r="I27" s="63"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="187"/>
-      <c r="L27" s="188"/>
-      <c r="M27" s="188"/>
-      <c r="N27" s="189"/>
+      <c r="K27" s="189"/>
+      <c r="L27" s="190"/>
+      <c r="M27" s="190"/>
+      <c r="N27" s="191"/>
       <c r="O27" s="60"/>
       <c r="P27" s="60"/>
       <c r="Q27" s="76"/>
@@ -10011,10 +10055,10 @@
       <c r="H28" s="63"/>
       <c r="I28" s="63"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="187"/>
-      <c r="L28" s="188"/>
-      <c r="M28" s="188"/>
-      <c r="N28" s="189"/>
+      <c r="K28" s="189"/>
+      <c r="L28" s="190"/>
+      <c r="M28" s="190"/>
+      <c r="N28" s="191"/>
       <c r="O28" s="60"/>
       <c r="P28" s="60"/>
       <c r="Q28" s="76"/>
@@ -10036,10 +10080,10 @@
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="187"/>
-      <c r="L29" s="188"/>
-      <c r="M29" s="188"/>
-      <c r="N29" s="189"/>
+      <c r="K29" s="189"/>
+      <c r="L29" s="190"/>
+      <c r="M29" s="190"/>
+      <c r="N29" s="191"/>
       <c r="O29" s="60"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="76"/>
@@ -10061,10 +10105,10 @@
       <c r="H30" s="63"/>
       <c r="I30" s="63"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="187"/>
-      <c r="L30" s="188"/>
-      <c r="M30" s="188"/>
-      <c r="N30" s="189"/>
+      <c r="K30" s="189"/>
+      <c r="L30" s="190"/>
+      <c r="M30" s="190"/>
+      <c r="N30" s="191"/>
       <c r="O30" s="60"/>
       <c r="P30" s="60"/>
       <c r="Q30" s="76"/>
@@ -10086,10 +10130,10 @@
       <c r="H31" s="63"/>
       <c r="I31" s="63"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="187"/>
-      <c r="L31" s="188"/>
-      <c r="M31" s="188"/>
-      <c r="N31" s="189"/>
+      <c r="K31" s="189"/>
+      <c r="L31" s="190"/>
+      <c r="M31" s="190"/>
+      <c r="N31" s="191"/>
       <c r="O31" s="60"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="76"/>
@@ -10111,10 +10155,10 @@
       <c r="H32" s="63"/>
       <c r="I32" s="63"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="187"/>
-      <c r="L32" s="188"/>
-      <c r="M32" s="188"/>
-      <c r="N32" s="189"/>
+      <c r="K32" s="189"/>
+      <c r="L32" s="190"/>
+      <c r="M32" s="190"/>
+      <c r="N32" s="191"/>
       <c r="O32" s="60"/>
       <c r="P32" s="60"/>
       <c r="Q32" s="76"/>
@@ -10136,10 +10180,10 @@
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="187"/>
-      <c r="L33" s="188"/>
-      <c r="M33" s="188"/>
-      <c r="N33" s="189"/>
+      <c r="K33" s="189"/>
+      <c r="L33" s="190"/>
+      <c r="M33" s="190"/>
+      <c r="N33" s="191"/>
       <c r="O33" s="60"/>
       <c r="P33" s="60"/>
       <c r="Q33" s="76"/>
@@ -10161,10 +10205,10 @@
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
       <c r="J34" s="40"/>
-      <c r="K34" s="187"/>
-      <c r="L34" s="188"/>
-      <c r="M34" s="188"/>
-      <c r="N34" s="189"/>
+      <c r="K34" s="189"/>
+      <c r="L34" s="190"/>
+      <c r="M34" s="190"/>
+      <c r="N34" s="191"/>
       <c r="O34" s="60"/>
       <c r="P34" s="60"/>
       <c r="Q34" s="76"/>
@@ -10186,10 +10230,10 @@
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
       <c r="J35" s="82"/>
-      <c r="K35" s="187"/>
-      <c r="L35" s="188"/>
-      <c r="M35" s="188"/>
-      <c r="N35" s="189"/>
+      <c r="K35" s="189"/>
+      <c r="L35" s="190"/>
+      <c r="M35" s="190"/>
+      <c r="N35" s="191"/>
       <c r="O35" s="85"/>
       <c r="P35" s="85"/>
       <c r="Q35" s="76"/>
@@ -10211,10 +10255,10 @@
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="187"/>
-      <c r="L36" s="188"/>
-      <c r="M36" s="188"/>
-      <c r="N36" s="189"/>
+      <c r="K36" s="189"/>
+      <c r="L36" s="190"/>
+      <c r="M36" s="190"/>
+      <c r="N36" s="191"/>
       <c r="O36" s="60"/>
       <c r="P36" s="60"/>
       <c r="Q36" s="76"/>
@@ -10236,10 +10280,10 @@
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="187"/>
-      <c r="L37" s="188"/>
-      <c r="M37" s="188"/>
-      <c r="N37" s="189"/>
+      <c r="K37" s="189"/>
+      <c r="L37" s="190"/>
+      <c r="M37" s="190"/>
+      <c r="N37" s="191"/>
       <c r="O37" s="60"/>
       <c r="P37" s="60"/>
       <c r="Q37" s="76"/>
@@ -10261,10 +10305,10 @@
       <c r="H38" s="63"/>
       <c r="I38" s="63"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="187"/>
-      <c r="L38" s="188"/>
-      <c r="M38" s="188"/>
-      <c r="N38" s="189"/>
+      <c r="K38" s="189"/>
+      <c r="L38" s="190"/>
+      <c r="M38" s="190"/>
+      <c r="N38" s="191"/>
       <c r="O38" s="60"/>
       <c r="P38" s="60"/>
       <c r="Q38" s="76"/>
@@ -10286,10 +10330,10 @@
       <c r="H39" s="63"/>
       <c r="I39" s="63"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="187"/>
-      <c r="L39" s="188"/>
-      <c r="M39" s="188"/>
-      <c r="N39" s="189"/>
+      <c r="K39" s="189"/>
+      <c r="L39" s="190"/>
+      <c r="M39" s="190"/>
+      <c r="N39" s="191"/>
       <c r="O39" s="60"/>
       <c r="P39" s="60"/>
       <c r="Q39" s="76"/>
@@ -10311,10 +10355,10 @@
       <c r="H40" s="63"/>
       <c r="I40" s="63"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="187"/>
-      <c r="L40" s="188"/>
-      <c r="M40" s="188"/>
-      <c r="N40" s="189"/>
+      <c r="K40" s="189"/>
+      <c r="L40" s="190"/>
+      <c r="M40" s="190"/>
+      <c r="N40" s="191"/>
       <c r="O40" s="60"/>
       <c r="P40" s="60"/>
       <c r="Q40" s="76"/>
@@ -10336,10 +10380,10 @@
       <c r="H41" s="63"/>
       <c r="I41" s="63"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="187"/>
-      <c r="L41" s="188"/>
-      <c r="M41" s="188"/>
-      <c r="N41" s="189"/>
+      <c r="K41" s="189"/>
+      <c r="L41" s="190"/>
+      <c r="M41" s="190"/>
+      <c r="N41" s="191"/>
       <c r="O41" s="74"/>
       <c r="P41" s="74"/>
       <c r="Q41" s="76"/>
@@ -10361,10 +10405,10 @@
       <c r="H42" s="63"/>
       <c r="I42" s="63"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="187"/>
-      <c r="L42" s="188"/>
-      <c r="M42" s="188"/>
-      <c r="N42" s="189"/>
+      <c r="K42" s="189"/>
+      <c r="L42" s="190"/>
+      <c r="M42" s="190"/>
+      <c r="N42" s="191"/>
       <c r="O42" s="74"/>
       <c r="P42" s="74"/>
       <c r="Q42" s="76"/>
@@ -10386,10 +10430,10 @@
       <c r="H43" s="63"/>
       <c r="I43" s="63"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="187"/>
-      <c r="L43" s="188"/>
-      <c r="M43" s="188"/>
-      <c r="N43" s="189"/>
+      <c r="K43" s="189"/>
+      <c r="L43" s="190"/>
+      <c r="M43" s="190"/>
+      <c r="N43" s="191"/>
       <c r="O43" s="74"/>
       <c r="P43" s="74"/>
       <c r="Q43" s="76"/>
@@ -10411,10 +10455,10 @@
       <c r="H44" s="63"/>
       <c r="I44" s="63"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="187"/>
-      <c r="L44" s="188"/>
-      <c r="M44" s="188"/>
-      <c r="N44" s="189"/>
+      <c r="K44" s="189"/>
+      <c r="L44" s="190"/>
+      <c r="M44" s="190"/>
+      <c r="N44" s="191"/>
       <c r="O44" s="74"/>
       <c r="P44" s="74"/>
       <c r="Q44" s="76"/>
@@ -10436,10 +10480,10 @@
       <c r="H45" s="63"/>
       <c r="I45" s="63"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="187"/>
-      <c r="L45" s="188"/>
-      <c r="M45" s="188"/>
-      <c r="N45" s="189"/>
+      <c r="K45" s="189"/>
+      <c r="L45" s="190"/>
+      <c r="M45" s="190"/>
+      <c r="N45" s="191"/>
       <c r="O45" s="74"/>
       <c r="P45" s="74"/>
       <c r="Q45" s="76"/>
@@ -10461,10 +10505,10 @@
       <c r="H46" s="63"/>
       <c r="I46" s="63"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="187"/>
-      <c r="L46" s="188"/>
-      <c r="M46" s="188"/>
-      <c r="N46" s="189"/>
+      <c r="K46" s="189"/>
+      <c r="L46" s="190"/>
+      <c r="M46" s="190"/>
+      <c r="N46" s="191"/>
       <c r="O46" s="74"/>
       <c r="P46" s="74"/>
       <c r="Q46" s="76"/>
@@ -10486,10 +10530,10 @@
       <c r="H47" s="63"/>
       <c r="I47" s="63"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="187"/>
-      <c r="L47" s="188"/>
-      <c r="M47" s="188"/>
-      <c r="N47" s="189"/>
+      <c r="K47" s="189"/>
+      <c r="L47" s="190"/>
+      <c r="M47" s="190"/>
+      <c r="N47" s="191"/>
       <c r="O47" s="74"/>
       <c r="P47" s="74"/>
       <c r="Q47" s="76"/>
@@ -10511,10 +10555,10 @@
       <c r="H48" s="63"/>
       <c r="I48" s="63"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="187"/>
-      <c r="L48" s="188"/>
-      <c r="M48" s="188"/>
-      <c r="N48" s="189"/>
+      <c r="K48" s="189"/>
+      <c r="L48" s="190"/>
+      <c r="M48" s="190"/>
+      <c r="N48" s="191"/>
       <c r="O48" s="74"/>
       <c r="P48" s="74"/>
       <c r="Q48" s="76"/>
@@ -10536,10 +10580,10 @@
       <c r="H49" s="63"/>
       <c r="I49" s="63"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="187"/>
-      <c r="L49" s="188"/>
-      <c r="M49" s="188"/>
-      <c r="N49" s="189"/>
+      <c r="K49" s="189"/>
+      <c r="L49" s="190"/>
+      <c r="M49" s="190"/>
+      <c r="N49" s="191"/>
       <c r="O49" s="74"/>
       <c r="P49" s="74"/>
       <c r="Q49" s="76"/>
@@ -10561,10 +10605,10 @@
       <c r="H50" s="63"/>
       <c r="I50" s="63"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="187"/>
-      <c r="L50" s="188"/>
-      <c r="M50" s="188"/>
-      <c r="N50" s="189"/>
+      <c r="K50" s="189"/>
+      <c r="L50" s="190"/>
+      <c r="M50" s="190"/>
+      <c r="N50" s="191"/>
       <c r="O50" s="74"/>
       <c r="P50" s="74"/>
       <c r="Q50" s="76"/>
@@ -10586,10 +10630,10 @@
       <c r="H51" s="63"/>
       <c r="I51" s="63"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="187"/>
-      <c r="L51" s="188"/>
-      <c r="M51" s="188"/>
-      <c r="N51" s="189"/>
+      <c r="K51" s="189"/>
+      <c r="L51" s="190"/>
+      <c r="M51" s="190"/>
+      <c r="N51" s="191"/>
       <c r="O51" s="74"/>
       <c r="P51" s="74"/>
       <c r="Q51" s="76"/>
@@ -10611,10 +10655,10 @@
       <c r="H52" s="63"/>
       <c r="I52" s="63"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="187"/>
-      <c r="L52" s="188"/>
-      <c r="M52" s="188"/>
-      <c r="N52" s="189"/>
+      <c r="K52" s="189"/>
+      <c r="L52" s="190"/>
+      <c r="M52" s="190"/>
+      <c r="N52" s="191"/>
       <c r="O52" s="74"/>
       <c r="P52" s="74"/>
       <c r="Q52" s="76"/>
@@ -10636,10 +10680,10 @@
       <c r="H53" s="63"/>
       <c r="I53" s="63"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="187"/>
-      <c r="L53" s="188"/>
-      <c r="M53" s="188"/>
-      <c r="N53" s="189"/>
+      <c r="K53" s="189"/>
+      <c r="L53" s="190"/>
+      <c r="M53" s="190"/>
+      <c r="N53" s="191"/>
       <c r="O53" s="74"/>
       <c r="P53" s="74"/>
       <c r="Q53" s="76"/>
@@ -10661,10 +10705,10 @@
       <c r="H54" s="63"/>
       <c r="I54" s="63"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="187"/>
-      <c r="L54" s="188"/>
-      <c r="M54" s="188"/>
-      <c r="N54" s="189"/>
+      <c r="K54" s="189"/>
+      <c r="L54" s="190"/>
+      <c r="M54" s="190"/>
+      <c r="N54" s="191"/>
       <c r="O54" s="74"/>
       <c r="P54" s="74"/>
       <c r="Q54" s="76"/>
@@ -10686,10 +10730,10 @@
       <c r="H55" s="63"/>
       <c r="I55" s="63"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="187"/>
-      <c r="L55" s="188"/>
-      <c r="M55" s="188"/>
-      <c r="N55" s="189"/>
+      <c r="K55" s="189"/>
+      <c r="L55" s="190"/>
+      <c r="M55" s="190"/>
+      <c r="N55" s="191"/>
       <c r="O55" s="74"/>
       <c r="P55" s="74"/>
       <c r="Q55" s="76"/>
@@ -10711,10 +10755,10 @@
       <c r="H56" s="63"/>
       <c r="I56" s="63"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="187"/>
-      <c r="L56" s="188"/>
-      <c r="M56" s="188"/>
-      <c r="N56" s="189"/>
+      <c r="K56" s="189"/>
+      <c r="L56" s="190"/>
+      <c r="M56" s="190"/>
+      <c r="N56" s="191"/>
       <c r="O56" s="74"/>
       <c r="P56" s="74"/>
       <c r="Q56" s="76"/>
@@ -10736,10 +10780,10 @@
       <c r="H57" s="63"/>
       <c r="I57" s="63"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="187"/>
-      <c r="L57" s="188"/>
-      <c r="M57" s="188"/>
-      <c r="N57" s="189"/>
+      <c r="K57" s="189"/>
+      <c r="L57" s="190"/>
+      <c r="M57" s="190"/>
+      <c r="N57" s="191"/>
       <c r="O57" s="74"/>
       <c r="P57" s="74"/>
       <c r="Q57" s="76"/>
@@ -10761,10 +10805,10 @@
       <c r="H58" s="63"/>
       <c r="I58" s="63"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="187"/>
-      <c r="L58" s="188"/>
-      <c r="M58" s="188"/>
-      <c r="N58" s="189"/>
+      <c r="K58" s="189"/>
+      <c r="L58" s="190"/>
+      <c r="M58" s="190"/>
+      <c r="N58" s="191"/>
       <c r="O58" s="74"/>
       <c r="P58" s="74"/>
       <c r="Q58" s="76"/>
@@ -10786,10 +10830,10 @@
       <c r="H59" s="63"/>
       <c r="I59" s="63"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="187"/>
-      <c r="L59" s="188"/>
-      <c r="M59" s="188"/>
-      <c r="N59" s="189"/>
+      <c r="K59" s="189"/>
+      <c r="L59" s="190"/>
+      <c r="M59" s="190"/>
+      <c r="N59" s="191"/>
       <c r="O59" s="74"/>
       <c r="P59" s="74"/>
       <c r="Q59" s="76"/>
@@ -10811,10 +10855,10 @@
       <c r="H60" s="63"/>
       <c r="I60" s="63"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="187"/>
-      <c r="L60" s="188"/>
-      <c r="M60" s="188"/>
-      <c r="N60" s="189"/>
+      <c r="K60" s="189"/>
+      <c r="L60" s="190"/>
+      <c r="M60" s="190"/>
+      <c r="N60" s="191"/>
       <c r="O60" s="74"/>
       <c r="P60" s="74"/>
       <c r="Q60" s="76"/>
@@ -10836,10 +10880,10 @@
       <c r="H61" s="63"/>
       <c r="I61" s="63"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="187"/>
-      <c r="L61" s="188"/>
-      <c r="M61" s="188"/>
-      <c r="N61" s="189"/>
+      <c r="K61" s="189"/>
+      <c r="L61" s="190"/>
+      <c r="M61" s="190"/>
+      <c r="N61" s="191"/>
       <c r="O61" s="74"/>
       <c r="P61" s="74"/>
       <c r="Q61" s="76"/>
@@ -10861,10 +10905,10 @@
       <c r="H62" s="63"/>
       <c r="I62" s="63"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="187"/>
-      <c r="L62" s="188"/>
-      <c r="M62" s="188"/>
-      <c r="N62" s="189"/>
+      <c r="K62" s="189"/>
+      <c r="L62" s="190"/>
+      <c r="M62" s="190"/>
+      <c r="N62" s="191"/>
       <c r="O62" s="74"/>
       <c r="P62" s="74"/>
       <c r="Q62" s="76"/>
@@ -10886,10 +10930,10 @@
       <c r="H63" s="63"/>
       <c r="I63" s="63"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="187"/>
-      <c r="L63" s="188"/>
-      <c r="M63" s="188"/>
-      <c r="N63" s="189"/>
+      <c r="K63" s="189"/>
+      <c r="L63" s="190"/>
+      <c r="M63" s="190"/>
+      <c r="N63" s="191"/>
       <c r="O63" s="84"/>
       <c r="P63" s="84"/>
       <c r="Q63" s="76"/>
@@ -10911,10 +10955,10 @@
       <c r="H64" s="63"/>
       <c r="I64" s="63"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="187"/>
-      <c r="L64" s="188"/>
-      <c r="M64" s="188"/>
-      <c r="N64" s="189"/>
+      <c r="K64" s="189"/>
+      <c r="L64" s="190"/>
+      <c r="M64" s="190"/>
+      <c r="N64" s="191"/>
       <c r="O64" s="84"/>
       <c r="P64" s="84"/>
       <c r="Q64" s="76"/>
@@ -10936,10 +10980,10 @@
       <c r="H65" s="63"/>
       <c r="I65" s="63"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="187"/>
-      <c r="L65" s="188"/>
-      <c r="M65" s="188"/>
-      <c r="N65" s="189"/>
+      <c r="K65" s="189"/>
+      <c r="L65" s="190"/>
+      <c r="M65" s="190"/>
+      <c r="N65" s="191"/>
       <c r="O65" s="84"/>
       <c r="P65" s="84"/>
       <c r="Q65" s="76"/>
@@ -10959,10 +11003,10 @@
       <c r="H66" s="63"/>
       <c r="I66" s="63"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="187"/>
-      <c r="L66" s="188"/>
-      <c r="M66" s="188"/>
-      <c r="N66" s="189"/>
+      <c r="K66" s="189"/>
+      <c r="L66" s="190"/>
+      <c r="M66" s="190"/>
+      <c r="N66" s="191"/>
       <c r="O66" s="84"/>
       <c r="P66" s="84"/>
       <c r="Q66" s="76"/>
@@ -10982,10 +11026,10 @@
       <c r="H67" s="63"/>
       <c r="I67" s="63"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="187"/>
-      <c r="L67" s="188"/>
-      <c r="M67" s="188"/>
-      <c r="N67" s="189"/>
+      <c r="K67" s="189"/>
+      <c r="L67" s="190"/>
+      <c r="M67" s="190"/>
+      <c r="N67" s="191"/>
       <c r="O67" s="84"/>
       <c r="P67" s="84"/>
       <c r="Q67" s="76"/>
@@ -11005,10 +11049,10 @@
       <c r="H68" s="63"/>
       <c r="I68" s="63"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="187"/>
-      <c r="L68" s="188"/>
-      <c r="M68" s="188"/>
-      <c r="N68" s="189"/>
+      <c r="K68" s="189"/>
+      <c r="L68" s="190"/>
+      <c r="M68" s="190"/>
+      <c r="N68" s="191"/>
       <c r="O68" s="84"/>
       <c r="P68" s="84"/>
       <c r="Q68" s="76"/>
@@ -11028,10 +11072,10 @@
       <c r="H69" s="63"/>
       <c r="I69" s="63"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="187"/>
-      <c r="L69" s="188"/>
-      <c r="M69" s="188"/>
-      <c r="N69" s="189"/>
+      <c r="K69" s="189"/>
+      <c r="L69" s="190"/>
+      <c r="M69" s="190"/>
+      <c r="N69" s="191"/>
       <c r="O69" s="84"/>
       <c r="P69" s="84"/>
       <c r="Q69" s="76"/>
@@ -11051,10 +11095,10 @@
       <c r="H70" s="63"/>
       <c r="I70" s="63"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="187"/>
-      <c r="L70" s="188"/>
-      <c r="M70" s="188"/>
-      <c r="N70" s="189"/>
+      <c r="K70" s="189"/>
+      <c r="L70" s="190"/>
+      <c r="M70" s="190"/>
+      <c r="N70" s="191"/>
       <c r="O70" s="84"/>
       <c r="P70" s="84"/>
       <c r="Q70" s="76"/>
@@ -11074,10 +11118,10 @@
       <c r="H71" s="63"/>
       <c r="I71" s="63"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="187"/>
-      <c r="L71" s="188"/>
-      <c r="M71" s="188"/>
-      <c r="N71" s="189"/>
+      <c r="K71" s="189"/>
+      <c r="L71" s="190"/>
+      <c r="M71" s="190"/>
+      <c r="N71" s="191"/>
       <c r="O71" s="84"/>
       <c r="P71" s="84"/>
       <c r="Q71" s="76"/>
@@ -11097,10 +11141,10 @@
       <c r="H72" s="63"/>
       <c r="I72" s="63"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="187"/>
-      <c r="L72" s="188"/>
-      <c r="M72" s="188"/>
-      <c r="N72" s="189"/>
+      <c r="K72" s="189"/>
+      <c r="L72" s="190"/>
+      <c r="M72" s="190"/>
+      <c r="N72" s="191"/>
       <c r="O72" s="84"/>
       <c r="P72" s="84"/>
       <c r="Q72" s="76"/>
@@ -11120,10 +11164,10 @@
       <c r="H73" s="63"/>
       <c r="I73" s="63"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="187"/>
-      <c r="L73" s="188"/>
-      <c r="M73" s="188"/>
-      <c r="N73" s="189"/>
+      <c r="K73" s="189"/>
+      <c r="L73" s="190"/>
+      <c r="M73" s="190"/>
+      <c r="N73" s="191"/>
       <c r="O73" s="84"/>
       <c r="P73" s="84"/>
       <c r="Q73" s="76"/>
@@ -11143,10 +11187,10 @@
       <c r="H74" s="63"/>
       <c r="I74" s="63"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="187"/>
-      <c r="L74" s="188"/>
-      <c r="M74" s="188"/>
-      <c r="N74" s="189"/>
+      <c r="K74" s="189"/>
+      <c r="L74" s="190"/>
+      <c r="M74" s="190"/>
+      <c r="N74" s="191"/>
       <c r="O74" s="84"/>
       <c r="P74" s="84"/>
       <c r="Q74" s="76"/>
@@ -11166,10 +11210,10 @@
       <c r="H75" s="63"/>
       <c r="I75" s="63"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="187"/>
-      <c r="L75" s="188"/>
-      <c r="M75" s="188"/>
-      <c r="N75" s="189"/>
+      <c r="K75" s="189"/>
+      <c r="L75" s="190"/>
+      <c r="M75" s="190"/>
+      <c r="N75" s="191"/>
       <c r="O75" s="84"/>
       <c r="P75" s="84"/>
       <c r="Q75" s="76"/>
@@ -11189,10 +11233,10 @@
       <c r="H76" s="63"/>
       <c r="I76" s="63"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="187"/>
-      <c r="L76" s="188"/>
-      <c r="M76" s="188"/>
-      <c r="N76" s="189"/>
+      <c r="K76" s="189"/>
+      <c r="L76" s="190"/>
+      <c r="M76" s="190"/>
+      <c r="N76" s="191"/>
       <c r="O76" s="84"/>
       <c r="P76" s="84"/>
       <c r="Q76" s="76"/>
@@ -11212,10 +11256,10 @@
       <c r="H77" s="63"/>
       <c r="I77" s="63"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="187"/>
-      <c r="L77" s="188"/>
-      <c r="M77" s="188"/>
-      <c r="N77" s="189"/>
+      <c r="K77" s="189"/>
+      <c r="L77" s="190"/>
+      <c r="M77" s="190"/>
+      <c r="N77" s="191"/>
       <c r="O77" s="84"/>
       <c r="P77" s="84"/>
       <c r="Q77" s="76"/>
@@ -11235,10 +11279,10 @@
       <c r="H78" s="63"/>
       <c r="I78" s="63"/>
       <c r="J78" s="40"/>
-      <c r="K78" s="187"/>
-      <c r="L78" s="188"/>
-      <c r="M78" s="188"/>
-      <c r="N78" s="189"/>
+      <c r="K78" s="189"/>
+      <c r="L78" s="190"/>
+      <c r="M78" s="190"/>
+      <c r="N78" s="191"/>
       <c r="O78" s="84"/>
       <c r="P78" s="84"/>
       <c r="Q78" s="76"/>
@@ -11258,10 +11302,10 @@
       <c r="H79" s="63"/>
       <c r="I79" s="63"/>
       <c r="J79" s="40"/>
-      <c r="K79" s="187"/>
-      <c r="L79" s="188"/>
-      <c r="M79" s="188"/>
-      <c r="N79" s="189"/>
+      <c r="K79" s="189"/>
+      <c r="L79" s="190"/>
+      <c r="M79" s="190"/>
+      <c r="N79" s="191"/>
       <c r="O79" s="84"/>
       <c r="P79" s="84"/>
       <c r="Q79" s="76"/>
@@ -11281,10 +11325,10 @@
       <c r="H80" s="63"/>
       <c r="I80" s="63"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="187"/>
-      <c r="L80" s="188"/>
-      <c r="M80" s="188"/>
-      <c r="N80" s="189"/>
+      <c r="K80" s="189"/>
+      <c r="L80" s="190"/>
+      <c r="M80" s="190"/>
+      <c r="N80" s="191"/>
       <c r="O80" s="84"/>
       <c r="P80" s="84"/>
       <c r="Q80" s="76"/>
@@ -11304,10 +11348,10 @@
       <c r="H81" s="63"/>
       <c r="I81" s="63"/>
       <c r="J81" s="40"/>
-      <c r="K81" s="187"/>
-      <c r="L81" s="188"/>
-      <c r="M81" s="188"/>
-      <c r="N81" s="189"/>
+      <c r="K81" s="189"/>
+      <c r="L81" s="190"/>
+      <c r="M81" s="190"/>
+      <c r="N81" s="191"/>
       <c r="O81" s="84"/>
       <c r="P81" s="84"/>
       <c r="Q81" s="76"/>
@@ -11327,10 +11371,10 @@
       <c r="H82" s="63"/>
       <c r="I82" s="63"/>
       <c r="J82" s="40"/>
-      <c r="K82" s="187"/>
-      <c r="L82" s="188"/>
-      <c r="M82" s="188"/>
-      <c r="N82" s="189"/>
+      <c r="K82" s="189"/>
+      <c r="L82" s="190"/>
+      <c r="M82" s="190"/>
+      <c r="N82" s="191"/>
       <c r="O82" s="84"/>
       <c r="P82" s="84"/>
       <c r="Q82" s="76"/>
@@ -11350,10 +11394,10 @@
       <c r="H83" s="63"/>
       <c r="I83" s="63"/>
       <c r="J83" s="40"/>
-      <c r="K83" s="187"/>
-      <c r="L83" s="188"/>
-      <c r="M83" s="188"/>
-      <c r="N83" s="189"/>
+      <c r="K83" s="189"/>
+      <c r="L83" s="190"/>
+      <c r="M83" s="190"/>
+      <c r="N83" s="191"/>
       <c r="O83" s="84"/>
       <c r="P83" s="84"/>
       <c r="Q83" s="76"/>
@@ -11373,10 +11417,10 @@
       <c r="H84" s="63"/>
       <c r="I84" s="63"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="187"/>
-      <c r="L84" s="188"/>
-      <c r="M84" s="188"/>
-      <c r="N84" s="189"/>
+      <c r="K84" s="189"/>
+      <c r="L84" s="190"/>
+      <c r="M84" s="190"/>
+      <c r="N84" s="191"/>
       <c r="O84" s="84"/>
       <c r="P84" s="84"/>
       <c r="Q84" s="76"/>
@@ -11396,10 +11440,10 @@
       <c r="H85" s="63"/>
       <c r="I85" s="63"/>
       <c r="J85" s="40"/>
-      <c r="K85" s="187"/>
-      <c r="L85" s="188"/>
-      <c r="M85" s="188"/>
-      <c r="N85" s="189"/>
+      <c r="K85" s="189"/>
+      <c r="L85" s="190"/>
+      <c r="M85" s="190"/>
+      <c r="N85" s="191"/>
       <c r="O85" s="84"/>
       <c r="P85" s="84"/>
       <c r="Q85" s="76"/>
@@ -11419,10 +11463,10 @@
       <c r="H86" s="63"/>
       <c r="I86" s="63"/>
       <c r="J86" s="40"/>
-      <c r="K86" s="187"/>
-      <c r="L86" s="188"/>
-      <c r="M86" s="188"/>
-      <c r="N86" s="189"/>
+      <c r="K86" s="189"/>
+      <c r="L86" s="190"/>
+      <c r="M86" s="190"/>
+      <c r="N86" s="191"/>
       <c r="O86" s="84"/>
       <c r="P86" s="84"/>
       <c r="Q86" s="76"/>
@@ -11442,10 +11486,10 @@
       <c r="H87" s="63"/>
       <c r="I87" s="63"/>
       <c r="J87" s="40"/>
-      <c r="K87" s="187"/>
-      <c r="L87" s="188"/>
-      <c r="M87" s="188"/>
-      <c r="N87" s="189"/>
+      <c r="K87" s="189"/>
+      <c r="L87" s="190"/>
+      <c r="M87" s="190"/>
+      <c r="N87" s="191"/>
       <c r="O87" s="84"/>
       <c r="P87" s="84"/>
       <c r="Q87" s="76"/>
@@ -11465,10 +11509,10 @@
       <c r="H88" s="63"/>
       <c r="I88" s="63"/>
       <c r="J88" s="40"/>
-      <c r="K88" s="187"/>
-      <c r="L88" s="188"/>
-      <c r="M88" s="188"/>
-      <c r="N88" s="189"/>
+      <c r="K88" s="189"/>
+      <c r="L88" s="190"/>
+      <c r="M88" s="190"/>
+      <c r="N88" s="191"/>
       <c r="O88" s="84"/>
       <c r="P88" s="84"/>
       <c r="Q88" s="76"/>
@@ -11488,10 +11532,10 @@
       <c r="H89" s="63"/>
       <c r="I89" s="63"/>
       <c r="J89" s="40"/>
-      <c r="K89" s="187"/>
-      <c r="L89" s="188"/>
-      <c r="M89" s="188"/>
-      <c r="N89" s="189"/>
+      <c r="K89" s="189"/>
+      <c r="L89" s="190"/>
+      <c r="M89" s="190"/>
+      <c r="N89" s="191"/>
       <c r="O89" s="84"/>
       <c r="P89" s="84"/>
       <c r="Q89" s="76"/>
@@ -11511,10 +11555,10 @@
       <c r="H90" s="63"/>
       <c r="I90" s="63"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="187"/>
-      <c r="L90" s="188"/>
-      <c r="M90" s="188"/>
-      <c r="N90" s="189"/>
+      <c r="K90" s="189"/>
+      <c r="L90" s="190"/>
+      <c r="M90" s="190"/>
+      <c r="N90" s="191"/>
       <c r="O90" s="84"/>
       <c r="P90" s="84"/>
       <c r="Q90" s="76"/>
@@ -11534,10 +11578,10 @@
       <c r="H91" s="63"/>
       <c r="I91" s="63"/>
       <c r="J91" s="40"/>
-      <c r="K91" s="187"/>
-      <c r="L91" s="188"/>
-      <c r="M91" s="188"/>
-      <c r="N91" s="189"/>
+      <c r="K91" s="189"/>
+      <c r="L91" s="190"/>
+      <c r="M91" s="190"/>
+      <c r="N91" s="191"/>
       <c r="O91" s="84"/>
       <c r="P91" s="84"/>
       <c r="Q91" s="76"/>
@@ -11557,10 +11601,10 @@
       <c r="H92" s="63"/>
       <c r="I92" s="63"/>
       <c r="J92" s="40"/>
-      <c r="K92" s="187"/>
-      <c r="L92" s="188"/>
-      <c r="M92" s="188"/>
-      <c r="N92" s="189"/>
+      <c r="K92" s="189"/>
+      <c r="L92" s="190"/>
+      <c r="M92" s="190"/>
+      <c r="N92" s="191"/>
       <c r="O92" s="84"/>
       <c r="P92" s="84"/>
       <c r="Q92" s="76"/>
@@ -11580,10 +11624,10 @@
       <c r="H93" s="63"/>
       <c r="I93" s="63"/>
       <c r="J93" s="40"/>
-      <c r="K93" s="187"/>
-      <c r="L93" s="188"/>
-      <c r="M93" s="188"/>
-      <c r="N93" s="189"/>
+      <c r="K93" s="189"/>
+      <c r="L93" s="190"/>
+      <c r="M93" s="190"/>
+      <c r="N93" s="191"/>
       <c r="O93" s="84"/>
       <c r="P93" s="84"/>
       <c r="Q93" s="76"/>
@@ -11603,10 +11647,10 @@
       <c r="H94" s="63"/>
       <c r="I94" s="63"/>
       <c r="J94" s="40"/>
-      <c r="K94" s="187"/>
-      <c r="L94" s="188"/>
-      <c r="M94" s="188"/>
-      <c r="N94" s="189"/>
+      <c r="K94" s="189"/>
+      <c r="L94" s="190"/>
+      <c r="M94" s="190"/>
+      <c r="N94" s="191"/>
       <c r="O94" s="84"/>
       <c r="P94" s="84"/>
       <c r="Q94" s="76"/>
@@ -11626,10 +11670,10 @@
       <c r="H95" s="63"/>
       <c r="I95" s="63"/>
       <c r="J95" s="40"/>
-      <c r="K95" s="187"/>
-      <c r="L95" s="188"/>
-      <c r="M95" s="188"/>
-      <c r="N95" s="189"/>
+      <c r="K95" s="189"/>
+      <c r="L95" s="190"/>
+      <c r="M95" s="190"/>
+      <c r="N95" s="191"/>
       <c r="O95" s="84"/>
       <c r="P95" s="84"/>
       <c r="Q95" s="76"/>
@@ -11642,6 +11686,85 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="95">
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K95:N95"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="K15:N15"/>
     <mergeCell ref="K16:N16"/>
@@ -11658,85 +11781,6 @@
     <mergeCell ref="K11:N11"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K95:N95"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
-    <mergeCell ref="K93:N93"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048468:Q1048576 Q5:Q95"/>
@@ -11765,8 +11809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11782,10 +11826,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
+      <c r="B1" s="151"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -11816,8 +11860,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="151"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -11876,7 +11920,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -11968,7 +12012,7 @@
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="135" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -12022,7 +12066,7 @@
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="43"/>
       <c r="C18" s="86" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
@@ -12096,7 +12140,7 @@
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="42"/>
       <c r="B24" s="80" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C24" s="43"/>
       <c r="D24" s="43"/>
@@ -12110,7 +12154,7 @@
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="42"/>
       <c r="B25" s="86" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="43"/>
@@ -12124,7 +12168,7 @@
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="42"/>
       <c r="B26" s="80" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
@@ -12138,7 +12182,7 @@
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="42"/>
       <c r="B27" s="86" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
@@ -12152,7 +12196,7 @@
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="42"/>
       <c r="B28" s="80" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C28" s="43"/>
       <c r="D28" s="43"/>
@@ -12166,7 +12210,7 @@
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="42"/>
       <c r="B29" s="86" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>
@@ -12180,7 +12224,7 @@
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="42"/>
       <c r="B30" s="127" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C30" s="43"/>
       <c r="D30" s="43"/>
@@ -12194,7 +12238,7 @@
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="42"/>
       <c r="B31" s="86" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C31" s="43"/>
       <c r="D31" s="43"/>
@@ -12208,7 +12252,7 @@
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="42"/>
       <c r="B32" s="86" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C32" s="43"/>
       <c r="D32" s="43"/>
@@ -12222,7 +12266,7 @@
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="42"/>
       <c r="B33" s="86" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C33" s="43"/>
       <c r="D33" s="43"/>
@@ -12236,7 +12280,7 @@
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="42"/>
       <c r="B34" s="80" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C34" s="43"/>
       <c r="D34" s="43"/>
@@ -12250,7 +12294,7 @@
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="42"/>
       <c r="B35" s="86" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
@@ -12263,7 +12307,7 @@
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="42"/>
       <c r="B36" s="127" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
@@ -12276,7 +12320,7 @@
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="42"/>
       <c r="B37" s="86" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
@@ -12289,7 +12333,7 @@
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="42"/>
       <c r="B38" s="86" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
@@ -12302,7 +12346,7 @@
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="42"/>
       <c r="B39" s="80" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
@@ -12316,7 +12360,7 @@
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="42"/>
       <c r="B40" s="86" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C40" s="43"/>
       <c r="D40" s="43"/>
@@ -12330,7 +12374,7 @@
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="42"/>
       <c r="B41" s="80" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C41" s="43"/>
       <c r="D41" s="43"/>
@@ -12344,7 +12388,7 @@
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="42"/>
       <c r="B42" s="86" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
@@ -12573,7 +12617,7 @@
     </row>
     <row r="61" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="86" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C61" s="86"/>
       <c r="D61" s="43"/>
@@ -12610,7 +12654,7 @@
     </row>
     <row r="64" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="86" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C64" s="43"/>
       <c r="D64" s="43"/>
@@ -12661,7 +12705,7 @@
     </row>
     <row r="68" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="86" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C68" s="86"/>
       <c r="D68" s="43"/>
@@ -13148,10 +13192,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
+      <c r="B1" s="151"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13179,8 +13223,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="151"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13591,14 +13635,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="191" t="s">
+      <c r="B1" s="193" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="16"/>
@@ -13791,11 +13835,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="192" t="s">
+      <c r="E27" s="194" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="193"/>
-      <c r="G27" s="194"/>
+      <c r="F27" s="195"/>
+      <c r="G27" s="196"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="19" t="s">

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc so do tuyen/CF0143_Danh muc so do tuyen.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc so do tuyen/CF0143_Danh muc so do tuyen.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Danh muc so do tuyen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT\SVN_Daisuthuc\10_DOCUMENT\13_DETAIL_DESIGN\Danh muc so do tuyen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="870"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="OLE_LINK1" localSheetId="9">'Code Standar'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Data Definition'!$A$1:$Q$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Input'!$A$1:$S$95</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Form Func Spec'!$A$1:$J$70</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Form Func Spec'!$A$1:$J$71</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Func Spec'!$A$1:$J$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">Help!$A$1:$K$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Input Check'!$A$1:$Q$54</definedName>
@@ -1391,7 +1391,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="303">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2502,16 +2502,19 @@
 @IsEdit</t>
   </si>
   <si>
-    <t>@@DivisionID
-@@KeyValues
-@@TableID
-0</t>
-  </si>
-  <si>
     <t>SELECT CT43.RouteID, CT43.RouteName, CT43.[Description], CT43.[Disabled], CT43.IsCommon, CT43.EmployeeID
 FROM CT0143 CT43
 WHERE CT43.DivisionID = @DivisionID
 ORDER BY CT43.RouteID</t>
+  </si>
+  <si>
+    <t>@@DivisionID
+@@RouteID
+'CT0143'
+0</t>
+  </si>
+  <si>
+    <t>Luồng nghiệp vụ</t>
   </si>
 </sst>
 </file>
@@ -2970,7 +2973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3330,42 +3333,45 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3435,6 +3441,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3450,24 +3474,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3491,6 +3497,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3858,8 +3873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:J17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3875,10 +3890,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
+      <c r="B1" s="153"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -3905,8 +3920,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="151"/>
-      <c r="B2" s="151"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -3945,14 +3960,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="152" t="s">
+      <c r="E4" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="40">
@@ -3968,14 +3983,14 @@
       <c r="D5" s="101" t="s">
         <v>225</v>
       </c>
-      <c r="E5" s="153" t="s">
+      <c r="E5" s="155" t="s">
         <v>279</v>
       </c>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="91">
@@ -3986,12 +4001,12 @@
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="157"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="158"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="92">
@@ -4002,12 +4017,12 @@
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="149"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="93">
@@ -4018,12 +4033,12 @@
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="150"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="152"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="94">
@@ -4034,12 +4049,12 @@
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="147"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="149"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="95">
@@ -4050,12 +4065,12 @@
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="149"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="96">
@@ -4066,12 +4081,12 @@
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="149"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="97">
@@ -4082,12 +4097,12 @@
       </c>
       <c r="C12" s="79"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="149"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="98">
@@ -4098,12 +4113,12 @@
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="149"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="99">
@@ -4114,12 +4129,12 @@
       </c>
       <c r="C14" s="79"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="149"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40">
@@ -4130,12 +4145,12 @@
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="146"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="91">
@@ -4146,12 +4161,12 @@
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="146"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="92">
@@ -4162,12 +4177,12 @@
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="146"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="93">
@@ -4178,12 +4193,12 @@
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="154"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="146"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="94">
@@ -4194,12 +4209,12 @@
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="154"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="146"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="95">
@@ -4210,12 +4225,12 @@
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="154"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="154"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="146"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="96">
@@ -4226,12 +4241,12 @@
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="154"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="146"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="97">
@@ -4242,12 +4257,12 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="154"/>
-      <c r="I22" s="154"/>
-      <c r="J22" s="154"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="146"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="98">
@@ -4258,12 +4273,12 @@
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="154"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="146"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="99">
@@ -4274,12 +4289,12 @@
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="154"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="154"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="146"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="40">
@@ -4290,12 +4305,12 @@
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="154"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="146"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="91">
@@ -4306,12 +4321,12 @@
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="154"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="146"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="92">
@@ -4322,12 +4337,12 @@
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="154"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="146"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="93">
@@ -4338,12 +4353,12 @@
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="94">
@@ -4354,12 +4369,12 @@
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="154"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="95">
@@ -4370,12 +4385,12 @@
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="154"/>
-      <c r="I30" s="154"/>
-      <c r="J30" s="154"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="96">
@@ -4386,12 +4401,12 @@
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="154"/>
-      <c r="I31" s="154"/>
-      <c r="J31" s="154"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="146"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="97">
@@ -4402,12 +4417,12 @@
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="154"/>
-      <c r="G32" s="154"/>
-      <c r="H32" s="154"/>
-      <c r="I32" s="154"/>
-      <c r="J32" s="154"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="98">
@@ -4418,12 +4433,12 @@
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="154"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="154"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="146"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="99">
@@ -4434,12 +4449,12 @@
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="154"/>
-      <c r="H34" s="154"/>
-      <c r="I34" s="154"/>
-      <c r="J34" s="154"/>
+      <c r="E34" s="146"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="146"/>
+      <c r="J34" s="146"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="40">
@@ -4450,12 +4465,12 @@
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="154"/>
-      <c r="F35" s="154"/>
-      <c r="G35" s="154"/>
-      <c r="H35" s="154"/>
-      <c r="I35" s="154"/>
-      <c r="J35" s="154"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="146"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="91">
@@ -4466,12 +4481,12 @@
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="154"/>
-      <c r="F36" s="154"/>
-      <c r="G36" s="154"/>
-      <c r="H36" s="154"/>
-      <c r="I36" s="154"/>
-      <c r="J36" s="154"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="146"/>
+      <c r="G36" s="146"/>
+      <c r="H36" s="146"/>
+      <c r="I36" s="146"/>
+      <c r="J36" s="146"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="92">
@@ -4482,12 +4497,12 @@
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="154"/>
-      <c r="F37" s="154"/>
-      <c r="G37" s="154"/>
-      <c r="H37" s="154"/>
-      <c r="I37" s="154"/>
-      <c r="J37" s="154"/>
+      <c r="E37" s="146"/>
+      <c r="F37" s="146"/>
+      <c r="G37" s="146"/>
+      <c r="H37" s="146"/>
+      <c r="I37" s="146"/>
+      <c r="J37" s="146"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="93">
@@ -4498,12 +4513,12 @@
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="154"/>
-      <c r="F38" s="154"/>
-      <c r="G38" s="154"/>
-      <c r="H38" s="154"/>
-      <c r="I38" s="154"/>
-      <c r="J38" s="154"/>
+      <c r="E38" s="146"/>
+      <c r="F38" s="146"/>
+      <c r="G38" s="146"/>
+      <c r="H38" s="146"/>
+      <c r="I38" s="146"/>
+      <c r="J38" s="146"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="94">
@@ -4514,12 +4529,12 @@
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="154"/>
-      <c r="F39" s="154"/>
-      <c r="G39" s="154"/>
-      <c r="H39" s="154"/>
-      <c r="I39" s="154"/>
-      <c r="J39" s="154"/>
+      <c r="E39" s="146"/>
+      <c r="F39" s="146"/>
+      <c r="G39" s="146"/>
+      <c r="H39" s="146"/>
+      <c r="I39" s="146"/>
+      <c r="J39" s="146"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="95">
@@ -4530,12 +4545,12 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="154"/>
-      <c r="F40" s="154"/>
-      <c r="G40" s="154"/>
-      <c r="H40" s="154"/>
-      <c r="I40" s="154"/>
-      <c r="J40" s="154"/>
+      <c r="E40" s="146"/>
+      <c r="F40" s="146"/>
+      <c r="G40" s="146"/>
+      <c r="H40" s="146"/>
+      <c r="I40" s="146"/>
+      <c r="J40" s="146"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="96">
@@ -4546,12 +4561,12 @@
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="154"/>
-      <c r="F41" s="154"/>
-      <c r="G41" s="154"/>
-      <c r="H41" s="154"/>
-      <c r="I41" s="154"/>
-      <c r="J41" s="154"/>
+      <c r="E41" s="146"/>
+      <c r="F41" s="146"/>
+      <c r="G41" s="146"/>
+      <c r="H41" s="146"/>
+      <c r="I41" s="146"/>
+      <c r="J41" s="146"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="97">
@@ -4562,32 +4577,23 @@
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="154"/>
-      <c r="F42" s="154"/>
-      <c r="G42" s="154"/>
-      <c r="H42" s="154"/>
-      <c r="I42" s="154"/>
-      <c r="J42" s="154"/>
+      <c r="E42" s="146"/>
+      <c r="F42" s="146"/>
+      <c r="G42" s="146"/>
+      <c r="H42" s="146"/>
+      <c r="I42" s="146"/>
+      <c r="J42" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -4603,14 +4609,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -4808,7 +4823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J2"/>
     </sheetView>
   </sheetViews>
@@ -4825,10 +4840,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
+      <c r="B1" s="153"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -4859,8 +4874,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="151"/>
-      <c r="B2" s="151"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -4891,20 +4906,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="158" t="s">
+      <c r="A4" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="160"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="158" t="s">
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="159"/>
+      <c r="J4" s="160"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="42"/>
@@ -4915,10 +4930,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="167" t="s">
+      <c r="I5" s="168" t="s">
         <v>226</v>
       </c>
-      <c r="J5" s="168"/>
+      <c r="J5" s="169"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42"/>
@@ -4929,8 +4944,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="171"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="42"/>
@@ -4941,8 +4956,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="171"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="42"/>
@@ -4953,8 +4968,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="171"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="42"/>
@@ -4965,8 +4980,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="169"/>
-      <c r="J9" s="170"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="171"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="42"/>
@@ -4977,8 +4992,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="172"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="173"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="42"/>
@@ -4989,10 +5004,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="158" t="s">
+      <c r="I11" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="159"/>
+      <c r="J11" s="160"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="42"/>
@@ -5003,10 +5018,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="161" t="s">
+      <c r="I12" s="162" t="s">
         <v>172</v>
       </c>
-      <c r="J12" s="162"/>
+      <c r="J12" s="163"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="42"/>
@@ -5017,8 +5032,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="165"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="42"/>
@@ -5029,8 +5044,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="165"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="42"/>
@@ -5041,8 +5056,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="165"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="42"/>
@@ -5053,8 +5068,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="165"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="42"/>
@@ -5065,8 +5080,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="164"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="165"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="42"/>
@@ -5077,8 +5092,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="164"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="165"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="42"/>
@@ -5089,8 +5104,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="164"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="165"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="42"/>
@@ -5101,8 +5116,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="164"/>
+      <c r="I20" s="164"/>
+      <c r="J20" s="165"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="42"/>
@@ -5113,8 +5128,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="165"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="42"/>
@@ -5125,8 +5140,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="164"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="165"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
@@ -5137,8 +5152,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="164"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="165"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="42"/>
@@ -5149,8 +5164,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="163"/>
-      <c r="J24" s="164"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="165"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="42"/>
@@ -5161,8 +5176,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="163"/>
-      <c r="J25" s="164"/>
+      <c r="I25" s="164"/>
+      <c r="J25" s="165"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="42"/>
@@ -5173,8 +5188,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="165"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="42"/>
@@ -5185,8 +5200,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="164"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="165"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="42"/>
@@ -5197,8 +5212,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="163"/>
-      <c r="J28" s="164"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="165"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="42"/>
@@ -5209,8 +5224,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="163"/>
-      <c r="J29" s="164"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="165"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="42"/>
@@ -5221,8 +5236,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="163"/>
-      <c r="J30" s="164"/>
+      <c r="I30" s="164"/>
+      <c r="J30" s="165"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="42"/>
@@ -5233,8 +5248,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="163"/>
-      <c r="J31" s="164"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="165"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="42"/>
@@ -5245,8 +5260,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="163"/>
-      <c r="J32" s="164"/>
+      <c r="I32" s="164"/>
+      <c r="J32" s="165"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="42"/>
@@ -5257,8 +5272,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="163"/>
-      <c r="J33" s="164"/>
+      <c r="I33" s="164"/>
+      <c r="J33" s="165"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="42"/>
@@ -5269,8 +5284,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="163"/>
-      <c r="J34" s="164"/>
+      <c r="I34" s="164"/>
+      <c r="J34" s="165"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="42"/>
@@ -5281,8 +5296,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="163"/>
-      <c r="J35" s="164"/>
+      <c r="I35" s="164"/>
+      <c r="J35" s="165"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="42"/>
@@ -5293,8 +5308,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="163"/>
-      <c r="J36" s="164"/>
+      <c r="I36" s="164"/>
+      <c r="J36" s="165"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="42"/>
@@ -5305,8 +5320,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="163"/>
-      <c r="J37" s="164"/>
+      <c r="I37" s="164"/>
+      <c r="J37" s="165"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="42"/>
@@ -5317,8 +5332,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="163"/>
-      <c r="J38" s="164"/>
+      <c r="I38" s="164"/>
+      <c r="J38" s="165"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="42"/>
@@ -5329,8 +5344,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="163"/>
-      <c r="J39" s="164"/>
+      <c r="I39" s="164"/>
+      <c r="J39" s="165"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="42"/>
@@ -5341,8 +5356,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="163"/>
-      <c r="J40" s="164"/>
+      <c r="I40" s="164"/>
+      <c r="J40" s="165"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="42"/>
@@ -5353,8 +5368,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="163"/>
-      <c r="J41" s="164"/>
+      <c r="I41" s="164"/>
+      <c r="J41" s="165"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="42"/>
@@ -5365,8 +5380,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="163"/>
-      <c r="J42" s="164"/>
+      <c r="I42" s="164"/>
+      <c r="J42" s="165"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="47"/>
@@ -5377,8 +5392,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="165"/>
-      <c r="J43" s="166"/>
+      <c r="I43" s="166"/>
+      <c r="J43" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5412,7 +5427,7 @@
       <pane xSplit="7" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5437,13 +5452,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -5451,16 +5466,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="173" t="s">
+      <c r="H1" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="174"/>
-      <c r="J1" s="175" t="str">
+      <c r="I1" s="175"/>
+      <c r="J1" s="176" t="str">
         <f>'Update History'!F1</f>
         <v>CF0143</v>
       </c>
-      <c r="K1" s="176"/>
-      <c r="L1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="178"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -5477,11 +5492,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="151"/>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -5489,16 +5504,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="H2" s="173" t="s">
+      <c r="H2" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="174"/>
-      <c r="J2" s="175" t="str">
+      <c r="I2" s="175"/>
+      <c r="J2" s="176" t="str">
         <f>'Update History'!F2</f>
         <v>Danh mục sơ đồ tuyến</v>
       </c>
-      <c r="K2" s="176"/>
-      <c r="L2" s="177"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="178"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -5800,69 +5815,77 @@
       <c r="O11" s="69"/>
       <c r="P11" s="88"/>
     </row>
-    <row r="12" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
+    <row r="12" spans="1:16" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="35">
         <v>8</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33">
+      <c r="C12" s="35"/>
+      <c r="D12" s="35">
         <v>2.6</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="145" t="s">
         <v>292</v>
       </c>
-      <c r="F12" s="143" t="s">
+      <c r="F12" s="198" t="s">
         <v>294</v>
       </c>
-      <c r="G12" s="143" t="s">
+      <c r="G12" s="198" t="s">
         <v>294</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="40" t="s">
+      <c r="H12" s="199" t="s">
+        <v>201</v>
+      </c>
+      <c r="I12" s="199" t="s">
+        <v>207</v>
+      </c>
+      <c r="J12" s="200"/>
+      <c r="K12" s="200"/>
+      <c r="L12" s="199" t="s">
         <v>205</v>
       </c>
-      <c r="M12" s="143"/>
-      <c r="N12" s="143"/>
-      <c r="O12" s="143"/>
-      <c r="P12" s="143"/>
-    </row>
-    <row r="13" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
+      <c r="M12" s="198"/>
+      <c r="N12" s="198"/>
+      <c r="O12" s="198"/>
+      <c r="P12" s="198"/>
+    </row>
+    <row r="13" spans="1:16" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="35">
         <v>9</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33">
+      <c r="C13" s="35"/>
+      <c r="D13" s="35">
         <v>2.7</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="145" t="s">
         <v>293</v>
       </c>
-      <c r="F13" s="143" t="s">
+      <c r="F13" s="198" t="s">
         <v>295</v>
       </c>
-      <c r="G13" s="143" t="s">
+      <c r="G13" s="198" t="s">
         <v>295</v>
       </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="40" t="s">
+      <c r="H13" s="199" t="s">
+        <v>201</v>
+      </c>
+      <c r="I13" s="199" t="s">
+        <v>208</v>
+      </c>
+      <c r="J13" s="200"/>
+      <c r="K13" s="200"/>
+      <c r="L13" s="199" t="s">
         <v>205</v>
       </c>
-      <c r="M13" s="143"/>
-      <c r="N13" s="143"/>
-      <c r="O13" s="143"/>
-      <c r="P13" s="143"/>
+      <c r="M13" s="198"/>
+      <c r="N13" s="198"/>
+      <c r="O13" s="198"/>
+      <c r="P13" s="198"/>
     </row>
     <row r="14" spans="1:16" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
@@ -7897,7 +7920,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="183" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="131"/>
@@ -7934,7 +7957,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="188"/>
+      <c r="A2" s="184"/>
       <c r="B2" s="132"/>
       <c r="C2" s="138"/>
       <c r="D2" s="31" t="s">
@@ -7987,15 +8010,15 @@
       <c r="F4" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="151" t="s">
+      <c r="G4" s="153" t="s">
         <v>132</v>
       </c>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151" t="s">
+      <c r="H4" s="153"/>
+      <c r="I4" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="151"/>
-      <c r="K4" s="151"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
@@ -8012,15 +8035,15 @@
         <v>135</v>
       </c>
       <c r="F5" s="27"/>
-      <c r="G5" s="185" t="s">
+      <c r="G5" s="179" t="s">
         <v>240</v>
       </c>
-      <c r="H5" s="186"/>
-      <c r="I5" s="178" t="s">
+      <c r="H5" s="180"/>
+      <c r="I5" s="185" t="s">
         <v>285</v>
       </c>
-      <c r="J5" s="179"/>
-      <c r="K5" s="180"/>
+      <c r="J5" s="186"/>
+      <c r="K5" s="187"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
@@ -8037,15 +8060,15 @@
         <v>244</v>
       </c>
       <c r="F6" s="27"/>
-      <c r="G6" s="183" t="s">
+      <c r="G6" s="181" t="s">
         <v>245</v>
       </c>
-      <c r="H6" s="184"/>
-      <c r="I6" s="178" t="s">
+      <c r="H6" s="182"/>
+      <c r="I6" s="185" t="s">
         <v>286</v>
       </c>
-      <c r="J6" s="179"/>
-      <c r="K6" s="180"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="187"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
@@ -8062,15 +8085,15 @@
         <v>244</v>
       </c>
       <c r="F7" s="27"/>
-      <c r="G7" s="183" t="s">
+      <c r="G7" s="181" t="s">
         <v>245</v>
       </c>
-      <c r="H7" s="184"/>
-      <c r="I7" s="178" t="s">
+      <c r="H7" s="182"/>
+      <c r="I7" s="185" t="s">
         <v>287</v>
       </c>
-      <c r="J7" s="179"/>
-      <c r="K7" s="180"/>
+      <c r="J7" s="186"/>
+      <c r="K7" s="187"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -8087,15 +8110,15 @@
         <v>135</v>
       </c>
       <c r="F8" s="27"/>
-      <c r="G8" s="185" t="s">
+      <c r="G8" s="179" t="s">
         <v>236</v>
       </c>
-      <c r="H8" s="186"/>
-      <c r="I8" s="178" t="s">
+      <c r="H8" s="180"/>
+      <c r="I8" s="185" t="s">
         <v>288</v>
       </c>
-      <c r="J8" s="179"/>
-      <c r="K8" s="180"/>
+      <c r="J8" s="186"/>
+      <c r="K8" s="187"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
@@ -8112,15 +8135,15 @@
         <v>135</v>
       </c>
       <c r="F9" s="27"/>
-      <c r="G9" s="183" t="s">
+      <c r="G9" s="181" t="s">
         <v>275</v>
       </c>
-      <c r="H9" s="184"/>
-      <c r="I9" s="178" t="s">
+      <c r="H9" s="182"/>
+      <c r="I9" s="185" t="s">
         <v>289</v>
       </c>
-      <c r="J9" s="179"/>
-      <c r="K9" s="180"/>
+      <c r="J9" s="186"/>
+      <c r="K9" s="187"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
@@ -8137,15 +8160,15 @@
         <v>237</v>
       </c>
       <c r="F10" s="27"/>
-      <c r="G10" s="185" t="s">
+      <c r="G10" s="179" t="s">
         <v>238</v>
       </c>
-      <c r="H10" s="186"/>
-      <c r="I10" s="178" t="s">
+      <c r="H10" s="180"/>
+      <c r="I10" s="185" t="s">
         <v>290</v>
       </c>
-      <c r="J10" s="179"/>
-      <c r="K10" s="180"/>
+      <c r="J10" s="186"/>
+      <c r="K10" s="187"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
@@ -8162,15 +8185,15 @@
         <v>135</v>
       </c>
       <c r="F11" s="27"/>
-      <c r="G11" s="185" t="s">
+      <c r="G11" s="179" t="s">
         <v>239</v>
       </c>
-      <c r="H11" s="186"/>
-      <c r="I11" s="178" t="s">
+      <c r="H11" s="180"/>
+      <c r="I11" s="185" t="s">
         <v>291</v>
       </c>
-      <c r="J11" s="179"/>
-      <c r="K11" s="180"/>
+      <c r="J11" s="186"/>
+      <c r="K11" s="187"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
@@ -8181,11 +8204,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="181"/>
-      <c r="H12" s="182"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="180"/>
+      <c r="G12" s="188"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="185"/>
+      <c r="J12" s="186"/>
+      <c r="K12" s="187"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
@@ -8196,11 +8219,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="180"/>
+      <c r="G13" s="188"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="185"/>
+      <c r="J13" s="186"/>
+      <c r="K13" s="187"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
@@ -8211,11 +8234,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="181"/>
-      <c r="H14" s="182"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="179"/>
-      <c r="K14" s="180"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="185"/>
+      <c r="J14" s="186"/>
+      <c r="K14" s="187"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -8226,11 +8249,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="179"/>
-      <c r="K15" s="180"/>
+      <c r="G15" s="188"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="186"/>
+      <c r="K15" s="187"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -8241,11 +8264,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="181"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="179"/>
-      <c r="K16" s="180"/>
+      <c r="G16" s="188"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="186"/>
+      <c r="K16" s="187"/>
     </row>
     <row r="17" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -8256,11 +8279,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="182"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="179"/>
-      <c r="K17" s="180"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="189"/>
+      <c r="I17" s="185"/>
+      <c r="J17" s="186"/>
+      <c r="K17" s="187"/>
     </row>
     <row r="18" spans="1:11" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -8271,11 +8294,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="181"/>
-      <c r="H18" s="182"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="179"/>
-      <c r="K18" s="180"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="185"/>
+      <c r="J18" s="186"/>
+      <c r="K18" s="187"/>
     </row>
     <row r="19" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -8286,11 +8309,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="182"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="179"/>
-      <c r="K19" s="180"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="185"/>
+      <c r="J19" s="186"/>
+      <c r="K19" s="187"/>
     </row>
     <row r="20" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
@@ -8301,11 +8324,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="181"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="179"/>
-      <c r="K20" s="180"/>
+      <c r="G20" s="188"/>
+      <c r="H20" s="189"/>
+      <c r="I20" s="185"/>
+      <c r="J20" s="186"/>
+      <c r="K20" s="187"/>
     </row>
     <row r="21" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
@@ -8316,11 +8339,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="181"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="179"/>
-      <c r="K21" s="180"/>
+      <c r="G21" s="188"/>
+      <c r="H21" s="189"/>
+      <c r="I21" s="185"/>
+      <c r="J21" s="186"/>
+      <c r="K21" s="187"/>
     </row>
     <row r="22" spans="1:11" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
@@ -8331,11 +8354,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="181"/>
-      <c r="H22" s="182"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="179"/>
-      <c r="K22" s="180"/>
+      <c r="G22" s="188"/>
+      <c r="H22" s="189"/>
+      <c r="I22" s="185"/>
+      <c r="J22" s="186"/>
+      <c r="K22" s="187"/>
     </row>
     <row r="23" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
@@ -8346,11 +8369,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="179"/>
-      <c r="K23" s="180"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="185"/>
+      <c r="J23" s="186"/>
+      <c r="K23" s="187"/>
     </row>
     <row r="24" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
@@ -8361,11 +8384,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="179"/>
-      <c r="K24" s="180"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="185"/>
+      <c r="J24" s="186"/>
+      <c r="K24" s="187"/>
     </row>
     <row r="25" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
@@ -8376,11 +8399,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="179"/>
-      <c r="K25" s="180"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="185"/>
+      <c r="J25" s="186"/>
+      <c r="K25" s="187"/>
     </row>
     <row r="26" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
@@ -8391,11 +8414,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="147"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="179"/>
-      <c r="K26" s="180"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="185"/>
+      <c r="J26" s="186"/>
+      <c r="K26" s="187"/>
     </row>
     <row r="27" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
@@ -8406,11 +8429,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="179"/>
-      <c r="K27" s="180"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="185"/>
+      <c r="J27" s="186"/>
+      <c r="K27" s="187"/>
     </row>
     <row r="28" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
@@ -8421,11 +8444,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="147"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="179"/>
-      <c r="K28" s="180"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="186"/>
+      <c r="K28" s="187"/>
     </row>
     <row r="29" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
@@ -8436,11 +8459,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="179"/>
-      <c r="K29" s="180"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="185"/>
+      <c r="J29" s="186"/>
+      <c r="K29" s="187"/>
     </row>
     <row r="30" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
@@ -8451,11 +8474,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="179"/>
-      <c r="K30" s="180"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="186"/>
+      <c r="K30" s="187"/>
     </row>
     <row r="31" spans="1:11" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
@@ -8466,11 +8489,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="147"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="179"/>
-      <c r="K31" s="180"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="185"/>
+      <c r="J31" s="186"/>
+      <c r="K31" s="187"/>
     </row>
     <row r="32" spans="1:11" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33">
@@ -8481,11 +8504,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="178"/>
-      <c r="J32" s="179"/>
-      <c r="K32" s="180"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="185"/>
+      <c r="J32" s="186"/>
+      <c r="K32" s="187"/>
     </row>
     <row r="33" spans="1:19" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A33" s="33">
@@ -8496,11 +8519,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="178"/>
-      <c r="J33" s="179"/>
-      <c r="K33" s="180"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="185"/>
+      <c r="J33" s="186"/>
+      <c r="K33" s="187"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -8518,11 +8541,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="145"/>
-      <c r="H34" s="147"/>
-      <c r="I34" s="178"/>
-      <c r="J34" s="179"/>
-      <c r="K34" s="180"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="185"/>
+      <c r="J34" s="186"/>
+      <c r="K34" s="187"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -8540,11 +8563,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="145"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="178"/>
-      <c r="J35" s="179"/>
-      <c r="K35" s="180"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="185"/>
+      <c r="J35" s="186"/>
+      <c r="K35" s="187"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -8562,11 +8585,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="145"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="178"/>
-      <c r="J36" s="179"/>
-      <c r="K36" s="180"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="185"/>
+      <c r="J36" s="186"/>
+      <c r="K36" s="187"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -8584,11 +8607,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="145"/>
-      <c r="H37" s="147"/>
-      <c r="I37" s="178"/>
-      <c r="J37" s="179"/>
-      <c r="K37" s="180"/>
+      <c r="G37" s="147"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="185"/>
+      <c r="J37" s="186"/>
+      <c r="K37" s="187"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -8606,11 +8629,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="145"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="178"/>
-      <c r="J38" s="179"/>
-      <c r="K38" s="180"/>
+      <c r="G38" s="147"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="185"/>
+      <c r="J38" s="186"/>
+      <c r="K38" s="187"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -8628,11 +8651,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="145"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="178"/>
-      <c r="J39" s="179"/>
-      <c r="K39" s="180"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="185"/>
+      <c r="J39" s="186"/>
+      <c r="K39" s="187"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -8650,11 +8673,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="145"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="178"/>
-      <c r="J40" s="179"/>
-      <c r="K40" s="180"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="185"/>
+      <c r="J40" s="186"/>
+      <c r="K40" s="187"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -8672,11 +8695,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="145"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="178"/>
-      <c r="J41" s="179"/>
-      <c r="K41" s="180"/>
+      <c r="G41" s="147"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="185"/>
+      <c r="J41" s="186"/>
+      <c r="K41" s="187"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -8694,11 +8717,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="145"/>
-      <c r="H42" s="147"/>
-      <c r="I42" s="178"/>
-      <c r="J42" s="179"/>
-      <c r="K42" s="180"/>
+      <c r="G42" s="147"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="185"/>
+      <c r="J42" s="186"/>
+      <c r="K42" s="187"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -8716,11 +8739,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="145"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="178"/>
-      <c r="J43" s="179"/>
-      <c r="K43" s="180"/>
+      <c r="G43" s="147"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="185"/>
+      <c r="J43" s="186"/>
+      <c r="K43" s="187"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -8738,11 +8761,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="145"/>
-      <c r="H44" s="147"/>
-      <c r="I44" s="178"/>
-      <c r="J44" s="179"/>
-      <c r="K44" s="180"/>
+      <c r="G44" s="147"/>
+      <c r="H44" s="149"/>
+      <c r="I44" s="185"/>
+      <c r="J44" s="186"/>
+      <c r="K44" s="187"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -8760,11 +8783,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="145"/>
-      <c r="H45" s="147"/>
-      <c r="I45" s="178"/>
-      <c r="J45" s="179"/>
-      <c r="K45" s="180"/>
+      <c r="G45" s="147"/>
+      <c r="H45" s="149"/>
+      <c r="I45" s="185"/>
+      <c r="J45" s="186"/>
+      <c r="K45" s="187"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -8782,11 +8805,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="145"/>
-      <c r="H46" s="147"/>
-      <c r="I46" s="178"/>
-      <c r="J46" s="179"/>
-      <c r="K46" s="180"/>
+      <c r="G46" s="147"/>
+      <c r="H46" s="149"/>
+      <c r="I46" s="185"/>
+      <c r="J46" s="186"/>
+      <c r="K46" s="187"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -8804,11 +8827,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="145"/>
-      <c r="H47" s="147"/>
-      <c r="I47" s="178"/>
-      <c r="J47" s="179"/>
-      <c r="K47" s="180"/>
+      <c r="G47" s="147"/>
+      <c r="H47" s="149"/>
+      <c r="I47" s="185"/>
+      <c r="J47" s="186"/>
+      <c r="K47" s="187"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -8826,11 +8849,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="145"/>
-      <c r="H48" s="147"/>
-      <c r="I48" s="178"/>
-      <c r="J48" s="179"/>
-      <c r="K48" s="180"/>
+      <c r="G48" s="147"/>
+      <c r="H48" s="149"/>
+      <c r="I48" s="185"/>
+      <c r="J48" s="186"/>
+      <c r="K48" s="187"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -8848,11 +8871,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="145"/>
-      <c r="H49" s="147"/>
-      <c r="I49" s="178"/>
-      <c r="J49" s="179"/>
-      <c r="K49" s="180"/>
+      <c r="G49" s="147"/>
+      <c r="H49" s="149"/>
+      <c r="I49" s="185"/>
+      <c r="J49" s="186"/>
+      <c r="K49" s="187"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -8870,11 +8893,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="145"/>
-      <c r="H50" s="147"/>
-      <c r="I50" s="178"/>
-      <c r="J50" s="179"/>
-      <c r="K50" s="180"/>
+      <c r="G50" s="147"/>
+      <c r="H50" s="149"/>
+      <c r="I50" s="185"/>
+      <c r="J50" s="186"/>
+      <c r="K50" s="187"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -8892,11 +8915,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="145"/>
-      <c r="H51" s="147"/>
-      <c r="I51" s="178"/>
-      <c r="J51" s="179"/>
-      <c r="K51" s="180"/>
+      <c r="G51" s="147"/>
+      <c r="H51" s="149"/>
+      <c r="I51" s="185"/>
+      <c r="J51" s="186"/>
+      <c r="K51" s="187"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -8914,11 +8937,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="145"/>
-      <c r="H52" s="147"/>
-      <c r="I52" s="178"/>
-      <c r="J52" s="179"/>
-      <c r="K52" s="180"/>
+      <c r="G52" s="147"/>
+      <c r="H52" s="149"/>
+      <c r="I52" s="185"/>
+      <c r="J52" s="186"/>
+      <c r="K52" s="187"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -8936,11 +8959,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="145"/>
-      <c r="H53" s="147"/>
-      <c r="I53" s="178"/>
-      <c r="J53" s="179"/>
-      <c r="K53" s="180"/>
+      <c r="G53" s="147"/>
+      <c r="H53" s="149"/>
+      <c r="I53" s="185"/>
+      <c r="J53" s="186"/>
+      <c r="K53" s="187"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -8958,11 +8981,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="145"/>
-      <c r="H54" s="147"/>
-      <c r="I54" s="178"/>
-      <c r="J54" s="179"/>
-      <c r="K54" s="180"/>
+      <c r="G54" s="147"/>
+      <c r="H54" s="149"/>
+      <c r="I54" s="185"/>
+      <c r="J54" s="186"/>
+      <c r="K54" s="187"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -8980,11 +9003,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="145"/>
-      <c r="H55" s="147"/>
-      <c r="I55" s="178"/>
-      <c r="J55" s="179"/>
-      <c r="K55" s="180"/>
+      <c r="G55" s="147"/>
+      <c r="H55" s="149"/>
+      <c r="I55" s="185"/>
+      <c r="J55" s="186"/>
+      <c r="K55" s="187"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -9002,11 +9025,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="145"/>
-      <c r="H56" s="147"/>
-      <c r="I56" s="178"/>
-      <c r="J56" s="179"/>
-      <c r="K56" s="180"/>
+      <c r="G56" s="147"/>
+      <c r="H56" s="149"/>
+      <c r="I56" s="185"/>
+      <c r="J56" s="186"/>
+      <c r="K56" s="187"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -9024,11 +9047,11 @@
       <c r="D57" s="33"/>
       <c r="E57" s="33"/>
       <c r="F57" s="32"/>
-      <c r="G57" s="145"/>
-      <c r="H57" s="147"/>
-      <c r="I57" s="178"/>
-      <c r="J57" s="179"/>
-      <c r="K57" s="180"/>
+      <c r="G57" s="147"/>
+      <c r="H57" s="149"/>
+      <c r="I57" s="185"/>
+      <c r="J57" s="186"/>
+      <c r="K57" s="187"/>
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
@@ -9040,27 +9063,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="109">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
@@ -9075,80 +9151,27 @@
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="I20:K20"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F57">
@@ -9170,8 +9193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048468"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9199,24 +9222,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="192" t="str">
+      <c r="J1" s="193" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="192"/>
+      <c r="K1" s="193"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -9244,22 +9267,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="151"/>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="192" t="str">
+      <c r="J2" s="193" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="K2" s="192"/>
+      <c r="K2" s="193"/>
       <c r="L2" s="26" t="s">
         <v>50</v>
       </c>
@@ -9317,12 +9340,12 @@
       <c r="J4" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="158" t="s">
+      <c r="K4" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="159"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="160"/>
       <c r="O4" s="39" t="s">
         <v>57</v>
       </c>
@@ -9370,12 +9393,12 @@
       <c r="J5" s="126" t="s">
         <v>213</v>
       </c>
-      <c r="K5" s="148" t="s">
-        <v>301</v>
-      </c>
-      <c r="L5" s="149"/>
-      <c r="M5" s="149"/>
-      <c r="N5" s="150"/>
+      <c r="K5" s="150" t="s">
+        <v>300</v>
+      </c>
+      <c r="L5" s="151"/>
+      <c r="M5" s="151"/>
+      <c r="N5" s="152"/>
       <c r="O5" s="129" t="s">
         <v>135</v>
       </c>
@@ -9419,17 +9442,17 @@
       <c r="J6" s="126" t="s">
         <v>215</v>
       </c>
-      <c r="K6" s="148" t="s">
+      <c r="K6" s="150" t="s">
         <v>298</v>
       </c>
-      <c r="L6" s="149"/>
-      <c r="M6" s="149"/>
-      <c r="N6" s="150"/>
-      <c r="O6" s="144" t="s">
+      <c r="L6" s="151"/>
+      <c r="M6" s="151"/>
+      <c r="N6" s="152"/>
+      <c r="O6" s="143" t="s">
         <v>299</v>
       </c>
       <c r="P6" s="144" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q6" s="76" t="s">
         <v>197</v>
@@ -9468,12 +9491,12 @@
       <c r="J7" s="126" t="s">
         <v>216</v>
       </c>
-      <c r="K7" s="148" t="s">
+      <c r="K7" s="150" t="s">
         <v>246</v>
       </c>
-      <c r="L7" s="149"/>
-      <c r="M7" s="149"/>
-      <c r="N7" s="150"/>
+      <c r="L7" s="151"/>
+      <c r="M7" s="151"/>
+      <c r="N7" s="152"/>
       <c r="O7" s="129" t="s">
         <v>244</v>
       </c>
@@ -9519,16 +9542,16 @@
       <c r="J8" s="126" t="s">
         <v>218</v>
       </c>
-      <c r="K8" s="148" t="s">
+      <c r="K8" s="150" t="s">
         <v>247</v>
       </c>
-      <c r="L8" s="149"/>
-      <c r="M8" s="149"/>
-      <c r="N8" s="150"/>
+      <c r="L8" s="151"/>
+      <c r="M8" s="151"/>
+      <c r="N8" s="152"/>
       <c r="O8" s="129" t="s">
         <v>248</v>
       </c>
-      <c r="P8" s="144" t="s">
+      <c r="P8" s="143" t="s">
         <v>249</v>
       </c>
       <c r="Q8" s="76" t="s">
@@ -9568,12 +9591,12 @@
       <c r="J9" s="126" t="s">
         <v>223</v>
       </c>
-      <c r="K9" s="148" t="s">
+      <c r="K9" s="150" t="s">
         <v>282</v>
       </c>
-      <c r="L9" s="149"/>
-      <c r="M9" s="149"/>
-      <c r="N9" s="150"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="151"/>
+      <c r="N9" s="152"/>
       <c r="O9" s="142" t="s">
         <v>283</v>
       </c>
@@ -9605,10 +9628,10 @@
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
       <c r="J10" s="82"/>
-      <c r="K10" s="189"/>
-      <c r="L10" s="190"/>
-      <c r="M10" s="190"/>
-      <c r="N10" s="191"/>
+      <c r="K10" s="190"/>
+      <c r="L10" s="191"/>
+      <c r="M10" s="191"/>
+      <c r="N10" s="192"/>
       <c r="O10" s="140"/>
       <c r="P10" s="140"/>
       <c r="Q10" s="76"/>
@@ -9630,10 +9653,10 @@
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="82"/>
-      <c r="K11" s="189"/>
-      <c r="L11" s="190"/>
-      <c r="M11" s="190"/>
-      <c r="N11" s="191"/>
+      <c r="K11" s="190"/>
+      <c r="L11" s="191"/>
+      <c r="M11" s="191"/>
+      <c r="N11" s="192"/>
       <c r="O11" s="89"/>
       <c r="P11" s="89"/>
       <c r="Q11" s="76"/>
@@ -9655,10 +9678,10 @@
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
       <c r="J12" s="82"/>
-      <c r="K12" s="189"/>
-      <c r="L12" s="190"/>
-      <c r="M12" s="190"/>
-      <c r="N12" s="191"/>
+      <c r="K12" s="190"/>
+      <c r="L12" s="191"/>
+      <c r="M12" s="191"/>
+      <c r="N12" s="192"/>
       <c r="O12" s="89"/>
       <c r="P12" s="89"/>
       <c r="Q12" s="76"/>
@@ -9680,10 +9703,10 @@
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="J13" s="82"/>
-      <c r="K13" s="189"/>
-      <c r="L13" s="190"/>
-      <c r="M13" s="190"/>
-      <c r="N13" s="191"/>
+      <c r="K13" s="190"/>
+      <c r="L13" s="191"/>
+      <c r="M13" s="191"/>
+      <c r="N13" s="192"/>
       <c r="O13" s="85"/>
       <c r="P13" s="85"/>
       <c r="Q13" s="76"/>
@@ -9705,10 +9728,10 @@
       <c r="H14" s="63"/>
       <c r="I14" s="63"/>
       <c r="J14" s="82"/>
-      <c r="K14" s="189"/>
-      <c r="L14" s="190"/>
-      <c r="M14" s="190"/>
-      <c r="N14" s="191"/>
+      <c r="K14" s="190"/>
+      <c r="L14" s="191"/>
+      <c r="M14" s="191"/>
+      <c r="N14" s="192"/>
       <c r="O14" s="85"/>
       <c r="P14" s="85"/>
       <c r="Q14" s="76"/>
@@ -9730,10 +9753,10 @@
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
       <c r="J15" s="82"/>
-      <c r="K15" s="189"/>
-      <c r="L15" s="190"/>
-      <c r="M15" s="190"/>
-      <c r="N15" s="191"/>
+      <c r="K15" s="190"/>
+      <c r="L15" s="191"/>
+      <c r="M15" s="191"/>
+      <c r="N15" s="192"/>
       <c r="O15" s="81"/>
       <c r="P15" s="81"/>
       <c r="Q15" s="76"/>
@@ -9755,10 +9778,10 @@
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
       <c r="J16" s="82"/>
-      <c r="K16" s="189"/>
-      <c r="L16" s="190"/>
-      <c r="M16" s="190"/>
-      <c r="N16" s="191"/>
+      <c r="K16" s="190"/>
+      <c r="L16" s="191"/>
+      <c r="M16" s="191"/>
+      <c r="N16" s="192"/>
       <c r="O16" s="81"/>
       <c r="P16" s="81"/>
       <c r="Q16" s="76"/>
@@ -9780,10 +9803,10 @@
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="189"/>
-      <c r="L17" s="190"/>
-      <c r="M17" s="190"/>
-      <c r="N17" s="191"/>
+      <c r="K17" s="190"/>
+      <c r="L17" s="191"/>
+      <c r="M17" s="191"/>
+      <c r="N17" s="192"/>
       <c r="O17" s="72"/>
       <c r="P17" s="60"/>
       <c r="Q17" s="76"/>
@@ -9805,10 +9828,10 @@
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="189"/>
-      <c r="L18" s="190"/>
-      <c r="M18" s="190"/>
-      <c r="N18" s="191"/>
+      <c r="K18" s="190"/>
+      <c r="L18" s="191"/>
+      <c r="M18" s="191"/>
+      <c r="N18" s="192"/>
       <c r="O18" s="60"/>
       <c r="P18" s="60"/>
       <c r="Q18" s="76"/>
@@ -9830,10 +9853,10 @@
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="189"/>
-      <c r="L19" s="190"/>
-      <c r="M19" s="190"/>
-      <c r="N19" s="191"/>
+      <c r="K19" s="190"/>
+      <c r="L19" s="191"/>
+      <c r="M19" s="191"/>
+      <c r="N19" s="192"/>
       <c r="O19" s="60"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="76"/>
@@ -9855,10 +9878,10 @@
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="189"/>
-      <c r="L20" s="190"/>
-      <c r="M20" s="190"/>
-      <c r="N20" s="191"/>
+      <c r="K20" s="190"/>
+      <c r="L20" s="191"/>
+      <c r="M20" s="191"/>
+      <c r="N20" s="192"/>
       <c r="O20" s="60"/>
       <c r="P20" s="60"/>
       <c r="Q20" s="76"/>
@@ -9880,10 +9903,10 @@
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="189"/>
-      <c r="L21" s="190"/>
-      <c r="M21" s="190"/>
-      <c r="N21" s="191"/>
+      <c r="K21" s="190"/>
+      <c r="L21" s="191"/>
+      <c r="M21" s="191"/>
+      <c r="N21" s="192"/>
       <c r="O21" s="60"/>
       <c r="P21" s="60"/>
       <c r="Q21" s="76"/>
@@ -9905,10 +9928,10 @@
       <c r="H22" s="63"/>
       <c r="I22" s="63"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="189"/>
-      <c r="L22" s="190"/>
-      <c r="M22" s="190"/>
-      <c r="N22" s="191"/>
+      <c r="K22" s="190"/>
+      <c r="L22" s="191"/>
+      <c r="M22" s="191"/>
+      <c r="N22" s="192"/>
       <c r="O22" s="60"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="76"/>
@@ -9930,10 +9953,10 @@
       <c r="H23" s="63"/>
       <c r="I23" s="63"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="189"/>
-      <c r="L23" s="190"/>
-      <c r="M23" s="190"/>
-      <c r="N23" s="191"/>
+      <c r="K23" s="190"/>
+      <c r="L23" s="191"/>
+      <c r="M23" s="191"/>
+      <c r="N23" s="192"/>
       <c r="O23" s="60"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="76"/>
@@ -9955,10 +9978,10 @@
       <c r="H24" s="63"/>
       <c r="I24" s="63"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="189"/>
-      <c r="L24" s="190"/>
-      <c r="M24" s="190"/>
-      <c r="N24" s="191"/>
+      <c r="K24" s="190"/>
+      <c r="L24" s="191"/>
+      <c r="M24" s="191"/>
+      <c r="N24" s="192"/>
       <c r="O24" s="60"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="76"/>
@@ -9980,10 +10003,10 @@
       <c r="H25" s="63"/>
       <c r="I25" s="63"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="189"/>
-      <c r="L25" s="190"/>
-      <c r="M25" s="190"/>
-      <c r="N25" s="191"/>
+      <c r="K25" s="190"/>
+      <c r="L25" s="191"/>
+      <c r="M25" s="191"/>
+      <c r="N25" s="192"/>
       <c r="O25" s="60"/>
       <c r="P25" s="60"/>
       <c r="Q25" s="76"/>
@@ -10005,10 +10028,10 @@
       <c r="H26" s="63"/>
       <c r="I26" s="63"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="189"/>
-      <c r="L26" s="190"/>
-      <c r="M26" s="190"/>
-      <c r="N26" s="191"/>
+      <c r="K26" s="190"/>
+      <c r="L26" s="191"/>
+      <c r="M26" s="191"/>
+      <c r="N26" s="192"/>
       <c r="O26" s="60"/>
       <c r="P26" s="60"/>
       <c r="Q26" s="76"/>
@@ -10030,10 +10053,10 @@
       <c r="H27" s="63"/>
       <c r="I27" s="63"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="189"/>
-      <c r="L27" s="190"/>
-      <c r="M27" s="190"/>
-      <c r="N27" s="191"/>
+      <c r="K27" s="190"/>
+      <c r="L27" s="191"/>
+      <c r="M27" s="191"/>
+      <c r="N27" s="192"/>
       <c r="O27" s="60"/>
       <c r="P27" s="60"/>
       <c r="Q27" s="76"/>
@@ -10055,10 +10078,10 @@
       <c r="H28" s="63"/>
       <c r="I28" s="63"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="189"/>
-      <c r="L28" s="190"/>
-      <c r="M28" s="190"/>
-      <c r="N28" s="191"/>
+      <c r="K28" s="190"/>
+      <c r="L28" s="191"/>
+      <c r="M28" s="191"/>
+      <c r="N28" s="192"/>
       <c r="O28" s="60"/>
       <c r="P28" s="60"/>
       <c r="Q28" s="76"/>
@@ -10080,10 +10103,10 @@
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="189"/>
-      <c r="L29" s="190"/>
-      <c r="M29" s="190"/>
-      <c r="N29" s="191"/>
+      <c r="K29" s="190"/>
+      <c r="L29" s="191"/>
+      <c r="M29" s="191"/>
+      <c r="N29" s="192"/>
       <c r="O29" s="60"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="76"/>
@@ -10105,10 +10128,10 @@
       <c r="H30" s="63"/>
       <c r="I30" s="63"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="189"/>
-      <c r="L30" s="190"/>
-      <c r="M30" s="190"/>
-      <c r="N30" s="191"/>
+      <c r="K30" s="190"/>
+      <c r="L30" s="191"/>
+      <c r="M30" s="191"/>
+      <c r="N30" s="192"/>
       <c r="O30" s="60"/>
       <c r="P30" s="60"/>
       <c r="Q30" s="76"/>
@@ -10130,10 +10153,10 @@
       <c r="H31" s="63"/>
       <c r="I31" s="63"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="189"/>
-      <c r="L31" s="190"/>
-      <c r="M31" s="190"/>
-      <c r="N31" s="191"/>
+      <c r="K31" s="190"/>
+      <c r="L31" s="191"/>
+      <c r="M31" s="191"/>
+      <c r="N31" s="192"/>
       <c r="O31" s="60"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="76"/>
@@ -10155,10 +10178,10 @@
       <c r="H32" s="63"/>
       <c r="I32" s="63"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="189"/>
-      <c r="L32" s="190"/>
-      <c r="M32" s="190"/>
-      <c r="N32" s="191"/>
+      <c r="K32" s="190"/>
+      <c r="L32" s="191"/>
+      <c r="M32" s="191"/>
+      <c r="N32" s="192"/>
       <c r="O32" s="60"/>
       <c r="P32" s="60"/>
       <c r="Q32" s="76"/>
@@ -10180,10 +10203,10 @@
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="189"/>
-      <c r="L33" s="190"/>
-      <c r="M33" s="190"/>
-      <c r="N33" s="191"/>
+      <c r="K33" s="190"/>
+      <c r="L33" s="191"/>
+      <c r="M33" s="191"/>
+      <c r="N33" s="192"/>
       <c r="O33" s="60"/>
       <c r="P33" s="60"/>
       <c r="Q33" s="76"/>
@@ -10205,10 +10228,10 @@
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
       <c r="J34" s="40"/>
-      <c r="K34" s="189"/>
-      <c r="L34" s="190"/>
-      <c r="M34" s="190"/>
-      <c r="N34" s="191"/>
+      <c r="K34" s="190"/>
+      <c r="L34" s="191"/>
+      <c r="M34" s="191"/>
+      <c r="N34" s="192"/>
       <c r="O34" s="60"/>
       <c r="P34" s="60"/>
       <c r="Q34" s="76"/>
@@ -10230,10 +10253,10 @@
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
       <c r="J35" s="82"/>
-      <c r="K35" s="189"/>
-      <c r="L35" s="190"/>
-      <c r="M35" s="190"/>
-      <c r="N35" s="191"/>
+      <c r="K35" s="190"/>
+      <c r="L35" s="191"/>
+      <c r="M35" s="191"/>
+      <c r="N35" s="192"/>
       <c r="O35" s="85"/>
       <c r="P35" s="85"/>
       <c r="Q35" s="76"/>
@@ -10255,10 +10278,10 @@
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="189"/>
-      <c r="L36" s="190"/>
-      <c r="M36" s="190"/>
-      <c r="N36" s="191"/>
+      <c r="K36" s="190"/>
+      <c r="L36" s="191"/>
+      <c r="M36" s="191"/>
+      <c r="N36" s="192"/>
       <c r="O36" s="60"/>
       <c r="P36" s="60"/>
       <c r="Q36" s="76"/>
@@ -10280,10 +10303,10 @@
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="189"/>
-      <c r="L37" s="190"/>
-      <c r="M37" s="190"/>
-      <c r="N37" s="191"/>
+      <c r="K37" s="190"/>
+      <c r="L37" s="191"/>
+      <c r="M37" s="191"/>
+      <c r="N37" s="192"/>
       <c r="O37" s="60"/>
       <c r="P37" s="60"/>
       <c r="Q37" s="76"/>
@@ -10305,10 +10328,10 @@
       <c r="H38" s="63"/>
       <c r="I38" s="63"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="189"/>
-      <c r="L38" s="190"/>
-      <c r="M38" s="190"/>
-      <c r="N38" s="191"/>
+      <c r="K38" s="190"/>
+      <c r="L38" s="191"/>
+      <c r="M38" s="191"/>
+      <c r="N38" s="192"/>
       <c r="O38" s="60"/>
       <c r="P38" s="60"/>
       <c r="Q38" s="76"/>
@@ -10330,10 +10353,10 @@
       <c r="H39" s="63"/>
       <c r="I39" s="63"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="189"/>
-      <c r="L39" s="190"/>
-      <c r="M39" s="190"/>
-      <c r="N39" s="191"/>
+      <c r="K39" s="190"/>
+      <c r="L39" s="191"/>
+      <c r="M39" s="191"/>
+      <c r="N39" s="192"/>
       <c r="O39" s="60"/>
       <c r="P39" s="60"/>
       <c r="Q39" s="76"/>
@@ -10355,10 +10378,10 @@
       <c r="H40" s="63"/>
       <c r="I40" s="63"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="189"/>
-      <c r="L40" s="190"/>
-      <c r="M40" s="190"/>
-      <c r="N40" s="191"/>
+      <c r="K40" s="190"/>
+      <c r="L40" s="191"/>
+      <c r="M40" s="191"/>
+      <c r="N40" s="192"/>
       <c r="O40" s="60"/>
       <c r="P40" s="60"/>
       <c r="Q40" s="76"/>
@@ -10380,10 +10403,10 @@
       <c r="H41" s="63"/>
       <c r="I41" s="63"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="189"/>
-      <c r="L41" s="190"/>
-      <c r="M41" s="190"/>
-      <c r="N41" s="191"/>
+      <c r="K41" s="190"/>
+      <c r="L41" s="191"/>
+      <c r="M41" s="191"/>
+      <c r="N41" s="192"/>
       <c r="O41" s="74"/>
       <c r="P41" s="74"/>
       <c r="Q41" s="76"/>
@@ -10405,10 +10428,10 @@
       <c r="H42" s="63"/>
       <c r="I42" s="63"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="189"/>
-      <c r="L42" s="190"/>
-      <c r="M42" s="190"/>
-      <c r="N42" s="191"/>
+      <c r="K42" s="190"/>
+      <c r="L42" s="191"/>
+      <c r="M42" s="191"/>
+      <c r="N42" s="192"/>
       <c r="O42" s="74"/>
       <c r="P42" s="74"/>
       <c r="Q42" s="76"/>
@@ -10430,10 +10453,10 @@
       <c r="H43" s="63"/>
       <c r="I43" s="63"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="189"/>
-      <c r="L43" s="190"/>
-      <c r="M43" s="190"/>
-      <c r="N43" s="191"/>
+      <c r="K43" s="190"/>
+      <c r="L43" s="191"/>
+      <c r="M43" s="191"/>
+      <c r="N43" s="192"/>
       <c r="O43" s="74"/>
       <c r="P43" s="74"/>
       <c r="Q43" s="76"/>
@@ -10455,10 +10478,10 @@
       <c r="H44" s="63"/>
       <c r="I44" s="63"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="189"/>
-      <c r="L44" s="190"/>
-      <c r="M44" s="190"/>
-      <c r="N44" s="191"/>
+      <c r="K44" s="190"/>
+      <c r="L44" s="191"/>
+      <c r="M44" s="191"/>
+      <c r="N44" s="192"/>
       <c r="O44" s="74"/>
       <c r="P44" s="74"/>
       <c r="Q44" s="76"/>
@@ -10480,10 +10503,10 @@
       <c r="H45" s="63"/>
       <c r="I45" s="63"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="189"/>
-      <c r="L45" s="190"/>
-      <c r="M45" s="190"/>
-      <c r="N45" s="191"/>
+      <c r="K45" s="190"/>
+      <c r="L45" s="191"/>
+      <c r="M45" s="191"/>
+      <c r="N45" s="192"/>
       <c r="O45" s="74"/>
       <c r="P45" s="74"/>
       <c r="Q45" s="76"/>
@@ -10505,10 +10528,10 @@
       <c r="H46" s="63"/>
       <c r="I46" s="63"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="189"/>
-      <c r="L46" s="190"/>
-      <c r="M46" s="190"/>
-      <c r="N46" s="191"/>
+      <c r="K46" s="190"/>
+      <c r="L46" s="191"/>
+      <c r="M46" s="191"/>
+      <c r="N46" s="192"/>
       <c r="O46" s="74"/>
       <c r="P46" s="74"/>
       <c r="Q46" s="76"/>
@@ -10530,10 +10553,10 @@
       <c r="H47" s="63"/>
       <c r="I47" s="63"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="189"/>
-      <c r="L47" s="190"/>
-      <c r="M47" s="190"/>
-      <c r="N47" s="191"/>
+      <c r="K47" s="190"/>
+      <c r="L47" s="191"/>
+      <c r="M47" s="191"/>
+      <c r="N47" s="192"/>
       <c r="O47" s="74"/>
       <c r="P47" s="74"/>
       <c r="Q47" s="76"/>
@@ -10555,10 +10578,10 @@
       <c r="H48" s="63"/>
       <c r="I48" s="63"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="189"/>
-      <c r="L48" s="190"/>
-      <c r="M48" s="190"/>
-      <c r="N48" s="191"/>
+      <c r="K48" s="190"/>
+      <c r="L48" s="191"/>
+      <c r="M48" s="191"/>
+      <c r="N48" s="192"/>
       <c r="O48" s="74"/>
       <c r="P48" s="74"/>
       <c r="Q48" s="76"/>
@@ -10580,10 +10603,10 @@
       <c r="H49" s="63"/>
       <c r="I49" s="63"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="189"/>
-      <c r="L49" s="190"/>
-      <c r="M49" s="190"/>
-      <c r="N49" s="191"/>
+      <c r="K49" s="190"/>
+      <c r="L49" s="191"/>
+      <c r="M49" s="191"/>
+      <c r="N49" s="192"/>
       <c r="O49" s="74"/>
       <c r="P49" s="74"/>
       <c r="Q49" s="76"/>
@@ -10605,10 +10628,10 @@
       <c r="H50" s="63"/>
       <c r="I50" s="63"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="189"/>
-      <c r="L50" s="190"/>
-      <c r="M50" s="190"/>
-      <c r="N50" s="191"/>
+      <c r="K50" s="190"/>
+      <c r="L50" s="191"/>
+      <c r="M50" s="191"/>
+      <c r="N50" s="192"/>
       <c r="O50" s="74"/>
       <c r="P50" s="74"/>
       <c r="Q50" s="76"/>
@@ -10630,10 +10653,10 @@
       <c r="H51" s="63"/>
       <c r="I51" s="63"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="189"/>
-      <c r="L51" s="190"/>
-      <c r="M51" s="190"/>
-      <c r="N51" s="191"/>
+      <c r="K51" s="190"/>
+      <c r="L51" s="191"/>
+      <c r="M51" s="191"/>
+      <c r="N51" s="192"/>
       <c r="O51" s="74"/>
       <c r="P51" s="74"/>
       <c r="Q51" s="76"/>
@@ -10655,10 +10678,10 @@
       <c r="H52" s="63"/>
       <c r="I52" s="63"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="189"/>
-      <c r="L52" s="190"/>
-      <c r="M52" s="190"/>
-      <c r="N52" s="191"/>
+      <c r="K52" s="190"/>
+      <c r="L52" s="191"/>
+      <c r="M52" s="191"/>
+      <c r="N52" s="192"/>
       <c r="O52" s="74"/>
       <c r="P52" s="74"/>
       <c r="Q52" s="76"/>
@@ -10680,10 +10703,10 @@
       <c r="H53" s="63"/>
       <c r="I53" s="63"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="189"/>
-      <c r="L53" s="190"/>
-      <c r="M53" s="190"/>
-      <c r="N53" s="191"/>
+      <c r="K53" s="190"/>
+      <c r="L53" s="191"/>
+      <c r="M53" s="191"/>
+      <c r="N53" s="192"/>
       <c r="O53" s="74"/>
       <c r="P53" s="74"/>
       <c r="Q53" s="76"/>
@@ -10705,10 +10728,10 @@
       <c r="H54" s="63"/>
       <c r="I54" s="63"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="189"/>
-      <c r="L54" s="190"/>
-      <c r="M54" s="190"/>
-      <c r="N54" s="191"/>
+      <c r="K54" s="190"/>
+      <c r="L54" s="191"/>
+      <c r="M54" s="191"/>
+      <c r="N54" s="192"/>
       <c r="O54" s="74"/>
       <c r="P54" s="74"/>
       <c r="Q54" s="76"/>
@@ -10730,10 +10753,10 @@
       <c r="H55" s="63"/>
       <c r="I55" s="63"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="189"/>
-      <c r="L55" s="190"/>
-      <c r="M55" s="190"/>
-      <c r="N55" s="191"/>
+      <c r="K55" s="190"/>
+      <c r="L55" s="191"/>
+      <c r="M55" s="191"/>
+      <c r="N55" s="192"/>
       <c r="O55" s="74"/>
       <c r="P55" s="74"/>
       <c r="Q55" s="76"/>
@@ -10755,10 +10778,10 @@
       <c r="H56" s="63"/>
       <c r="I56" s="63"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="189"/>
-      <c r="L56" s="190"/>
-      <c r="M56" s="190"/>
-      <c r="N56" s="191"/>
+      <c r="K56" s="190"/>
+      <c r="L56" s="191"/>
+      <c r="M56" s="191"/>
+      <c r="N56" s="192"/>
       <c r="O56" s="74"/>
       <c r="P56" s="74"/>
       <c r="Q56" s="76"/>
@@ -10780,10 +10803,10 @@
       <c r="H57" s="63"/>
       <c r="I57" s="63"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="189"/>
-      <c r="L57" s="190"/>
-      <c r="M57" s="190"/>
-      <c r="N57" s="191"/>
+      <c r="K57" s="190"/>
+      <c r="L57" s="191"/>
+      <c r="M57" s="191"/>
+      <c r="N57" s="192"/>
       <c r="O57" s="74"/>
       <c r="P57" s="74"/>
       <c r="Q57" s="76"/>
@@ -10805,10 +10828,10 @@
       <c r="H58" s="63"/>
       <c r="I58" s="63"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="189"/>
-      <c r="L58" s="190"/>
-      <c r="M58" s="190"/>
-      <c r="N58" s="191"/>
+      <c r="K58" s="190"/>
+      <c r="L58" s="191"/>
+      <c r="M58" s="191"/>
+      <c r="N58" s="192"/>
       <c r="O58" s="74"/>
       <c r="P58" s="74"/>
       <c r="Q58" s="76"/>
@@ -10830,10 +10853,10 @@
       <c r="H59" s="63"/>
       <c r="I59" s="63"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="189"/>
-      <c r="L59" s="190"/>
-      <c r="M59" s="190"/>
-      <c r="N59" s="191"/>
+      <c r="K59" s="190"/>
+      <c r="L59" s="191"/>
+      <c r="M59" s="191"/>
+      <c r="N59" s="192"/>
       <c r="O59" s="74"/>
       <c r="P59" s="74"/>
       <c r="Q59" s="76"/>
@@ -10855,10 +10878,10 @@
       <c r="H60" s="63"/>
       <c r="I60" s="63"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="189"/>
-      <c r="L60" s="190"/>
-      <c r="M60" s="190"/>
-      <c r="N60" s="191"/>
+      <c r="K60" s="190"/>
+      <c r="L60" s="191"/>
+      <c r="M60" s="191"/>
+      <c r="N60" s="192"/>
       <c r="O60" s="74"/>
       <c r="P60" s="74"/>
       <c r="Q60" s="76"/>
@@ -10880,10 +10903,10 @@
       <c r="H61" s="63"/>
       <c r="I61" s="63"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="189"/>
-      <c r="L61" s="190"/>
-      <c r="M61" s="190"/>
-      <c r="N61" s="191"/>
+      <c r="K61" s="190"/>
+      <c r="L61" s="191"/>
+      <c r="M61" s="191"/>
+      <c r="N61" s="192"/>
       <c r="O61" s="74"/>
       <c r="P61" s="74"/>
       <c r="Q61" s="76"/>
@@ -10905,10 +10928,10 @@
       <c r="H62" s="63"/>
       <c r="I62" s="63"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="189"/>
-      <c r="L62" s="190"/>
-      <c r="M62" s="190"/>
-      <c r="N62" s="191"/>
+      <c r="K62" s="190"/>
+      <c r="L62" s="191"/>
+      <c r="M62" s="191"/>
+      <c r="N62" s="192"/>
       <c r="O62" s="74"/>
       <c r="P62" s="74"/>
       <c r="Q62" s="76"/>
@@ -10930,10 +10953,10 @@
       <c r="H63" s="63"/>
       <c r="I63" s="63"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="189"/>
-      <c r="L63" s="190"/>
-      <c r="M63" s="190"/>
-      <c r="N63" s="191"/>
+      <c r="K63" s="190"/>
+      <c r="L63" s="191"/>
+      <c r="M63" s="191"/>
+      <c r="N63" s="192"/>
       <c r="O63" s="84"/>
       <c r="P63" s="84"/>
       <c r="Q63" s="76"/>
@@ -10955,10 +10978,10 @@
       <c r="H64" s="63"/>
       <c r="I64" s="63"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="189"/>
-      <c r="L64" s="190"/>
-      <c r="M64" s="190"/>
-      <c r="N64" s="191"/>
+      <c r="K64" s="190"/>
+      <c r="L64" s="191"/>
+      <c r="M64" s="191"/>
+      <c r="N64" s="192"/>
       <c r="O64" s="84"/>
       <c r="P64" s="84"/>
       <c r="Q64" s="76"/>
@@ -10980,10 +11003,10 @@
       <c r="H65" s="63"/>
       <c r="I65" s="63"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="189"/>
-      <c r="L65" s="190"/>
-      <c r="M65" s="190"/>
-      <c r="N65" s="191"/>
+      <c r="K65" s="190"/>
+      <c r="L65" s="191"/>
+      <c r="M65" s="191"/>
+      <c r="N65" s="192"/>
       <c r="O65" s="84"/>
       <c r="P65" s="84"/>
       <c r="Q65" s="76"/>
@@ -11003,10 +11026,10 @@
       <c r="H66" s="63"/>
       <c r="I66" s="63"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="189"/>
-      <c r="L66" s="190"/>
-      <c r="M66" s="190"/>
-      <c r="N66" s="191"/>
+      <c r="K66" s="190"/>
+      <c r="L66" s="191"/>
+      <c r="M66" s="191"/>
+      <c r="N66" s="192"/>
       <c r="O66" s="84"/>
       <c r="P66" s="84"/>
       <c r="Q66" s="76"/>
@@ -11026,10 +11049,10 @@
       <c r="H67" s="63"/>
       <c r="I67" s="63"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="189"/>
-      <c r="L67" s="190"/>
-      <c r="M67" s="190"/>
-      <c r="N67" s="191"/>
+      <c r="K67" s="190"/>
+      <c r="L67" s="191"/>
+      <c r="M67" s="191"/>
+      <c r="N67" s="192"/>
       <c r="O67" s="84"/>
       <c r="P67" s="84"/>
       <c r="Q67" s="76"/>
@@ -11049,10 +11072,10 @@
       <c r="H68" s="63"/>
       <c r="I68" s="63"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="189"/>
-      <c r="L68" s="190"/>
-      <c r="M68" s="190"/>
-      <c r="N68" s="191"/>
+      <c r="K68" s="190"/>
+      <c r="L68" s="191"/>
+      <c r="M68" s="191"/>
+      <c r="N68" s="192"/>
       <c r="O68" s="84"/>
       <c r="P68" s="84"/>
       <c r="Q68" s="76"/>
@@ -11072,10 +11095,10 @@
       <c r="H69" s="63"/>
       <c r="I69" s="63"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="189"/>
-      <c r="L69" s="190"/>
-      <c r="M69" s="190"/>
-      <c r="N69" s="191"/>
+      <c r="K69" s="190"/>
+      <c r="L69" s="191"/>
+      <c r="M69" s="191"/>
+      <c r="N69" s="192"/>
       <c r="O69" s="84"/>
       <c r="P69" s="84"/>
       <c r="Q69" s="76"/>
@@ -11095,10 +11118,10 @@
       <c r="H70" s="63"/>
       <c r="I70" s="63"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="189"/>
-      <c r="L70" s="190"/>
-      <c r="M70" s="190"/>
-      <c r="N70" s="191"/>
+      <c r="K70" s="190"/>
+      <c r="L70" s="191"/>
+      <c r="M70" s="191"/>
+      <c r="N70" s="192"/>
       <c r="O70" s="84"/>
       <c r="P70" s="84"/>
       <c r="Q70" s="76"/>
@@ -11118,10 +11141,10 @@
       <c r="H71" s="63"/>
       <c r="I71" s="63"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="189"/>
-      <c r="L71" s="190"/>
-      <c r="M71" s="190"/>
-      <c r="N71" s="191"/>
+      <c r="K71" s="190"/>
+      <c r="L71" s="191"/>
+      <c r="M71" s="191"/>
+      <c r="N71" s="192"/>
       <c r="O71" s="84"/>
       <c r="P71" s="84"/>
       <c r="Q71" s="76"/>
@@ -11141,10 +11164,10 @@
       <c r="H72" s="63"/>
       <c r="I72" s="63"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="189"/>
-      <c r="L72" s="190"/>
-      <c r="M72" s="190"/>
-      <c r="N72" s="191"/>
+      <c r="K72" s="190"/>
+      <c r="L72" s="191"/>
+      <c r="M72" s="191"/>
+      <c r="N72" s="192"/>
       <c r="O72" s="84"/>
       <c r="P72" s="84"/>
       <c r="Q72" s="76"/>
@@ -11164,10 +11187,10 @@
       <c r="H73" s="63"/>
       <c r="I73" s="63"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="189"/>
-      <c r="L73" s="190"/>
-      <c r="M73" s="190"/>
-      <c r="N73" s="191"/>
+      <c r="K73" s="190"/>
+      <c r="L73" s="191"/>
+      <c r="M73" s="191"/>
+      <c r="N73" s="192"/>
       <c r="O73" s="84"/>
       <c r="P73" s="84"/>
       <c r="Q73" s="76"/>
@@ -11187,10 +11210,10 @@
       <c r="H74" s="63"/>
       <c r="I74" s="63"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="189"/>
-      <c r="L74" s="190"/>
-      <c r="M74" s="190"/>
-      <c r="N74" s="191"/>
+      <c r="K74" s="190"/>
+      <c r="L74" s="191"/>
+      <c r="M74" s="191"/>
+      <c r="N74" s="192"/>
       <c r="O74" s="84"/>
       <c r="P74" s="84"/>
       <c r="Q74" s="76"/>
@@ -11210,10 +11233,10 @@
       <c r="H75" s="63"/>
       <c r="I75" s="63"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="189"/>
-      <c r="L75" s="190"/>
-      <c r="M75" s="190"/>
-      <c r="N75" s="191"/>
+      <c r="K75" s="190"/>
+      <c r="L75" s="191"/>
+      <c r="M75" s="191"/>
+      <c r="N75" s="192"/>
       <c r="O75" s="84"/>
       <c r="P75" s="84"/>
       <c r="Q75" s="76"/>
@@ -11233,10 +11256,10 @@
       <c r="H76" s="63"/>
       <c r="I76" s="63"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="189"/>
-      <c r="L76" s="190"/>
-      <c r="M76" s="190"/>
-      <c r="N76" s="191"/>
+      <c r="K76" s="190"/>
+      <c r="L76" s="191"/>
+      <c r="M76" s="191"/>
+      <c r="N76" s="192"/>
       <c r="O76" s="84"/>
       <c r="P76" s="84"/>
       <c r="Q76" s="76"/>
@@ -11256,10 +11279,10 @@
       <c r="H77" s="63"/>
       <c r="I77" s="63"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="189"/>
-      <c r="L77" s="190"/>
-      <c r="M77" s="190"/>
-      <c r="N77" s="191"/>
+      <c r="K77" s="190"/>
+      <c r="L77" s="191"/>
+      <c r="M77" s="191"/>
+      <c r="N77" s="192"/>
       <c r="O77" s="84"/>
       <c r="P77" s="84"/>
       <c r="Q77" s="76"/>
@@ -11279,10 +11302,10 @@
       <c r="H78" s="63"/>
       <c r="I78" s="63"/>
       <c r="J78" s="40"/>
-      <c r="K78" s="189"/>
-      <c r="L78" s="190"/>
-      <c r="M78" s="190"/>
-      <c r="N78" s="191"/>
+      <c r="K78" s="190"/>
+      <c r="L78" s="191"/>
+      <c r="M78" s="191"/>
+      <c r="N78" s="192"/>
       <c r="O78" s="84"/>
       <c r="P78" s="84"/>
       <c r="Q78" s="76"/>
@@ -11302,10 +11325,10 @@
       <c r="H79" s="63"/>
       <c r="I79" s="63"/>
       <c r="J79" s="40"/>
-      <c r="K79" s="189"/>
-      <c r="L79" s="190"/>
-      <c r="M79" s="190"/>
-      <c r="N79" s="191"/>
+      <c r="K79" s="190"/>
+      <c r="L79" s="191"/>
+      <c r="M79" s="191"/>
+      <c r="N79" s="192"/>
       <c r="O79" s="84"/>
       <c r="P79" s="84"/>
       <c r="Q79" s="76"/>
@@ -11325,10 +11348,10 @@
       <c r="H80" s="63"/>
       <c r="I80" s="63"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="189"/>
-      <c r="L80" s="190"/>
-      <c r="M80" s="190"/>
-      <c r="N80" s="191"/>
+      <c r="K80" s="190"/>
+      <c r="L80" s="191"/>
+      <c r="M80" s="191"/>
+      <c r="N80" s="192"/>
       <c r="O80" s="84"/>
       <c r="P80" s="84"/>
       <c r="Q80" s="76"/>
@@ -11348,10 +11371,10 @@
       <c r="H81" s="63"/>
       <c r="I81" s="63"/>
       <c r="J81" s="40"/>
-      <c r="K81" s="189"/>
-      <c r="L81" s="190"/>
-      <c r="M81" s="190"/>
-      <c r="N81" s="191"/>
+      <c r="K81" s="190"/>
+      <c r="L81" s="191"/>
+      <c r="M81" s="191"/>
+      <c r="N81" s="192"/>
       <c r="O81" s="84"/>
       <c r="P81" s="84"/>
       <c r="Q81" s="76"/>
@@ -11371,10 +11394,10 @@
       <c r="H82" s="63"/>
       <c r="I82" s="63"/>
       <c r="J82" s="40"/>
-      <c r="K82" s="189"/>
-      <c r="L82" s="190"/>
-      <c r="M82" s="190"/>
-      <c r="N82" s="191"/>
+      <c r="K82" s="190"/>
+      <c r="L82" s="191"/>
+      <c r="M82" s="191"/>
+      <c r="N82" s="192"/>
       <c r="O82" s="84"/>
       <c r="P82" s="84"/>
       <c r="Q82" s="76"/>
@@ -11394,10 +11417,10 @@
       <c r="H83" s="63"/>
       <c r="I83" s="63"/>
       <c r="J83" s="40"/>
-      <c r="K83" s="189"/>
-      <c r="L83" s="190"/>
-      <c r="M83" s="190"/>
-      <c r="N83" s="191"/>
+      <c r="K83" s="190"/>
+      <c r="L83" s="191"/>
+      <c r="M83" s="191"/>
+      <c r="N83" s="192"/>
       <c r="O83" s="84"/>
       <c r="P83" s="84"/>
       <c r="Q83" s="76"/>
@@ -11417,10 +11440,10 @@
       <c r="H84" s="63"/>
       <c r="I84" s="63"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="189"/>
-      <c r="L84" s="190"/>
-      <c r="M84" s="190"/>
-      <c r="N84" s="191"/>
+      <c r="K84" s="190"/>
+      <c r="L84" s="191"/>
+      <c r="M84" s="191"/>
+      <c r="N84" s="192"/>
       <c r="O84" s="84"/>
       <c r="P84" s="84"/>
       <c r="Q84" s="76"/>
@@ -11440,10 +11463,10 @@
       <c r="H85" s="63"/>
       <c r="I85" s="63"/>
       <c r="J85" s="40"/>
-      <c r="K85" s="189"/>
-      <c r="L85" s="190"/>
-      <c r="M85" s="190"/>
-      <c r="N85" s="191"/>
+      <c r="K85" s="190"/>
+      <c r="L85" s="191"/>
+      <c r="M85" s="191"/>
+      <c r="N85" s="192"/>
       <c r="O85" s="84"/>
       <c r="P85" s="84"/>
       <c r="Q85" s="76"/>
@@ -11463,10 +11486,10 @@
       <c r="H86" s="63"/>
       <c r="I86" s="63"/>
       <c r="J86" s="40"/>
-      <c r="K86" s="189"/>
-      <c r="L86" s="190"/>
-      <c r="M86" s="190"/>
-      <c r="N86" s="191"/>
+      <c r="K86" s="190"/>
+      <c r="L86" s="191"/>
+      <c r="M86" s="191"/>
+      <c r="N86" s="192"/>
       <c r="O86" s="84"/>
       <c r="P86" s="84"/>
       <c r="Q86" s="76"/>
@@ -11486,10 +11509,10 @@
       <c r="H87" s="63"/>
       <c r="I87" s="63"/>
       <c r="J87" s="40"/>
-      <c r="K87" s="189"/>
-      <c r="L87" s="190"/>
-      <c r="M87" s="190"/>
-      <c r="N87" s="191"/>
+      <c r="K87" s="190"/>
+      <c r="L87" s="191"/>
+      <c r="M87" s="191"/>
+      <c r="N87" s="192"/>
       <c r="O87" s="84"/>
       <c r="P87" s="84"/>
       <c r="Q87" s="76"/>
@@ -11509,10 +11532,10 @@
       <c r="H88" s="63"/>
       <c r="I88" s="63"/>
       <c r="J88" s="40"/>
-      <c r="K88" s="189"/>
-      <c r="L88" s="190"/>
-      <c r="M88" s="190"/>
-      <c r="N88" s="191"/>
+      <c r="K88" s="190"/>
+      <c r="L88" s="191"/>
+      <c r="M88" s="191"/>
+      <c r="N88" s="192"/>
       <c r="O88" s="84"/>
       <c r="P88" s="84"/>
       <c r="Q88" s="76"/>
@@ -11532,10 +11555,10 @@
       <c r="H89" s="63"/>
       <c r="I89" s="63"/>
       <c r="J89" s="40"/>
-      <c r="K89" s="189"/>
-      <c r="L89" s="190"/>
-      <c r="M89" s="190"/>
-      <c r="N89" s="191"/>
+      <c r="K89" s="190"/>
+      <c r="L89" s="191"/>
+      <c r="M89" s="191"/>
+      <c r="N89" s="192"/>
       <c r="O89" s="84"/>
       <c r="P89" s="84"/>
       <c r="Q89" s="76"/>
@@ -11555,10 +11578,10 @@
       <c r="H90" s="63"/>
       <c r="I90" s="63"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="189"/>
-      <c r="L90" s="190"/>
-      <c r="M90" s="190"/>
-      <c r="N90" s="191"/>
+      <c r="K90" s="190"/>
+      <c r="L90" s="191"/>
+      <c r="M90" s="191"/>
+      <c r="N90" s="192"/>
       <c r="O90" s="84"/>
       <c r="P90" s="84"/>
       <c r="Q90" s="76"/>
@@ -11578,10 +11601,10 @@
       <c r="H91" s="63"/>
       <c r="I91" s="63"/>
       <c r="J91" s="40"/>
-      <c r="K91" s="189"/>
-      <c r="L91" s="190"/>
-      <c r="M91" s="190"/>
-      <c r="N91" s="191"/>
+      <c r="K91" s="190"/>
+      <c r="L91" s="191"/>
+      <c r="M91" s="191"/>
+      <c r="N91" s="192"/>
       <c r="O91" s="84"/>
       <c r="P91" s="84"/>
       <c r="Q91" s="76"/>
@@ -11601,10 +11624,10 @@
       <c r="H92" s="63"/>
       <c r="I92" s="63"/>
       <c r="J92" s="40"/>
-      <c r="K92" s="189"/>
-      <c r="L92" s="190"/>
-      <c r="M92" s="190"/>
-      <c r="N92" s="191"/>
+      <c r="K92" s="190"/>
+      <c r="L92" s="191"/>
+      <c r="M92" s="191"/>
+      <c r="N92" s="192"/>
       <c r="O92" s="84"/>
       <c r="P92" s="84"/>
       <c r="Q92" s="76"/>
@@ -11624,10 +11647,10 @@
       <c r="H93" s="63"/>
       <c r="I93" s="63"/>
       <c r="J93" s="40"/>
-      <c r="K93" s="189"/>
-      <c r="L93" s="190"/>
-      <c r="M93" s="190"/>
-      <c r="N93" s="191"/>
+      <c r="K93" s="190"/>
+      <c r="L93" s="191"/>
+      <c r="M93" s="191"/>
+      <c r="N93" s="192"/>
       <c r="O93" s="84"/>
       <c r="P93" s="84"/>
       <c r="Q93" s="76"/>
@@ -11647,10 +11670,10 @@
       <c r="H94" s="63"/>
       <c r="I94" s="63"/>
       <c r="J94" s="40"/>
-      <c r="K94" s="189"/>
-      <c r="L94" s="190"/>
-      <c r="M94" s="190"/>
-      <c r="N94" s="191"/>
+      <c r="K94" s="190"/>
+      <c r="L94" s="191"/>
+      <c r="M94" s="191"/>
+      <c r="N94" s="192"/>
       <c r="O94" s="84"/>
       <c r="P94" s="84"/>
       <c r="Q94" s="76"/>
@@ -11670,10 +11693,10 @@
       <c r="H95" s="63"/>
       <c r="I95" s="63"/>
       <c r="J95" s="40"/>
-      <c r="K95" s="189"/>
-      <c r="L95" s="190"/>
-      <c r="M95" s="190"/>
-      <c r="N95" s="191"/>
+      <c r="K95" s="190"/>
+      <c r="L95" s="191"/>
+      <c r="M95" s="191"/>
+      <c r="N95" s="192"/>
       <c r="O95" s="84"/>
       <c r="P95" s="84"/>
       <c r="Q95" s="76"/>
@@ -11686,33 +11709,58 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="95">
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K52:N52"/>
     <mergeCell ref="K94:N94"/>
     <mergeCell ref="K95:N95"/>
     <mergeCell ref="K5:N5"/>
@@ -11729,58 +11777,33 @@
     <mergeCell ref="K70:N70"/>
     <mergeCell ref="K71:N71"/>
     <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K93:N93"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048468:Q1048576 Q5:Q95"/>
@@ -11807,10 +11830,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J105"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11826,10 +11849,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
+      <c r="B1" s="153"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -11860,8 +11883,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="151"/>
-      <c r="B2" s="151"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -12138,9 +12161,9 @@
       <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="42"/>
-      <c r="B24" s="80" t="s">
-        <v>255</v>
+      <c r="A24" s="73"/>
+      <c r="B24" s="43" t="s">
+        <v>302</v>
       </c>
       <c r="C24" s="43"/>
       <c r="D24" s="43"/>
@@ -12153,8 +12176,8 @@
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="42"/>
-      <c r="B25" s="86" t="s">
-        <v>265</v>
+      <c r="B25" s="80" t="s">
+        <v>255</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="43"/>
@@ -12167,8 +12190,8 @@
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="42"/>
-      <c r="B26" s="80" t="s">
-        <v>256</v>
+      <c r="B26" s="86" t="s">
+        <v>265</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
@@ -12181,8 +12204,8 @@
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="42"/>
-      <c r="B27" s="86" t="s">
-        <v>274</v>
+      <c r="B27" s="80" t="s">
+        <v>256</v>
       </c>
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
@@ -12195,8 +12218,8 @@
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="42"/>
-      <c r="B28" s="80" t="s">
-        <v>257</v>
+      <c r="B28" s="86" t="s">
+        <v>274</v>
       </c>
       <c r="C28" s="43"/>
       <c r="D28" s="43"/>
@@ -12209,8 +12232,8 @@
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="42"/>
-      <c r="B29" s="86" t="s">
-        <v>266</v>
+      <c r="B29" s="80" t="s">
+        <v>257</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>
@@ -12223,8 +12246,8 @@
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="42"/>
-      <c r="B30" s="127" t="s">
-        <v>258</v>
+      <c r="B30" s="86" t="s">
+        <v>266</v>
       </c>
       <c r="C30" s="43"/>
       <c r="D30" s="43"/>
@@ -12237,8 +12260,8 @@
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="42"/>
-      <c r="B31" s="86" t="s">
-        <v>259</v>
+      <c r="B31" s="127" t="s">
+        <v>258</v>
       </c>
       <c r="C31" s="43"/>
       <c r="D31" s="43"/>
@@ -12252,7 +12275,7 @@
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="42"/>
       <c r="B32" s="86" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C32" s="43"/>
       <c r="D32" s="43"/>
@@ -12266,7 +12289,7 @@
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="42"/>
       <c r="B33" s="86" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C33" s="43"/>
       <c r="D33" s="43"/>
@@ -12279,8 +12302,8 @@
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="42"/>
-      <c r="B34" s="80" t="s">
-        <v>261</v>
+      <c r="B34" s="86" t="s">
+        <v>267</v>
       </c>
       <c r="C34" s="43"/>
       <c r="D34" s="43"/>
@@ -12293,9 +12316,10 @@
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="42"/>
-      <c r="B35" s="86" t="s">
-        <v>262</v>
-      </c>
+      <c r="B35" s="80" t="s">
+        <v>261</v>
+      </c>
+      <c r="C35" s="43"/>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
       <c r="F35" s="43"/>
@@ -12306,8 +12330,8 @@
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="42"/>
-      <c r="B36" s="127" t="s">
-        <v>268</v>
+      <c r="B36" s="86" t="s">
+        <v>262</v>
       </c>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
@@ -12319,8 +12343,8 @@
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="42"/>
-      <c r="B37" s="86" t="s">
-        <v>271</v>
+      <c r="B37" s="127" t="s">
+        <v>268</v>
       </c>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
@@ -12333,7 +12357,7 @@
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="42"/>
       <c r="B38" s="86" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
@@ -12345,10 +12369,9 @@
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="42"/>
-      <c r="B39" s="80" t="s">
-        <v>269</v>
-      </c>
-      <c r="C39" s="43"/>
+      <c r="B39" s="86" t="s">
+        <v>278</v>
+      </c>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
       <c r="F39" s="43"/>
@@ -12359,8 +12382,8 @@
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="42"/>
-      <c r="B40" s="86" t="s">
-        <v>263</v>
+      <c r="B40" s="80" t="s">
+        <v>269</v>
       </c>
       <c r="C40" s="43"/>
       <c r="D40" s="43"/>
@@ -12373,8 +12396,8 @@
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="42"/>
-      <c r="B41" s="80" t="s">
-        <v>270</v>
+      <c r="B41" s="86" t="s">
+        <v>263</v>
       </c>
       <c r="C41" s="43"/>
       <c r="D41" s="43"/>
@@ -12387,8 +12410,8 @@
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="42"/>
-      <c r="B42" s="86" t="s">
-        <v>264</v>
+      <c r="B42" s="80" t="s">
+        <v>270</v>
       </c>
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
@@ -12401,7 +12424,9 @@
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="42"/>
-      <c r="B43" s="43"/>
+      <c r="B43" s="86" t="s">
+        <v>264</v>
+      </c>
       <c r="C43" s="43"/>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
@@ -12413,8 +12438,8 @@
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="42"/>
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
       <c r="F44" s="43"/>
@@ -12424,10 +12449,8 @@
       <c r="J44" s="46"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="73" t="s">
-        <v>124</v>
-      </c>
-      <c r="B45" s="43"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="86"/>
       <c r="C45" s="86"/>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
@@ -12438,9 +12461,10 @@
       <c r="J45" s="46"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="80" t="s">
-        <v>122</v>
-      </c>
+      <c r="A46" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="43"/>
       <c r="C46" s="86"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
@@ -12451,27 +12475,27 @@
       <c r="J46" s="46"/>
     </row>
     <row r="47" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="86"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
       <c r="G47" s="43"/>
       <c r="H47" s="43"/>
       <c r="I47" s="43"/>
       <c r="J47" s="46"/>
     </row>
     <row r="48" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="43"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
       <c r="G48" s="43"/>
       <c r="H48" s="43"/>
       <c r="I48" s="43"/>
       <c r="J48" s="46"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="80" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="86"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
       <c r="F49" s="43"/>
@@ -12481,8 +12505,10 @@
       <c r="J49" s="46"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="80"/>
-      <c r="C50" s="86"/>
+      <c r="B50" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="43"/>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="43"/>
@@ -12492,9 +12518,8 @@
       <c r="J50" s="46"/>
     </row>
     <row r="51" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="42"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="86"/>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="43"/>
@@ -12504,11 +12529,9 @@
       <c r="J51" s="46"/>
     </row>
     <row r="52" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="73" t="s">
-        <v>125</v>
-      </c>
+      <c r="A52" s="42"/>
       <c r="B52" s="43"/>
-      <c r="C52" s="86"/>
+      <c r="C52" s="43"/>
       <c r="D52" s="43"/>
       <c r="E52" s="43"/>
       <c r="F52" s="43"/>
@@ -12518,9 +12541,10 @@
       <c r="J52" s="46"/>
     </row>
     <row r="53" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="80" t="s">
-        <v>122</v>
-      </c>
+      <c r="A53" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="43"/>
       <c r="C53" s="86"/>
       <c r="D53" s="43"/>
       <c r="E53" s="43"/>
@@ -12531,7 +12555,9 @@
       <c r="J53" s="46"/>
     </row>
     <row r="54" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="43"/>
+      <c r="B54" s="80" t="s">
+        <v>122</v>
+      </c>
       <c r="C54" s="86"/>
       <c r="D54" s="43"/>
       <c r="E54" s="43"/>
@@ -12553,10 +12579,8 @@
       <c r="J55" s="46"/>
     </row>
     <row r="56" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="80" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="86"/>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
       <c r="F56" s="43"/>
@@ -12566,8 +12590,10 @@
       <c r="J56" s="46"/>
     </row>
     <row r="57" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="80"/>
-      <c r="C57" s="86"/>
+      <c r="B57" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="43"/>
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
       <c r="F57" s="43"/>
@@ -12577,9 +12603,8 @@
       <c r="J57" s="46"/>
     </row>
     <row r="58" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="42"/>
-      <c r="B58" s="86"/>
-      <c r="C58" s="43"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="86"/>
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
       <c r="F58" s="43"/>
@@ -12589,11 +12614,9 @@
       <c r="J58" s="46"/>
     </row>
     <row r="59" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="B59" s="43"/>
-      <c r="C59" s="86"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="43"/>
       <c r="D59" s="43"/>
       <c r="E59" s="43"/>
       <c r="F59" s="43"/>
@@ -12603,9 +12626,10 @@
       <c r="J59" s="46"/>
     </row>
     <row r="60" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="80" t="s">
-        <v>127</v>
-      </c>
+      <c r="A60" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="43"/>
       <c r="C60" s="86"/>
       <c r="D60" s="43"/>
       <c r="E60" s="43"/>
@@ -12616,34 +12640,34 @@
       <c r="J60" s="46"/>
     </row>
     <row r="61" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="86" t="s">
-        <v>273</v>
+      <c r="B61" s="80" t="s">
+        <v>127</v>
       </c>
       <c r="C61" s="86"/>
       <c r="D61" s="43"/>
       <c r="E61" s="43"/>
-      <c r="F61" s="127"/>
+      <c r="F61" s="43"/>
       <c r="G61" s="43"/>
       <c r="H61" s="43"/>
       <c r="I61" s="43"/>
       <c r="J61" s="46"/>
     </row>
     <row r="62" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="43"/>
+      <c r="B62" s="86" t="s">
+        <v>273</v>
+      </c>
       <c r="C62" s="86"/>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
+      <c r="F62" s="127"/>
       <c r="G62" s="43"/>
       <c r="H62" s="43"/>
       <c r="I62" s="43"/>
       <c r="J62" s="46"/>
     </row>
     <row r="63" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" s="43"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="86"/>
       <c r="D63" s="43"/>
       <c r="E63" s="43"/>
       <c r="F63" s="43"/>
@@ -12653,20 +12677,22 @@
       <c r="J63" s="46"/>
     </row>
     <row r="64" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="86" t="s">
-        <v>273</v>
+      <c r="B64" s="80" t="s">
+        <v>128</v>
       </c>
       <c r="C64" s="43"/>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
-      <c r="F64" s="127"/>
+      <c r="F64" s="43"/>
       <c r="G64" s="43"/>
       <c r="H64" s="43"/>
       <c r="I64" s="43"/>
       <c r="J64" s="46"/>
     </row>
     <row r="65" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="86"/>
+      <c r="B65" s="86" t="s">
+        <v>273</v>
+      </c>
       <c r="C65" s="43"/>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
@@ -12677,23 +12703,21 @@
       <c r="J65" s="46"/>
     </row>
     <row r="66" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="B66" s="43"/>
-      <c r="C66" s="86"/>
+      <c r="B66" s="86"/>
+      <c r="C66" s="43"/>
       <c r="D66" s="43"/>
       <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
+      <c r="F66" s="127"/>
       <c r="G66" s="43"/>
       <c r="H66" s="43"/>
       <c r="I66" s="43"/>
       <c r="J66" s="46"/>
     </row>
     <row r="67" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="80" t="s">
-        <v>220</v>
-      </c>
+      <c r="A67" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" s="43"/>
       <c r="C67" s="86"/>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
@@ -12704,42 +12728,44 @@
       <c r="J67" s="46"/>
     </row>
     <row r="68" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="86" t="s">
-        <v>272</v>
+      <c r="B68" s="80" t="s">
+        <v>220</v>
       </c>
       <c r="C68" s="86"/>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
-      <c r="F68" s="127"/>
+      <c r="F68" s="43"/>
       <c r="G68" s="43"/>
       <c r="H68" s="43"/>
       <c r="I68" s="43"/>
       <c r="J68" s="46"/>
     </row>
     <row r="69" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="86"/>
-      <c r="C69" s="43"/>
+      <c r="B69" s="86" t="s">
+        <v>272</v>
+      </c>
+      <c r="C69" s="86"/>
       <c r="D69" s="43"/>
       <c r="E69" s="43"/>
-      <c r="F69" s="80"/>
+      <c r="F69" s="127"/>
       <c r="G69" s="43"/>
       <c r="H69" s="43"/>
       <c r="I69" s="43"/>
       <c r="J69" s="46"/>
     </row>
     <row r="70" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="80"/>
+      <c r="B70" s="86"/>
       <c r="C70" s="43"/>
       <c r="D70" s="43"/>
       <c r="E70" s="43"/>
-      <c r="F70" s="43"/>
+      <c r="F70" s="80"/>
       <c r="G70" s="43"/>
       <c r="H70" s="43"/>
       <c r="I70" s="43"/>
       <c r="J70" s="46"/>
     </row>
     <row r="71" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="43"/>
+      <c r="B71" s="80"/>
       <c r="C71" s="43"/>
       <c r="D71" s="43"/>
       <c r="E71" s="43"/>
@@ -12761,7 +12787,7 @@
       <c r="J72" s="46"/>
     </row>
     <row r="73" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="80"/>
+      <c r="B73" s="43"/>
       <c r="C73" s="43"/>
       <c r="D73" s="43"/>
       <c r="E73" s="43"/>
@@ -12772,9 +12798,8 @@
       <c r="J73" s="46"/>
     </row>
     <row r="74" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="42"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="86"/>
+      <c r="B74" s="80"/>
+      <c r="C74" s="43"/>
       <c r="D74" s="43"/>
       <c r="E74" s="43"/>
       <c r="F74" s="43"/>
@@ -12808,9 +12833,9 @@
       <c r="J76" s="46"/>
     </row>
     <row r="77" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="73"/>
+      <c r="A77" s="42"/>
       <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
+      <c r="C77" s="86"/>
       <c r="D77" s="43"/>
       <c r="E77" s="43"/>
       <c r="F77" s="43"/>
@@ -12820,7 +12845,8 @@
       <c r="J77" s="46"/>
     </row>
     <row r="78" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="80"/>
+      <c r="A78" s="73"/>
+      <c r="B78" s="43"/>
       <c r="C78" s="43"/>
       <c r="D78" s="43"/>
       <c r="E78" s="43"/>
@@ -12831,7 +12857,7 @@
       <c r="J78" s="46"/>
     </row>
     <row r="79" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="43"/>
+      <c r="B79" s="80"/>
       <c r="C79" s="43"/>
       <c r="D79" s="43"/>
       <c r="E79" s="43"/>
@@ -12842,7 +12868,7 @@
       <c r="J79" s="46"/>
     </row>
     <row r="80" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="80"/>
+      <c r="B80" s="43"/>
       <c r="C80" s="43"/>
       <c r="D80" s="43"/>
       <c r="E80" s="43"/>
@@ -12853,8 +12879,7 @@
       <c r="J80" s="46"/>
     </row>
     <row r="81" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="42"/>
-      <c r="B81" s="43"/>
+      <c r="B81" s="80"/>
       <c r="C81" s="43"/>
       <c r="D81" s="43"/>
       <c r="E81" s="43"/>
@@ -12865,7 +12890,7 @@
       <c r="J81" s="46"/>
     </row>
     <row r="82" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="73"/>
+      <c r="A82" s="42"/>
       <c r="B82" s="43"/>
       <c r="C82" s="43"/>
       <c r="D82" s="43"/>
@@ -12877,7 +12902,7 @@
       <c r="J82" s="46"/>
     </row>
     <row r="83" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="42"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="43"/>
       <c r="C83" s="43"/>
       <c r="D83" s="43"/>
@@ -13141,16 +13166,28 @@
       <c r="J104" s="46"/>
     </row>
     <row r="105" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="47"/>
-      <c r="B105" s="48"/>
-      <c r="C105" s="48"/>
-      <c r="D105" s="48"/>
-      <c r="E105" s="48"/>
-      <c r="F105" s="48"/>
-      <c r="G105" s="48"/>
-      <c r="H105" s="48"/>
-      <c r="I105" s="48"/>
-      <c r="J105" s="57"/>
+      <c r="A105" s="42"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="43"/>
+      <c r="F105" s="43"/>
+      <c r="G105" s="43"/>
+      <c r="H105" s="43"/>
+      <c r="I105" s="43"/>
+      <c r="J105" s="46"/>
+    </row>
+    <row r="106" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="47"/>
+      <c r="B106" s="48"/>
+      <c r="C106" s="48"/>
+      <c r="D106" s="48"/>
+      <c r="E106" s="48"/>
+      <c r="F106" s="48"/>
+      <c r="G106" s="48"/>
+      <c r="H106" s="48"/>
+      <c r="I106" s="48"/>
+      <c r="J106" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13163,8 +13200,8 @@
     <oddFooter>&amp;L&amp;"Ta,Regular"&amp;10CONFIDENTIAL&amp;C&amp;"Tahoma,Regular"&amp;10&amp;P&amp;R&amp;"Tahoma,Regular"&amp;10© 2010 ASOFT JSC. All rights reserved.</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="70" max="9" man="1"/>
-    <brk id="83" max="9" man="1"/>
+    <brk id="71" max="9" man="1"/>
+    <brk id="84" max="9" man="1"/>
   </rowBreaks>
   <legacyDrawing r:id="rId2"/>
   <legacyDrawingHF r:id="rId3"/>
@@ -13192,10 +13229,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
+      <c r="B1" s="153"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13223,8 +13260,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="151"/>
-      <c r="B2" s="151"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13635,14 +13672,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="193" t="s">
+      <c r="B1" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="16"/>
@@ -13835,11 +13872,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="194" t="s">
+      <c r="E27" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="195"/>
-      <c r="G27" s="196"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="197"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="19" t="s">

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc so do tuyen/CF0143_Danh muc so do tuyen.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc so do tuyen/CF0143_Danh muc so do tuyen.xlsx
@@ -3343,7 +3343,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3372,6 +3378,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3441,39 +3450,39 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3497,15 +3506,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3874,7 +3874,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E23" sqref="E23:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3890,10 +3890,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="155"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -3920,8 +3920,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
+      <c r="A2" s="155"/>
+      <c r="B2" s="155"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -3960,14 +3960,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="154" t="s">
+      <c r="E4" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="156"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="40">
@@ -3983,14 +3983,14 @@
       <c r="D5" s="101" t="s">
         <v>225</v>
       </c>
-      <c r="E5" s="155" t="s">
+      <c r="E5" s="157" t="s">
         <v>279</v>
       </c>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="158"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="91">
@@ -4001,12 +4001,12 @@
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="158"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="161"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="92">
@@ -4017,12 +4017,12 @@
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="93">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
-      <c r="I8" s="151"/>
-      <c r="J8" s="152"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="154"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="94">
@@ -4049,12 +4049,12 @@
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="149"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="151"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="95">
@@ -4065,12 +4065,12 @@
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="149"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="151"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="96">
@@ -4081,12 +4081,12 @@
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="151"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="97">
@@ -4097,12 +4097,12 @@
       </c>
       <c r="C12" s="79"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="151"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="98">
@@ -4113,12 +4113,12 @@
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="151"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="99">
@@ -4129,12 +4129,12 @@
       </c>
       <c r="C14" s="79"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="149"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="150"/>
+      <c r="J14" s="151"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40">
@@ -4145,12 +4145,12 @@
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="146"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="158"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="91">
@@ -4161,12 +4161,12 @@
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="146"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="92">
@@ -4177,12 +4177,12 @@
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="146"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="158"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="93">
@@ -4193,12 +4193,12 @@
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="158"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="94">
@@ -4209,12 +4209,12 @@
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="146"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="158"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="95">
@@ -4225,12 +4225,12 @@
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="146"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="158"/>
+      <c r="J20" s="158"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="96">
@@ -4241,12 +4241,12 @@
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="146"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="158"/>
+      <c r="J21" s="158"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="97">
@@ -4257,12 +4257,12 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="146"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="158"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="98">
@@ -4273,12 +4273,12 @@
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="146"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="158"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="99">
@@ -4289,12 +4289,12 @@
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="146"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="158"/>
+      <c r="J24" s="158"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="40">
@@ -4305,12 +4305,12 @@
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="146"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="158"/>
+      <c r="J25" s="158"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="91">
@@ -4321,12 +4321,12 @@
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="146"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="158"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="92">
@@ -4337,12 +4337,12 @@
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="146"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="158"/>
+      <c r="J27" s="158"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="93">
@@ -4353,12 +4353,12 @@
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="158"/>
+      <c r="I28" s="158"/>
+      <c r="J28" s="158"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="94">
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="158"/>
+      <c r="I29" s="158"/>
+      <c r="J29" s="158"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="95">
@@ -4385,12 +4385,12 @@
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="158"/>
+      <c r="J30" s="158"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="96">
@@ -4401,12 +4401,12 @@
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="146"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="158"/>
+      <c r="J31" s="158"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="97">
@@ -4417,12 +4417,12 @@
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="146"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="158"/>
+      <c r="I32" s="158"/>
+      <c r="J32" s="158"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="98">
@@ -4433,12 +4433,12 @@
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="146"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="158"/>
+      <c r="J33" s="158"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="99">
@@ -4449,12 +4449,12 @@
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="146"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="146"/>
-      <c r="I34" s="146"/>
-      <c r="J34" s="146"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="158"/>
+      <c r="J34" s="158"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="40">
@@ -4465,12 +4465,12 @@
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="146"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="146"/>
-      <c r="I35" s="146"/>
-      <c r="J35" s="146"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="158"/>
+      <c r="I35" s="158"/>
+      <c r="J35" s="158"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="91">
@@ -4481,12 +4481,12 @@
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="146"/>
-      <c r="F36" s="146"/>
-      <c r="G36" s="146"/>
-      <c r="H36" s="146"/>
-      <c r="I36" s="146"/>
-      <c r="J36" s="146"/>
+      <c r="E36" s="158"/>
+      <c r="F36" s="158"/>
+      <c r="G36" s="158"/>
+      <c r="H36" s="158"/>
+      <c r="I36" s="158"/>
+      <c r="J36" s="158"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="92">
@@ -4497,12 +4497,12 @@
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="146"/>
-      <c r="F37" s="146"/>
-      <c r="G37" s="146"/>
-      <c r="H37" s="146"/>
-      <c r="I37" s="146"/>
-      <c r="J37" s="146"/>
+      <c r="E37" s="158"/>
+      <c r="F37" s="158"/>
+      <c r="G37" s="158"/>
+      <c r="H37" s="158"/>
+      <c r="I37" s="158"/>
+      <c r="J37" s="158"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="93">
@@ -4513,12 +4513,12 @@
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="146"/>
-      <c r="G38" s="146"/>
-      <c r="H38" s="146"/>
-      <c r="I38" s="146"/>
-      <c r="J38" s="146"/>
+      <c r="E38" s="158"/>
+      <c r="F38" s="158"/>
+      <c r="G38" s="158"/>
+      <c r="H38" s="158"/>
+      <c r="I38" s="158"/>
+      <c r="J38" s="158"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="94">
@@ -4529,12 +4529,12 @@
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="146"/>
-      <c r="F39" s="146"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="146"/>
-      <c r="I39" s="146"/>
-      <c r="J39" s="146"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="158"/>
+      <c r="G39" s="158"/>
+      <c r="H39" s="158"/>
+      <c r="I39" s="158"/>
+      <c r="J39" s="158"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="95">
@@ -4545,12 +4545,12 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="146"/>
-      <c r="F40" s="146"/>
-      <c r="G40" s="146"/>
-      <c r="H40" s="146"/>
-      <c r="I40" s="146"/>
-      <c r="J40" s="146"/>
+      <c r="E40" s="158"/>
+      <c r="F40" s="158"/>
+      <c r="G40" s="158"/>
+      <c r="H40" s="158"/>
+      <c r="I40" s="158"/>
+      <c r="J40" s="158"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="96">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="146"/>
-      <c r="F41" s="146"/>
-      <c r="G41" s="146"/>
-      <c r="H41" s="146"/>
-      <c r="I41" s="146"/>
-      <c r="J41" s="146"/>
+      <c r="E41" s="158"/>
+      <c r="F41" s="158"/>
+      <c r="G41" s="158"/>
+      <c r="H41" s="158"/>
+      <c r="I41" s="158"/>
+      <c r="J41" s="158"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="97">
@@ -4577,23 +4577,32 @@
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="146"/>
-      <c r="F42" s="146"/>
-      <c r="G42" s="146"/>
-      <c r="H42" s="146"/>
-      <c r="I42" s="146"/>
-      <c r="J42" s="146"/>
+      <c r="E42" s="158"/>
+      <c r="F42" s="158"/>
+      <c r="G42" s="158"/>
+      <c r="H42" s="158"/>
+      <c r="I42" s="158"/>
+      <c r="J42" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -4609,23 +4618,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -4840,10 +4840,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="155"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -4874,8 +4874,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
+      <c r="A2" s="155"/>
+      <c r="B2" s="155"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -4906,20 +4906,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="159" t="s">
+      <c r="A4" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="161"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="159" t="s">
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="162" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="160"/>
+      <c r="J4" s="163"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="42"/>
@@ -4930,10 +4930,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="168" t="s">
+      <c r="I5" s="171" t="s">
         <v>226</v>
       </c>
-      <c r="J5" s="169"/>
+      <c r="J5" s="172"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42"/>
@@ -4944,8 +4944,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="171"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="174"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="42"/>
@@ -4956,8 +4956,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="171"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="174"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="42"/>
@@ -4968,8 +4968,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="171"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="174"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="42"/>
@@ -4980,8 +4980,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="171"/>
+      <c r="I9" s="173"/>
+      <c r="J9" s="174"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="42"/>
@@ -4992,8 +4992,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="173"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="176"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="42"/>
@@ -5004,10 +5004,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="159" t="s">
+      <c r="I11" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="160"/>
+      <c r="J11" s="163"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="42"/>
@@ -5018,10 +5018,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="162" t="s">
+      <c r="I12" s="165" t="s">
         <v>172</v>
       </c>
-      <c r="J12" s="163"/>
+      <c r="J12" s="166"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="42"/>
@@ -5032,8 +5032,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="165"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="168"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="42"/>
@@ -5044,8 +5044,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="165"/>
+      <c r="I14" s="167"/>
+      <c r="J14" s="168"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="42"/>
@@ -5056,8 +5056,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="165"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="168"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="42"/>
@@ -5068,8 +5068,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="165"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="168"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="42"/>
@@ -5080,8 +5080,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="165"/>
+      <c r="I17" s="167"/>
+      <c r="J17" s="168"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="42"/>
@@ -5092,8 +5092,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="164"/>
-      <c r="J18" s="165"/>
+      <c r="I18" s="167"/>
+      <c r="J18" s="168"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="42"/>
@@ -5104,8 +5104,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="164"/>
-      <c r="J19" s="165"/>
+      <c r="I19" s="167"/>
+      <c r="J19" s="168"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="42"/>
@@ -5116,8 +5116,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="164"/>
-      <c r="J20" s="165"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="168"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="42"/>
@@ -5128,8 +5128,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="165"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="168"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="42"/>
@@ -5140,8 +5140,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="164"/>
-      <c r="J22" s="165"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="168"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
@@ -5152,8 +5152,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="164"/>
-      <c r="J23" s="165"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="168"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="42"/>
@@ -5164,8 +5164,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="165"/>
+      <c r="I24" s="167"/>
+      <c r="J24" s="168"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="42"/>
@@ -5176,8 +5176,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="164"/>
-      <c r="J25" s="165"/>
+      <c r="I25" s="167"/>
+      <c r="J25" s="168"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="42"/>
@@ -5188,8 +5188,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="165"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="168"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="42"/>
@@ -5200,8 +5200,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="164"/>
-      <c r="J27" s="165"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="168"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="42"/>
@@ -5212,8 +5212,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="164"/>
-      <c r="J28" s="165"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="168"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="42"/>
@@ -5224,8 +5224,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="164"/>
-      <c r="J29" s="165"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="168"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="42"/>
@@ -5236,8 +5236,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="164"/>
-      <c r="J30" s="165"/>
+      <c r="I30" s="167"/>
+      <c r="J30" s="168"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="42"/>
@@ -5248,8 +5248,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="164"/>
-      <c r="J31" s="165"/>
+      <c r="I31" s="167"/>
+      <c r="J31" s="168"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="42"/>
@@ -5260,8 +5260,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="164"/>
-      <c r="J32" s="165"/>
+      <c r="I32" s="167"/>
+      <c r="J32" s="168"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="42"/>
@@ -5272,8 +5272,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="164"/>
-      <c r="J33" s="165"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="168"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="42"/>
@@ -5284,8 +5284,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="164"/>
-      <c r="J34" s="165"/>
+      <c r="I34" s="167"/>
+      <c r="J34" s="168"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="42"/>
@@ -5296,8 +5296,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="164"/>
-      <c r="J35" s="165"/>
+      <c r="I35" s="167"/>
+      <c r="J35" s="168"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="42"/>
@@ -5308,8 +5308,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="164"/>
-      <c r="J36" s="165"/>
+      <c r="I36" s="167"/>
+      <c r="J36" s="168"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="42"/>
@@ -5320,8 +5320,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="164"/>
-      <c r="J37" s="165"/>
+      <c r="I37" s="167"/>
+      <c r="J37" s="168"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="42"/>
@@ -5332,8 +5332,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="164"/>
-      <c r="J38" s="165"/>
+      <c r="I38" s="167"/>
+      <c r="J38" s="168"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="42"/>
@@ -5344,8 +5344,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="164"/>
-      <c r="J39" s="165"/>
+      <c r="I39" s="167"/>
+      <c r="J39" s="168"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="42"/>
@@ -5356,8 +5356,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="164"/>
-      <c r="J40" s="165"/>
+      <c r="I40" s="167"/>
+      <c r="J40" s="168"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="42"/>
@@ -5368,8 +5368,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="164"/>
-      <c r="J41" s="165"/>
+      <c r="I41" s="167"/>
+      <c r="J41" s="168"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="42"/>
@@ -5380,8 +5380,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="164"/>
-      <c r="J42" s="165"/>
+      <c r="I42" s="167"/>
+      <c r="J42" s="168"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="47"/>
@@ -5392,8 +5392,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="166"/>
-      <c r="J43" s="167"/>
+      <c r="I43" s="169"/>
+      <c r="J43" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5452,13 +5452,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -5466,16 +5466,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="174" t="s">
+      <c r="H1" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="175"/>
-      <c r="J1" s="176" t="str">
+      <c r="I1" s="178"/>
+      <c r="J1" s="179" t="str">
         <f>'Update History'!F1</f>
         <v>CF0143</v>
       </c>
-      <c r="K1" s="177"/>
-      <c r="L1" s="178"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="181"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -5492,11 +5492,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
+      <c r="A2" s="155"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -5504,16 +5504,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="H2" s="174" t="s">
+      <c r="H2" s="177" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="175"/>
-      <c r="J2" s="176" t="str">
+      <c r="I2" s="178"/>
+      <c r="J2" s="179" t="str">
         <f>'Update History'!F2</f>
         <v>Danh mục sơ đồ tuyến</v>
       </c>
-      <c r="K2" s="177"/>
-      <c r="L2" s="178"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="181"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -5829,27 +5829,27 @@
       <c r="E12" s="145" t="s">
         <v>292</v>
       </c>
-      <c r="F12" s="198" t="s">
+      <c r="F12" s="146" t="s">
         <v>294</v>
       </c>
-      <c r="G12" s="198" t="s">
+      <c r="G12" s="146" t="s">
         <v>294</v>
       </c>
-      <c r="H12" s="199" t="s">
+      <c r="H12" s="147" t="s">
         <v>201</v>
       </c>
-      <c r="I12" s="199" t="s">
+      <c r="I12" s="147" t="s">
         <v>207</v>
       </c>
-      <c r="J12" s="200"/>
-      <c r="K12" s="200"/>
-      <c r="L12" s="199" t="s">
+      <c r="J12" s="148"/>
+      <c r="K12" s="148"/>
+      <c r="L12" s="147" t="s">
         <v>205</v>
       </c>
-      <c r="M12" s="198"/>
-      <c r="N12" s="198"/>
-      <c r="O12" s="198"/>
-      <c r="P12" s="198"/>
+      <c r="M12" s="146"/>
+      <c r="N12" s="146"/>
+      <c r="O12" s="146"/>
+      <c r="P12" s="146"/>
     </row>
     <row r="13" spans="1:16" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
@@ -5865,27 +5865,27 @@
       <c r="E13" s="145" t="s">
         <v>293</v>
       </c>
-      <c r="F13" s="198" t="s">
+      <c r="F13" s="146" t="s">
         <v>295</v>
       </c>
-      <c r="G13" s="198" t="s">
+      <c r="G13" s="146" t="s">
         <v>295</v>
       </c>
-      <c r="H13" s="199" t="s">
+      <c r="H13" s="147" t="s">
         <v>201</v>
       </c>
-      <c r="I13" s="199" t="s">
+      <c r="I13" s="147" t="s">
         <v>208</v>
       </c>
-      <c r="J13" s="200"/>
-      <c r="K13" s="200"/>
-      <c r="L13" s="199" t="s">
+      <c r="J13" s="148"/>
+      <c r="K13" s="148"/>
+      <c r="L13" s="147" t="s">
         <v>205</v>
       </c>
-      <c r="M13" s="198"/>
-      <c r="N13" s="198"/>
-      <c r="O13" s="198"/>
-      <c r="P13" s="198"/>
+      <c r="M13" s="146"/>
+      <c r="N13" s="146"/>
+      <c r="O13" s="146"/>
+      <c r="P13" s="146"/>
     </row>
     <row r="14" spans="1:16" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
@@ -7920,7 +7920,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="191" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="131"/>
@@ -7957,7 +7957,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="184"/>
+      <c r="A2" s="192"/>
       <c r="B2" s="132"/>
       <c r="C2" s="138"/>
       <c r="D2" s="31" t="s">
@@ -8010,15 +8010,15 @@
       <c r="F4" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="153" t="s">
+      <c r="G4" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153" t="s">
+      <c r="H4" s="155"/>
+      <c r="I4" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
@@ -8035,15 +8035,15 @@
         <v>135</v>
       </c>
       <c r="F5" s="27"/>
-      <c r="G5" s="179" t="s">
+      <c r="G5" s="189" t="s">
         <v>240</v>
       </c>
-      <c r="H5" s="180"/>
-      <c r="I5" s="185" t="s">
+      <c r="H5" s="190"/>
+      <c r="I5" s="182" t="s">
         <v>285</v>
       </c>
-      <c r="J5" s="186"/>
-      <c r="K5" s="187"/>
+      <c r="J5" s="183"/>
+      <c r="K5" s="184"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
@@ -8060,15 +8060,15 @@
         <v>244</v>
       </c>
       <c r="F6" s="27"/>
-      <c r="G6" s="181" t="s">
+      <c r="G6" s="187" t="s">
         <v>245</v>
       </c>
-      <c r="H6" s="182"/>
-      <c r="I6" s="185" t="s">
+      <c r="H6" s="188"/>
+      <c r="I6" s="182" t="s">
         <v>286</v>
       </c>
-      <c r="J6" s="186"/>
-      <c r="K6" s="187"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="184"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
@@ -8085,15 +8085,15 @@
         <v>244</v>
       </c>
       <c r="F7" s="27"/>
-      <c r="G7" s="181" t="s">
+      <c r="G7" s="187" t="s">
         <v>245</v>
       </c>
-      <c r="H7" s="182"/>
-      <c r="I7" s="185" t="s">
+      <c r="H7" s="188"/>
+      <c r="I7" s="182" t="s">
         <v>287</v>
       </c>
-      <c r="J7" s="186"/>
-      <c r="K7" s="187"/>
+      <c r="J7" s="183"/>
+      <c r="K7" s="184"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -8110,15 +8110,15 @@
         <v>135</v>
       </c>
       <c r="F8" s="27"/>
-      <c r="G8" s="179" t="s">
+      <c r="G8" s="189" t="s">
         <v>236</v>
       </c>
-      <c r="H8" s="180"/>
-      <c r="I8" s="185" t="s">
+      <c r="H8" s="190"/>
+      <c r="I8" s="182" t="s">
         <v>288</v>
       </c>
-      <c r="J8" s="186"/>
-      <c r="K8" s="187"/>
+      <c r="J8" s="183"/>
+      <c r="K8" s="184"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
@@ -8135,15 +8135,15 @@
         <v>135</v>
       </c>
       <c r="F9" s="27"/>
-      <c r="G9" s="181" t="s">
+      <c r="G9" s="187" t="s">
         <v>275</v>
       </c>
-      <c r="H9" s="182"/>
-      <c r="I9" s="185" t="s">
+      <c r="H9" s="188"/>
+      <c r="I9" s="182" t="s">
         <v>289</v>
       </c>
-      <c r="J9" s="186"/>
-      <c r="K9" s="187"/>
+      <c r="J9" s="183"/>
+      <c r="K9" s="184"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
@@ -8160,15 +8160,15 @@
         <v>237</v>
       </c>
       <c r="F10" s="27"/>
-      <c r="G10" s="179" t="s">
+      <c r="G10" s="189" t="s">
         <v>238</v>
       </c>
-      <c r="H10" s="180"/>
-      <c r="I10" s="185" t="s">
+      <c r="H10" s="190"/>
+      <c r="I10" s="182" t="s">
         <v>290</v>
       </c>
-      <c r="J10" s="186"/>
-      <c r="K10" s="187"/>
+      <c r="J10" s="183"/>
+      <c r="K10" s="184"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
@@ -8185,15 +8185,15 @@
         <v>135</v>
       </c>
       <c r="F11" s="27"/>
-      <c r="G11" s="179" t="s">
+      <c r="G11" s="189" t="s">
         <v>239</v>
       </c>
-      <c r="H11" s="180"/>
-      <c r="I11" s="185" t="s">
+      <c r="H11" s="190"/>
+      <c r="I11" s="182" t="s">
         <v>291</v>
       </c>
-      <c r="J11" s="186"/>
-      <c r="K11" s="187"/>
+      <c r="J11" s="183"/>
+      <c r="K11" s="184"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
@@ -8204,11 +8204,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="188"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="185"/>
-      <c r="J12" s="186"/>
-      <c r="K12" s="187"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="186"/>
+      <c r="I12" s="182"/>
+      <c r="J12" s="183"/>
+      <c r="K12" s="184"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
@@ -8219,11 +8219,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="188"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="185"/>
-      <c r="J13" s="186"/>
-      <c r="K13" s="187"/>
+      <c r="G13" s="185"/>
+      <c r="H13" s="186"/>
+      <c r="I13" s="182"/>
+      <c r="J13" s="183"/>
+      <c r="K13" s="184"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
@@ -8234,11 +8234,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="188"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="185"/>
-      <c r="J14" s="186"/>
-      <c r="K14" s="187"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="182"/>
+      <c r="J14" s="183"/>
+      <c r="K14" s="184"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -8249,11 +8249,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="188"/>
-      <c r="H15" s="189"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="186"/>
-      <c r="K15" s="187"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="183"/>
+      <c r="K15" s="184"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -8264,11 +8264,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="188"/>
-      <c r="H16" s="189"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="186"/>
-      <c r="K16" s="187"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="183"/>
+      <c r="K16" s="184"/>
     </row>
     <row r="17" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -8279,11 +8279,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="188"/>
-      <c r="H17" s="189"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="186"/>
-      <c r="K17" s="187"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="186"/>
+      <c r="I17" s="182"/>
+      <c r="J17" s="183"/>
+      <c r="K17" s="184"/>
     </row>
     <row r="18" spans="1:11" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -8294,11 +8294,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="189"/>
-      <c r="I18" s="185"/>
-      <c r="J18" s="186"/>
-      <c r="K18" s="187"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="182"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="184"/>
     </row>
     <row r="19" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -8309,11 +8309,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="189"/>
-      <c r="I19" s="185"/>
-      <c r="J19" s="186"/>
-      <c r="K19" s="187"/>
+      <c r="G19" s="185"/>
+      <c r="H19" s="186"/>
+      <c r="I19" s="182"/>
+      <c r="J19" s="183"/>
+      <c r="K19" s="184"/>
     </row>
     <row r="20" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
@@ -8324,11 +8324,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="188"/>
-      <c r="H20" s="189"/>
-      <c r="I20" s="185"/>
-      <c r="J20" s="186"/>
-      <c r="K20" s="187"/>
+      <c r="G20" s="185"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="182"/>
+      <c r="J20" s="183"/>
+      <c r="K20" s="184"/>
     </row>
     <row r="21" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
@@ -8339,11 +8339,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="188"/>
-      <c r="H21" s="189"/>
-      <c r="I21" s="185"/>
-      <c r="J21" s="186"/>
-      <c r="K21" s="187"/>
+      <c r="G21" s="185"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="183"/>
+      <c r="K21" s="184"/>
     </row>
     <row r="22" spans="1:11" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
@@ -8354,11 +8354,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="188"/>
-      <c r="H22" s="189"/>
-      <c r="I22" s="185"/>
-      <c r="J22" s="186"/>
-      <c r="K22" s="187"/>
+      <c r="G22" s="185"/>
+      <c r="H22" s="186"/>
+      <c r="I22" s="182"/>
+      <c r="J22" s="183"/>
+      <c r="K22" s="184"/>
     </row>
     <row r="23" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
@@ -8369,11 +8369,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="149"/>
-      <c r="I23" s="185"/>
-      <c r="J23" s="186"/>
-      <c r="K23" s="187"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="182"/>
+      <c r="J23" s="183"/>
+      <c r="K23" s="184"/>
     </row>
     <row r="24" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
@@ -8384,11 +8384,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="185"/>
-      <c r="J24" s="186"/>
-      <c r="K24" s="187"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="182"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="184"/>
     </row>
     <row r="25" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
@@ -8399,11 +8399,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="185"/>
-      <c r="J25" s="186"/>
-      <c r="K25" s="187"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="182"/>
+      <c r="J25" s="183"/>
+      <c r="K25" s="184"/>
     </row>
     <row r="26" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
@@ -8414,11 +8414,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="185"/>
-      <c r="J26" s="186"/>
-      <c r="K26" s="187"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="182"/>
+      <c r="J26" s="183"/>
+      <c r="K26" s="184"/>
     </row>
     <row r="27" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
@@ -8429,11 +8429,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="185"/>
-      <c r="J27" s="186"/>
-      <c r="K27" s="187"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="182"/>
+      <c r="J27" s="183"/>
+      <c r="K27" s="184"/>
     </row>
     <row r="28" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
@@ -8444,11 +8444,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="185"/>
-      <c r="J28" s="186"/>
-      <c r="K28" s="187"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="182"/>
+      <c r="J28" s="183"/>
+      <c r="K28" s="184"/>
     </row>
     <row r="29" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
@@ -8459,11 +8459,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="185"/>
-      <c r="J29" s="186"/>
-      <c r="K29" s="187"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="183"/>
+      <c r="K29" s="184"/>
     </row>
     <row r="30" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
@@ -8474,11 +8474,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="185"/>
-      <c r="J30" s="186"/>
-      <c r="K30" s="187"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="182"/>
+      <c r="J30" s="183"/>
+      <c r="K30" s="184"/>
     </row>
     <row r="31" spans="1:11" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
@@ -8489,11 +8489,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="185"/>
-      <c r="J31" s="186"/>
-      <c r="K31" s="187"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="182"/>
+      <c r="J31" s="183"/>
+      <c r="K31" s="184"/>
     </row>
     <row r="32" spans="1:11" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33">
@@ -8504,11 +8504,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="185"/>
-      <c r="J32" s="186"/>
-      <c r="K32" s="187"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="182"/>
+      <c r="J32" s="183"/>
+      <c r="K32" s="184"/>
     </row>
     <row r="33" spans="1:19" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A33" s="33">
@@ -8519,11 +8519,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="185"/>
-      <c r="J33" s="186"/>
-      <c r="K33" s="187"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="182"/>
+      <c r="J33" s="183"/>
+      <c r="K33" s="184"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -8541,11 +8541,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="185"/>
-      <c r="J34" s="186"/>
-      <c r="K34" s="187"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="182"/>
+      <c r="J34" s="183"/>
+      <c r="K34" s="184"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -8563,11 +8563,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="185"/>
-      <c r="J35" s="186"/>
-      <c r="K35" s="187"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="182"/>
+      <c r="J35" s="183"/>
+      <c r="K35" s="184"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -8585,11 +8585,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="185"/>
-      <c r="J36" s="186"/>
-      <c r="K36" s="187"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="182"/>
+      <c r="J36" s="183"/>
+      <c r="K36" s="184"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -8607,11 +8607,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="147"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="185"/>
-      <c r="J37" s="186"/>
-      <c r="K37" s="187"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="182"/>
+      <c r="J37" s="183"/>
+      <c r="K37" s="184"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -8629,11 +8629,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="147"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="185"/>
-      <c r="J38" s="186"/>
-      <c r="K38" s="187"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="151"/>
+      <c r="I38" s="182"/>
+      <c r="J38" s="183"/>
+      <c r="K38" s="184"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -8651,11 +8651,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="185"/>
-      <c r="J39" s="186"/>
-      <c r="K39" s="187"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="182"/>
+      <c r="J39" s="183"/>
+      <c r="K39" s="184"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -8673,11 +8673,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="185"/>
-      <c r="J40" s="186"/>
-      <c r="K40" s="187"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="151"/>
+      <c r="I40" s="182"/>
+      <c r="J40" s="183"/>
+      <c r="K40" s="184"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -8695,11 +8695,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="147"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="185"/>
-      <c r="J41" s="186"/>
-      <c r="K41" s="187"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="151"/>
+      <c r="I41" s="182"/>
+      <c r="J41" s="183"/>
+      <c r="K41" s="184"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -8717,11 +8717,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="147"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="185"/>
-      <c r="J42" s="186"/>
-      <c r="K42" s="187"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="151"/>
+      <c r="I42" s="182"/>
+      <c r="J42" s="183"/>
+      <c r="K42" s="184"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -8739,11 +8739,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="185"/>
-      <c r="J43" s="186"/>
-      <c r="K43" s="187"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="182"/>
+      <c r="J43" s="183"/>
+      <c r="K43" s="184"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -8761,11 +8761,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="147"/>
-      <c r="H44" s="149"/>
-      <c r="I44" s="185"/>
-      <c r="J44" s="186"/>
-      <c r="K44" s="187"/>
+      <c r="G44" s="149"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="182"/>
+      <c r="J44" s="183"/>
+      <c r="K44" s="184"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -8783,11 +8783,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="147"/>
-      <c r="H45" s="149"/>
-      <c r="I45" s="185"/>
-      <c r="J45" s="186"/>
-      <c r="K45" s="187"/>
+      <c r="G45" s="149"/>
+      <c r="H45" s="151"/>
+      <c r="I45" s="182"/>
+      <c r="J45" s="183"/>
+      <c r="K45" s="184"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -8805,11 +8805,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="147"/>
-      <c r="H46" s="149"/>
-      <c r="I46" s="185"/>
-      <c r="J46" s="186"/>
-      <c r="K46" s="187"/>
+      <c r="G46" s="149"/>
+      <c r="H46" s="151"/>
+      <c r="I46" s="182"/>
+      <c r="J46" s="183"/>
+      <c r="K46" s="184"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -8827,11 +8827,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="147"/>
-      <c r="H47" s="149"/>
-      <c r="I47" s="185"/>
-      <c r="J47" s="186"/>
-      <c r="K47" s="187"/>
+      <c r="G47" s="149"/>
+      <c r="H47" s="151"/>
+      <c r="I47" s="182"/>
+      <c r="J47" s="183"/>
+      <c r="K47" s="184"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -8849,11 +8849,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="147"/>
-      <c r="H48" s="149"/>
-      <c r="I48" s="185"/>
-      <c r="J48" s="186"/>
-      <c r="K48" s="187"/>
+      <c r="G48" s="149"/>
+      <c r="H48" s="151"/>
+      <c r="I48" s="182"/>
+      <c r="J48" s="183"/>
+      <c r="K48" s="184"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -8871,11 +8871,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="147"/>
-      <c r="H49" s="149"/>
-      <c r="I49" s="185"/>
-      <c r="J49" s="186"/>
-      <c r="K49" s="187"/>
+      <c r="G49" s="149"/>
+      <c r="H49" s="151"/>
+      <c r="I49" s="182"/>
+      <c r="J49" s="183"/>
+      <c r="K49" s="184"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -8893,11 +8893,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="147"/>
-      <c r="H50" s="149"/>
-      <c r="I50" s="185"/>
-      <c r="J50" s="186"/>
-      <c r="K50" s="187"/>
+      <c r="G50" s="149"/>
+      <c r="H50" s="151"/>
+      <c r="I50" s="182"/>
+      <c r="J50" s="183"/>
+      <c r="K50" s="184"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -8915,11 +8915,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="147"/>
-      <c r="H51" s="149"/>
-      <c r="I51" s="185"/>
-      <c r="J51" s="186"/>
-      <c r="K51" s="187"/>
+      <c r="G51" s="149"/>
+      <c r="H51" s="151"/>
+      <c r="I51" s="182"/>
+      <c r="J51" s="183"/>
+      <c r="K51" s="184"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -8937,11 +8937,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="147"/>
-      <c r="H52" s="149"/>
-      <c r="I52" s="185"/>
-      <c r="J52" s="186"/>
-      <c r="K52" s="187"/>
+      <c r="G52" s="149"/>
+      <c r="H52" s="151"/>
+      <c r="I52" s="182"/>
+      <c r="J52" s="183"/>
+      <c r="K52" s="184"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -8959,11 +8959,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="147"/>
-      <c r="H53" s="149"/>
-      <c r="I53" s="185"/>
-      <c r="J53" s="186"/>
-      <c r="K53" s="187"/>
+      <c r="G53" s="149"/>
+      <c r="H53" s="151"/>
+      <c r="I53" s="182"/>
+      <c r="J53" s="183"/>
+      <c r="K53" s="184"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -8981,11 +8981,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="147"/>
-      <c r="H54" s="149"/>
-      <c r="I54" s="185"/>
-      <c r="J54" s="186"/>
-      <c r="K54" s="187"/>
+      <c r="G54" s="149"/>
+      <c r="H54" s="151"/>
+      <c r="I54" s="182"/>
+      <c r="J54" s="183"/>
+      <c r="K54" s="184"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -9003,11 +9003,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="147"/>
-      <c r="H55" s="149"/>
-      <c r="I55" s="185"/>
-      <c r="J55" s="186"/>
-      <c r="K55" s="187"/>
+      <c r="G55" s="149"/>
+      <c r="H55" s="151"/>
+      <c r="I55" s="182"/>
+      <c r="J55" s="183"/>
+      <c r="K55" s="184"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -9025,11 +9025,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="147"/>
-      <c r="H56" s="149"/>
-      <c r="I56" s="185"/>
-      <c r="J56" s="186"/>
-      <c r="K56" s="187"/>
+      <c r="G56" s="149"/>
+      <c r="H56" s="151"/>
+      <c r="I56" s="182"/>
+      <c r="J56" s="183"/>
+      <c r="K56" s="184"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -9047,11 +9047,11 @@
       <c r="D57" s="33"/>
       <c r="E57" s="33"/>
       <c r="F57" s="32"/>
-      <c r="G57" s="147"/>
-      <c r="H57" s="149"/>
-      <c r="I57" s="185"/>
-      <c r="J57" s="186"/>
-      <c r="K57" s="187"/>
+      <c r="G57" s="149"/>
+      <c r="H57" s="151"/>
+      <c r="I57" s="182"/>
+      <c r="J57" s="183"/>
+      <c r="K57" s="184"/>
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
@@ -9063,6 +9063,101 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="109">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="I50:K50"/>
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="G54:H54"/>
     <mergeCell ref="G55:H55"/>
@@ -9077,101 +9172,6 @@
     <mergeCell ref="I55:K55"/>
     <mergeCell ref="I56:K56"/>
     <mergeCell ref="I57:K57"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F57">
@@ -9222,24 +9222,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="193" t="str">
+      <c r="J1" s="196" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="193"/>
+      <c r="K1" s="196"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -9267,22 +9267,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
+      <c r="A2" s="155"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="193" t="str">
+      <c r="J2" s="196" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="K2" s="193"/>
+      <c r="K2" s="196"/>
       <c r="L2" s="26" t="s">
         <v>50</v>
       </c>
@@ -9340,12 +9340,12 @@
       <c r="J4" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="159" t="s">
+      <c r="K4" s="162" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="160"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="164"/>
+      <c r="N4" s="163"/>
       <c r="O4" s="39" t="s">
         <v>57</v>
       </c>
@@ -9393,12 +9393,12 @@
       <c r="J5" s="126" t="s">
         <v>213</v>
       </c>
-      <c r="K5" s="150" t="s">
+      <c r="K5" s="152" t="s">
         <v>300</v>
       </c>
-      <c r="L5" s="151"/>
-      <c r="M5" s="151"/>
-      <c r="N5" s="152"/>
+      <c r="L5" s="153"/>
+      <c r="M5" s="153"/>
+      <c r="N5" s="154"/>
       <c r="O5" s="129" t="s">
         <v>135</v>
       </c>
@@ -9442,12 +9442,12 @@
       <c r="J6" s="126" t="s">
         <v>215</v>
       </c>
-      <c r="K6" s="150" t="s">
+      <c r="K6" s="152" t="s">
         <v>298</v>
       </c>
-      <c r="L6" s="151"/>
-      <c r="M6" s="151"/>
-      <c r="N6" s="152"/>
+      <c r="L6" s="153"/>
+      <c r="M6" s="153"/>
+      <c r="N6" s="154"/>
       <c r="O6" s="143" t="s">
         <v>299</v>
       </c>
@@ -9491,12 +9491,12 @@
       <c r="J7" s="126" t="s">
         <v>216</v>
       </c>
-      <c r="K7" s="150" t="s">
+      <c r="K7" s="152" t="s">
         <v>246</v>
       </c>
-      <c r="L7" s="151"/>
-      <c r="M7" s="151"/>
-      <c r="N7" s="152"/>
+      <c r="L7" s="153"/>
+      <c r="M7" s="153"/>
+      <c r="N7" s="154"/>
       <c r="O7" s="129" t="s">
         <v>244</v>
       </c>
@@ -9542,12 +9542,12 @@
       <c r="J8" s="126" t="s">
         <v>218</v>
       </c>
-      <c r="K8" s="150" t="s">
+      <c r="K8" s="152" t="s">
         <v>247</v>
       </c>
-      <c r="L8" s="151"/>
-      <c r="M8" s="151"/>
-      <c r="N8" s="152"/>
+      <c r="L8" s="153"/>
+      <c r="M8" s="153"/>
+      <c r="N8" s="154"/>
       <c r="O8" s="129" t="s">
         <v>248</v>
       </c>
@@ -9591,12 +9591,12 @@
       <c r="J9" s="126" t="s">
         <v>223</v>
       </c>
-      <c r="K9" s="150" t="s">
+      <c r="K9" s="152" t="s">
         <v>282</v>
       </c>
-      <c r="L9" s="151"/>
-      <c r="M9" s="151"/>
-      <c r="N9" s="152"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="154"/>
       <c r="O9" s="142" t="s">
         <v>283</v>
       </c>
@@ -9628,10 +9628,10 @@
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
       <c r="J10" s="82"/>
-      <c r="K10" s="190"/>
-      <c r="L10" s="191"/>
-      <c r="M10" s="191"/>
-      <c r="N10" s="192"/>
+      <c r="K10" s="193"/>
+      <c r="L10" s="194"/>
+      <c r="M10" s="194"/>
+      <c r="N10" s="195"/>
       <c r="O10" s="140"/>
       <c r="P10" s="140"/>
       <c r="Q10" s="76"/>
@@ -9653,10 +9653,10 @@
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="82"/>
-      <c r="K11" s="190"/>
-      <c r="L11" s="191"/>
-      <c r="M11" s="191"/>
-      <c r="N11" s="192"/>
+      <c r="K11" s="193"/>
+      <c r="L11" s="194"/>
+      <c r="M11" s="194"/>
+      <c r="N11" s="195"/>
       <c r="O11" s="89"/>
       <c r="P11" s="89"/>
       <c r="Q11" s="76"/>
@@ -9678,10 +9678,10 @@
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
       <c r="J12" s="82"/>
-      <c r="K12" s="190"/>
-      <c r="L12" s="191"/>
-      <c r="M12" s="191"/>
-      <c r="N12" s="192"/>
+      <c r="K12" s="193"/>
+      <c r="L12" s="194"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="195"/>
       <c r="O12" s="89"/>
       <c r="P12" s="89"/>
       <c r="Q12" s="76"/>
@@ -9703,10 +9703,10 @@
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="J13" s="82"/>
-      <c r="K13" s="190"/>
-      <c r="L13" s="191"/>
-      <c r="M13" s="191"/>
-      <c r="N13" s="192"/>
+      <c r="K13" s="193"/>
+      <c r="L13" s="194"/>
+      <c r="M13" s="194"/>
+      <c r="N13" s="195"/>
       <c r="O13" s="85"/>
       <c r="P13" s="85"/>
       <c r="Q13" s="76"/>
@@ -9728,10 +9728,10 @@
       <c r="H14" s="63"/>
       <c r="I14" s="63"/>
       <c r="J14" s="82"/>
-      <c r="K14" s="190"/>
-      <c r="L14" s="191"/>
-      <c r="M14" s="191"/>
-      <c r="N14" s="192"/>
+      <c r="K14" s="193"/>
+      <c r="L14" s="194"/>
+      <c r="M14" s="194"/>
+      <c r="N14" s="195"/>
       <c r="O14" s="85"/>
       <c r="P14" s="85"/>
       <c r="Q14" s="76"/>
@@ -9753,10 +9753,10 @@
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
       <c r="J15" s="82"/>
-      <c r="K15" s="190"/>
-      <c r="L15" s="191"/>
-      <c r="M15" s="191"/>
-      <c r="N15" s="192"/>
+      <c r="K15" s="193"/>
+      <c r="L15" s="194"/>
+      <c r="M15" s="194"/>
+      <c r="N15" s="195"/>
       <c r="O15" s="81"/>
       <c r="P15" s="81"/>
       <c r="Q15" s="76"/>
@@ -9778,10 +9778,10 @@
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
       <c r="J16" s="82"/>
-      <c r="K16" s="190"/>
-      <c r="L16" s="191"/>
-      <c r="M16" s="191"/>
-      <c r="N16" s="192"/>
+      <c r="K16" s="193"/>
+      <c r="L16" s="194"/>
+      <c r="M16" s="194"/>
+      <c r="N16" s="195"/>
       <c r="O16" s="81"/>
       <c r="P16" s="81"/>
       <c r="Q16" s="76"/>
@@ -9803,10 +9803,10 @@
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="190"/>
-      <c r="L17" s="191"/>
-      <c r="M17" s="191"/>
-      <c r="N17" s="192"/>
+      <c r="K17" s="193"/>
+      <c r="L17" s="194"/>
+      <c r="M17" s="194"/>
+      <c r="N17" s="195"/>
       <c r="O17" s="72"/>
       <c r="P17" s="60"/>
       <c r="Q17" s="76"/>
@@ -9828,10 +9828,10 @@
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="190"/>
-      <c r="L18" s="191"/>
-      <c r="M18" s="191"/>
-      <c r="N18" s="192"/>
+      <c r="K18" s="193"/>
+      <c r="L18" s="194"/>
+      <c r="M18" s="194"/>
+      <c r="N18" s="195"/>
       <c r="O18" s="60"/>
       <c r="P18" s="60"/>
       <c r="Q18" s="76"/>
@@ -9853,10 +9853,10 @@
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="190"/>
-      <c r="L19" s="191"/>
-      <c r="M19" s="191"/>
-      <c r="N19" s="192"/>
+      <c r="K19" s="193"/>
+      <c r="L19" s="194"/>
+      <c r="M19" s="194"/>
+      <c r="N19" s="195"/>
       <c r="O19" s="60"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="76"/>
@@ -9878,10 +9878,10 @@
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="190"/>
-      <c r="L20" s="191"/>
-      <c r="M20" s="191"/>
-      <c r="N20" s="192"/>
+      <c r="K20" s="193"/>
+      <c r="L20" s="194"/>
+      <c r="M20" s="194"/>
+      <c r="N20" s="195"/>
       <c r="O20" s="60"/>
       <c r="P20" s="60"/>
       <c r="Q20" s="76"/>
@@ -9903,10 +9903,10 @@
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="190"/>
-      <c r="L21" s="191"/>
-      <c r="M21" s="191"/>
-      <c r="N21" s="192"/>
+      <c r="K21" s="193"/>
+      <c r="L21" s="194"/>
+      <c r="M21" s="194"/>
+      <c r="N21" s="195"/>
       <c r="O21" s="60"/>
       <c r="P21" s="60"/>
       <c r="Q21" s="76"/>
@@ -9928,10 +9928,10 @@
       <c r="H22" s="63"/>
       <c r="I22" s="63"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="190"/>
-      <c r="L22" s="191"/>
-      <c r="M22" s="191"/>
-      <c r="N22" s="192"/>
+      <c r="K22" s="193"/>
+      <c r="L22" s="194"/>
+      <c r="M22" s="194"/>
+      <c r="N22" s="195"/>
       <c r="O22" s="60"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="76"/>
@@ -9953,10 +9953,10 @@
       <c r="H23" s="63"/>
       <c r="I23" s="63"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="190"/>
-      <c r="L23" s="191"/>
-      <c r="M23" s="191"/>
-      <c r="N23" s="192"/>
+      <c r="K23" s="193"/>
+      <c r="L23" s="194"/>
+      <c r="M23" s="194"/>
+      <c r="N23" s="195"/>
       <c r="O23" s="60"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="76"/>
@@ -9978,10 +9978,10 @@
       <c r="H24" s="63"/>
       <c r="I24" s="63"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="190"/>
-      <c r="L24" s="191"/>
-      <c r="M24" s="191"/>
-      <c r="N24" s="192"/>
+      <c r="K24" s="193"/>
+      <c r="L24" s="194"/>
+      <c r="M24" s="194"/>
+      <c r="N24" s="195"/>
       <c r="O24" s="60"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="76"/>
@@ -10003,10 +10003,10 @@
       <c r="H25" s="63"/>
       <c r="I25" s="63"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="190"/>
-      <c r="L25" s="191"/>
-      <c r="M25" s="191"/>
-      <c r="N25" s="192"/>
+      <c r="K25" s="193"/>
+      <c r="L25" s="194"/>
+      <c r="M25" s="194"/>
+      <c r="N25" s="195"/>
       <c r="O25" s="60"/>
       <c r="P25" s="60"/>
       <c r="Q25" s="76"/>
@@ -10028,10 +10028,10 @@
       <c r="H26" s="63"/>
       <c r="I26" s="63"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="190"/>
-      <c r="L26" s="191"/>
-      <c r="M26" s="191"/>
-      <c r="N26" s="192"/>
+      <c r="K26" s="193"/>
+      <c r="L26" s="194"/>
+      <c r="M26" s="194"/>
+      <c r="N26" s="195"/>
       <c r="O26" s="60"/>
       <c r="P26" s="60"/>
       <c r="Q26" s="76"/>
@@ -10053,10 +10053,10 @@
       <c r="H27" s="63"/>
       <c r="I27" s="63"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="190"/>
-      <c r="L27" s="191"/>
-      <c r="M27" s="191"/>
-      <c r="N27" s="192"/>
+      <c r="K27" s="193"/>
+      <c r="L27" s="194"/>
+      <c r="M27" s="194"/>
+      <c r="N27" s="195"/>
       <c r="O27" s="60"/>
       <c r="P27" s="60"/>
       <c r="Q27" s="76"/>
@@ -10078,10 +10078,10 @@
       <c r="H28" s="63"/>
       <c r="I28" s="63"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="190"/>
-      <c r="L28" s="191"/>
-      <c r="M28" s="191"/>
-      <c r="N28" s="192"/>
+      <c r="K28" s="193"/>
+      <c r="L28" s="194"/>
+      <c r="M28" s="194"/>
+      <c r="N28" s="195"/>
       <c r="O28" s="60"/>
       <c r="P28" s="60"/>
       <c r="Q28" s="76"/>
@@ -10103,10 +10103,10 @@
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="190"/>
-      <c r="L29" s="191"/>
-      <c r="M29" s="191"/>
-      <c r="N29" s="192"/>
+      <c r="K29" s="193"/>
+      <c r="L29" s="194"/>
+      <c r="M29" s="194"/>
+      <c r="N29" s="195"/>
       <c r="O29" s="60"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="76"/>
@@ -10128,10 +10128,10 @@
       <c r="H30" s="63"/>
       <c r="I30" s="63"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="190"/>
-      <c r="L30" s="191"/>
-      <c r="M30" s="191"/>
-      <c r="N30" s="192"/>
+      <c r="K30" s="193"/>
+      <c r="L30" s="194"/>
+      <c r="M30" s="194"/>
+      <c r="N30" s="195"/>
       <c r="O30" s="60"/>
       <c r="P30" s="60"/>
       <c r="Q30" s="76"/>
@@ -10153,10 +10153,10 @@
       <c r="H31" s="63"/>
       <c r="I31" s="63"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="190"/>
-      <c r="L31" s="191"/>
-      <c r="M31" s="191"/>
-      <c r="N31" s="192"/>
+      <c r="K31" s="193"/>
+      <c r="L31" s="194"/>
+      <c r="M31" s="194"/>
+      <c r="N31" s="195"/>
       <c r="O31" s="60"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="76"/>
@@ -10178,10 +10178,10 @@
       <c r="H32" s="63"/>
       <c r="I32" s="63"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="190"/>
-      <c r="L32" s="191"/>
-      <c r="M32" s="191"/>
-      <c r="N32" s="192"/>
+      <c r="K32" s="193"/>
+      <c r="L32" s="194"/>
+      <c r="M32" s="194"/>
+      <c r="N32" s="195"/>
       <c r="O32" s="60"/>
       <c r="P32" s="60"/>
       <c r="Q32" s="76"/>
@@ -10203,10 +10203,10 @@
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="190"/>
-      <c r="L33" s="191"/>
-      <c r="M33" s="191"/>
-      <c r="N33" s="192"/>
+      <c r="K33" s="193"/>
+      <c r="L33" s="194"/>
+      <c r="M33" s="194"/>
+      <c r="N33" s="195"/>
       <c r="O33" s="60"/>
       <c r="P33" s="60"/>
       <c r="Q33" s="76"/>
@@ -10228,10 +10228,10 @@
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
       <c r="J34" s="40"/>
-      <c r="K34" s="190"/>
-      <c r="L34" s="191"/>
-      <c r="M34" s="191"/>
-      <c r="N34" s="192"/>
+      <c r="K34" s="193"/>
+      <c r="L34" s="194"/>
+      <c r="M34" s="194"/>
+      <c r="N34" s="195"/>
       <c r="O34" s="60"/>
       <c r="P34" s="60"/>
       <c r="Q34" s="76"/>
@@ -10253,10 +10253,10 @@
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
       <c r="J35" s="82"/>
-      <c r="K35" s="190"/>
-      <c r="L35" s="191"/>
-      <c r="M35" s="191"/>
-      <c r="N35" s="192"/>
+      <c r="K35" s="193"/>
+      <c r="L35" s="194"/>
+      <c r="M35" s="194"/>
+      <c r="N35" s="195"/>
       <c r="O35" s="85"/>
       <c r="P35" s="85"/>
       <c r="Q35" s="76"/>
@@ -10278,10 +10278,10 @@
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="190"/>
-      <c r="L36" s="191"/>
-      <c r="M36" s="191"/>
-      <c r="N36" s="192"/>
+      <c r="K36" s="193"/>
+      <c r="L36" s="194"/>
+      <c r="M36" s="194"/>
+      <c r="N36" s="195"/>
       <c r="O36" s="60"/>
       <c r="P36" s="60"/>
       <c r="Q36" s="76"/>
@@ -10303,10 +10303,10 @@
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="190"/>
-      <c r="L37" s="191"/>
-      <c r="M37" s="191"/>
-      <c r="N37" s="192"/>
+      <c r="K37" s="193"/>
+      <c r="L37" s="194"/>
+      <c r="M37" s="194"/>
+      <c r="N37" s="195"/>
       <c r="O37" s="60"/>
       <c r="P37" s="60"/>
       <c r="Q37" s="76"/>
@@ -10328,10 +10328,10 @@
       <c r="H38" s="63"/>
       <c r="I38" s="63"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="190"/>
-      <c r="L38" s="191"/>
-      <c r="M38" s="191"/>
-      <c r="N38" s="192"/>
+      <c r="K38" s="193"/>
+      <c r="L38" s="194"/>
+      <c r="M38" s="194"/>
+      <c r="N38" s="195"/>
       <c r="O38" s="60"/>
       <c r="P38" s="60"/>
       <c r="Q38" s="76"/>
@@ -10353,10 +10353,10 @@
       <c r="H39" s="63"/>
       <c r="I39" s="63"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="190"/>
-      <c r="L39" s="191"/>
-      <c r="M39" s="191"/>
-      <c r="N39" s="192"/>
+      <c r="K39" s="193"/>
+      <c r="L39" s="194"/>
+      <c r="M39" s="194"/>
+      <c r="N39" s="195"/>
       <c r="O39" s="60"/>
       <c r="P39" s="60"/>
       <c r="Q39" s="76"/>
@@ -10378,10 +10378,10 @@
       <c r="H40" s="63"/>
       <c r="I40" s="63"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="190"/>
-      <c r="L40" s="191"/>
-      <c r="M40" s="191"/>
-      <c r="N40" s="192"/>
+      <c r="K40" s="193"/>
+      <c r="L40" s="194"/>
+      <c r="M40" s="194"/>
+      <c r="N40" s="195"/>
       <c r="O40" s="60"/>
       <c r="P40" s="60"/>
       <c r="Q40" s="76"/>
@@ -10403,10 +10403,10 @@
       <c r="H41" s="63"/>
       <c r="I41" s="63"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="190"/>
-      <c r="L41" s="191"/>
-      <c r="M41" s="191"/>
-      <c r="N41" s="192"/>
+      <c r="K41" s="193"/>
+      <c r="L41" s="194"/>
+      <c r="M41" s="194"/>
+      <c r="N41" s="195"/>
       <c r="O41" s="74"/>
       <c r="P41" s="74"/>
       <c r="Q41" s="76"/>
@@ -10428,10 +10428,10 @@
       <c r="H42" s="63"/>
       <c r="I42" s="63"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="190"/>
-      <c r="L42" s="191"/>
-      <c r="M42" s="191"/>
-      <c r="N42" s="192"/>
+      <c r="K42" s="193"/>
+      <c r="L42" s="194"/>
+      <c r="M42" s="194"/>
+      <c r="N42" s="195"/>
       <c r="O42" s="74"/>
       <c r="P42" s="74"/>
       <c r="Q42" s="76"/>
@@ -10453,10 +10453,10 @@
       <c r="H43" s="63"/>
       <c r="I43" s="63"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="190"/>
-      <c r="L43" s="191"/>
-      <c r="M43" s="191"/>
-      <c r="N43" s="192"/>
+      <c r="K43" s="193"/>
+      <c r="L43" s="194"/>
+      <c r="M43" s="194"/>
+      <c r="N43" s="195"/>
       <c r="O43" s="74"/>
       <c r="P43" s="74"/>
       <c r="Q43" s="76"/>
@@ -10478,10 +10478,10 @@
       <c r="H44" s="63"/>
       <c r="I44" s="63"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="190"/>
-      <c r="L44" s="191"/>
-      <c r="M44" s="191"/>
-      <c r="N44" s="192"/>
+      <c r="K44" s="193"/>
+      <c r="L44" s="194"/>
+      <c r="M44" s="194"/>
+      <c r="N44" s="195"/>
       <c r="O44" s="74"/>
       <c r="P44" s="74"/>
       <c r="Q44" s="76"/>
@@ -10503,10 +10503,10 @@
       <c r="H45" s="63"/>
       <c r="I45" s="63"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="190"/>
-      <c r="L45" s="191"/>
-      <c r="M45" s="191"/>
-      <c r="N45" s="192"/>
+      <c r="K45" s="193"/>
+      <c r="L45" s="194"/>
+      <c r="M45" s="194"/>
+      <c r="N45" s="195"/>
       <c r="O45" s="74"/>
       <c r="P45" s="74"/>
       <c r="Q45" s="76"/>
@@ -10528,10 +10528,10 @@
       <c r="H46" s="63"/>
       <c r="I46" s="63"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="190"/>
-      <c r="L46" s="191"/>
-      <c r="M46" s="191"/>
-      <c r="N46" s="192"/>
+      <c r="K46" s="193"/>
+      <c r="L46" s="194"/>
+      <c r="M46" s="194"/>
+      <c r="N46" s="195"/>
       <c r="O46" s="74"/>
       <c r="P46" s="74"/>
       <c r="Q46" s="76"/>
@@ -10553,10 +10553,10 @@
       <c r="H47" s="63"/>
       <c r="I47" s="63"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="190"/>
-      <c r="L47" s="191"/>
-      <c r="M47" s="191"/>
-      <c r="N47" s="192"/>
+      <c r="K47" s="193"/>
+      <c r="L47" s="194"/>
+      <c r="M47" s="194"/>
+      <c r="N47" s="195"/>
       <c r="O47" s="74"/>
       <c r="P47" s="74"/>
       <c r="Q47" s="76"/>
@@ -10578,10 +10578,10 @@
       <c r="H48" s="63"/>
       <c r="I48" s="63"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="190"/>
-      <c r="L48" s="191"/>
-      <c r="M48" s="191"/>
-      <c r="N48" s="192"/>
+      <c r="K48" s="193"/>
+      <c r="L48" s="194"/>
+      <c r="M48" s="194"/>
+      <c r="N48" s="195"/>
       <c r="O48" s="74"/>
       <c r="P48" s="74"/>
       <c r="Q48" s="76"/>
@@ -10603,10 +10603,10 @@
       <c r="H49" s="63"/>
       <c r="I49" s="63"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="190"/>
-      <c r="L49" s="191"/>
-      <c r="M49" s="191"/>
-      <c r="N49" s="192"/>
+      <c r="K49" s="193"/>
+      <c r="L49" s="194"/>
+      <c r="M49" s="194"/>
+      <c r="N49" s="195"/>
       <c r="O49" s="74"/>
       <c r="P49" s="74"/>
       <c r="Q49" s="76"/>
@@ -10628,10 +10628,10 @@
       <c r="H50" s="63"/>
       <c r="I50" s="63"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="190"/>
-      <c r="L50" s="191"/>
-      <c r="M50" s="191"/>
-      <c r="N50" s="192"/>
+      <c r="K50" s="193"/>
+      <c r="L50" s="194"/>
+      <c r="M50" s="194"/>
+      <c r="N50" s="195"/>
       <c r="O50" s="74"/>
       <c r="P50" s="74"/>
       <c r="Q50" s="76"/>
@@ -10653,10 +10653,10 @@
       <c r="H51" s="63"/>
       <c r="I51" s="63"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="190"/>
-      <c r="L51" s="191"/>
-      <c r="M51" s="191"/>
-      <c r="N51" s="192"/>
+      <c r="K51" s="193"/>
+      <c r="L51" s="194"/>
+      <c r="M51" s="194"/>
+      <c r="N51" s="195"/>
       <c r="O51" s="74"/>
       <c r="P51" s="74"/>
       <c r="Q51" s="76"/>
@@ -10678,10 +10678,10 @@
       <c r="H52" s="63"/>
       <c r="I52" s="63"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="190"/>
-      <c r="L52" s="191"/>
-      <c r="M52" s="191"/>
-      <c r="N52" s="192"/>
+      <c r="K52" s="193"/>
+      <c r="L52" s="194"/>
+      <c r="M52" s="194"/>
+      <c r="N52" s="195"/>
       <c r="O52" s="74"/>
       <c r="P52" s="74"/>
       <c r="Q52" s="76"/>
@@ -10703,10 +10703,10 @@
       <c r="H53" s="63"/>
       <c r="I53" s="63"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="190"/>
-      <c r="L53" s="191"/>
-      <c r="M53" s="191"/>
-      <c r="N53" s="192"/>
+      <c r="K53" s="193"/>
+      <c r="L53" s="194"/>
+      <c r="M53" s="194"/>
+      <c r="N53" s="195"/>
       <c r="O53" s="74"/>
       <c r="P53" s="74"/>
       <c r="Q53" s="76"/>
@@ -10728,10 +10728,10 @@
       <c r="H54" s="63"/>
       <c r="I54" s="63"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="190"/>
-      <c r="L54" s="191"/>
-      <c r="M54" s="191"/>
-      <c r="N54" s="192"/>
+      <c r="K54" s="193"/>
+      <c r="L54" s="194"/>
+      <c r="M54" s="194"/>
+      <c r="N54" s="195"/>
       <c r="O54" s="74"/>
       <c r="P54" s="74"/>
       <c r="Q54" s="76"/>
@@ -10753,10 +10753,10 @@
       <c r="H55" s="63"/>
       <c r="I55" s="63"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="190"/>
-      <c r="L55" s="191"/>
-      <c r="M55" s="191"/>
-      <c r="N55" s="192"/>
+      <c r="K55" s="193"/>
+      <c r="L55" s="194"/>
+      <c r="M55" s="194"/>
+      <c r="N55" s="195"/>
       <c r="O55" s="74"/>
       <c r="P55" s="74"/>
       <c r="Q55" s="76"/>
@@ -10778,10 +10778,10 @@
       <c r="H56" s="63"/>
       <c r="I56" s="63"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="190"/>
-      <c r="L56" s="191"/>
-      <c r="M56" s="191"/>
-      <c r="N56" s="192"/>
+      <c r="K56" s="193"/>
+      <c r="L56" s="194"/>
+      <c r="M56" s="194"/>
+      <c r="N56" s="195"/>
       <c r="O56" s="74"/>
       <c r="P56" s="74"/>
       <c r="Q56" s="76"/>
@@ -10803,10 +10803,10 @@
       <c r="H57" s="63"/>
       <c r="I57" s="63"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="190"/>
-      <c r="L57" s="191"/>
-      <c r="M57" s="191"/>
-      <c r="N57" s="192"/>
+      <c r="K57" s="193"/>
+      <c r="L57" s="194"/>
+      <c r="M57" s="194"/>
+      <c r="N57" s="195"/>
       <c r="O57" s="74"/>
       <c r="P57" s="74"/>
       <c r="Q57" s="76"/>
@@ -10828,10 +10828,10 @@
       <c r="H58" s="63"/>
       <c r="I58" s="63"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="190"/>
-      <c r="L58" s="191"/>
-      <c r="M58" s="191"/>
-      <c r="N58" s="192"/>
+      <c r="K58" s="193"/>
+      <c r="L58" s="194"/>
+      <c r="M58" s="194"/>
+      <c r="N58" s="195"/>
       <c r="O58" s="74"/>
       <c r="P58" s="74"/>
       <c r="Q58" s="76"/>
@@ -10853,10 +10853,10 @@
       <c r="H59" s="63"/>
       <c r="I59" s="63"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="190"/>
-      <c r="L59" s="191"/>
-      <c r="M59" s="191"/>
-      <c r="N59" s="192"/>
+      <c r="K59" s="193"/>
+      <c r="L59" s="194"/>
+      <c r="M59" s="194"/>
+      <c r="N59" s="195"/>
       <c r="O59" s="74"/>
       <c r="P59" s="74"/>
       <c r="Q59" s="76"/>
@@ -10878,10 +10878,10 @@
       <c r="H60" s="63"/>
       <c r="I60" s="63"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="190"/>
-      <c r="L60" s="191"/>
-      <c r="M60" s="191"/>
-      <c r="N60" s="192"/>
+      <c r="K60" s="193"/>
+      <c r="L60" s="194"/>
+      <c r="M60" s="194"/>
+      <c r="N60" s="195"/>
       <c r="O60" s="74"/>
       <c r="P60" s="74"/>
       <c r="Q60" s="76"/>
@@ -10903,10 +10903,10 @@
       <c r="H61" s="63"/>
       <c r="I61" s="63"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="190"/>
-      <c r="L61" s="191"/>
-      <c r="M61" s="191"/>
-      <c r="N61" s="192"/>
+      <c r="K61" s="193"/>
+      <c r="L61" s="194"/>
+      <c r="M61" s="194"/>
+      <c r="N61" s="195"/>
       <c r="O61" s="74"/>
       <c r="P61" s="74"/>
       <c r="Q61" s="76"/>
@@ -10928,10 +10928,10 @@
       <c r="H62" s="63"/>
       <c r="I62" s="63"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="190"/>
-      <c r="L62" s="191"/>
-      <c r="M62" s="191"/>
-      <c r="N62" s="192"/>
+      <c r="K62" s="193"/>
+      <c r="L62" s="194"/>
+      <c r="M62" s="194"/>
+      <c r="N62" s="195"/>
       <c r="O62" s="74"/>
       <c r="P62" s="74"/>
       <c r="Q62" s="76"/>
@@ -10953,10 +10953,10 @@
       <c r="H63" s="63"/>
       <c r="I63" s="63"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="190"/>
-      <c r="L63" s="191"/>
-      <c r="M63" s="191"/>
-      <c r="N63" s="192"/>
+      <c r="K63" s="193"/>
+      <c r="L63" s="194"/>
+      <c r="M63" s="194"/>
+      <c r="N63" s="195"/>
       <c r="O63" s="84"/>
       <c r="P63" s="84"/>
       <c r="Q63" s="76"/>
@@ -10978,10 +10978,10 @@
       <c r="H64" s="63"/>
       <c r="I64" s="63"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="190"/>
-      <c r="L64" s="191"/>
-      <c r="M64" s="191"/>
-      <c r="N64" s="192"/>
+      <c r="K64" s="193"/>
+      <c r="L64" s="194"/>
+      <c r="M64" s="194"/>
+      <c r="N64" s="195"/>
       <c r="O64" s="84"/>
       <c r="P64" s="84"/>
       <c r="Q64" s="76"/>
@@ -11003,10 +11003,10 @@
       <c r="H65" s="63"/>
       <c r="I65" s="63"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="190"/>
-      <c r="L65" s="191"/>
-      <c r="M65" s="191"/>
-      <c r="N65" s="192"/>
+      <c r="K65" s="193"/>
+      <c r="L65" s="194"/>
+      <c r="M65" s="194"/>
+      <c r="N65" s="195"/>
       <c r="O65" s="84"/>
       <c r="P65" s="84"/>
       <c r="Q65" s="76"/>
@@ -11026,10 +11026,10 @@
       <c r="H66" s="63"/>
       <c r="I66" s="63"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="190"/>
-      <c r="L66" s="191"/>
-      <c r="M66" s="191"/>
-      <c r="N66" s="192"/>
+      <c r="K66" s="193"/>
+      <c r="L66" s="194"/>
+      <c r="M66" s="194"/>
+      <c r="N66" s="195"/>
       <c r="O66" s="84"/>
       <c r="P66" s="84"/>
       <c r="Q66" s="76"/>
@@ -11049,10 +11049,10 @@
       <c r="H67" s="63"/>
       <c r="I67" s="63"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="190"/>
-      <c r="L67" s="191"/>
-      <c r="M67" s="191"/>
-      <c r="N67" s="192"/>
+      <c r="K67" s="193"/>
+      <c r="L67" s="194"/>
+      <c r="M67" s="194"/>
+      <c r="N67" s="195"/>
       <c r="O67" s="84"/>
       <c r="P67" s="84"/>
       <c r="Q67" s="76"/>
@@ -11072,10 +11072,10 @@
       <c r="H68" s="63"/>
       <c r="I68" s="63"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="190"/>
-      <c r="L68" s="191"/>
-      <c r="M68" s="191"/>
-      <c r="N68" s="192"/>
+      <c r="K68" s="193"/>
+      <c r="L68" s="194"/>
+      <c r="M68" s="194"/>
+      <c r="N68" s="195"/>
       <c r="O68" s="84"/>
       <c r="P68" s="84"/>
       <c r="Q68" s="76"/>
@@ -11095,10 +11095,10 @@
       <c r="H69" s="63"/>
       <c r="I69" s="63"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="190"/>
-      <c r="L69" s="191"/>
-      <c r="M69" s="191"/>
-      <c r="N69" s="192"/>
+      <c r="K69" s="193"/>
+      <c r="L69" s="194"/>
+      <c r="M69" s="194"/>
+      <c r="N69" s="195"/>
       <c r="O69" s="84"/>
       <c r="P69" s="84"/>
       <c r="Q69" s="76"/>
@@ -11118,10 +11118,10 @@
       <c r="H70" s="63"/>
       <c r="I70" s="63"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="190"/>
-      <c r="L70" s="191"/>
-      <c r="M70" s="191"/>
-      <c r="N70" s="192"/>
+      <c r="K70" s="193"/>
+      <c r="L70" s="194"/>
+      <c r="M70" s="194"/>
+      <c r="N70" s="195"/>
       <c r="O70" s="84"/>
       <c r="P70" s="84"/>
       <c r="Q70" s="76"/>
@@ -11141,10 +11141,10 @@
       <c r="H71" s="63"/>
       <c r="I71" s="63"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="190"/>
-      <c r="L71" s="191"/>
-      <c r="M71" s="191"/>
-      <c r="N71" s="192"/>
+      <c r="K71" s="193"/>
+      <c r="L71" s="194"/>
+      <c r="M71" s="194"/>
+      <c r="N71" s="195"/>
       <c r="O71" s="84"/>
       <c r="P71" s="84"/>
       <c r="Q71" s="76"/>
@@ -11164,10 +11164,10 @@
       <c r="H72" s="63"/>
       <c r="I72" s="63"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="190"/>
-      <c r="L72" s="191"/>
-      <c r="M72" s="191"/>
-      <c r="N72" s="192"/>
+      <c r="K72" s="193"/>
+      <c r="L72" s="194"/>
+      <c r="M72" s="194"/>
+      <c r="N72" s="195"/>
       <c r="O72" s="84"/>
       <c r="P72" s="84"/>
       <c r="Q72" s="76"/>
@@ -11187,10 +11187,10 @@
       <c r="H73" s="63"/>
       <c r="I73" s="63"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="190"/>
-      <c r="L73" s="191"/>
-      <c r="M73" s="191"/>
-      <c r="N73" s="192"/>
+      <c r="K73" s="193"/>
+      <c r="L73" s="194"/>
+      <c r="M73" s="194"/>
+      <c r="N73" s="195"/>
       <c r="O73" s="84"/>
       <c r="P73" s="84"/>
       <c r="Q73" s="76"/>
@@ -11210,10 +11210,10 @@
       <c r="H74" s="63"/>
       <c r="I74" s="63"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="190"/>
-      <c r="L74" s="191"/>
-      <c r="M74" s="191"/>
-      <c r="N74" s="192"/>
+      <c r="K74" s="193"/>
+      <c r="L74" s="194"/>
+      <c r="M74" s="194"/>
+      <c r="N74" s="195"/>
       <c r="O74" s="84"/>
       <c r="P74" s="84"/>
       <c r="Q74" s="76"/>
@@ -11233,10 +11233,10 @@
       <c r="H75" s="63"/>
       <c r="I75" s="63"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="190"/>
-      <c r="L75" s="191"/>
-      <c r="M75" s="191"/>
-      <c r="N75" s="192"/>
+      <c r="K75" s="193"/>
+      <c r="L75" s="194"/>
+      <c r="M75" s="194"/>
+      <c r="N75" s="195"/>
       <c r="O75" s="84"/>
       <c r="P75" s="84"/>
       <c r="Q75" s="76"/>
@@ -11256,10 +11256,10 @@
       <c r="H76" s="63"/>
       <c r="I76" s="63"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="190"/>
-      <c r="L76" s="191"/>
-      <c r="M76" s="191"/>
-      <c r="N76" s="192"/>
+      <c r="K76" s="193"/>
+      <c r="L76" s="194"/>
+      <c r="M76" s="194"/>
+      <c r="N76" s="195"/>
       <c r="O76" s="84"/>
       <c r="P76" s="84"/>
       <c r="Q76" s="76"/>
@@ -11279,10 +11279,10 @@
       <c r="H77" s="63"/>
       <c r="I77" s="63"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="190"/>
-      <c r="L77" s="191"/>
-      <c r="M77" s="191"/>
-      <c r="N77" s="192"/>
+      <c r="K77" s="193"/>
+      <c r="L77" s="194"/>
+      <c r="M77" s="194"/>
+      <c r="N77" s="195"/>
       <c r="O77" s="84"/>
       <c r="P77" s="84"/>
       <c r="Q77" s="76"/>
@@ -11302,10 +11302,10 @@
       <c r="H78" s="63"/>
       <c r="I78" s="63"/>
       <c r="J78" s="40"/>
-      <c r="K78" s="190"/>
-      <c r="L78" s="191"/>
-      <c r="M78" s="191"/>
-      <c r="N78" s="192"/>
+      <c r="K78" s="193"/>
+      <c r="L78" s="194"/>
+      <c r="M78" s="194"/>
+      <c r="N78" s="195"/>
       <c r="O78" s="84"/>
       <c r="P78" s="84"/>
       <c r="Q78" s="76"/>
@@ -11325,10 +11325,10 @@
       <c r="H79" s="63"/>
       <c r="I79" s="63"/>
       <c r="J79" s="40"/>
-      <c r="K79" s="190"/>
-      <c r="L79" s="191"/>
-      <c r="M79" s="191"/>
-      <c r="N79" s="192"/>
+      <c r="K79" s="193"/>
+      <c r="L79" s="194"/>
+      <c r="M79" s="194"/>
+      <c r="N79" s="195"/>
       <c r="O79" s="84"/>
       <c r="P79" s="84"/>
       <c r="Q79" s="76"/>
@@ -11348,10 +11348,10 @@
       <c r="H80" s="63"/>
       <c r="I80" s="63"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="190"/>
-      <c r="L80" s="191"/>
-      <c r="M80" s="191"/>
-      <c r="N80" s="192"/>
+      <c r="K80" s="193"/>
+      <c r="L80" s="194"/>
+      <c r="M80" s="194"/>
+      <c r="N80" s="195"/>
       <c r="O80" s="84"/>
       <c r="P80" s="84"/>
       <c r="Q80" s="76"/>
@@ -11371,10 +11371,10 @@
       <c r="H81" s="63"/>
       <c r="I81" s="63"/>
       <c r="J81" s="40"/>
-      <c r="K81" s="190"/>
-      <c r="L81" s="191"/>
-      <c r="M81" s="191"/>
-      <c r="N81" s="192"/>
+      <c r="K81" s="193"/>
+      <c r="L81" s="194"/>
+      <c r="M81" s="194"/>
+      <c r="N81" s="195"/>
       <c r="O81" s="84"/>
       <c r="P81" s="84"/>
       <c r="Q81" s="76"/>
@@ -11394,10 +11394,10 @@
       <c r="H82" s="63"/>
       <c r="I82" s="63"/>
       <c r="J82" s="40"/>
-      <c r="K82" s="190"/>
-      <c r="L82" s="191"/>
-      <c r="M82" s="191"/>
-      <c r="N82" s="192"/>
+      <c r="K82" s="193"/>
+      <c r="L82" s="194"/>
+      <c r="M82" s="194"/>
+      <c r="N82" s="195"/>
       <c r="O82" s="84"/>
       <c r="P82" s="84"/>
       <c r="Q82" s="76"/>
@@ -11417,10 +11417,10 @@
       <c r="H83" s="63"/>
       <c r="I83" s="63"/>
       <c r="J83" s="40"/>
-      <c r="K83" s="190"/>
-      <c r="L83" s="191"/>
-      <c r="M83" s="191"/>
-      <c r="N83" s="192"/>
+      <c r="K83" s="193"/>
+      <c r="L83" s="194"/>
+      <c r="M83" s="194"/>
+      <c r="N83" s="195"/>
       <c r="O83" s="84"/>
       <c r="P83" s="84"/>
       <c r="Q83" s="76"/>
@@ -11440,10 +11440,10 @@
       <c r="H84" s="63"/>
       <c r="I84" s="63"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="190"/>
-      <c r="L84" s="191"/>
-      <c r="M84" s="191"/>
-      <c r="N84" s="192"/>
+      <c r="K84" s="193"/>
+      <c r="L84" s="194"/>
+      <c r="M84" s="194"/>
+      <c r="N84" s="195"/>
       <c r="O84" s="84"/>
       <c r="P84" s="84"/>
       <c r="Q84" s="76"/>
@@ -11463,10 +11463,10 @@
       <c r="H85" s="63"/>
       <c r="I85" s="63"/>
       <c r="J85" s="40"/>
-      <c r="K85" s="190"/>
-      <c r="L85" s="191"/>
-      <c r="M85" s="191"/>
-      <c r="N85" s="192"/>
+      <c r="K85" s="193"/>
+      <c r="L85" s="194"/>
+      <c r="M85" s="194"/>
+      <c r="N85" s="195"/>
       <c r="O85" s="84"/>
       <c r="P85" s="84"/>
       <c r="Q85" s="76"/>
@@ -11486,10 +11486,10 @@
       <c r="H86" s="63"/>
       <c r="I86" s="63"/>
       <c r="J86" s="40"/>
-      <c r="K86" s="190"/>
-      <c r="L86" s="191"/>
-      <c r="M86" s="191"/>
-      <c r="N86" s="192"/>
+      <c r="K86" s="193"/>
+      <c r="L86" s="194"/>
+      <c r="M86" s="194"/>
+      <c r="N86" s="195"/>
       <c r="O86" s="84"/>
       <c r="P86" s="84"/>
       <c r="Q86" s="76"/>
@@ -11509,10 +11509,10 @@
       <c r="H87" s="63"/>
       <c r="I87" s="63"/>
       <c r="J87" s="40"/>
-      <c r="K87" s="190"/>
-      <c r="L87" s="191"/>
-      <c r="M87" s="191"/>
-      <c r="N87" s="192"/>
+      <c r="K87" s="193"/>
+      <c r="L87" s="194"/>
+      <c r="M87" s="194"/>
+      <c r="N87" s="195"/>
       <c r="O87" s="84"/>
       <c r="P87" s="84"/>
       <c r="Q87" s="76"/>
@@ -11532,10 +11532,10 @@
       <c r="H88" s="63"/>
       <c r="I88" s="63"/>
       <c r="J88" s="40"/>
-      <c r="K88" s="190"/>
-      <c r="L88" s="191"/>
-      <c r="M88" s="191"/>
-      <c r="N88" s="192"/>
+      <c r="K88" s="193"/>
+      <c r="L88" s="194"/>
+      <c r="M88" s="194"/>
+      <c r="N88" s="195"/>
       <c r="O88" s="84"/>
       <c r="P88" s="84"/>
       <c r="Q88" s="76"/>
@@ -11555,10 +11555,10 @@
       <c r="H89" s="63"/>
       <c r="I89" s="63"/>
       <c r="J89" s="40"/>
-      <c r="K89" s="190"/>
-      <c r="L89" s="191"/>
-      <c r="M89" s="191"/>
-      <c r="N89" s="192"/>
+      <c r="K89" s="193"/>
+      <c r="L89" s="194"/>
+      <c r="M89" s="194"/>
+      <c r="N89" s="195"/>
       <c r="O89" s="84"/>
       <c r="P89" s="84"/>
       <c r="Q89" s="76"/>
@@ -11578,10 +11578,10 @@
       <c r="H90" s="63"/>
       <c r="I90" s="63"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="190"/>
-      <c r="L90" s="191"/>
-      <c r="M90" s="191"/>
-      <c r="N90" s="192"/>
+      <c r="K90" s="193"/>
+      <c r="L90" s="194"/>
+      <c r="M90" s="194"/>
+      <c r="N90" s="195"/>
       <c r="O90" s="84"/>
       <c r="P90" s="84"/>
       <c r="Q90" s="76"/>
@@ -11601,10 +11601,10 @@
       <c r="H91" s="63"/>
       <c r="I91" s="63"/>
       <c r="J91" s="40"/>
-      <c r="K91" s="190"/>
-      <c r="L91" s="191"/>
-      <c r="M91" s="191"/>
-      <c r="N91" s="192"/>
+      <c r="K91" s="193"/>
+      <c r="L91" s="194"/>
+      <c r="M91" s="194"/>
+      <c r="N91" s="195"/>
       <c r="O91" s="84"/>
       <c r="P91" s="84"/>
       <c r="Q91" s="76"/>
@@ -11624,10 +11624,10 @@
       <c r="H92" s="63"/>
       <c r="I92" s="63"/>
       <c r="J92" s="40"/>
-      <c r="K92" s="190"/>
-      <c r="L92" s="191"/>
-      <c r="M92" s="191"/>
-      <c r="N92" s="192"/>
+      <c r="K92" s="193"/>
+      <c r="L92" s="194"/>
+      <c r="M92" s="194"/>
+      <c r="N92" s="195"/>
       <c r="O92" s="84"/>
       <c r="P92" s="84"/>
       <c r="Q92" s="76"/>
@@ -11647,10 +11647,10 @@
       <c r="H93" s="63"/>
       <c r="I93" s="63"/>
       <c r="J93" s="40"/>
-      <c r="K93" s="190"/>
-      <c r="L93" s="191"/>
-      <c r="M93" s="191"/>
-      <c r="N93" s="192"/>
+      <c r="K93" s="193"/>
+      <c r="L93" s="194"/>
+      <c r="M93" s="194"/>
+      <c r="N93" s="195"/>
       <c r="O93" s="84"/>
       <c r="P93" s="84"/>
       <c r="Q93" s="76"/>
@@ -11670,10 +11670,10 @@
       <c r="H94" s="63"/>
       <c r="I94" s="63"/>
       <c r="J94" s="40"/>
-      <c r="K94" s="190"/>
-      <c r="L94" s="191"/>
-      <c r="M94" s="191"/>
-      <c r="N94" s="192"/>
+      <c r="K94" s="193"/>
+      <c r="L94" s="194"/>
+      <c r="M94" s="194"/>
+      <c r="N94" s="195"/>
       <c r="O94" s="84"/>
       <c r="P94" s="84"/>
       <c r="Q94" s="76"/>
@@ -11693,10 +11693,10 @@
       <c r="H95" s="63"/>
       <c r="I95" s="63"/>
       <c r="J95" s="40"/>
-      <c r="K95" s="190"/>
-      <c r="L95" s="191"/>
-      <c r="M95" s="191"/>
-      <c r="N95" s="192"/>
+      <c r="K95" s="193"/>
+      <c r="L95" s="194"/>
+      <c r="M95" s="194"/>
+      <c r="N95" s="195"/>
       <c r="O95" s="84"/>
       <c r="P95" s="84"/>
       <c r="Q95" s="76"/>
@@ -11709,6 +11709,85 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="95">
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K95:N95"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="K15:N15"/>
     <mergeCell ref="K16:N16"/>
@@ -11725,85 +11804,6 @@
     <mergeCell ref="K11:N11"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K95:N95"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
-    <mergeCell ref="K93:N93"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048468:Q1048576 Q5:Q95"/>
@@ -11849,10 +11849,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="155"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -11883,8 +11883,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
+      <c r="A2" s="155"/>
+      <c r="B2" s="155"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13229,10 +13229,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="155"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13260,8 +13260,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
+      <c r="A2" s="155"/>
+      <c r="B2" s="155"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13672,14 +13672,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="197" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="16"/>
@@ -13872,11 +13872,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="195" t="s">
+      <c r="E27" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="196"/>
-      <c r="G27" s="197"/>
+      <c r="F27" s="199"/>
+      <c r="G27" s="200"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="19" t="s">
